--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="782">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2264,22 +2266,26 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">210
-213
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">211
+212
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">213
 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211
-212</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2298,9 +2304,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 door cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -2347,9 +2350,6 @@
   </si>
   <si>
     <t xml:space="preserve">each SKU hits facings target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -2620,7 +2620,7 @@
     <numFmt numFmtId="171" formatCode="#,##0"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2668,6 +2668,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2684,8 +2689,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2703,7 +2708,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2877,7 +2882,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2935,7 +2940,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2953,7 +2958,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2979,52 +2984,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN245"/>
+  <dimension ref="A1:AN65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F205" activeCellId="0" sqref="F205"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -20581,7 +20586,7 @@
     </row>
     <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>40</v>
@@ -20600,21 +20605,31 @@
         <v>684</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>85</v>
+        <v>591</v>
       </c>
       <c r="I216" s="6"/>
-      <c r="J216" s="6"/>
+      <c r="J216" s="6" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
-      <c r="M216" s="6"/>
-      <c r="N216" s="9"/>
+      <c r="M216" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="N216" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
-      <c r="Q216" s="9"/>
+      <c r="Q216" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="R216" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S216" s="6"/>
+      <c r="S216" s="12" t="s">
+        <v>687</v>
+      </c>
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
@@ -20622,20 +20637,22 @@
       <c r="X216" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="Y216" s="6"/>
+      <c r="Y216" s="6" t="s">
+        <v>688</v>
+      </c>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6"/>
       <c r="AB216" s="6"/>
       <c r="AC216" s="6"/>
       <c r="AD216" s="6"/>
       <c r="AE216" s="6" t="s">
-        <v>97</v>
+        <v>681</v>
       </c>
       <c r="AF216" s="8"/>
-      <c r="AG216" s="20"/>
+      <c r="AG216" s="6"/>
       <c r="AH216" s="6"/>
       <c r="AI216" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AJ216" s="6" t="s">
         <v>664</v>
@@ -20644,18 +20661,16 @@
         <v>3</v>
       </c>
       <c r="AL216" s="6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM216" s="26" t="s">
-        <v>686</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AM216" s="6"/>
       <c r="AN216" s="6" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>40</v>
@@ -20668,36 +20683,36 @@
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>591</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
       <c r="Q217" s="9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="R217" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
@@ -20707,7 +20722,7 @@
         <v>661</v>
       </c>
       <c r="Y217" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6"/>
@@ -20721,25 +20736,25 @@
       <c r="AG217" s="6"/>
       <c r="AH217" s="6"/>
       <c r="AI217" s="6" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="AJ217" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AK217" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL217" s="6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM217" s="6"/>
       <c r="AN217" s="6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>40</v>
@@ -20752,37 +20767,29 @@
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
-      <c r="M218" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="N218" s="9" t="s">
-        <v>690</v>
-      </c>
+      <c r="M218" s="6"/>
+      <c r="N218" s="9"/>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
-      <c r="Q218" s="9" t="s">
-        <v>690</v>
-      </c>
+      <c r="Q218" s="9"/>
       <c r="R218" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S218" s="12" t="s">
-        <v>691</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="S218" s="6"/>
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
@@ -20790,40 +20797,40 @@
       <c r="X218" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="Y218" s="6" t="s">
-        <v>696</v>
-      </c>
+      <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6"/>
       <c r="AB218" s="6"/>
       <c r="AC218" s="6"/>
       <c r="AD218" s="6"/>
       <c r="AE218" s="6" t="s">
-        <v>681</v>
+        <v>97</v>
       </c>
       <c r="AF218" s="8"/>
       <c r="AG218" s="6"/>
       <c r="AH218" s="6"/>
       <c r="AI218" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AJ218" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AK218" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL218" s="6" t="n">
-        <v>212</v>
-      </c>
-      <c r="AM218" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="AM218" s="11" t="s">
+        <v>694</v>
+      </c>
       <c r="AN218" s="6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>40</v>
@@ -20836,29 +20843,37 @@
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="6"/>
-      <c r="N219" s="9"/>
+      <c r="M219" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="N219" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
-      <c r="Q219" s="9"/>
+      <c r="Q219" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="R219" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="S219" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="S219" s="12" t="s">
+        <v>687</v>
+      </c>
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
@@ -20870,34 +20885,36 @@
       <c r="Z219" s="6"/>
       <c r="AA219" s="6"/>
       <c r="AB219" s="6"/>
-      <c r="AC219" s="6"/>
+      <c r="AC219" s="6" t="s">
+        <v>597</v>
+      </c>
       <c r="AD219" s="6"/>
       <c r="AE219" s="6" t="s">
-        <v>97</v>
+        <v>681</v>
       </c>
       <c r="AF219" s="8"/>
       <c r="AG219" s="6"/>
       <c r="AH219" s="6"/>
-      <c r="AI219" s="6"/>
+      <c r="AI219" s="6" t="s">
+        <v>675</v>
+      </c>
       <c r="AJ219" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AK219" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL219" s="6" t="n">
+        <v>214</v>
+      </c>
+      <c r="AM219" s="6"/>
+      <c r="AN219" s="6" t="n">
         <v>213</v>
-      </c>
-      <c r="AM219" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="AN219" s="6" t="n">
-        <v>209</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>40</v>
@@ -20910,10 +20927,10 @@
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>91</v>
@@ -20925,21 +20942,21 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
       <c r="Q220" s="9" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="R220" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
@@ -20963,7 +20980,7 @@
       <c r="AG220" s="6"/>
       <c r="AH220" s="6"/>
       <c r="AI220" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AJ220" s="6" t="s">
         <v>664</v>
@@ -20972,7 +20989,7 @@
         <v>4</v>
       </c>
       <c r="AL220" s="6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM220" s="6"/>
       <c r="AN220" s="6" t="n">
@@ -20981,7 +20998,7 @@
     </row>
     <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>40</v>
@@ -20994,36 +21011,34 @@
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="G221" s="6" t="s">
+      <c r="H221" s="25" t="s">
         <v>703</v>
-      </c>
-      <c r="H221" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6" t="s">
-        <v>704</v>
+        <v>469</v>
       </c>
       <c r="N221" s="9" t="s">
-        <v>705</v>
+        <v>548</v>
       </c>
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
-      <c r="Q221" s="9" t="s">
-        <v>705</v>
-      </c>
+      <c r="Q221" s="9"/>
       <c r="R221" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S221" s="12" t="s">
-        <v>691</v>
+        <v>549</v>
       </c>
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
@@ -21036,36 +21051,34 @@
       <c r="Z221" s="6"/>
       <c r="AA221" s="6"/>
       <c r="AB221" s="6"/>
-      <c r="AC221" s="6" t="s">
-        <v>597</v>
-      </c>
+      <c r="AC221" s="6"/>
       <c r="AD221" s="6"/>
       <c r="AE221" s="6" t="s">
-        <v>681</v>
+        <v>97</v>
       </c>
       <c r="AF221" s="8"/>
       <c r="AG221" s="6"/>
       <c r="AH221" s="6"/>
       <c r="AI221" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AJ221" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AK221" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL221" s="6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM221" s="6"/>
       <c r="AN221" s="6" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>40</v>
@@ -21076,42 +21089,38 @@
       <c r="D222" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6" t="s">
+      <c r="E222" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="H222" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="G222" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="H222" s="25" t="s">
-        <v>708</v>
-      </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J222" s="6"/>
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
-      <c r="M222" s="6" t="s">
-        <v>469</v>
-      </c>
+      <c r="M222" s="6"/>
       <c r="N222" s="9" t="s">
         <v>548</v>
       </c>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
       <c r="Q222" s="9"/>
-      <c r="R222" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S222" s="12" t="s">
+      <c r="R222" s="6"/>
+      <c r="S222" s="6" t="s">
         <v>549</v>
       </c>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
-      <c r="X222" s="6" t="s">
+      <c r="X222" s="27" t="s">
         <v>661</v>
       </c>
       <c r="Y222" s="6"/>
@@ -21119,33 +21128,37 @@
       <c r="AA222" s="6"/>
       <c r="AB222" s="6"/>
       <c r="AC222" s="6"/>
-      <c r="AD222" s="6"/>
+      <c r="AD222" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="AE222" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF222" s="8"/>
+        <v>593</v>
+      </c>
+      <c r="AF222" s="8" t="n">
+        <v>0.01625</v>
+      </c>
       <c r="AG222" s="6"/>
       <c r="AH222" s="6"/>
       <c r="AI222" s="6" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="AJ222" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AK222" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL222" s="6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM222" s="6"/>
-      <c r="AN222" s="6" t="n">
-        <v>209</v>
+      <c r="AN222" s="24" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>40</v>
@@ -21154,41 +21167,41 @@
         <v>41</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E223" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E223" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="F223" s="12" t="s">
-        <v>710</v>
+      <c r="F223" s="6" t="s">
+        <v>707</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
+      <c r="J223" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
-      <c r="N223" s="9" t="s">
-        <v>548</v>
-      </c>
+      <c r="N223" s="9"/>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
-      <c r="R223" s="6"/>
-      <c r="S223" s="6" t="s">
-        <v>549</v>
-      </c>
+      <c r="R223" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S223" s="6"/>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
       <c r="X223" s="27" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -21202,30 +21215,28 @@
         <v>593</v>
       </c>
       <c r="AF223" s="8" t="n">
-        <v>0.01625</v>
+        <v>0.03</v>
       </c>
       <c r="AG223" s="6"/>
       <c r="AH223" s="6"/>
-      <c r="AI223" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="AJ223" s="6" t="s">
-        <v>664</v>
-      </c>
+      <c r="AI223" s="6"/>
+      <c r="AJ223" s="6"/>
       <c r="AK223" s="6" t="n">
         <v>2</v>
       </c>
       <c r="AL223" s="6" t="n">
-        <v>217</v>
-      </c>
-      <c r="AM223" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="AM223" s="14" t="s">
+        <v>709</v>
+      </c>
       <c r="AN223" s="24" t="n">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>40</v>
@@ -21240,35 +21251,43 @@
         <v>486</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K224" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K224" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="L224" s="6"/>
-      <c r="M224" s="6"/>
-      <c r="N224" s="9"/>
+      <c r="M224" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N224" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="O224" s="9"/>
       <c r="P224" s="9"/>
       <c r="Q224" s="9"/>
       <c r="R224" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S224" s="6"/>
+      <c r="S224" s="6" t="s">
+        <v>549</v>
+      </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
       <c r="W224" s="6"/>
       <c r="X224" s="27" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -21279,31 +21298,29 @@
         <v>86</v>
       </c>
       <c r="AE224" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF224" s="8" t="n">
-        <v>0.03</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="AF224" s="8"/>
       <c r="AG224" s="6"/>
       <c r="AH224" s="6"/>
-      <c r="AI224" s="6"/>
+      <c r="AI224" s="6" t="s">
+        <v>714</v>
+      </c>
       <c r="AJ224" s="6"/>
       <c r="AK224" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL224" s="6" t="n">
+        <v>219</v>
+      </c>
+      <c r="AM224" s="6"/>
+      <c r="AN224" s="6" t="n">
         <v>218</v>
-      </c>
-      <c r="AM224" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="AN224" s="24" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>40</v>
@@ -21314,80 +21331,64 @@
       <c r="D225" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E225" s="28" t="s">
-        <v>486</v>
-      </c>
+      <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="G225" s="6" t="s">
-        <v>717</v>
-      </c>
       <c r="H225" s="6" t="s">
-        <v>718</v>
+        <v>85</v>
       </c>
       <c r="I225" s="6"/>
-      <c r="J225" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K225" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
       <c r="L225" s="6"/>
-      <c r="M225" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="N225" s="9" t="s">
-        <v>548</v>
-      </c>
+      <c r="M225" s="6"/>
+      <c r="N225" s="9"/>
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
-      <c r="Q225" s="9"/>
-      <c r="R225" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S225" s="6" t="s">
-        <v>549</v>
-      </c>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
-      <c r="X225" s="27" t="s">
-        <v>713</v>
-      </c>
+      <c r="X225" s="6"/>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
-      <c r="AA225" s="6"/>
+      <c r="AA225" s="14"/>
       <c r="AB225" s="6"/>
       <c r="AC225" s="6"/>
       <c r="AD225" s="6" t="s">
         <v>86</v>
       </c>
       <c r="AE225" s="6" t="s">
-        <v>719</v>
+        <v>87</v>
       </c>
       <c r="AF225" s="8"/>
       <c r="AG225" s="6"/>
       <c r="AH225" s="6"/>
-      <c r="AI225" s="6" t="s">
-        <v>720</v>
-      </c>
+      <c r="AI225" s="6"/>
       <c r="AJ225" s="6"/>
       <c r="AK225" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL225" s="6" t="n">
-        <v>219</v>
-      </c>
-      <c r="AM225" s="6"/>
-      <c r="AN225" s="6" t="n">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="AM225" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="AN225" s="9" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>40</v>
@@ -21398,33 +21399,45 @@
       <c r="D226" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E226" s="6"/>
+      <c r="E226" s="6" t="s">
+        <v>718</v>
+      </c>
       <c r="F226" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="H226" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="G226" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="H226" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="I226" s="6"/>
-      <c r="J226" s="6"/>
+      <c r="J226" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
-      <c r="N226" s="9"/>
+      <c r="N226" s="6" t="s">
+        <v>722</v>
+      </c>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
       <c r="Q226" s="6"/>
-      <c r="R226" s="6"/>
-      <c r="S226" s="6"/>
+      <c r="R226" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S226" s="6" t="s">
+        <v>673</v>
+      </c>
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
       <c r="W226" s="6"/>
       <c r="X226" s="6"/>
-      <c r="Y226" s="6"/>
+      <c r="Y226" s="6" t="s">
+        <v>722</v>
+      </c>
       <c r="Z226" s="6"/>
       <c r="AA226" s="14"/>
       <c r="AB226" s="6"/>
@@ -21433,29 +21446,29 @@
         <v>86</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF226" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="AF226" s="8" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AG226" s="6"/>
       <c r="AH226" s="6"/>
       <c r="AI226" s="6"/>
       <c r="AJ226" s="6"/>
       <c r="AK226" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL226" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="AM226" s="6"/>
+      <c r="AN226" s="6" t="n">
         <v>220</v>
-      </c>
-      <c r="AM226" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="AN226" s="9" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>40</v>
@@ -21467,16 +21480,16 @@
         <v>481</v>
       </c>
       <c r="E227" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="G227" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="F227" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>726</v>
-      </c>
       <c r="H227" s="6" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="n">
@@ -21486,7 +21499,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
@@ -21503,7 +21516,7 @@
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
       <c r="Y227" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="14"/>
@@ -21526,7 +21539,7 @@
         <v>3</v>
       </c>
       <c r="AL227" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM227" s="6"/>
       <c r="AN227" s="6" t="n">
@@ -21535,7 +21548,7 @@
     </row>
     <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>40</v>
@@ -21547,16 +21560,16 @@
         <v>481</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21565,8 +21578,8 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
-      <c r="N228" s="6" t="s">
-        <v>731</v>
+      <c r="N228" s="9" t="s">
+        <v>728</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
@@ -21582,8 +21595,8 @@
       <c r="V228" s="6"/>
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
-      <c r="Y228" s="6" t="s">
-        <v>731</v>
+      <c r="Y228" s="9" t="s">
+        <v>728</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="14"/>
@@ -21606,7 +21619,7 @@
         <v>3</v>
       </c>
       <c r="AL228" s="6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM228" s="6"/>
       <c r="AN228" s="6" t="n">
@@ -21615,7 +21628,7 @@
     </row>
     <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>40</v>
@@ -21624,78 +21637,64 @@
         <v>41</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="F229" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E229" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="G229" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="G229" s="12" t="s">
+      <c r="H229" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="H229" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="I229" s="6"/>
-      <c r="J229" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
-      <c r="N229" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="O229" s="9"/>
-      <c r="P229" s="9"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
-      <c r="R229" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="R229" s="6"/>
       <c r="S229" s="6" t="s">
-        <v>673</v>
+        <v>735</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
       <c r="W229" s="6"/>
       <c r="X229" s="6"/>
-      <c r="Y229" s="9" t="s">
-        <v>734</v>
-      </c>
+      <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
-      <c r="AA229" s="14"/>
+      <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
       <c r="AC229" s="6"/>
-      <c r="AD229" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE229" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF229" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AD229" s="6"/>
+      <c r="AE229" s="6"/>
+      <c r="AF229" s="8"/>
       <c r="AG229" s="6"/>
       <c r="AH229" s="6"/>
       <c r="AI229" s="6"/>
       <c r="AJ229" s="6"/>
-      <c r="AK229" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AK229" s="6"/>
       <c r="AL229" s="6" t="n">
-        <v>223</v>
-      </c>
-      <c r="AM229" s="6"/>
-      <c r="AN229" s="6" t="n">
-        <v>220</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AM229" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="AN229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>40</v>
@@ -21704,22 +21703,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E230" s="28" t="s">
-        <v>736</v>
-      </c>
-      <c r="F230" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="G230" s="28" t="s">
+      <c r="F230" s="6" t="s">
         <v>738</v>
       </c>
+      <c r="G230" s="16" t="s">
+        <v>739</v>
+      </c>
       <c r="H230" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
@@ -21731,7 +21730,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21752,16 +21751,16 @@
       <c r="AJ230" s="6"/>
       <c r="AK230" s="6"/>
       <c r="AL230" s="6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM230" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AN230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>40</v>
@@ -21770,34 +21769,36 @@
         <v>41</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E231" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E231" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="F231" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="G231" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="H231" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="I231" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="H231" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="I231" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
-      <c r="N231" s="6"/>
+      <c r="N231" s="29" t="s">
+        <v>745</v>
+      </c>
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21818,16 +21819,16 @@
       <c r="AJ231" s="6"/>
       <c r="AK231" s="6"/>
       <c r="AL231" s="6" t="n">
-        <v>219</v>
-      </c>
-      <c r="AM231" s="11" t="s">
-        <v>746</v>
+        <v>220</v>
+      </c>
+      <c r="AM231" s="6" t="n">
+        <v>221</v>
       </c>
       <c r="AN231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>40</v>
@@ -21836,36 +21837,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E232" s="28" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F232" s="28" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G232" s="28" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
       <c r="N232" s="29" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
@@ -21886,16 +21887,16 @@
       <c r="AJ232" s="6"/>
       <c r="AK232" s="6"/>
       <c r="AL232" s="6" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM232" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>40</v>
@@ -21904,7 +21905,7 @@
         <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E233" s="28" t="s">
         <v>747</v>
@@ -21913,27 +21914,25 @@
         <v>748</v>
       </c>
       <c r="G233" s="28" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
-      <c r="N233" s="29" t="s">
-        <v>752</v>
-      </c>
+      <c r="N233" s="6"/>
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
@@ -21954,16 +21953,16 @@
       <c r="AJ233" s="6"/>
       <c r="AK233" s="6"/>
       <c r="AL233" s="6" t="n">
-        <v>221</v>
-      </c>
-      <c r="AM233" s="6" t="n">
         <v>222</v>
+      </c>
+      <c r="AM233" s="11" t="s">
+        <v>752</v>
       </c>
       <c r="AN233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>40</v>
@@ -21972,7 +21971,7 @@
         <v>41</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E234" s="28" t="s">
         <v>753</v>
@@ -21987,7 +21986,7 @@
         <v>756</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
@@ -21999,7 +21998,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -22020,16 +22019,16 @@
       <c r="AJ234" s="6"/>
       <c r="AK234" s="6"/>
       <c r="AL234" s="6" t="n">
-        <v>222</v>
-      </c>
-      <c r="AM234" s="11" t="s">
-        <v>758</v>
+        <v>223</v>
+      </c>
+      <c r="AM234" s="6" t="n">
+        <v>218</v>
       </c>
       <c r="AN234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>40</v>
@@ -22038,34 +22037,36 @@
         <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E235" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="F235" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="G235" s="28" t="s">
         <v>759</v>
       </c>
-      <c r="F235" s="28" t="s">
+      <c r="H235" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="G235" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>762</v>
-      </c>
       <c r="I235" s="6" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
-      <c r="N235" s="6"/>
+      <c r="N235" s="6" t="s">
+        <v>761</v>
+      </c>
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
@@ -22086,16 +22087,14 @@
       <c r="AJ235" s="6"/>
       <c r="AK235" s="6"/>
       <c r="AL235" s="6" t="n">
-        <v>223</v>
-      </c>
-      <c r="AM235" s="6" t="n">
-        <v>218</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="AM235" s="6"/>
       <c r="AN235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>40</v>
@@ -22104,7 +22103,7 @@
         <v>41</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E236" s="28" t="s">
         <v>763</v>
@@ -22119,21 +22118,21 @@
         <v>766</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="6" t="s">
-        <v>767</v>
+        <v>86</v>
       </c>
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -22154,14 +22153,14 @@
       <c r="AJ236" s="6"/>
       <c r="AK236" s="6"/>
       <c r="AL236" s="6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM236" s="6"/>
       <c r="AN236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>40</v>
@@ -22170,36 +22169,36 @@
         <v>41</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E237" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="G237" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="F237" s="28" t="s">
-        <v>770</v>
-      </c>
-      <c r="G237" s="28" t="s">
-        <v>771</v>
-      </c>
       <c r="H237" s="6" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>86</v>
+        <v>770</v>
       </c>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -22220,14 +22219,14 @@
       <c r="AJ237" s="6"/>
       <c r="AK237" s="6"/>
       <c r="AL237" s="6" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM237" s="6"/>
       <c r="AN237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>40</v>
@@ -22236,36 +22235,38 @@
         <v>41</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E238" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="F238" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="G238" s="28" t="s">
         <v>773</v>
       </c>
-      <c r="F238" s="28" t="s">
-        <v>774</v>
-      </c>
-      <c r="G238" s="28" t="s">
-        <v>775</v>
-      </c>
       <c r="H238" s="6" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
-      <c r="M238" s="6"/>
-      <c r="N238" s="6" t="s">
-        <v>776</v>
+      <c r="M238" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="N238" s="11" t="s">
+        <v>775</v>
       </c>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -22286,14 +22287,16 @@
       <c r="AJ238" s="6"/>
       <c r="AK238" s="6"/>
       <c r="AL238" s="6" t="n">
-        <v>226</v>
-      </c>
-      <c r="AM238" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="AM238" s="6" t="n">
+        <v>131</v>
+      </c>
       <c r="AN238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>40</v>
@@ -22302,38 +22305,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E239" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F239" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G239" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="12" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N239" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -22354,16 +22357,16 @@
       <c r="AJ239" s="6"/>
       <c r="AK239" s="6"/>
       <c r="AL239" s="6" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM239" s="6" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AN239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>40</v>
@@ -22372,38 +22375,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E240" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F240" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G240" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="12" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N240" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22424,16 +22427,16 @@
       <c r="AJ240" s="6"/>
       <c r="AK240" s="6"/>
       <c r="AL240" s="6" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM240" s="6" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AN240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>40</v>
@@ -22442,38 +22445,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E241" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G241" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="N241" s="11" t="s">
-        <v>781</v>
+        <v>774</v>
+      </c>
+      <c r="N241" s="30" t="s">
+        <v>776</v>
       </c>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22494,16 +22497,14 @@
       <c r="AJ241" s="6"/>
       <c r="AK241" s="6"/>
       <c r="AL241" s="6" t="n">
-        <v>229</v>
-      </c>
-      <c r="AM241" s="6" t="n">
-        <v>151</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AM241" s="6"/>
       <c r="AN241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>40</v>
@@ -22512,38 +22513,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E242" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F242" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G242" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="12" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N242" s="30" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22564,14 +22565,16 @@
       <c r="AJ242" s="6"/>
       <c r="AK242" s="6"/>
       <c r="AL242" s="6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM242" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="AM242" s="11" t="s">
+        <v>778</v>
+      </c>
       <c r="AN242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>40</v>
@@ -22580,38 +22583,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E243" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="N243" s="30" t="s">
-        <v>783</v>
+        <v>774</v>
+      </c>
+      <c r="N243" s="11" t="s">
+        <v>779</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22632,16 +22635,16 @@
       <c r="AJ243" s="6"/>
       <c r="AK243" s="6"/>
       <c r="AL243" s="6" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM243" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="AN243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>40</v>
@@ -22650,38 +22653,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E244" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G244" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="12" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N244" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22702,83 +22705,14 @@
       <c r="AJ244" s="6"/>
       <c r="AK244" s="6"/>
       <c r="AL244" s="6" t="n">
-        <v>232</v>
-      </c>
-      <c r="AM244" s="11" t="s">
-        <v>786</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AM244" s="6"/>
       <c r="AN244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="n">
-        <v>232</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E245" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="F245" s="28" t="s">
-        <v>778</v>
-      </c>
-      <c r="G245" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="H245" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="I245" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-      <c r="M245" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="N245" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="O245" s="6"/>
-      <c r="P245" s="6"/>
-      <c r="Q245" s="6"/>
-      <c r="R245" s="6"/>
-      <c r="S245" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="T245" s="6"/>
-      <c r="U245" s="6"/>
-      <c r="V245" s="6"/>
-      <c r="W245" s="6"/>
-      <c r="X245" s="6"/>
-      <c r="Y245" s="6"/>
-      <c r="Z245" s="6"/>
-      <c r="AA245" s="6"/>
-      <c r="AB245" s="6"/>
-      <c r="AC245" s="6"/>
-      <c r="AD245" s="6"/>
-      <c r="AE245" s="6"/>
-      <c r="AF245" s="8"/>
-      <c r="AG245" s="6"/>
-      <c r="AH245" s="6"/>
-      <c r="AI245" s="6"/>
-      <c r="AJ245" s="6"/>
-      <c r="AK245" s="6"/>
-      <c r="AL245" s="6" t="n">
-        <v>233</v>
-      </c>
-      <c r="AM245" s="6"/>
-      <c r="AN245" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AN245"/>
+  <autoFilter ref="A1:AN244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -12,15 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="781">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2242,7 +2233,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts, 1/3 of the Store, Food and beverage prep area, Bakery</t>
+    <t xml:space="preserve">Regular checkouts, 1/3 of the Store, Food and beverage prep area, Bakery, Entrance of SSD section</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -2264,28 +2255,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">211
-212
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">213
-216</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2337,10 +2306,10 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
+    <t xml:space="preserve">Barnd: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
@@ -2620,7 +2589,7 @@
     <numFmt numFmtId="171" formatCode="#,##0"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2668,11 +2637,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2707,14 +2671,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2777,13 +2741,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2874,16 +2838,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2984,59 +2956,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN65536"/>
+  <dimension ref="A1:AN244"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.1983805668016"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>233</v>
       </c>
@@ -3220,7 +3193,7 @@
       </c>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>234</v>
       </c>
@@ -3282,7 +3255,7 @@
       </c>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>235</v>
       </c>
@@ -3346,7 +3319,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>236</v>
       </c>
@@ -3410,7 +3383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>237</v>
       </c>
@@ -3472,7 +3445,7 @@
       </c>
       <c r="AN6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>238</v>
       </c>
@@ -3536,7 +3509,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>239</v>
       </c>
@@ -3600,7 +3573,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>240</v>
       </c>
@@ -3662,7 +3635,7 @@
       </c>
       <c r="AN9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>241</v>
       </c>
@@ -3726,7 +3699,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>242</v>
       </c>
@@ -3790,7 +3763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>243</v>
       </c>
@@ -3854,7 +3827,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>244</v>
       </c>
@@ -3918,7 +3891,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>245</v>
       </c>
@@ -3982,7 +3955,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>246</v>
       </c>
@@ -4046,7 +4019,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>247</v>
       </c>
@@ -4108,7 +4081,7 @@
       </c>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1</v>
       </c>
@@ -4178,7 +4151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>2</v>
       </c>
@@ -4262,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
@@ -4346,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
@@ -4430,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
@@ -4514,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>5</v>
       </c>
@@ -4598,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>6</v>
       </c>
@@ -4682,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>7</v>
       </c>
@@ -4766,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>8</v>
       </c>
@@ -4850,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>9</v>
       </c>
@@ -4934,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>10</v>
       </c>
@@ -5018,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
@@ -5102,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>12</v>
       </c>
@@ -5186,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>13</v>
       </c>
@@ -5270,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>14</v>
       </c>
@@ -5354,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5438,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>16</v>
       </c>
@@ -5522,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>17</v>
       </c>
@@ -5606,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>18</v>
       </c>
@@ -5690,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>19</v>
       </c>
@@ -5774,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>20</v>
       </c>
@@ -5858,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>21</v>
       </c>
@@ -5942,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>22</v>
       </c>
@@ -6026,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>23</v>
       </c>
@@ -6110,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>24</v>
       </c>
@@ -6194,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>25</v>
       </c>
@@ -6278,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>26</v>
       </c>
@@ -6362,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>27</v>
       </c>
@@ -6446,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>28</v>
       </c>
@@ -6530,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>29</v>
       </c>
@@ -6614,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>30</v>
       </c>
@@ -6698,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>31</v>
       </c>
@@ -6782,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>32</v>
       </c>
@@ -6866,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>33</v>
       </c>
@@ -6950,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>34</v>
       </c>
@@ -7034,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>35</v>
       </c>
@@ -7118,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>36</v>
       </c>
@@ -7202,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>37</v>
       </c>
@@ -7286,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>38</v>
       </c>
@@ -7370,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>39</v>
       </c>
@@ -7454,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>40</v>
       </c>
@@ -7524,7 +7497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>41</v>
       </c>
@@ -7608,7 +7581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42</v>
       </c>
@@ -7692,7 +7665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>43</v>
       </c>
@@ -7776,7 +7749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44</v>
       </c>
@@ -7860,7 +7833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45</v>
       </c>
@@ -7944,7 +7917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>46</v>
       </c>
@@ -8028,7 +8001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>47</v>
       </c>
@@ -8112,7 +8085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>48</v>
       </c>
@@ -8196,7 +8169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>49</v>
       </c>
@@ -8280,7 +8253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>50</v>
       </c>
@@ -8350,7 +8323,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>51</v>
       </c>
@@ -8434,7 +8407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>52</v>
       </c>
@@ -8518,7 +8491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>53</v>
       </c>
@@ -8602,7 +8575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
@@ -8686,7 +8659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>55</v>
       </c>
@@ -8770,7 +8743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>56</v>
       </c>
@@ -8854,7 +8827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>57</v>
       </c>
@@ -8938,7 +8911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
@@ -9008,7 +8981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>59</v>
       </c>
@@ -9092,7 +9065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>60</v>
       </c>
@@ -9176,7 +9149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>61</v>
       </c>
@@ -9260,7 +9233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>62</v>
       </c>
@@ -9344,7 +9317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>63</v>
       </c>
@@ -9428,7 +9401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>64</v>
       </c>
@@ -9512,7 +9485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>65</v>
       </c>
@@ -9596,7 +9569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>66</v>
       </c>
@@ -9680,7 +9653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>67</v>
       </c>
@@ -9764,7 +9737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>68</v>
       </c>
@@ -9848,7 +9821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>69</v>
       </c>
@@ -9918,7 +9891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>70</v>
       </c>
@@ -10002,7 +9975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>71</v>
       </c>
@@ -10086,7 +10059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>72</v>
       </c>
@@ -10170,7 +10143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>73</v>
       </c>
@@ -10254,7 +10227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>74</v>
       </c>
@@ -10338,7 +10311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>75</v>
       </c>
@@ -10422,7 +10395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>76</v>
       </c>
@@ -10506,7 +10479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>77</v>
       </c>
@@ -10590,7 +10563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>78</v>
       </c>
@@ -10674,7 +10647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>79</v>
       </c>
@@ -10758,7 +10731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>80</v>
       </c>
@@ -10842,7 +10815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>81</v>
       </c>
@@ -10926,7 +10899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>82</v>
       </c>
@@ -11010,7 +10983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>83</v>
       </c>
@@ -11094,7 +11067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>84</v>
       </c>
@@ -11178,7 +11151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>85</v>
       </c>
@@ -11262,7 +11235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>86</v>
       </c>
@@ -11346,7 +11319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>87</v>
       </c>
@@ -11430,7 +11403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>88</v>
       </c>
@@ -11514,7 +11487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>89</v>
       </c>
@@ -11598,7 +11571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>90</v>
       </c>
@@ -11682,7 +11655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>91</v>
       </c>
@@ -11766,7 +11739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>92</v>
       </c>
@@ -11850,7 +11823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>93</v>
       </c>
@@ -11934,7 +11907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>94</v>
       </c>
@@ -12018,7 +11991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>95</v>
       </c>
@@ -12102,7 +12075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>96</v>
       </c>
@@ -12186,7 +12159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>97</v>
       </c>
@@ -12270,7 +12243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>98</v>
       </c>
@@ -12354,7 +12327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>99</v>
       </c>
@@ -12438,7 +12411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>100</v>
       </c>
@@ -12522,7 +12495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>101</v>
       </c>
@@ -12606,7 +12579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>102</v>
       </c>
@@ -12690,7 +12663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>103</v>
       </c>
@@ -12774,7 +12747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>104</v>
       </c>
@@ -12858,7 +12831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>105</v>
       </c>
@@ -12942,7 +12915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>106</v>
       </c>
@@ -13026,7 +12999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>107</v>
       </c>
@@ -13110,7 +13083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>108</v>
       </c>
@@ -13194,7 +13167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>109</v>
       </c>
@@ -13278,7 +13251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>110</v>
       </c>
@@ -13362,7 +13335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>111</v>
       </c>
@@ -13446,7 +13419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>112</v>
       </c>
@@ -13530,7 +13503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>113</v>
       </c>
@@ -13614,7 +13587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>114</v>
       </c>
@@ -13698,7 +13671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>115</v>
       </c>
@@ -13782,7 +13755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>116</v>
       </c>
@@ -13866,7 +13839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>117</v>
       </c>
@@ -13950,7 +13923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>118</v>
       </c>
@@ -14034,7 +14007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>119</v>
       </c>
@@ -14118,7 +14091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>120</v>
       </c>
@@ -14202,7 +14175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>121</v>
       </c>
@@ -14286,7 +14259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>122</v>
       </c>
@@ -14370,7 +14343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>123</v>
       </c>
@@ -14454,7 +14427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>124</v>
       </c>
@@ -14538,7 +14511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>125</v>
       </c>
@@ -14622,7 +14595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>126</v>
       </c>
@@ -14706,7 +14679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>127</v>
       </c>
@@ -14790,7 +14763,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>131</v>
       </c>
@@ -14870,7 +14843,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>132</v>
       </c>
@@ -14954,7 +14927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>133</v>
       </c>
@@ -15034,7 +15007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>134</v>
       </c>
@@ -15118,7 +15091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>135</v>
       </c>
@@ -15200,7 +15173,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>136</v>
       </c>
@@ -15282,7 +15255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>137</v>
       </c>
@@ -15364,7 +15337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>138</v>
       </c>
@@ -15446,7 +15419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>139</v>
       </c>
@@ -15528,7 +15501,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>140</v>
       </c>
@@ -15608,7 +15581,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>141</v>
       </c>
@@ -15692,7 +15665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>142</v>
       </c>
@@ -15772,7 +15745,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>143</v>
       </c>
@@ -15850,7 +15823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>144</v>
       </c>
@@ -15932,7 +15905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>145</v>
       </c>
@@ -16014,7 +15987,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>146</v>
       </c>
@@ -16098,7 +16071,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>147</v>
       </c>
@@ -16180,7 +16153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>148</v>
       </c>
@@ -16262,7 +16235,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>149</v>
       </c>
@@ -16344,7 +16317,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>150</v>
       </c>
@@ -16426,7 +16399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>151</v>
       </c>
@@ -16506,7 +16479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>152</v>
       </c>
@@ -16590,7 +16563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>153</v>
       </c>
@@ -16670,7 +16643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>154</v>
       </c>
@@ -16754,7 +16727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>155</v>
       </c>
@@ -16832,7 +16805,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>156</v>
       </c>
@@ -16916,7 +16889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>157</v>
       </c>
@@ -16994,7 +16967,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>158</v>
       </c>
@@ -17070,7 +17043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>159</v>
       </c>
@@ -17150,7 +17123,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>160</v>
       </c>
@@ -17230,7 +17203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>161</v>
       </c>
@@ -17310,7 +17283,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>162</v>
       </c>
@@ -17390,7 +17363,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>163</v>
       </c>
@@ -17474,7 +17447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>164</v>
       </c>
@@ -17554,7 +17527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>165</v>
       </c>
@@ -17632,7 +17605,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>166</v>
       </c>
@@ -17716,7 +17689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>167</v>
       </c>
@@ -17796,7 +17769,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>168</v>
       </c>
@@ -17880,7 +17853,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>169</v>
       </c>
@@ -17960,7 +17933,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>170</v>
       </c>
@@ -18044,7 +18017,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>179</v>
       </c>
@@ -18128,7 +18101,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>180</v>
       </c>
@@ -18208,7 +18181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>181</v>
       </c>
@@ -18290,7 +18263,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>182</v>
       </c>
@@ -18372,7 +18345,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>183</v>
       </c>
@@ -18454,7 +18427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="n">
         <v>184</v>
       </c>
@@ -18536,7 +18509,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="n">
         <v>185</v>
       </c>
@@ -18618,7 +18591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="n">
         <v>186</v>
       </c>
@@ -18700,7 +18673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>187</v>
       </c>
@@ -18782,7 +18755,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>188</v>
       </c>
@@ -18864,7 +18837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>189</v>
       </c>
@@ -18948,7 +18921,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="n">
         <v>190</v>
       </c>
@@ -19028,7 +19001,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="n">
         <v>191</v>
       </c>
@@ -19110,7 +19083,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="n">
         <v>192</v>
       </c>
@@ -19192,7 +19165,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="n">
         <v>193</v>
       </c>
@@ -19274,7 +19247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="n">
         <v>194</v>
       </c>
@@ -19356,7 +19329,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="n">
         <v>195</v>
       </c>
@@ -19438,7 +19411,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="n">
         <v>196</v>
       </c>
@@ -19522,7 +19495,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="n">
         <v>197</v>
       </c>
@@ -19602,7 +19575,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="n">
         <v>198</v>
       </c>
@@ -19684,7 +19657,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="n">
         <v>199</v>
       </c>
@@ -19768,7 +19741,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="n">
         <v>200</v>
       </c>
@@ -19848,7 +19821,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="n">
         <v>201</v>
       </c>
@@ -19930,7 +19903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="n">
         <v>202</v>
       </c>
@@ -20012,7 +19985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="n">
         <v>203</v>
       </c>
@@ -20094,7 +20067,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="n">
         <v>204</v>
       </c>
@@ -20172,7 +20145,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="n">
         <v>205</v>
       </c>
@@ -20252,7 +20225,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="n">
         <v>206</v>
       </c>
@@ -20330,7 +20303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="n">
         <v>207</v>
       </c>
@@ -20372,7 +20345,7 @@
       </c>
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
-      <c r="V213" s="6" t="s">
+      <c r="V213" s="24" t="s">
         <v>674</v>
       </c>
       <c r="W213" s="6"/>
@@ -20408,11 +20381,11 @@
         <v>207</v>
       </c>
       <c r="AM213" s="6"/>
-      <c r="AN213" s="24" t="n">
+      <c r="AN213" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="n">
         <v>208</v>
       </c>
@@ -20434,7 +20407,7 @@
       <c r="G214" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H214" s="25" t="s">
+      <c r="H214" s="26" t="s">
         <v>678</v>
       </c>
       <c r="I214" s="6"/>
@@ -20496,11 +20469,11 @@
         <v>208</v>
       </c>
       <c r="AM214" s="6"/>
-      <c r="AN214" s="24" t="n">
+      <c r="AN214" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="n">
         <v>209</v>
       </c>
@@ -20577,14 +20550,12 @@
       <c r="AL215" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="AM215" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="AN215" s="24" t="n">
+      <c r="AM215" s="27"/>
+      <c r="AN215" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
         <v>211</v>
       </c>
@@ -20599,10 +20570,10 @@
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>591</v>
@@ -20614,21 +20585,21 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N216" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="N216" s="9" t="s">
-        <v>686</v>
       </c>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
       <c r="Q216" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R216" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S216" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
@@ -20638,7 +20609,7 @@
         <v>661</v>
       </c>
       <c r="Y216" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6"/>
@@ -20668,7 +20639,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
         <v>212</v>
       </c>
@@ -20683,10 +20654,10 @@
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>690</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>591</v>
@@ -20698,21 +20669,21 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N217" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="N217" s="9" t="s">
-        <v>686</v>
       </c>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
       <c r="Q217" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R217" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
@@ -20722,7 +20693,7 @@
         <v>661</v>
       </c>
       <c r="Y217" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6"/>
@@ -20752,7 +20723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
         <v>213</v>
       </c>
@@ -20767,10 +20738,10 @@
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>508</v>
@@ -20822,13 +20793,13 @@
         <v>213</v>
       </c>
       <c r="AM218" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AN218" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
         <v>214</v>
       </c>
@@ -20843,10 +20814,10 @@
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>91</v>
@@ -20858,21 +20829,21 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N219" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="N219" s="9" t="s">
-        <v>686</v>
       </c>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
       <c r="Q219" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R219" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S219" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
@@ -20912,7 +20883,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
         <v>215</v>
       </c>
@@ -20927,10 +20898,10 @@
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>91</v>
@@ -20941,22 +20912,22 @@
       </c>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
-      <c r="M220" s="6" t="s">
+      <c r="M220" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="N220" s="28" t="s">
         <v>699</v>
-      </c>
-      <c r="N220" s="9" t="s">
-        <v>700</v>
       </c>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
-      <c r="Q220" s="9" t="s">
-        <v>700</v>
+      <c r="Q220" s="28" t="s">
+        <v>699</v>
       </c>
       <c r="R220" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
@@ -20996,7 +20967,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
         <v>216</v>
       </c>
@@ -21011,13 +20982,13 @@
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="G221" s="6" t="s">
+      <c r="H221" s="26" t="s">
         <v>702</v>
-      </c>
-      <c r="H221" s="25" t="s">
-        <v>703</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6" t="n">
@@ -21076,7 +21047,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
         <v>217</v>
       </c>
@@ -21093,13 +21064,13 @@
         <v>486</v>
       </c>
       <c r="F222" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="G222" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="H222" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="H222" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -21120,7 +21091,7 @@
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
-      <c r="X222" s="27" t="s">
+      <c r="X222" s="29" t="s">
         <v>661</v>
       </c>
       <c r="Y222" s="6"/>
@@ -21152,11 +21123,11 @@
         <v>217</v>
       </c>
       <c r="AM222" s="6"/>
-      <c r="AN222" s="24" t="n">
+      <c r="AN222" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
         <v>218</v>
       </c>
@@ -21169,14 +21140,14 @@
       <c r="D223" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E223" s="28" t="s">
+      <c r="E223" s="30" t="s">
         <v>486</v>
       </c>
       <c r="F223" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>708</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>659</v>
@@ -21200,8 +21171,8 @@
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
-      <c r="X223" s="27" t="s">
-        <v>707</v>
+      <c r="X223" s="29" t="s">
+        <v>706</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -21228,13 +21199,13 @@
         <v>218</v>
       </c>
       <c r="AM223" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="AN223" s="24" t="n">
+        <v>708</v>
+      </c>
+      <c r="AN223" s="25" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
         <v>219</v>
       </c>
@@ -21247,17 +21218,17 @@
       <c r="D224" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E224" s="28" t="s">
+      <c r="E224" s="30" t="s">
         <v>486</v>
       </c>
       <c r="F224" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="G224" s="6" t="s">
+      <c r="H224" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="H224" s="6" t="s">
-        <v>712</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="n">
@@ -21286,8 +21257,8 @@
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
       <c r="W224" s="6"/>
-      <c r="X224" s="27" t="s">
-        <v>707</v>
+      <c r="X224" s="29" t="s">
+        <v>706</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -21298,13 +21269,13 @@
         <v>86</v>
       </c>
       <c r="AE224" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AF224" s="8"/>
       <c r="AG224" s="6"/>
       <c r="AH224" s="6"/>
       <c r="AI224" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AJ224" s="6"/>
       <c r="AK224" s="6" t="n">
@@ -21318,7 +21289,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
         <v>220</v>
       </c>
@@ -21333,10 +21304,10 @@
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>85</v>
@@ -21380,13 +21351,13 @@
         <v>220</v>
       </c>
       <c r="AM225" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AN225" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
         <v>221</v>
       </c>
@@ -21400,16 +21371,16 @@
         <v>481</v>
       </c>
       <c r="E226" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="F226" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="G226" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="G226" s="6" t="s">
+      <c r="H226" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="H226" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="n">
@@ -21419,7 +21390,7 @@
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
       <c r="N226" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
@@ -21436,7 +21407,7 @@
       <c r="W226" s="6"/>
       <c r="X226" s="6"/>
       <c r="Y226" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Z226" s="6"/>
       <c r="AA226" s="14"/>
@@ -21466,7 +21437,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
         <v>222</v>
       </c>
@@ -21480,16 +21451,16 @@
         <v>481</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F227" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G227" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="G227" s="6" t="s">
-        <v>724</v>
-      </c>
       <c r="H227" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="n">
@@ -21499,7 +21470,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
@@ -21516,7 +21487,7 @@
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
       <c r="Y227" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="14"/>
@@ -21546,7 +21517,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
         <v>223</v>
       </c>
@@ -21560,16 +21531,16 @@
         <v>481</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F228" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G228" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="G228" s="12" t="s">
-        <v>727</v>
-      </c>
       <c r="H228" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21579,7 +21550,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
       <c r="N228" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
@@ -21596,7 +21567,7 @@
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
       <c r="Y228" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="14"/>
@@ -21626,7 +21597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
         <v>217</v>
       </c>
@@ -21637,22 +21608,22 @@
         <v>41</v>
       </c>
       <c r="D229" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E229" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="E229" s="28" t="s">
+      <c r="F229" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="F229" s="28" t="s">
+      <c r="G229" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="G229" s="28" t="s">
+      <c r="H229" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="H229" s="6" t="s">
+      <c r="I229" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="I229" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
@@ -21664,7 +21635,7 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
       <c r="S229" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
@@ -21688,11 +21659,11 @@
         <v>218</v>
       </c>
       <c r="AM229" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN229" s="6"/>
     </row>
-    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
         <v>218</v>
       </c>
@@ -21703,22 +21674,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E230" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F230" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="G230" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="G230" s="16" t="s">
-        <v>739</v>
-      </c>
       <c r="H230" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="I230" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
@@ -21730,7 +21701,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21754,11 +21725,11 @@
         <v>219</v>
       </c>
       <c r="AM230" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AN230" s="6"/>
     </row>
-    <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
         <v>219</v>
       </c>
@@ -21769,36 +21740,36 @@
         <v>41</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E231" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="F231" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="F231" s="28" t="s">
+      <c r="G231" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="H231" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="G231" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="H231" s="6" t="s">
+      <c r="I231" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I231" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
-      <c r="N231" s="29" t="s">
-        <v>745</v>
+      <c r="N231" s="31" t="s">
+        <v>744</v>
       </c>
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21826,7 +21797,7 @@
       </c>
       <c r="AN231" s="6"/>
     </row>
-    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
         <v>220</v>
       </c>
@@ -21837,36 +21808,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E232" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E232" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="F232" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="F232" s="28" t="s">
+      <c r="G232" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="G232" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="H232" s="6" t="s">
+      <c r="I232" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I232" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
-      <c r="N232" s="29" t="s">
-        <v>746</v>
+      <c r="N232" s="31" t="s">
+        <v>745</v>
       </c>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
@@ -21894,7 +21865,7 @@
       </c>
       <c r="AN232" s="6"/>
     </row>
-    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
         <v>221</v>
       </c>
@@ -21905,22 +21876,22 @@
         <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E233" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="F233" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="F233" s="28" t="s">
+      <c r="G233" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="G233" s="28" t="s">
+      <c r="H233" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="H233" s="6" t="s">
+      <c r="I233" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>751</v>
       </c>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
@@ -21932,7 +21903,7 @@
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
@@ -21956,11 +21927,11 @@
         <v>222</v>
       </c>
       <c r="AM233" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AN233" s="6"/>
     </row>
-    <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
         <v>222</v>
       </c>
@@ -21971,22 +21942,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E234" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F234" s="30" t="s">
         <v>753</v>
       </c>
-      <c r="F234" s="28" t="s">
+      <c r="G234" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="G234" s="28" t="s">
+      <c r="H234" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="H234" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="I234" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
@@ -21998,7 +21969,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -22026,7 +21997,7 @@
       </c>
       <c r="AN234" s="6"/>
     </row>
-    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
         <v>223</v>
       </c>
@@ -22037,36 +22008,36 @@
         <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E235" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F235" s="30" t="s">
         <v>757</v>
       </c>
-      <c r="F235" s="28" t="s">
+      <c r="G235" s="30" t="s">
         <v>758</v>
       </c>
-      <c r="G235" s="28" t="s">
+      <c r="H235" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="H235" s="6" t="s">
-        <v>760</v>
-      </c>
       <c r="I235" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
       <c r="N235" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
@@ -22092,7 +22063,7 @@
       <c r="AM235" s="6"/>
       <c r="AN235" s="6"/>
     </row>
-    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
         <v>224</v>
       </c>
@@ -22103,22 +22074,22 @@
         <v>41</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E236" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="F236" s="30" t="s">
         <v>763</v>
       </c>
-      <c r="F236" s="28" t="s">
+      <c r="G236" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="G236" s="28" t="s">
+      <c r="H236" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="H236" s="6" t="s">
-        <v>766</v>
-      </c>
       <c r="I236" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
@@ -22132,7 +22103,7 @@
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -22158,7 +22129,7 @@
       <c r="AM236" s="6"/>
       <c r="AN236" s="6"/>
     </row>
-    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
         <v>225</v>
       </c>
@@ -22169,36 +22140,36 @@
         <v>41</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E237" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E237" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F237" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="F237" s="28" t="s">
+      <c r="G237" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="G237" s="28" t="s">
-        <v>769</v>
-      </c>
       <c r="H237" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -22224,7 +22195,7 @@
       <c r="AM237" s="6"/>
       <c r="AN237" s="6"/>
     </row>
-    <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
         <v>226</v>
       </c>
@@ -22235,38 +22206,38 @@
         <v>41</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E238" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E238" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F238" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F238" s="28" t="s">
+      <c r="G238" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G238" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H238" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I238" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I238" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="N238" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="N238" s="11" t="s">
-        <v>775</v>
       </c>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -22294,7 +22265,7 @@
       </c>
       <c r="AN238" s="6"/>
     </row>
-    <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
         <v>227</v>
       </c>
@@ -22305,38 +22276,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E239" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E239" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F239" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F239" s="28" t="s">
+      <c r="G239" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G239" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H239" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I239" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="N239" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="N239" s="11" t="s">
-        <v>775</v>
       </c>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -22364,7 +22335,7 @@
       </c>
       <c r="AN239" s="6"/>
     </row>
-    <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
         <v>228</v>
       </c>
@@ -22375,38 +22346,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E240" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E240" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F240" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F240" s="28" t="s">
+      <c r="G240" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G240" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H240" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I240" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="N240" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="N240" s="11" t="s">
-        <v>775</v>
       </c>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22434,7 +22405,7 @@
       </c>
       <c r="AN240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
         <v>229</v>
       </c>
@@ -22445,38 +22416,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E241" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E241" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F241" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F241" s="28" t="s">
+      <c r="G241" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G241" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H241" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I241" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="N241" s="30" t="s">
-        <v>776</v>
+        <v>773</v>
+      </c>
+      <c r="N241" s="32" t="s">
+        <v>775</v>
       </c>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22502,7 +22473,7 @@
       <c r="AM241" s="6"/>
       <c r="AN241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
         <v>230</v>
       </c>
@@ -22513,38 +22484,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E242" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F242" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F242" s="28" t="s">
+      <c r="G242" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G242" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H242" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I242" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I242" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="N242" s="30" t="s">
-        <v>777</v>
+        <v>773</v>
+      </c>
+      <c r="N242" s="32" t="s">
+        <v>776</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22568,11 +22539,11 @@
         <v>231</v>
       </c>
       <c r="AM242" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AN242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
         <v>231</v>
       </c>
@@ -22583,38 +22554,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E243" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E243" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F243" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F243" s="28" t="s">
+      <c r="G243" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G243" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H243" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I243" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I243" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N243" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22638,11 +22609,11 @@
         <v>232</v>
       </c>
       <c r="AM243" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AN243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
         <v>232</v>
       </c>
@@ -22653,38 +22624,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E244" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F244" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F244" s="28" t="s">
+      <c r="G244" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="G244" s="28" t="s">
-        <v>773</v>
-      </c>
       <c r="H244" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I244" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I244" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N244" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22710,7 +22681,6 @@
       <c r="AM244" s="6"/>
       <c r="AN244" s="6"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AN244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="782">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2255,6 +2256,12 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211
+212
+213
+216</t>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2959,54 +2966,53 @@
   <dimension ref="A1:AN244"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="AM215" activeCellId="0" sqref="AM215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.1983805668016"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.8744939271255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20550,7 +20556,9 @@
       <c r="AL215" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="AM215" s="27"/>
+      <c r="AM215" s="27" t="s">
+        <v>682</v>
+      </c>
       <c r="AN215" s="25" t="n">
         <v>312</v>
       </c>
@@ -20570,10 +20578,10 @@
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>591</v>
@@ -20585,21 +20593,21 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
       <c r="Q216" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="R216" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S216" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
@@ -20609,7 +20617,7 @@
         <v>661</v>
       </c>
       <c r="Y216" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6"/>
@@ -20654,10 +20662,10 @@
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>591</v>
@@ -20669,21 +20677,21 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
       <c r="Q217" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="R217" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
@@ -20693,7 +20701,7 @@
         <v>661</v>
       </c>
       <c r="Y217" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6"/>
@@ -20738,10 +20746,10 @@
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>508</v>
@@ -20793,7 +20801,7 @@
         <v>213</v>
       </c>
       <c r="AM218" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AN218" s="6" t="n">
         <v>209</v>
@@ -20814,10 +20822,10 @@
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>91</v>
@@ -20829,21 +20837,21 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N219" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
       <c r="Q219" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="R219" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S219" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
@@ -20898,10 +20906,10 @@
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>91</v>
@@ -20913,21 +20921,21 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N220" s="28" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
       <c r="Q220" s="28" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R220" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
@@ -20982,13 +20990,13 @@
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H221" s="26" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6" t="n">
@@ -21064,13 +21072,13 @@
         <v>486</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -21144,10 +21152,10 @@
         <v>486</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H223" s="6" t="s">
         <v>659</v>
@@ -21172,7 +21180,7 @@
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
       <c r="X223" s="29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -21199,7 +21207,7 @@
         <v>218</v>
       </c>
       <c r="AM223" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AN223" s="25" t="n">
         <v>301</v>
@@ -21222,13 +21230,13 @@
         <v>486</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="n">
@@ -21258,7 +21266,7 @@
       <c r="V224" s="6"/>
       <c r="W224" s="6"/>
       <c r="X224" s="29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -21269,13 +21277,13 @@
         <v>86</v>
       </c>
       <c r="AE224" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF224" s="8"/>
       <c r="AG224" s="6"/>
       <c r="AH224" s="6"/>
       <c r="AI224" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AJ224" s="6"/>
       <c r="AK224" s="6" t="n">
@@ -21304,10 +21312,10 @@
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>85</v>
@@ -21351,7 +21359,7 @@
         <v>220</v>
       </c>
       <c r="AM225" s="11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AN225" s="9" t="n">
         <v>400</v>
@@ -21371,16 +21379,16 @@
         <v>481</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6" t="n">
@@ -21390,7 +21398,7 @@
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
       <c r="N226" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
@@ -21407,7 +21415,7 @@
       <c r="W226" s="6"/>
       <c r="X226" s="6"/>
       <c r="Y226" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Z226" s="6"/>
       <c r="AA226" s="14"/>
@@ -21451,16 +21459,16 @@
         <v>481</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="n">
@@ -21470,7 +21478,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
@@ -21487,7 +21495,7 @@
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
       <c r="Y227" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="14"/>
@@ -21531,16 +21539,16 @@
         <v>481</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21550,7 +21558,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
       <c r="N228" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
@@ -21567,7 +21575,7 @@
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
       <c r="Y228" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="14"/>
@@ -21608,22 +21616,22 @@
         <v>41</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E229" s="30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G229" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
@@ -21635,7 +21643,7 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
       <c r="S229" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
@@ -21659,7 +21667,7 @@
         <v>218</v>
       </c>
       <c r="AM229" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN229" s="6"/>
     </row>
@@ -21674,22 +21682,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
@@ -21701,7 +21709,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21725,7 +21733,7 @@
         <v>219</v>
       </c>
       <c r="AM230" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AN230" s="6"/>
     </row>
@@ -21740,36 +21748,36 @@
         <v>41</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E231" s="30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G231" s="30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
       <c r="N231" s="31" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21808,36 +21816,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E232" s="30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F232" s="30" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G232" s="30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
       <c r="N232" s="31" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
@@ -21876,22 +21884,22 @@
         <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E233" s="30" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F233" s="30" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G233" s="30" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
@@ -21903,7 +21911,7 @@
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
@@ -21927,7 +21935,7 @@
         <v>222</v>
       </c>
       <c r="AM233" s="11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AN233" s="6"/>
     </row>
@@ -21942,22 +21950,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E234" s="30" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F234" s="30" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G234" s="30" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
@@ -21969,7 +21977,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -22008,36 +22016,36 @@
         <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E235" s="30" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F235" s="30" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G235" s="30" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
       <c r="N235" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
@@ -22074,22 +22082,22 @@
         <v>41</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E236" s="30" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F236" s="30" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G236" s="30" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
@@ -22103,7 +22111,7 @@
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -22140,36 +22148,36 @@
         <v>41</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E237" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="G237" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="H237" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="F237" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="G237" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="I237" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -22206,38 +22214,38 @@
         <v>41</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E238" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G238" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N238" s="11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -22276,38 +22284,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E239" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F239" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G239" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N239" s="11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -22346,38 +22354,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E240" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F240" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G240" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N240" s="11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22416,38 +22424,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F241" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G241" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N241" s="32" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22484,38 +22492,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E242" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G242" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N242" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22539,7 +22547,7 @@
         <v>231</v>
       </c>
       <c r="AM242" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AN242" s="6"/>
     </row>
@@ -22554,38 +22562,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E243" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G243" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N243" s="11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22609,7 +22617,7 @@
         <v>232</v>
       </c>
       <c r="AM243" s="11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AN243" s="6"/>
     </row>
@@ -22624,38 +22632,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E244" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G244" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N244" s="11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="778">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -608,6 +610,9 @@
     <t xml:space="preserve">Швеппс новый вкус 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
   </si>
   <si>
@@ -698,10 +703,10 @@
     <t xml:space="preserve">5449000014535</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Ginger Ale - 1L Pet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Швеппс новый вкус 1.0л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.33L</t>
@@ -1675,9 +1680,6 @@
     <t xml:space="preserve">Сок Дисплей 1-й</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">141
 142
 143</t>
@@ -1860,19 +1862,16 @@
 161</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Mango-Camomile - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Манго-Ромашка - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fuze Mango-Camomile - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Display: Lead Fuze Berry-Hibiscus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Lead BonAqua Still - 1L</t>
@@ -2904,50 +2903,50 @@
   </sheetPr>
   <dimension ref="A1:AN244"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="X181" activeCellId="0" sqref="X181:X184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="78.5182186234818"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="79.9109311740891"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.6032388663968"/>
@@ -6229,10 +6228,10 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N43" s="11" t="n">
-        <v>111111</v>
+        <v>5449000046390</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -6298,10 +6297,10 @@
         <v>82</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>91</v>
@@ -6313,10 +6312,10 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -6382,10 +6381,10 @@
         <v>82</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>91</v>
@@ -6397,10 +6396,10 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -6466,10 +6465,10 @@
         <v>82</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>91</v>
@@ -6481,10 +6480,10 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -6550,10 +6549,10 @@
         <v>82</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>91</v>
@@ -6565,10 +6564,10 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -6634,10 +6633,10 @@
         <v>82</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>91</v>
@@ -6649,10 +6648,10 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -6718,10 +6717,10 @@
         <v>82</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>91</v>
@@ -6733,10 +6732,10 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -6802,10 +6801,10 @@
         <v>82</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>91</v>
@@ -6817,10 +6816,10 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -6886,10 +6885,10 @@
         <v>82</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>91</v>
@@ -6901,10 +6900,10 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -6970,10 +6969,10 @@
         <v>82</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>91</v>
@@ -6985,10 +6984,10 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -7054,10 +7053,10 @@
         <v>82</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>91</v>
@@ -7069,10 +7068,10 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -7138,10 +7137,10 @@
         <v>82</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>91</v>
@@ -7153,10 +7152,10 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N54" s="11" t="n">
-        <v>111111</v>
+        <v>5449000109125</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -7222,10 +7221,10 @@
         <v>82</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>91</v>
@@ -7237,10 +7236,10 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -7306,10 +7305,10 @@
         <v>82</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>91</v>
@@ -7321,10 +7320,10 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -7387,13 +7386,13 @@
         <v>42</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>85</v>
@@ -7437,7 +7436,7 @@
         <v>41</v>
       </c>
       <c r="AM57" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN57" s="11" t="n">
         <v>300</v>
@@ -7457,13 +7456,13 @@
         <v>42</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>91</v>
@@ -7475,10 +7474,10 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
@@ -7541,13 +7540,13 @@
         <v>42</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>91</v>
@@ -7559,10 +7558,10 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -7625,13 +7624,13 @@
         <v>42</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>91</v>
@@ -7643,10 +7642,10 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -7709,13 +7708,13 @@
         <v>42</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>91</v>
@@ -7727,10 +7726,10 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
@@ -7793,13 +7792,13 @@
         <v>42</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>91</v>
@@ -7811,10 +7810,10 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
@@ -7877,13 +7876,13 @@
         <v>42</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>91</v>
@@ -7895,10 +7894,10 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
@@ -7961,13 +7960,13 @@
         <v>42</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>91</v>
@@ -7979,7 +7978,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N64" s="11" t="n">
         <v>5449000214270</v>
@@ -8045,13 +8044,13 @@
         <v>42</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>91</v>
@@ -8063,7 +8062,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N65" s="11" t="n">
         <v>5449000214263</v>
@@ -8129,13 +8128,13 @@
         <v>42</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>91</v>
@@ -8147,10 +8146,10 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -8213,13 +8212,13 @@
         <v>42</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>85</v>
@@ -8263,7 +8262,7 @@
         <v>51</v>
       </c>
       <c r="AM67" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN67" s="11" t="n">
         <v>300</v>
@@ -8283,13 +8282,13 @@
         <v>42</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>91</v>
@@ -8301,10 +8300,10 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
@@ -8367,13 +8366,13 @@
         <v>42</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>91</v>
@@ -8385,10 +8384,10 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
@@ -8451,13 +8450,13 @@
         <v>42</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>91</v>
@@ -8469,10 +8468,10 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -8535,13 +8534,13 @@
         <v>42</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>91</v>
@@ -8553,10 +8552,10 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -8619,13 +8618,13 @@
         <v>42</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>91</v>
@@ -8637,10 +8636,10 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
@@ -8703,13 +8702,13 @@
         <v>42</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>91</v>
@@ -8721,10 +8720,10 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
@@ -8787,13 +8786,13 @@
         <v>42</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>91</v>
@@ -8805,7 +8804,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N74" s="11" t="n">
         <v>5060517888794</v>
@@ -8871,13 +8870,13 @@
         <v>42</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>85</v>
@@ -8921,7 +8920,7 @@
         <v>59</v>
       </c>
       <c r="AM75" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN75" s="11" t="n">
         <v>300</v>
@@ -8941,13 +8940,13 @@
         <v>42</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>91</v>
@@ -8959,10 +8958,10 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
@@ -9025,13 +9024,13 @@
         <v>42</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>91</v>
@@ -9043,10 +9042,10 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
@@ -9109,13 +9108,13 @@
         <v>42</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>91</v>
@@ -9127,10 +9126,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
@@ -9193,13 +9192,13 @@
         <v>42</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>91</v>
@@ -9211,10 +9210,10 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
@@ -9277,13 +9276,13 @@
         <v>42</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>91</v>
@@ -9295,10 +9294,10 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
@@ -9361,13 +9360,13 @@
         <v>42</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>91</v>
@@ -9379,10 +9378,10 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
@@ -9445,13 +9444,13 @@
         <v>42</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>91</v>
@@ -9463,10 +9462,10 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
@@ -9529,13 +9528,13 @@
         <v>42</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>91</v>
@@ -9547,10 +9546,10 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
@@ -9613,13 +9612,13 @@
         <v>42</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>91</v>
@@ -9631,10 +9630,10 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -9697,13 +9696,13 @@
         <v>42</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>91</v>
@@ -9715,10 +9714,10 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -9781,13 +9780,13 @@
         <v>42</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>85</v>
@@ -9831,7 +9830,7 @@
         <v>70</v>
       </c>
       <c r="AM86" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN86" s="11" t="n">
         <v>300</v>
@@ -9851,13 +9850,13 @@
         <v>42</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>91</v>
@@ -9869,10 +9868,10 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
@@ -9935,13 +9934,13 @@
         <v>42</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>91</v>
@@ -9953,10 +9952,10 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
@@ -10019,13 +10018,13 @@
         <v>42</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>91</v>
@@ -10037,10 +10036,10 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
@@ -10103,13 +10102,13 @@
         <v>42</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>91</v>
@@ -10121,10 +10120,10 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
@@ -10187,13 +10186,13 @@
         <v>42</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>91</v>
@@ -10205,10 +10204,10 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
@@ -10271,13 +10270,13 @@
         <v>42</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>91</v>
@@ -10289,10 +10288,10 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
@@ -10355,13 +10354,13 @@
         <v>42</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>91</v>
@@ -10373,10 +10372,10 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
@@ -10439,13 +10438,13 @@
         <v>42</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>91</v>
@@ -10457,10 +10456,10 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
@@ -10523,13 +10522,13 @@
         <v>42</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>91</v>
@@ -10541,10 +10540,10 @@
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
@@ -10607,13 +10606,13 @@
         <v>42</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>91</v>
@@ -10625,10 +10624,10 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
@@ -10691,13 +10690,13 @@
         <v>42</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>91</v>
@@ -10709,10 +10708,10 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
@@ -10775,13 +10774,13 @@
         <v>42</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>91</v>
@@ -10793,10 +10792,10 @@
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
@@ -10859,13 +10858,13 @@
         <v>42</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>91</v>
@@ -10877,10 +10876,10 @@
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
@@ -10943,13 +10942,13 @@
         <v>42</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>91</v>
@@ -10961,10 +10960,10 @@
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
@@ -11027,13 +11026,13 @@
         <v>42</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>91</v>
@@ -11045,10 +11044,10 @@
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
@@ -11111,13 +11110,13 @@
         <v>42</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>91</v>
@@ -11129,10 +11128,10 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
@@ -11195,13 +11194,13 @@
         <v>42</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>91</v>
@@ -11213,10 +11212,10 @@
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
@@ -11279,13 +11278,13 @@
         <v>42</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>91</v>
@@ -11297,10 +11296,10 @@
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
@@ -11363,13 +11362,13 @@
         <v>42</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>91</v>
@@ -11381,10 +11380,10 @@
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -11447,13 +11446,13 @@
         <v>42</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>91</v>
@@ -11465,10 +11464,10 @@
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
@@ -11531,13 +11530,13 @@
         <v>42</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>91</v>
@@ -11549,10 +11548,10 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
@@ -11615,13 +11614,13 @@
         <v>42</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>91</v>
@@ -11633,10 +11632,10 @@
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
@@ -11699,13 +11698,13 @@
         <v>42</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>91</v>
@@ -11717,10 +11716,10 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
@@ -11783,13 +11782,13 @@
         <v>42</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>91</v>
@@ -11801,7 +11800,7 @@
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N110" s="11" t="n">
         <v>4650075422922</v>
@@ -11867,13 +11866,13 @@
         <v>42</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>91</v>
@@ -11885,10 +11884,10 @@
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
@@ -11951,13 +11950,13 @@
         <v>42</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>91</v>
@@ -11969,7 +11968,7 @@
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N112" s="11" t="n">
         <v>111111</v>
@@ -12035,13 +12034,13 @@
         <v>42</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>91</v>
@@ -12053,10 +12052,10 @@
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
@@ -12119,13 +12118,13 @@
         <v>42</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>91</v>
@@ -12137,7 +12136,7 @@
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N114" s="11" t="n">
         <v>4650075420249</v>
@@ -12203,13 +12202,13 @@
         <v>42</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>91</v>
@@ -12221,7 +12220,7 @@
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N115" s="11" t="n">
         <v>111111</v>
@@ -12287,13 +12286,13 @@
         <v>42</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>91</v>
@@ -12305,10 +12304,10 @@
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
@@ -12371,13 +12370,13 @@
         <v>42</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>91</v>
@@ -12389,10 +12388,10 @@
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
@@ -12455,13 +12454,13 @@
         <v>42</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>91</v>
@@ -12473,7 +12472,7 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N118" s="11" t="n">
         <v>4650075420263</v>
@@ -12539,13 +12538,13 @@
         <v>42</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>91</v>
@@ -12557,10 +12556,10 @@
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
@@ -12623,13 +12622,13 @@
         <v>42</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>91</v>
@@ -12641,10 +12640,10 @@
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
@@ -12707,13 +12706,13 @@
         <v>42</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>91</v>
@@ -12725,10 +12724,10 @@
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
@@ -12791,13 +12790,13 @@
         <v>42</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>91</v>
@@ -12809,10 +12808,10 @@
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
@@ -12875,13 +12874,13 @@
         <v>42</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>91</v>
@@ -12893,10 +12892,10 @@
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
@@ -12959,13 +12958,13 @@
         <v>42</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>91</v>
@@ -12977,10 +12976,10 @@
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N124" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
@@ -13043,13 +13042,13 @@
         <v>42</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>91</v>
@@ -13061,10 +13060,10 @@
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
@@ -13127,13 +13126,13 @@
         <v>42</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>91</v>
@@ -13145,10 +13144,10 @@
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
@@ -13211,13 +13210,13 @@
         <v>42</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>91</v>
@@ -13229,7 +13228,7 @@
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N127" s="11" t="n">
         <v>111111</v>
@@ -13295,13 +13294,13 @@
         <v>42</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>91</v>
@@ -13313,10 +13312,10 @@
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
@@ -13379,13 +13378,13 @@
         <v>42</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>91</v>
@@ -13397,10 +13396,10 @@
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
@@ -13463,13 +13462,13 @@
         <v>42</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>91</v>
@@ -13481,10 +13480,10 @@
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
@@ -13547,13 +13546,13 @@
         <v>42</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>91</v>
@@ -13565,10 +13564,10 @@
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N131" s="16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
@@ -13631,13 +13630,13 @@
         <v>42</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>91</v>
@@ -13649,7 +13648,7 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N132" s="11" t="n">
         <v>4650075421550</v>
@@ -13715,13 +13714,13 @@
         <v>42</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>91</v>
@@ -13733,10 +13732,10 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
@@ -13799,13 +13798,13 @@
         <v>42</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>91</v>
@@ -13817,10 +13816,10 @@
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
@@ -13883,13 +13882,13 @@
         <v>42</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>91</v>
@@ -13901,10 +13900,10 @@
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N135" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
@@ -13967,13 +13966,13 @@
         <v>42</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>91</v>
@@ -13985,7 +13984,7 @@
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N136" s="11" t="n">
         <v>4650075422847</v>
@@ -14051,13 +14050,13 @@
         <v>42</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>91</v>
@@ -14069,10 +14068,10 @@
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
@@ -14135,13 +14134,13 @@
         <v>42</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>91</v>
@@ -14153,10 +14152,10 @@
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
@@ -14219,13 +14218,13 @@
         <v>42</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>91</v>
@@ -14237,10 +14236,10 @@
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
@@ -14303,13 +14302,13 @@
         <v>42</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>91</v>
@@ -14321,10 +14320,10 @@
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
@@ -14387,13 +14386,13 @@
         <v>42</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>91</v>
@@ -14405,10 +14404,10 @@
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
@@ -14471,13 +14470,13 @@
         <v>42</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>91</v>
@@ -14489,10 +14488,10 @@
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
@@ -14555,13 +14554,13 @@
         <v>42</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>91</v>
@@ -14573,7 +14572,7 @@
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N143" s="11" t="n">
         <v>111111</v>
@@ -14639,13 +14638,13 @@
         <v>42</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>91</v>
@@ -14657,7 +14656,7 @@
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N144" s="11" t="n">
         <v>111111</v>
@@ -14723,16 +14722,16 @@
         <v>42</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8" t="n">
@@ -14746,16 +14745,14 @@
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
       <c r="R145" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S145" s="8"/>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="18"/>
       <c r="W145" s="8"/>
-      <c r="X145" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
       <c r="AA145" s="8" t="n">
@@ -14783,7 +14780,7 @@
         <v>131</v>
       </c>
       <c r="AM145" s="19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN145" s="8" t="n">
         <v>302</v>
@@ -14803,13 +14800,13 @@
         <v>42</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>91</v>
@@ -14821,13 +14818,13 @@
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O146" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
@@ -14835,15 +14832,13 @@
         <v>93</v>
       </c>
       <c r="S146" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="18"/>
       <c r="W146" s="8"/>
-      <c r="X146" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
       <c r="AA146" s="8" t="n">
@@ -14887,16 +14882,16 @@
         <v>42</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8" t="n">
@@ -14913,17 +14908,15 @@
         <v>93</v>
       </c>
       <c r="S147" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T147" s="8"/>
       <c r="U147" s="8"/>
       <c r="V147" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W147" s="8"/>
-      <c r="X147" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
       <c r="AA147" s="8" t="n">
@@ -14967,16 +14960,16 @@
         <v>42</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
@@ -14989,7 +14982,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
@@ -15003,9 +14996,7 @@
       <c r="U148" s="8"/>
       <c r="V148" s="18"/>
       <c r="W148" s="8"/>
-      <c r="X148" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
       <c r="AA148" s="8" t="n">
@@ -15023,7 +15014,7 @@
       <c r="AG148" s="8"/>
       <c r="AH148" s="8"/>
       <c r="AI148" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AJ148" s="8"/>
       <c r="AK148" s="8" t="n">
@@ -15048,17 +15039,17 @@
         <v>41</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8" t="n">
@@ -15072,16 +15063,14 @@
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
       <c r="R149" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S149" s="8"/>
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="18"/>
       <c r="W149" s="8"/>
-      <c r="X149" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
       <c r="AA149" s="8" t="n">
@@ -15101,10 +15090,10 @@
       <c r="AG149" s="8"/>
       <c r="AH149" s="8"/>
       <c r="AI149" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AJ149" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK149" s="8" t="n">
         <v>2</v>
@@ -15113,7 +15102,7 @@
         <v>135</v>
       </c>
       <c r="AM149" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN149" s="8" t="n">
         <v>302</v>
@@ -15130,16 +15119,16 @@
         <v>41</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>91</v>
@@ -15169,9 +15158,7 @@
       <c r="U150" s="8"/>
       <c r="V150" s="18"/>
       <c r="W150" s="8"/>
-      <c r="X150" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
       <c r="AA150" s="8" t="n">
@@ -15212,16 +15199,16 @@
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>91</v>
@@ -15251,9 +15238,7 @@
       <c r="U151" s="8"/>
       <c r="V151" s="18"/>
       <c r="W151" s="8"/>
-      <c r="X151" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
       <c r="AA151" s="8" t="n">
@@ -15294,16 +15279,16 @@
         <v>41</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>91</v>
@@ -15315,7 +15300,7 @@
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N152" s="20" t="n">
         <v>5449000133335</v>
@@ -15333,9 +15318,7 @@
       <c r="U152" s="18"/>
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
-      <c r="X152" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
       <c r="AA152" s="8" t="n">
@@ -15376,16 +15359,16 @@
         <v>41</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>91</v>
@@ -15415,9 +15398,7 @@
       <c r="U153" s="8"/>
       <c r="V153" s="18"/>
       <c r="W153" s="8"/>
-      <c r="X153" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
       <c r="AA153" s="8" t="n">
@@ -15461,16 +15442,16 @@
         <v>42</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8" t="n">
@@ -15484,16 +15465,14 @@
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
       <c r="R154" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S154" s="8"/>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
       <c r="V154" s="18"/>
       <c r="W154" s="8"/>
-      <c r="X154" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
       <c r="AA154" s="8" t="n">
@@ -15541,7 +15520,7 @@
         <v>42</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>500</v>
@@ -15559,7 +15538,7 @@
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N155" s="11" t="s">
         <v>502</v>
@@ -15573,15 +15552,13 @@
         <v>93</v>
       </c>
       <c r="S155" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
       <c r="V155" s="18"/>
       <c r="W155" s="8"/>
-      <c r="X155" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
       <c r="AA155" s="8" t="n">
@@ -15625,7 +15602,7 @@
         <v>42</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>503</v>
@@ -15634,7 +15611,7 @@
         <v>504</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8" t="n">
@@ -15651,7 +15628,7 @@
         <v>93</v>
       </c>
       <c r="S156" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
@@ -15659,9 +15636,7 @@
         <v>505</v>
       </c>
       <c r="W156" s="8"/>
-      <c r="X156" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
       <c r="AA156" s="8" t="n">
@@ -15705,7 +15680,7 @@
         <v>42</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>506</v>
@@ -15735,9 +15710,7 @@
       <c r="U157" s="8"/>
       <c r="V157" s="18"/>
       <c r="W157" s="8"/>
-      <c r="X157" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
       <c r="AA157" s="8" t="n">
@@ -15783,7 +15756,7 @@
         <v>42</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>510</v>
@@ -15792,14 +15765,14 @@
         <v>511</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N158" s="11" t="n">
         <v>4607042434877</v>
@@ -15817,9 +15790,7 @@
       <c r="U158" s="8"/>
       <c r="V158" s="18"/>
       <c r="W158" s="8"/>
-      <c r="X158" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
       <c r="AA158" s="8" t="n">
@@ -15865,7 +15836,7 @@
         <v>42</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>513</v>
@@ -15874,14 +15845,14 @@
         <v>514</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N159" s="11" t="n">
         <v>4607042434891</v>
@@ -15899,9 +15870,7 @@
       <c r="U159" s="8"/>
       <c r="V159" s="18"/>
       <c r="W159" s="8"/>
-      <c r="X159" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
       <c r="AA159" s="8" t="n">
@@ -15944,10 +15913,10 @@
         <v>41</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>516</v>
@@ -15956,7 +15925,7 @@
         <v>517</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8" t="n">
@@ -15970,16 +15939,14 @@
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S160" s="8"/>
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="18"/>
       <c r="W160" s="8"/>
-      <c r="X160" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
       <c r="AA160" s="8" t="n">
@@ -16002,7 +15969,7 @@
         <v>518</v>
       </c>
       <c r="AJ160" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK160" s="8" t="n">
         <v>2</v>
@@ -16028,10 +15995,10 @@
         <v>41</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>520</v>
@@ -16049,7 +16016,7 @@
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N161" s="11" t="n">
         <v>4607042434877</v>
@@ -16067,9 +16034,7 @@
       <c r="U161" s="8"/>
       <c r="V161" s="18"/>
       <c r="W161" s="8"/>
-      <c r="X161" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
       <c r="AA161" s="8" t="n">
@@ -16110,10 +16075,10 @@
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>522</v>
@@ -16131,7 +16096,7 @@
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N162" s="11" t="n">
         <v>4607042434891</v>
@@ -16149,9 +16114,7 @@
       <c r="U162" s="8"/>
       <c r="V162" s="18"/>
       <c r="W162" s="8"/>
-      <c r="X162" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
       <c r="AA162" s="8" t="n">
@@ -16192,10 +16155,10 @@
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>524</v>
@@ -16213,7 +16176,7 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N163" s="11" t="n">
         <v>4607042438738</v>
@@ -16231,9 +16194,7 @@
       <c r="U163" s="8"/>
       <c r="V163" s="18"/>
       <c r="W163" s="8"/>
-      <c r="X163" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
       <c r="AA163" s="8" t="n">
@@ -16274,10 +16235,10 @@
         <v>41</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>526</v>
@@ -16295,7 +16256,7 @@
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N164" s="11" t="n">
         <v>4607042438950</v>
@@ -16313,9 +16274,7 @@
       <c r="U164" s="8"/>
       <c r="V164" s="18"/>
       <c r="W164" s="8"/>
-      <c r="X164" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
       <c r="AA164" s="8" t="n">
@@ -16359,7 +16318,7 @@
         <v>42</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>528</v>
@@ -16368,7 +16327,7 @@
         <v>529</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8" t="n">
@@ -16382,16 +16341,14 @@
       <c r="P165" s="11"/>
       <c r="Q165" s="11"/>
       <c r="R165" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S165" s="8"/>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
       <c r="V165" s="18"/>
       <c r="W165" s="8"/>
-      <c r="X165" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
       <c r="AA165" s="8" t="n">
@@ -16439,7 +16396,7 @@
         <v>42</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>531</v>
@@ -16457,13 +16414,13 @@
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O166" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P166" s="11"/>
       <c r="Q166" s="11"/>
@@ -16471,15 +16428,13 @@
         <v>93</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
       <c r="V166" s="18"/>
       <c r="W166" s="8"/>
-      <c r="X166" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
       <c r="AA166" s="8" t="n">
@@ -16523,7 +16478,7 @@
         <v>42</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>533</v>
@@ -16532,7 +16487,7 @@
         <v>534</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8" t="n">
@@ -16549,7 +16504,7 @@
         <v>93</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
@@ -16557,9 +16512,7 @@
         <v>535</v>
       </c>
       <c r="W167" s="8"/>
-      <c r="X167" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
       <c r="AA167" s="8" t="n">
@@ -16603,7 +16556,7 @@
         <v>42</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>536</v>
@@ -16612,7 +16565,7 @@
         <v>537</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
@@ -16625,7 +16578,7 @@
         <v>103</v>
       </c>
       <c r="O168" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P168" s="11"/>
       <c r="Q168" s="11"/>
@@ -16639,9 +16592,7 @@
       <c r="U168" s="8"/>
       <c r="V168" s="18"/>
       <c r="W168" s="8"/>
-      <c r="X168" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
       <c r="AA168" s="8" t="n">
@@ -16685,7 +16636,7 @@
         <v>42</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>539</v>
@@ -16694,7 +16645,7 @@
         <v>540</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8" t="n">
@@ -16708,7 +16659,7 @@
       <c r="P169" s="11"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S169" s="8"/>
       <c r="T169" s="8"/>
@@ -16763,7 +16714,7 @@
         <v>42</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>542</v>
@@ -16781,7 +16732,7 @@
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N170" s="11" t="s">
         <v>544</v>
@@ -16847,7 +16798,7 @@
         <v>42</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>549</v>
@@ -16856,7 +16807,7 @@
         <v>550</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8" t="n">
@@ -16873,7 +16824,7 @@
         <v>93</v>
       </c>
       <c r="S171" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -16925,7 +16876,7 @@
         <v>42</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>552</v>
@@ -17001,7 +16952,7 @@
         <v>42</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>555</v>
@@ -17010,17 +16961,17 @@
         <v>556</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
@@ -17079,7 +17030,7 @@
         <v>42</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>557</v>
@@ -17088,17 +17039,17 @@
         <v>558</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="8" t="s">
-        <v>559</v>
+        <v>292</v>
       </c>
       <c r="N174" s="23" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -17157,26 +17108,26 @@
         <v>42</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F175" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G175" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G175" s="11" t="s">
-        <v>561</v>
-      </c>
       <c r="H175" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N175" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -17235,16 +17186,16 @@
         <v>42</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F176" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="G176" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="G176" s="8" t="s">
-        <v>563</v>
-      </c>
       <c r="H176" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I176" s="8"/>
       <c r="J176" s="8" t="n">
@@ -17258,7 +17209,7 @@
       <c r="P176" s="11"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S176" s="8"/>
       <c r="T176" s="8"/>
@@ -17293,7 +17244,7 @@
         <v>162</v>
       </c>
       <c r="AM176" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN176" s="8" t="n">
         <v>302</v>
@@ -17313,13 +17264,13 @@
         <v>42</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F177" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>91</v>
@@ -17331,13 +17282,13 @@
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N177" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O177" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P177" s="11"/>
       <c r="Q177" s="11"/>
@@ -17345,7 +17296,7 @@
         <v>93</v>
       </c>
       <c r="S177" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17395,16 +17346,16 @@
         <v>42</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F178" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="G178" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="H178" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I178" s="8"/>
       <c r="J178" s="8" t="n">
@@ -17421,12 +17372,12 @@
         <v>93</v>
       </c>
       <c r="S178" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
       <c r="V178" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W178" s="8"/>
       <c r="X178" s="22"/>
@@ -17473,13 +17424,13 @@
         <v>42</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F179" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="G179" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="H179" s="8" t="s">
         <v>508</v>
@@ -17549,16 +17500,16 @@
         <v>42</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F180" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G180" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>573</v>
-      </c>
       <c r="H180" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
@@ -17571,7 +17522,7 @@
         <v>5449000044808</v>
       </c>
       <c r="O180" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
@@ -17603,7 +17554,7 @@
       <c r="AG180" s="8"/>
       <c r="AH180" s="8"/>
       <c r="AI180" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AJ180" s="8"/>
       <c r="AK180" s="8" t="n">
@@ -17631,16 +17582,16 @@
         <v>42</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F181" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G181" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G181" s="8" t="s">
-        <v>576</v>
-      </c>
       <c r="H181" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="8" t="n">
@@ -17654,16 +17605,14 @@
       <c r="P181" s="11"/>
       <c r="Q181" s="11"/>
       <c r="R181" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S181" s="8"/>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
       <c r="V181" s="18"/>
       <c r="W181" s="8"/>
-      <c r="X181" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8" t="n">
@@ -17691,7 +17640,7 @@
         <v>167</v>
       </c>
       <c r="AM181" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AN181" s="8" t="n">
         <v>303</v>
@@ -17711,13 +17660,13 @@
         <v>42</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F182" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G182" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>579</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>91</v>
@@ -17729,7 +17678,7 @@
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N182" s="11" t="s">
         <v>502</v>
@@ -17743,15 +17692,13 @@
         <v>93</v>
       </c>
       <c r="S182" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
       <c r="V182" s="18"/>
       <c r="W182" s="8"/>
-      <c r="X182" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8" t="n">
@@ -17795,16 +17742,16 @@
         <v>42</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F183" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="G183" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G183" s="8" t="s">
-        <v>581</v>
-      </c>
       <c r="H183" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="8" t="n">
@@ -17821,17 +17768,15 @@
         <v>93</v>
       </c>
       <c r="S183" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
       <c r="V183" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W183" s="8"/>
-      <c r="X183" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8" t="n">
@@ -17875,13 +17820,13 @@
         <v>42</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F184" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G184" s="11" t="s">
         <v>582</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>583</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>91</v>
@@ -17893,7 +17838,7 @@
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N184" s="11" t="n">
         <v>4607042439155</v>
@@ -17911,9 +17856,7 @@
       <c r="U184" s="8"/>
       <c r="V184" s="18"/>
       <c r="W184" s="8"/>
-      <c r="X184" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8" t="n">
@@ -17931,7 +17874,7 @@
       <c r="AG184" s="8"/>
       <c r="AH184" s="8"/>
       <c r="AI184" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AJ184" s="8"/>
       <c r="AK184" s="8" t="n">
@@ -17956,19 +17899,19 @@
         <v>41</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E185" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="F185" s="8" t="s">
+      <c r="G185" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="H185" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="H185" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="9" t="n">
@@ -17977,26 +17920,26 @@
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
       <c r="M185" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N185" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O185" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P185" s="11"/>
       <c r="Q185" s="8"/>
       <c r="R185" s="8"/>
       <c r="S185" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T185" s="8"/>
       <c r="U185" s="8"/>
       <c r="V185" s="8"/>
       <c r="W185" s="8"/>
       <c r="X185" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y185" s="8"/>
       <c r="Z185" s="8"/>
@@ -18007,7 +17950,7 @@
         <v>86</v>
       </c>
       <c r="AE185" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF185" s="10" t="n">
         <v>0.0725</v>
@@ -18040,19 +17983,19 @@
         <v>41</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F186" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="H186" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="I186" s="8"/>
       <c r="J186" s="8" t="n">
@@ -18066,7 +18009,7 @@
       <c r="P186" s="11"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S186" s="8"/>
       <c r="T186" s="8"/>
@@ -18074,14 +18017,14 @@
       <c r="V186" s="8"/>
       <c r="W186" s="8"/>
       <c r="X186" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y186" s="8"/>
       <c r="Z186" s="8"/>
       <c r="AA186" s="15"/>
       <c r="AB186" s="8"/>
       <c r="AC186" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD186" s="8" t="s">
         <v>86</v>
@@ -18103,7 +18046,7 @@
         <v>180</v>
       </c>
       <c r="AM186" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AN186" s="17" t="n">
         <v>501</v>
@@ -18120,16 +18063,16 @@
         <v>41</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F187" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="G187" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>597</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>91</v>
@@ -18160,14 +18103,14 @@
       <c r="V187" s="8"/>
       <c r="W187" s="8"/>
       <c r="X187" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y187" s="8"/>
       <c r="Z187" s="8"/>
       <c r="AA187" s="15"/>
       <c r="AB187" s="8"/>
       <c r="AC187" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD187" s="8" t="s">
         <v>86</v>
@@ -18202,16 +18145,16 @@
         <v>41</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F188" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G188" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>599</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>91</v>
@@ -18223,7 +18166,7 @@
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N188" s="11" t="s">
         <v>103</v>
@@ -18242,14 +18185,14 @@
       <c r="V188" s="8"/>
       <c r="W188" s="8"/>
       <c r="X188" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y188" s="8"/>
       <c r="Z188" s="8"/>
       <c r="AA188" s="15"/>
       <c r="AB188" s="8"/>
       <c r="AC188" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD188" s="8" t="s">
         <v>86</v>
@@ -18284,16 +18227,16 @@
         <v>41</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F189" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G189" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>602</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>91</v>
@@ -18324,14 +18267,14 @@
       <c r="V189" s="8"/>
       <c r="W189" s="8"/>
       <c r="X189" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
       <c r="AA189" s="15"/>
       <c r="AB189" s="8"/>
       <c r="AC189" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD189" s="8" t="s">
         <v>86</v>
@@ -18366,16 +18309,16 @@
         <v>41</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F190" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G190" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>604</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>91</v>
@@ -18406,14 +18349,14 @@
       <c r="V190" s="8"/>
       <c r="W190" s="8"/>
       <c r="X190" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
       <c r="AA190" s="15"/>
       <c r="AB190" s="8"/>
       <c r="AC190" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD190" s="8" t="s">
         <v>86</v>
@@ -18448,16 +18391,16 @@
         <v>41</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F191" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="G191" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="G191" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="H191" s="8" t="s">
         <v>91</v>
@@ -18488,14 +18431,14 @@
       <c r="V191" s="8"/>
       <c r="W191" s="8"/>
       <c r="X191" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
       <c r="AA191" s="15"/>
       <c r="AB191" s="8"/>
       <c r="AC191" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD191" s="8" t="s">
         <v>86</v>
@@ -18530,16 +18473,16 @@
         <v>41</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F192" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G192" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>91</v>
@@ -18551,7 +18494,7 @@
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N192" s="11" t="s">
         <v>133</v>
@@ -18570,14 +18513,14 @@
       <c r="V192" s="8"/>
       <c r="W192" s="8"/>
       <c r="X192" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
       <c r="AA192" s="15"/>
       <c r="AB192" s="8"/>
       <c r="AC192" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD192" s="8" t="s">
         <v>86</v>
@@ -18612,16 +18555,16 @@
         <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F193" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="H193" s="8" t="s">
         <v>91</v>
@@ -18652,14 +18595,14 @@
       <c r="V193" s="8"/>
       <c r="W193" s="8"/>
       <c r="X193" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
       <c r="AA193" s="15"/>
       <c r="AB193" s="8"/>
       <c r="AC193" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD193" s="8" t="s">
         <v>86</v>
@@ -18694,16 +18637,16 @@
         <v>41</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F194" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G194" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>91</v>
@@ -18734,14 +18677,14 @@
       <c r="V194" s="8"/>
       <c r="W194" s="8"/>
       <c r="X194" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
       <c r="AA194" s="15"/>
       <c r="AB194" s="8"/>
       <c r="AC194" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD194" s="8" t="s">
         <v>86</v>
@@ -18779,16 +18722,16 @@
         <v>42</v>
       </c>
       <c r="E195" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F195" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F195" s="8" t="s">
+      <c r="G195" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="G195" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="H195" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="9" t="n">
@@ -18797,7 +18740,7 @@
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
       <c r="M195" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N195" s="11" t="s">
         <v>502</v>
@@ -18809,14 +18752,14 @@
       <c r="Q195" s="8"/>
       <c r="R195" s="8"/>
       <c r="S195" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T195" s="8"/>
       <c r="U195" s="8"/>
       <c r="V195" s="8"/>
       <c r="W195" s="8"/>
       <c r="X195" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
@@ -18827,7 +18770,7 @@
         <v>86</v>
       </c>
       <c r="AE195" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF195" s="10" t="n">
         <v>0.0625</v>
@@ -18860,19 +18803,19 @@
         <v>41</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F196" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G196" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="G196" s="8" t="s">
-        <v>618</v>
-      </c>
       <c r="H196" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8" t="n">
@@ -18886,7 +18829,7 @@
       <c r="P196" s="11"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S196" s="8"/>
       <c r="T196" s="8"/>
@@ -18894,14 +18837,14 @@
       <c r="V196" s="8"/>
       <c r="W196" s="8"/>
       <c r="X196" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
       <c r="AA196" s="15"/>
       <c r="AB196" s="8"/>
       <c r="AC196" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD196" s="8" t="s">
         <v>86</v>
@@ -18923,7 +18866,7 @@
         <v>190</v>
       </c>
       <c r="AM196" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AN196" s="17" t="n">
         <v>502</v>
@@ -18940,16 +18883,16 @@
         <v>41</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F197" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G197" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="H197" s="8" t="s">
         <v>91</v>
@@ -18961,7 +18904,7 @@
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
       <c r="M197" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N197" s="11" t="n">
         <v>4607042434877</v>
@@ -18980,14 +18923,14 @@
       <c r="V197" s="8"/>
       <c r="W197" s="8"/>
       <c r="X197" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
       <c r="AA197" s="15"/>
       <c r="AB197" s="8"/>
       <c r="AC197" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD197" s="8" t="s">
         <v>86</v>
@@ -19022,16 +18965,16 @@
         <v>41</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F198" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="G198" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>91</v>
@@ -19043,7 +18986,7 @@
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
       <c r="M198" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N198" s="11" t="n">
         <v>4607042434891</v>
@@ -19062,14 +19005,14 @@
       <c r="V198" s="8"/>
       <c r="W198" s="8"/>
       <c r="X198" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
       <c r="AA198" s="15"/>
       <c r="AB198" s="8"/>
       <c r="AC198" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD198" s="8" t="s">
         <v>86</v>
@@ -19104,16 +19047,16 @@
         <v>41</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F199" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="G199" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>91</v>
@@ -19125,7 +19068,7 @@
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
       <c r="M199" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N199" s="11" t="n">
         <v>4607042438738</v>
@@ -19144,14 +19087,14 @@
       <c r="V199" s="8"/>
       <c r="W199" s="8"/>
       <c r="X199" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
       <c r="AA199" s="15"/>
       <c r="AB199" s="8"/>
       <c r="AC199" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD199" s="8" t="s">
         <v>86</v>
@@ -19186,16 +19129,16 @@
         <v>41</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F200" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G200" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="H200" s="8" t="s">
         <v>91</v>
@@ -19207,7 +19150,7 @@
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
       <c r="M200" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N200" s="11" t="n">
         <v>4607042439155</v>
@@ -19226,14 +19169,14 @@
       <c r="V200" s="8"/>
       <c r="W200" s="8"/>
       <c r="X200" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
       <c r="AA200" s="15"/>
       <c r="AB200" s="8"/>
       <c r="AC200" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD200" s="8" t="s">
         <v>86</v>
@@ -19268,16 +19211,16 @@
         <v>41</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F201" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="G201" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="G201" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="H201" s="8" t="s">
         <v>91</v>
@@ -19289,7 +19232,7 @@
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
       <c r="M201" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N201" s="11" t="n">
         <v>4607042439216</v>
@@ -19308,14 +19251,14 @@
       <c r="V201" s="8"/>
       <c r="W201" s="8"/>
       <c r="X201" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
       <c r="AA201" s="15"/>
       <c r="AB201" s="8"/>
       <c r="AC201" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD201" s="8" t="s">
         <v>86</v>
@@ -19353,16 +19296,16 @@
         <v>42</v>
       </c>
       <c r="E202" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="F202" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="G202" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="G202" s="8" t="s">
-        <v>632</v>
-      </c>
       <c r="H202" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I202" s="8"/>
       <c r="J202" s="9" t="n">
@@ -19371,26 +19314,26 @@
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
       <c r="M202" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N202" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O202" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P202" s="11"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="8"/>
       <c r="S202" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T202" s="8"/>
       <c r="U202" s="8"/>
       <c r="V202" s="8"/>
       <c r="W202" s="8"/>
       <c r="X202" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
@@ -19401,7 +19344,7 @@
         <v>86</v>
       </c>
       <c r="AE202" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF202" s="10" t="n">
         <v>0.0225</v>
@@ -19434,19 +19377,19 @@
         <v>41</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F203" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="G203" s="8" t="s">
-        <v>635</v>
-      </c>
       <c r="H203" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="8" t="n">
@@ -19460,7 +19403,7 @@
       <c r="P203" s="11"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S203" s="8"/>
       <c r="T203" s="8"/>
@@ -19468,14 +19411,14 @@
       <c r="V203" s="8"/>
       <c r="W203" s="8"/>
       <c r="X203" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
       <c r="AA203" s="15"/>
       <c r="AB203" s="8"/>
       <c r="AC203" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD203" s="8" t="s">
         <v>86</v>
@@ -19497,7 +19440,7 @@
         <v>197</v>
       </c>
       <c r="AM203" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AN203" s="17" t="n">
         <v>503</v>
@@ -19514,16 +19457,16 @@
         <v>41</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>91</v>
@@ -19535,7 +19478,7 @@
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
       <c r="M204" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N204" s="11" t="n">
         <v>40822426</v>
@@ -19554,14 +19497,14 @@
       <c r="V204" s="8"/>
       <c r="W204" s="8"/>
       <c r="X204" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
       <c r="AA204" s="15"/>
       <c r="AB204" s="8"/>
       <c r="AC204" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD204" s="8" t="s">
         <v>86</v>
@@ -19599,16 +19542,16 @@
         <v>42</v>
       </c>
       <c r="E205" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="G205" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="G205" s="8" t="s">
-        <v>640</v>
-      </c>
       <c r="H205" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="9" t="n">
@@ -19617,26 +19560,26 @@
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
       <c r="M205" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N205" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O205" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P205" s="11"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="8"/>
       <c r="S205" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T205" s="8"/>
       <c r="U205" s="8"/>
       <c r="V205" s="8"/>
       <c r="W205" s="8"/>
       <c r="X205" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
@@ -19647,7 +19590,7 @@
         <v>86</v>
       </c>
       <c r="AE205" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF205" s="10" t="n">
         <v>0.0425</v>
@@ -19680,19 +19623,19 @@
         <v>41</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F206" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="G206" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="G206" s="8" t="s">
-        <v>643</v>
-      </c>
       <c r="H206" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="8" t="n">
@@ -19706,7 +19649,7 @@
       <c r="P206" s="11"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S206" s="8"/>
       <c r="T206" s="8"/>
@@ -19714,14 +19657,14 @@
       <c r="V206" s="8"/>
       <c r="W206" s="8"/>
       <c r="X206" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
       <c r="AA206" s="15"/>
       <c r="AB206" s="8"/>
       <c r="AC206" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD206" s="8" t="s">
         <v>86</v>
@@ -19743,7 +19686,7 @@
         <v>200</v>
       </c>
       <c r="AM206" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AN206" s="17" t="n">
         <v>504</v>
@@ -19760,16 +19703,16 @@
         <v>41</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F207" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G207" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>646</v>
       </c>
       <c r="H207" s="8" t="s">
         <v>91</v>
@@ -19781,7 +19724,7 @@
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
       <c r="M207" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N207" s="20" t="n">
         <v>4607042431722</v>
@@ -19800,14 +19743,14 @@
       <c r="V207" s="8"/>
       <c r="W207" s="8"/>
       <c r="X207" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
       <c r="AA207" s="15"/>
       <c r="AB207" s="8"/>
       <c r="AC207" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD207" s="8" t="s">
         <v>86</v>
@@ -19842,16 +19785,16 @@
         <v>41</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F208" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="G208" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>91</v>
@@ -19863,10 +19806,10 @@
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
       <c r="M208" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N208" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
@@ -19882,14 +19825,14 @@
       <c r="V208" s="8"/>
       <c r="W208" s="8"/>
       <c r="X208" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
       <c r="AA208" s="15"/>
       <c r="AB208" s="8"/>
       <c r="AC208" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD208" s="8" t="s">
         <v>86</v>
@@ -19927,16 +19870,16 @@
         <v>42</v>
       </c>
       <c r="E209" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="F209" s="8" t="s">
+      <c r="G209" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="G209" s="8" t="s">
-        <v>651</v>
-      </c>
       <c r="H209" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I209" s="8"/>
       <c r="J209" s="9" t="n">
@@ -19945,26 +19888,26 @@
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
       <c r="M209" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N209" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O209" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P209" s="11"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="8"/>
       <c r="S209" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T209" s="8"/>
       <c r="U209" s="8"/>
       <c r="V209" s="8"/>
       <c r="W209" s="8"/>
       <c r="X209" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
@@ -19975,7 +19918,7 @@
         <v>86</v>
       </c>
       <c r="AE209" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF209" s="10" t="n">
         <v>0.04</v>
@@ -20009,16 +19952,16 @@
         <v>42</v>
       </c>
       <c r="E210" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="G210" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="G210" s="8" t="s">
+      <c r="H210" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="H210" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
@@ -20030,7 +19973,7 @@
       <c r="P210" s="11"/>
       <c r="Q210" s="11"/>
       <c r="R210" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S210" s="8"/>
       <c r="T210" s="8"/>
@@ -20038,7 +19981,7 @@
       <c r="V210" s="8"/>
       <c r="W210" s="8"/>
       <c r="X210" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
@@ -20049,7 +19992,7 @@
         <v>86</v>
       </c>
       <c r="AE210" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF210" s="10" t="n">
         <v>0.065</v>
@@ -20057,7 +20000,7 @@
       <c r="AG210" s="8"/>
       <c r="AH210" s="8"/>
       <c r="AI210" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AJ210" s="8"/>
       <c r="AK210" s="8" t="n">
@@ -20067,7 +20010,7 @@
         <v>204</v>
       </c>
       <c r="AM210" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AN210" s="8" t="n">
         <v>311</v>
@@ -20087,16 +20030,16 @@
         <v>42</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F211" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="G211" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="G211" s="8" t="s">
+      <c r="H211" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="H211" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="I211" s="8"/>
       <c r="J211" s="8" t="n">
@@ -20107,7 +20050,7 @@
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N211" s="11" t="s">
         <v>546</v>
@@ -20124,7 +20067,7 @@
       <c r="V211" s="8"/>
       <c r="W211" s="8"/>
       <c r="X211" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
@@ -20167,16 +20110,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F212" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G212" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="H212" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="H212" s="8" t="s">
-        <v>666</v>
       </c>
       <c r="I212" s="8"/>
       <c r="J212" s="8" t="n">
@@ -20185,7 +20128,7 @@
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
       <c r="M212" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N212" s="11" t="s">
         <v>546</v>
@@ -20202,7 +20145,7 @@
       <c r="V212" s="8"/>
       <c r="W212" s="8"/>
       <c r="X212" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
@@ -20245,16 +20188,16 @@
         <v>42</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F213" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G213" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="G213" s="8" t="s">
-        <v>669</v>
-      </c>
       <c r="H213" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="8" t="n">
@@ -20269,16 +20212,16 @@
       <c r="Q213" s="11"/>
       <c r="R213" s="8"/>
       <c r="S213" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T213" s="8"/>
       <c r="U213" s="8"/>
       <c r="V213" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W213" s="8"/>
       <c r="X213" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
@@ -20297,10 +20240,10 @@
       <c r="AG213" s="8"/>
       <c r="AH213" s="8"/>
       <c r="AI213" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ213" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK213" s="8" t="n">
         <v>2</v>
@@ -20327,16 +20270,16 @@
         <v>42</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F214" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="G214" s="8" t="s">
+      <c r="H214" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="H214" s="8" t="s">
-        <v>675</v>
       </c>
       <c r="I214" s="8"/>
       <c r="J214" s="8" t="n">
@@ -20349,7 +20292,7 @@
         <v>26</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N214" s="11" t="s">
         <v>546</v>
@@ -20366,7 +20309,7 @@
       <c r="V214" s="8"/>
       <c r="W214" s="8"/>
       <c r="X214" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
@@ -20385,10 +20328,10 @@
       <c r="AG214" s="8"/>
       <c r="AH214" s="8"/>
       <c r="AI214" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ214" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK214" s="8" t="n">
         <v>2</v>
@@ -20415,13 +20358,13 @@
         <v>42</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F215" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G215" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="H215" s="8" t="s">
         <v>85</v>
@@ -20436,7 +20379,7 @@
       <c r="P215" s="11"/>
       <c r="Q215" s="11"/>
       <c r="R215" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S215" s="8"/>
       <c r="T215" s="8"/>
@@ -20444,7 +20387,7 @@
       <c r="V215" s="8"/>
       <c r="W215" s="8"/>
       <c r="X215" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
@@ -20455,7 +20398,7 @@
         <v>86</v>
       </c>
       <c r="AE215" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF215" s="10" t="n">
         <v>0.01625</v>
@@ -20467,10 +20410,10 @@
         <v>1</v>
       </c>
       <c r="AI215" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ215" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK215" s="8" t="n">
         <v>2</v>
@@ -20479,7 +20422,7 @@
         <v>209</v>
       </c>
       <c r="AM215" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN215" s="24" t="n">
         <v>312</v>
@@ -20500,13 +20443,13 @@
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="G216" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="G216" s="8" t="s">
-        <v>681</v>
-      </c>
       <c r="H216" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I216" s="8"/>
       <c r="J216" s="8" t="n">
@@ -20515,31 +20458,31 @@
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
       <c r="M216" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="N216" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="N216" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
       <c r="Q216" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R216" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S216" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T216" s="8"/>
       <c r="U216" s="8"/>
       <c r="V216" s="8"/>
       <c r="W216" s="8"/>
       <c r="X216" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y216" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z216" s="8"/>
       <c r="AA216" s="8"/>
@@ -20547,16 +20490,16 @@
       <c r="AC216" s="8"/>
       <c r="AD216" s="8"/>
       <c r="AE216" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF216" s="10"/>
       <c r="AG216" s="8"/>
       <c r="AH216" s="8"/>
       <c r="AI216" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ216" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK216" s="8" t="n">
         <v>3</v>
@@ -20584,13 +20527,13 @@
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="G217" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="G217" s="8" t="s">
-        <v>687</v>
-      </c>
       <c r="H217" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="8" t="n">
@@ -20599,31 +20542,31 @@
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
       <c r="M217" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="N217" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="N217" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
       <c r="Q217" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R217" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T217" s="8"/>
       <c r="U217" s="8"/>
       <c r="V217" s="8"/>
       <c r="W217" s="8"/>
       <c r="X217" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y217" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z217" s="8"/>
       <c r="AA217" s="8"/>
@@ -20631,16 +20574,16 @@
       <c r="AC217" s="8"/>
       <c r="AD217" s="8"/>
       <c r="AE217" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF217" s="10"/>
       <c r="AG217" s="8"/>
       <c r="AH217" s="8"/>
       <c r="AI217" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ217" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK217" s="8" t="n">
         <v>3</v>
@@ -20668,10 +20611,10 @@
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G218" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="G218" s="8" t="s">
-        <v>690</v>
       </c>
       <c r="H218" s="8" t="s">
         <v>508</v>
@@ -20688,7 +20631,7 @@
       <c r="P218" s="11"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S218" s="8"/>
       <c r="T218" s="8"/>
@@ -20696,7 +20639,7 @@
       <c r="V218" s="8"/>
       <c r="W218" s="8"/>
       <c r="X218" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
@@ -20711,10 +20654,10 @@
       <c r="AG218" s="8"/>
       <c r="AH218" s="8"/>
       <c r="AI218" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ218" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK218" s="8" t="n">
         <v>3</v>
@@ -20723,7 +20666,7 @@
         <v>213</v>
       </c>
       <c r="AM218" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AN218" s="8" t="n">
         <v>209</v>
@@ -20744,10 +20687,10 @@
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>693</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>91</v>
@@ -20759,48 +20702,48 @@
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
       <c r="M219" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="N219" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="N219" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="O219" s="11"/>
       <c r="P219" s="11"/>
       <c r="Q219" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R219" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S219" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T219" s="8"/>
       <c r="U219" s="8"/>
       <c r="V219" s="8"/>
       <c r="W219" s="8"/>
       <c r="X219" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
       <c r="AA219" s="8"/>
       <c r="AB219" s="8"/>
       <c r="AC219" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD219" s="8"/>
       <c r="AE219" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF219" s="10"/>
       <c r="AG219" s="8"/>
       <c r="AH219" s="8"/>
       <c r="AI219" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ219" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK219" s="8" t="n">
         <v>4</v>
@@ -20828,10 +20771,10 @@
       </c>
       <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G220" s="8" t="s">
         <v>694</v>
-      </c>
-      <c r="G220" s="8" t="s">
-        <v>695</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>91</v>
@@ -20843,48 +20786,48 @@
       <c r="K220" s="8"/>
       <c r="L220" s="8"/>
       <c r="M220" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="N220" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="N220" s="11" t="s">
-        <v>697</v>
       </c>
       <c r="O220" s="11"/>
       <c r="P220" s="11"/>
       <c r="Q220" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R220" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T220" s="8"/>
       <c r="U220" s="8"/>
       <c r="V220" s="8"/>
       <c r="W220" s="8"/>
       <c r="X220" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
       <c r="AA220" s="8"/>
       <c r="AB220" s="8"/>
       <c r="AC220" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD220" s="8"/>
       <c r="AE220" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF220" s="10"/>
       <c r="AG220" s="8"/>
       <c r="AH220" s="8"/>
       <c r="AI220" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ220" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK220" s="8" t="n">
         <v>4</v>
@@ -20912,13 +20855,13 @@
       </c>
       <c r="E221" s="8"/>
       <c r="F221" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="G221" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="H221" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="H221" s="8" t="s">
-        <v>700</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="8" t="n">
@@ -20927,7 +20870,7 @@
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
       <c r="M221" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N221" s="11" t="s">
         <v>546</v>
@@ -20946,7 +20889,7 @@
       <c r="V221" s="8"/>
       <c r="W221" s="8"/>
       <c r="X221" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
@@ -20961,10 +20904,10 @@
       <c r="AG221" s="8"/>
       <c r="AH221" s="8"/>
       <c r="AI221" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ221" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK221" s="8" t="n">
         <v>3</v>
@@ -20991,16 +20934,16 @@
         <v>42</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F222" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="G222" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="G222" s="8" t="s">
+      <c r="H222" s="8" t="s">
         <v>702</v>
-      </c>
-      <c r="H222" s="8" t="s">
-        <v>703</v>
       </c>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
@@ -21022,7 +20965,7 @@
       <c r="V222" s="8"/>
       <c r="W222" s="8"/>
       <c r="X222" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
@@ -21033,7 +20976,7 @@
         <v>86</v>
       </c>
       <c r="AE222" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF222" s="10" t="n">
         <v>0.01625</v>
@@ -21041,10 +20984,10 @@
       <c r="AG222" s="8"/>
       <c r="AH222" s="8"/>
       <c r="AI222" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ222" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK222" s="8" t="n">
         <v>2</v>
@@ -21068,19 +21011,19 @@
         <v>41</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F223" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="G223" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="H223" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="8" t="n">
@@ -21102,7 +21045,7 @@
       <c r="V223" s="8"/>
       <c r="W223" s="8"/>
       <c r="X223" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
@@ -21113,7 +21056,7 @@
         <v>86</v>
       </c>
       <c r="AE223" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF223" s="10" t="n">
         <v>0.03</v>
@@ -21129,7 +21072,7 @@
         <v>218</v>
       </c>
       <c r="AM223" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN223" s="24" t="n">
         <v>301</v>
@@ -21146,19 +21089,19 @@
         <v>41</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F224" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="G224" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="G224" s="8" t="s">
+      <c r="H224" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="H224" s="8" t="s">
-        <v>709</v>
       </c>
       <c r="I224" s="8"/>
       <c r="J224" s="8" t="n">
@@ -21169,7 +21112,7 @@
       </c>
       <c r="L224" s="8"/>
       <c r="M224" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N224" s="11" t="s">
         <v>546</v>
@@ -21188,7 +21131,7 @@
       <c r="V224" s="8"/>
       <c r="W224" s="8"/>
       <c r="X224" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
@@ -21199,13 +21142,13 @@
         <v>86</v>
       </c>
       <c r="AE224" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF224" s="10"/>
       <c r="AG224" s="8"/>
       <c r="AH224" s="8"/>
       <c r="AI224" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AJ224" s="8"/>
       <c r="AK224" s="8" t="n">
@@ -21230,14 +21173,14 @@
         <v>41</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G225" s="8" t="s">
         <v>712</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>713</v>
       </c>
       <c r="H225" s="8" t="s">
         <v>85</v>
@@ -21281,7 +21224,7 @@
         <v>220</v>
       </c>
       <c r="AM225" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AN225" s="11" t="n">
         <v>400</v>
@@ -21298,19 +21241,19 @@
         <v>41</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E226" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F226" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="F226" s="8" t="s">
+      <c r="G226" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="H226" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="H226" s="8" t="s">
-        <v>718</v>
       </c>
       <c r="I226" s="8"/>
       <c r="J226" s="8" t="n">
@@ -21320,7 +21263,7 @@
       <c r="L226" s="8"/>
       <c r="M226" s="8"/>
       <c r="N226" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O226" s="11"/>
       <c r="P226" s="11"/>
@@ -21329,7 +21272,7 @@
         <v>93</v>
       </c>
       <c r="S226" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T226" s="8"/>
       <c r="U226" s="8"/>
@@ -21337,7 +21280,7 @@
       <c r="W226" s="8"/>
       <c r="X226" s="8"/>
       <c r="Y226" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z226" s="8"/>
       <c r="AA226" s="15"/>
@@ -21378,19 +21321,19 @@
         <v>41</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F227" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="G227" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="G227" s="8" t="s">
-        <v>721</v>
-      </c>
       <c r="H227" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="8" t="n">
@@ -21400,7 +21343,7 @@
       <c r="L227" s="8"/>
       <c r="M227" s="8"/>
       <c r="N227" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O227" s="11"/>
       <c r="P227" s="11"/>
@@ -21409,7 +21352,7 @@
         <v>93</v>
       </c>
       <c r="S227" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T227" s="8"/>
       <c r="U227" s="8"/>
@@ -21417,7 +21360,7 @@
       <c r="W227" s="8"/>
       <c r="X227" s="8"/>
       <c r="Y227" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Z227" s="8"/>
       <c r="AA227" s="15"/>
@@ -21458,19 +21401,19 @@
         <v>41</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F228" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="G228" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="G228" s="8" t="s">
-        <v>724</v>
-      </c>
       <c r="H228" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I228" s="8"/>
       <c r="J228" s="8" t="n">
@@ -21480,7 +21423,7 @@
       <c r="L228" s="8"/>
       <c r="M228" s="8"/>
       <c r="N228" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
@@ -21489,7 +21432,7 @@
         <v>93</v>
       </c>
       <c r="S228" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T228" s="8"/>
       <c r="U228" s="8"/>
@@ -21497,7 +21440,7 @@
       <c r="W228" s="8"/>
       <c r="X228" s="8"/>
       <c r="Y228" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Z228" s="8"/>
       <c r="AA228" s="15"/>
@@ -21538,22 +21481,22 @@
         <v>41</v>
       </c>
       <c r="D229" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E229" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="E229" s="24" t="s">
+      <c r="F229" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="F229" s="24" t="s">
+      <c r="G229" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="G229" s="24" t="s">
+      <c r="H229" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="I229" s="8" t="s">
         <v>730</v>
-      </c>
-      <c r="I229" s="8" t="s">
-        <v>731</v>
       </c>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
@@ -21565,7 +21508,7 @@
       <c r="Q229" s="8"/>
       <c r="R229" s="8"/>
       <c r="S229" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T229" s="8"/>
       <c r="U229" s="8"/>
@@ -21589,7 +21532,7 @@
         <v>218</v>
       </c>
       <c r="AM229" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AN229" s="8"/>
     </row>
@@ -21604,22 +21547,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E230" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F230" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="F230" s="8" t="s">
+      <c r="G230" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="G230" s="17" t="s">
-        <v>736</v>
-      </c>
       <c r="H230" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="I230" s="8" t="s">
         <v>730</v>
-      </c>
-      <c r="I230" s="8" t="s">
-        <v>731</v>
       </c>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -21631,7 +21574,7 @@
       <c r="Q230" s="8"/>
       <c r="R230" s="8"/>
       <c r="S230" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T230" s="8"/>
       <c r="U230" s="8"/>
@@ -21655,7 +21598,7 @@
         <v>219</v>
       </c>
       <c r="AM230" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AN230" s="8"/>
     </row>
@@ -21670,36 +21613,36 @@
         <v>41</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E231" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="F231" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="F231" s="24" t="s">
+      <c r="G231" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="H231" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="G231" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="H231" s="8" t="s">
+      <c r="I231" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I231" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
       <c r="M231" s="8"/>
       <c r="N231" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O231" s="8"/>
       <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
       <c r="R231" s="8"/>
       <c r="S231" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T231" s="8"/>
       <c r="U231" s="8"/>
@@ -21738,36 +21681,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E232" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="F232" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="F232" s="24" t="s">
+      <c r="G232" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="H232" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="G232" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="H232" s="8" t="s">
+      <c r="I232" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I232" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
       <c r="N232" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
       <c r="Q232" s="8"/>
       <c r="R232" s="8"/>
       <c r="S232" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T232" s="8"/>
       <c r="U232" s="8"/>
@@ -21806,22 +21749,22 @@
         <v>41</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E233" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="F233" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="F233" s="24" t="s">
+      <c r="G233" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="G233" s="24" t="s">
+      <c r="H233" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="H233" s="8" t="s">
+      <c r="I233" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="I233" s="8" t="s">
-        <v>748</v>
       </c>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -21833,7 +21776,7 @@
       <c r="Q233" s="8"/>
       <c r="R233" s="8"/>
       <c r="S233" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T233" s="8"/>
       <c r="U233" s="8"/>
@@ -21857,7 +21800,7 @@
         <v>222</v>
       </c>
       <c r="AM233" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AN233" s="8"/>
     </row>
@@ -21872,22 +21815,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E234" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="F234" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="F234" s="24" t="s">
+      <c r="G234" s="24" t="s">
         <v>751</v>
       </c>
-      <c r="G234" s="24" t="s">
+      <c r="H234" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="H234" s="8" t="s">
-        <v>753</v>
-      </c>
       <c r="I234" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -21899,7 +21842,7 @@
       <c r="Q234" s="8"/>
       <c r="R234" s="8"/>
       <c r="S234" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T234" s="8"/>
       <c r="U234" s="8"/>
@@ -21938,36 +21881,36 @@
         <v>41</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E235" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="F235" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="F235" s="24" t="s">
+      <c r="G235" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="G235" s="24" t="s">
+      <c r="H235" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="H235" s="8" t="s">
-        <v>757</v>
-      </c>
       <c r="I235" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
       <c r="N235" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O235" s="8"/>
       <c r="P235" s="8"/>
       <c r="Q235" s="8"/>
       <c r="R235" s="8"/>
       <c r="S235" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T235" s="8"/>
       <c r="U235" s="8"/>
@@ -22004,22 +21947,22 @@
         <v>41</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E236" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="F236" s="24" t="s">
         <v>760</v>
       </c>
-      <c r="F236" s="24" t="s">
+      <c r="G236" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="G236" s="24" t="s">
+      <c r="H236" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="H236" s="8" t="s">
-        <v>763</v>
-      </c>
       <c r="I236" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -22033,7 +21976,7 @@
       <c r="Q236" s="8"/>
       <c r="R236" s="8"/>
       <c r="S236" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T236" s="8"/>
       <c r="U236" s="8"/>
@@ -22070,36 +22013,36 @@
         <v>41</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E237" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="F237" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="F237" s="24" t="s">
+      <c r="G237" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="G237" s="24" t="s">
-        <v>766</v>
-      </c>
       <c r="H237" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
       <c r="L237" s="8"/>
       <c r="M237" s="8"/>
       <c r="N237" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O237" s="8"/>
       <c r="P237" s="8"/>
       <c r="Q237" s="8"/>
       <c r="R237" s="8"/>
       <c r="S237" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
@@ -22136,38 +22079,38 @@
         <v>41</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E238" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F238" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F238" s="24" t="s">
+      <c r="G238" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G238" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H238" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I238" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="N238" s="13" t="s">
         <v>771</v>
-      </c>
-      <c r="N238" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="O238" s="8"/>
       <c r="P238" s="8"/>
       <c r="Q238" s="8"/>
       <c r="R238" s="8"/>
       <c r="S238" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T238" s="8"/>
       <c r="U238" s="8"/>
@@ -22206,38 +22149,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E239" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F239" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F239" s="24" t="s">
+      <c r="G239" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G239" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H239" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I239" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I239" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
       <c r="L239" s="8"/>
       <c r="M239" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="N239" s="13" t="s">
         <v>771</v>
-      </c>
-      <c r="N239" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="O239" s="8"/>
       <c r="P239" s="8"/>
       <c r="Q239" s="8"/>
       <c r="R239" s="8"/>
       <c r="S239" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T239" s="8"/>
       <c r="U239" s="8"/>
@@ -22276,38 +22219,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E240" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F240" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F240" s="24" t="s">
+      <c r="G240" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G240" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H240" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I240" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
       <c r="L240" s="8"/>
       <c r="M240" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="N240" s="13" t="s">
         <v>771</v>
-      </c>
-      <c r="N240" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="O240" s="8"/>
       <c r="P240" s="8"/>
       <c r="Q240" s="8"/>
       <c r="R240" s="8"/>
       <c r="S240" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T240" s="8"/>
       <c r="U240" s="8"/>
@@ -22346,38 +22289,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E241" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F241" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F241" s="24" t="s">
+      <c r="G241" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G241" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H241" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I241" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
       <c r="L241" s="8"/>
       <c r="M241" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N241" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O241" s="8"/>
       <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
       <c r="R241" s="8"/>
       <c r="S241" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T241" s="8"/>
       <c r="U241" s="8"/>
@@ -22414,38 +22357,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E242" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F242" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="24" t="s">
+      <c r="G242" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G242" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H242" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I242" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J242" s="8"/>
       <c r="K242" s="8"/>
       <c r="L242" s="8"/>
       <c r="M242" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N242" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O242" s="8"/>
       <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
       <c r="R242" s="8"/>
       <c r="S242" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T242" s="8"/>
       <c r="U242" s="8"/>
@@ -22469,7 +22412,7 @@
         <v>231</v>
       </c>
       <c r="AM242" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AN242" s="8"/>
     </row>
@@ -22484,38 +22427,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E243" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F243" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F243" s="24" t="s">
+      <c r="G243" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G243" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H243" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I243" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
       <c r="L243" s="8"/>
       <c r="M243" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N243" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O243" s="8"/>
       <c r="P243" s="8"/>
       <c r="Q243" s="8"/>
       <c r="R243" s="8"/>
       <c r="S243" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T243" s="8"/>
       <c r="U243" s="8"/>
@@ -22539,7 +22482,7 @@
         <v>232</v>
       </c>
       <c r="AM243" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AN243" s="8"/>
     </row>
@@ -22554,38 +22497,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E244" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F244" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F244" s="24" t="s">
+      <c r="G244" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G244" s="24" t="s">
-        <v>770</v>
-      </c>
       <c r="H244" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I244" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="I244" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="J244" s="8"/>
       <c r="K244" s="8"/>
       <c r="L244" s="8"/>
       <c r="M244" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N244" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O244" s="8"/>
       <c r="P244" s="8"/>
       <c r="Q244" s="8"/>
       <c r="R244" s="8"/>
       <c r="S244" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T244" s="8"/>
       <c r="U244" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -12,10 +12,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="776">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1663,10 +1663,6 @@
   </si>
   <si>
     <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола Зеро - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Coca-Cola Zero - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
@@ -2915,49 +2911,48 @@
   <dimension ref="A1:AN244"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A221" activeCellId="0" sqref="A221"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="3" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="3" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="80.5546558704453"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="81.3036437246964"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.6032388663968"/>
@@ -15311,7 +15306,7 @@
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="24" t="s">
-        <v>494</v>
+        <v>107</v>
       </c>
       <c r="N152" s="23" t="n">
         <v>5449000133335</v>
@@ -15376,10 +15371,10 @@
         <v>487</v>
       </c>
       <c r="F153" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="H153" s="10" t="s">
         <v>91</v>
@@ -15456,10 +15451,10 @@
         <v>462</v>
       </c>
       <c r="F154" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>498</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>465</v>
@@ -15511,7 +15506,7 @@
         <v>140</v>
       </c>
       <c r="AM154" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN154" s="10" t="n">
         <v>303</v>
@@ -15534,10 +15529,10 @@
         <v>462</v>
       </c>
       <c r="F155" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G155" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>501</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>91</v>
@@ -15552,10 +15547,10 @@
         <v>470</v>
       </c>
       <c r="N155" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
@@ -15616,10 +15611,10 @@
         <v>462</v>
       </c>
       <c r="F156" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G156" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>475</v>
@@ -15644,7 +15639,7 @@
       <c r="T156" s="10"/>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W156" s="10"/>
       <c r="X156" s="10"/>
@@ -15694,13 +15689,13 @@
         <v>462</v>
       </c>
       <c r="F157" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="G157" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="G157" s="10" t="s">
+      <c r="H157" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>508</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="12" t="n">
@@ -15747,7 +15742,7 @@
         <v>143</v>
       </c>
       <c r="AM157" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN157" s="10" t="n">
         <v>140</v>
@@ -15770,10 +15765,10 @@
         <v>462</v>
       </c>
       <c r="F158" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="G158" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="H158" s="10" t="s">
         <v>480</v>
@@ -15819,7 +15814,7 @@
       <c r="AG158" s="10"/>
       <c r="AH158" s="10"/>
       <c r="AI158" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="10" t="n">
@@ -15850,10 +15845,10 @@
         <v>462</v>
       </c>
       <c r="F159" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="G159" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>514</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>480</v>
@@ -15899,7 +15894,7 @@
       <c r="AG159" s="10"/>
       <c r="AH159" s="10"/>
       <c r="AI159" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ159" s="10"/>
       <c r="AK159" s="10" t="n">
@@ -15930,10 +15925,10 @@
         <v>487</v>
       </c>
       <c r="F160" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G160" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>465</v>
@@ -15977,10 +15972,10 @@
       <c r="AG160" s="10"/>
       <c r="AH160" s="10"/>
       <c r="AI160" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ160" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK160" s="10" t="n">
         <v>2</v>
@@ -15989,7 +15984,7 @@
         <v>146</v>
       </c>
       <c r="AM160" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN160" s="10" t="n">
         <v>303</v>
@@ -16012,10 +16007,10 @@
         <v>487</v>
       </c>
       <c r="F161" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>91</v>
@@ -16092,10 +16087,10 @@
         <v>487</v>
       </c>
       <c r="F162" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="G162" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>523</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>91</v>
@@ -16172,10 +16167,10 @@
         <v>487</v>
       </c>
       <c r="F163" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G163" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>91</v>
@@ -16252,10 +16247,10 @@
         <v>487</v>
       </c>
       <c r="F164" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="H164" s="10" t="s">
         <v>91</v>
@@ -16332,10 +16327,10 @@
         <v>462</v>
       </c>
       <c r="F165" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G165" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="H165" s="10" t="s">
         <v>465</v>
@@ -16387,7 +16382,7 @@
         <v>151</v>
       </c>
       <c r="AM165" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AN165" s="10" t="n">
         <v>302</v>
@@ -16410,10 +16405,10 @@
         <v>462</v>
       </c>
       <c r="F166" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="G166" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>91</v>
@@ -16492,10 +16487,10 @@
         <v>462</v>
       </c>
       <c r="F167" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="G167" s="10" t="s">
         <v>533</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>534</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>475</v>
@@ -16520,7 +16515,7 @@
       <c r="T167" s="10"/>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W167" s="10"/>
       <c r="X167" s="10"/>
@@ -16570,10 +16565,10 @@
         <v>462</v>
       </c>
       <c r="F168" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G168" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>480</v>
@@ -16583,7 +16578,7 @@
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N168" s="14" t="s">
         <v>103</v>
@@ -16650,10 +16645,10 @@
         <v>462</v>
       </c>
       <c r="F169" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G169" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="G169" s="10" t="s">
-        <v>540</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>465</v>
@@ -16705,7 +16700,7 @@
         <v>155</v>
       </c>
       <c r="AM169" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN169" s="10" t="n">
         <v>320</v>
@@ -16728,10 +16723,10 @@
         <v>462</v>
       </c>
       <c r="F170" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="G170" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="G170" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>91</v>
@@ -16746,27 +16741,27 @@
         <v>470</v>
       </c>
       <c r="N170" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="O170" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="O170" s="14" t="s">
+      <c r="P170" s="14" t="s">
         <v>545</v>
-      </c>
-      <c r="P170" s="14" t="s">
-        <v>546</v>
       </c>
       <c r="Q170" s="14"/>
       <c r="R170" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S170" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T170" s="10"/>
       <c r="U170" s="10"/>
       <c r="V170" s="21"/>
       <c r="W170" s="10"/>
       <c r="X170" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y170" s="10"/>
       <c r="Z170" s="10"/>
@@ -16812,10 +16807,10 @@
         <v>462</v>
       </c>
       <c r="F171" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G171" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="H171" s="10" t="s">
         <v>475</v>
@@ -16840,11 +16835,11 @@
       <c r="T171" s="10"/>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W171" s="10"/>
       <c r="X171" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y171" s="10"/>
       <c r="Z171" s="10"/>
@@ -16890,13 +16885,13 @@
         <v>462</v>
       </c>
       <c r="F172" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="G172" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="G172" s="10" t="s">
-        <v>553</v>
-      </c>
       <c r="H172" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I172" s="10"/>
       <c r="J172" s="12" t="n">
@@ -16918,7 +16913,7 @@
       <c r="V172" s="21"/>
       <c r="W172" s="10"/>
       <c r="X172" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y172" s="10"/>
       <c r="Z172" s="10"/>
@@ -16943,7 +16938,7 @@
         <v>158</v>
       </c>
       <c r="AM172" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AN172" s="10" t="n">
         <v>155</v>
@@ -16966,10 +16961,10 @@
         <v>462</v>
       </c>
       <c r="F173" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="G173" s="14" t="s">
         <v>555</v>
-      </c>
-      <c r="G173" s="14" t="s">
-        <v>556</v>
       </c>
       <c r="H173" s="10" t="s">
         <v>480</v>
@@ -16998,7 +16993,7 @@
       <c r="V173" s="21"/>
       <c r="W173" s="10"/>
       <c r="X173" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y173" s="10"/>
       <c r="Z173" s="10"/>
@@ -17044,10 +17039,10 @@
         <v>462</v>
       </c>
       <c r="F174" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="G174" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>558</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>480</v>
@@ -17076,7 +17071,7 @@
       <c r="V174" s="21"/>
       <c r="W174" s="10"/>
       <c r="X174" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
@@ -17122,10 +17117,10 @@
         <v>462</v>
       </c>
       <c r="F175" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G175" s="14" t="s">
         <v>559</v>
-      </c>
-      <c r="G175" s="14" t="s">
-        <v>560</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>480</v>
@@ -17154,7 +17149,7 @@
       <c r="V175" s="21"/>
       <c r="W175" s="10"/>
       <c r="X175" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y175" s="10"/>
       <c r="Z175" s="10"/>
@@ -17200,10 +17195,10 @@
         <v>462</v>
       </c>
       <c r="F176" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G176" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>562</v>
       </c>
       <c r="H176" s="10" t="s">
         <v>465</v>
@@ -17255,7 +17250,7 @@
         <v>162</v>
       </c>
       <c r="AM176" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN176" s="10" t="n">
         <v>302</v>
@@ -17278,10 +17273,10 @@
         <v>462</v>
       </c>
       <c r="F177" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G177" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="G177" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="H177" s="10" t="s">
         <v>91</v>
@@ -17360,10 +17355,10 @@
         <v>462</v>
       </c>
       <c r="F178" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G178" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>475</v>
@@ -17388,7 +17383,7 @@
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
       <c r="V178" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W178" s="10"/>
       <c r="X178" s="25"/>
@@ -17438,13 +17433,13 @@
         <v>462</v>
       </c>
       <c r="F179" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="G179" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="G179" s="10" t="s">
-        <v>570</v>
-      </c>
       <c r="H179" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I179" s="10"/>
       <c r="J179" s="12" t="n">
@@ -17514,10 +17509,10 @@
         <v>462</v>
       </c>
       <c r="F180" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="G180" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="G180" s="14" t="s">
-        <v>572</v>
       </c>
       <c r="H180" s="10" t="s">
         <v>480</v>
@@ -17565,7 +17560,7 @@
       <c r="AG180" s="10"/>
       <c r="AH180" s="10"/>
       <c r="AI180" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AJ180" s="10"/>
       <c r="AK180" s="10" t="n">
@@ -17596,10 +17591,10 @@
         <v>462</v>
       </c>
       <c r="F181" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G181" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="G181" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="H181" s="10" t="s">
         <v>465</v>
@@ -17651,7 +17646,7 @@
         <v>167</v>
       </c>
       <c r="AM181" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN181" s="10" t="n">
         <v>303</v>
@@ -17674,10 +17669,10 @@
         <v>462</v>
       </c>
       <c r="F182" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="G182" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>91</v>
@@ -17692,10 +17687,10 @@
         <v>470</v>
       </c>
       <c r="N182" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P182" s="14"/>
       <c r="Q182" s="14"/>
@@ -17756,10 +17751,10 @@
         <v>462</v>
       </c>
       <c r="F183" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="G183" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>475</v>
@@ -17784,7 +17779,7 @@
       <c r="T183" s="10"/>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W183" s="10"/>
       <c r="X183" s="10"/>
@@ -17834,10 +17829,10 @@
         <v>462</v>
       </c>
       <c r="F184" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G184" s="14" t="s">
         <v>581</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>582</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>91</v>
@@ -17885,7 +17880,7 @@
       <c r="AG184" s="10"/>
       <c r="AH184" s="10"/>
       <c r="AI184" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AJ184" s="10"/>
       <c r="AK184" s="10" t="n">
@@ -17913,16 +17908,16 @@
         <v>482</v>
       </c>
       <c r="E185" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="F185" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="G185" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="G185" s="10" t="s">
+      <c r="H185" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>587</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="12" t="n">
@@ -17950,7 +17945,7 @@
       <c r="V185" s="10"/>
       <c r="W185" s="10"/>
       <c r="X185" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y185" s="10"/>
       <c r="Z185" s="10"/>
@@ -17961,7 +17956,7 @@
         <v>86</v>
       </c>
       <c r="AE185" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF185" s="13" t="n">
         <v>0.0725</v>
@@ -18000,13 +17995,13 @@
         <v>487</v>
       </c>
       <c r="F186" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="G186" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="H186" s="10" t="s">
         <v>591</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>592</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="12" t="n">
@@ -18028,14 +18023,14 @@
       <c r="V186" s="10"/>
       <c r="W186" s="10"/>
       <c r="X186" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y186" s="10"/>
       <c r="Z186" s="10"/>
       <c r="AA186" s="18"/>
       <c r="AB186" s="10"/>
       <c r="AC186" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD186" s="10" t="s">
         <v>86</v>
@@ -18057,7 +18052,7 @@
         <v>180</v>
       </c>
       <c r="AM186" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AN186" s="20" t="n">
         <v>501</v>
@@ -18080,10 +18075,10 @@
         <v>487</v>
       </c>
       <c r="F187" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="G187" s="10" t="s">
         <v>595</v>
-      </c>
-      <c r="G187" s="10" t="s">
-        <v>596</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>91</v>
@@ -18114,14 +18109,14 @@
       <c r="V187" s="10"/>
       <c r="W187" s="10"/>
       <c r="X187" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y187" s="10"/>
       <c r="Z187" s="10"/>
       <c r="AA187" s="18"/>
       <c r="AB187" s="10"/>
       <c r="AC187" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD187" s="10" t="s">
         <v>86</v>
@@ -18162,10 +18157,10 @@
         <v>487</v>
       </c>
       <c r="F188" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="G188" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="G188" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>91</v>
@@ -18177,7 +18172,7 @@
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
       <c r="M188" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>103</v>
@@ -18196,14 +18191,14 @@
       <c r="V188" s="10"/>
       <c r="W188" s="10"/>
       <c r="X188" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
       <c r="AA188" s="18"/>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD188" s="10" t="s">
         <v>86</v>
@@ -18244,10 +18239,10 @@
         <v>487</v>
       </c>
       <c r="F189" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="G189" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>601</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>91</v>
@@ -18278,14 +18273,14 @@
       <c r="V189" s="10"/>
       <c r="W189" s="10"/>
       <c r="X189" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y189" s="10"/>
       <c r="Z189" s="10"/>
       <c r="AA189" s="18"/>
       <c r="AB189" s="10"/>
       <c r="AC189" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD189" s="10" t="s">
         <v>86</v>
@@ -18326,10 +18321,10 @@
         <v>487</v>
       </c>
       <c r="F190" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="G190" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="G190" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>91</v>
@@ -18360,14 +18355,14 @@
       <c r="V190" s="10"/>
       <c r="W190" s="10"/>
       <c r="X190" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y190" s="10"/>
       <c r="Z190" s="10"/>
       <c r="AA190" s="18"/>
       <c r="AB190" s="10"/>
       <c r="AC190" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD190" s="10" t="s">
         <v>86</v>
@@ -18408,10 +18403,10 @@
         <v>487</v>
       </c>
       <c r="F191" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="G191" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>91</v>
@@ -18442,14 +18437,14 @@
       <c r="V191" s="10"/>
       <c r="W191" s="10"/>
       <c r="X191" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y191" s="10"/>
       <c r="Z191" s="10"/>
       <c r="AA191" s="18"/>
       <c r="AB191" s="10"/>
       <c r="AC191" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD191" s="10" t="s">
         <v>86</v>
@@ -18490,10 +18485,10 @@
         <v>487</v>
       </c>
       <c r="F192" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G192" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="G192" s="10" t="s">
-        <v>607</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>91</v>
@@ -18505,7 +18500,7 @@
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
       <c r="M192" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N192" s="14" t="s">
         <v>133</v>
@@ -18524,14 +18519,14 @@
       <c r="V192" s="10"/>
       <c r="W192" s="10"/>
       <c r="X192" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y192" s="10"/>
       <c r="Z192" s="10"/>
       <c r="AA192" s="18"/>
       <c r="AB192" s="10"/>
       <c r="AC192" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD192" s="10" t="s">
         <v>86</v>
@@ -18572,10 +18567,10 @@
         <v>487</v>
       </c>
       <c r="F193" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="G193" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="G193" s="10" t="s">
-        <v>610</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>91</v>
@@ -18606,14 +18601,14 @@
       <c r="V193" s="10"/>
       <c r="W193" s="10"/>
       <c r="X193" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y193" s="10"/>
       <c r="Z193" s="10"/>
       <c r="AA193" s="18"/>
       <c r="AB193" s="10"/>
       <c r="AC193" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD193" s="10" t="s">
         <v>86</v>
@@ -18654,10 +18649,10 @@
         <v>487</v>
       </c>
       <c r="F194" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G194" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="G194" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>91</v>
@@ -18688,14 +18683,14 @@
       <c r="V194" s="10"/>
       <c r="W194" s="10"/>
       <c r="X194" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y194" s="10"/>
       <c r="Z194" s="10"/>
       <c r="AA194" s="18"/>
       <c r="AB194" s="10"/>
       <c r="AC194" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD194" s="10" t="s">
         <v>86</v>
@@ -18733,16 +18728,16 @@
         <v>42</v>
       </c>
       <c r="E195" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F195" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="F195" s="10" t="s">
+      <c r="G195" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="G195" s="10" t="s">
-        <v>615</v>
-      </c>
       <c r="H195" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="12" t="n">
@@ -18754,10 +18749,10 @@
         <v>470</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O195" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P195" s="14"/>
       <c r="Q195" s="10"/>
@@ -18770,7 +18765,7 @@
       <c r="V195" s="10"/>
       <c r="W195" s="10"/>
       <c r="X195" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y195" s="10"/>
       <c r="Z195" s="10"/>
@@ -18781,7 +18776,7 @@
         <v>86</v>
       </c>
       <c r="AE195" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF195" s="13" t="n">
         <v>0.0625</v>
@@ -18820,13 +18815,13 @@
         <v>487</v>
       </c>
       <c r="F196" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="G196" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="G196" s="10" t="s">
-        <v>617</v>
-      </c>
       <c r="H196" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I196" s="10"/>
       <c r="J196" s="12" t="n">
@@ -18848,14 +18843,14 @@
       <c r="V196" s="10"/>
       <c r="W196" s="10"/>
       <c r="X196" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y196" s="10"/>
       <c r="Z196" s="10"/>
       <c r="AA196" s="18"/>
       <c r="AB196" s="10"/>
       <c r="AC196" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD196" s="10" t="s">
         <v>86</v>
@@ -18877,7 +18872,7 @@
         <v>190</v>
       </c>
       <c r="AM196" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN196" s="20" t="n">
         <v>502</v>
@@ -18900,10 +18895,10 @@
         <v>487</v>
       </c>
       <c r="F197" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="G197" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="G197" s="10" t="s">
-        <v>620</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>91</v>
@@ -18934,14 +18929,14 @@
       <c r="V197" s="10"/>
       <c r="W197" s="10"/>
       <c r="X197" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y197" s="10"/>
       <c r="Z197" s="10"/>
       <c r="AA197" s="18"/>
       <c r="AB197" s="10"/>
       <c r="AC197" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD197" s="10" t="s">
         <v>86</v>
@@ -18982,10 +18977,10 @@
         <v>487</v>
       </c>
       <c r="F198" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="G198" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="G198" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>91</v>
@@ -19016,14 +19011,14 @@
       <c r="V198" s="10"/>
       <c r="W198" s="10"/>
       <c r="X198" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y198" s="10"/>
       <c r="Z198" s="10"/>
       <c r="AA198" s="18"/>
       <c r="AB198" s="10"/>
       <c r="AC198" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD198" s="10" t="s">
         <v>86</v>
@@ -19064,10 +19059,10 @@
         <v>487</v>
       </c>
       <c r="F199" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="G199" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="G199" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>91</v>
@@ -19098,14 +19093,14 @@
       <c r="V199" s="10"/>
       <c r="W199" s="10"/>
       <c r="X199" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y199" s="10"/>
       <c r="Z199" s="10"/>
       <c r="AA199" s="18"/>
       <c r="AB199" s="10"/>
       <c r="AC199" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD199" s="10" t="s">
         <v>86</v>
@@ -19146,10 +19141,10 @@
         <v>487</v>
       </c>
       <c r="F200" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>626</v>
       </c>
       <c r="H200" s="10" t="s">
         <v>91</v>
@@ -19180,14 +19175,14 @@
       <c r="V200" s="10"/>
       <c r="W200" s="10"/>
       <c r="X200" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y200" s="10"/>
       <c r="Z200" s="10"/>
       <c r="AA200" s="18"/>
       <c r="AB200" s="10"/>
       <c r="AC200" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD200" s="10" t="s">
         <v>86</v>
@@ -19228,10 +19223,10 @@
         <v>487</v>
       </c>
       <c r="F201" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="G201" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="G201" s="10" t="s">
-        <v>628</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>91</v>
@@ -19262,14 +19257,14 @@
       <c r="V201" s="10"/>
       <c r="W201" s="10"/>
       <c r="X201" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y201" s="10"/>
       <c r="Z201" s="10"/>
       <c r="AA201" s="18"/>
       <c r="AB201" s="10"/>
       <c r="AC201" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD201" s="10" t="s">
         <v>86</v>
@@ -19307,16 +19302,16 @@
         <v>42</v>
       </c>
       <c r="E202" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F202" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F202" s="10" t="s">
+      <c r="G202" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="G202" s="10" t="s">
-        <v>631</v>
-      </c>
       <c r="H202" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I202" s="10"/>
       <c r="J202" s="12" t="n">
@@ -19328,10 +19323,10 @@
         <v>470</v>
       </c>
       <c r="N202" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P202" s="14"/>
       <c r="Q202" s="10"/>
@@ -19344,7 +19339,7 @@
       <c r="V202" s="10"/>
       <c r="W202" s="10"/>
       <c r="X202" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y202" s="10"/>
       <c r="Z202" s="10"/>
@@ -19355,7 +19350,7 @@
         <v>86</v>
       </c>
       <c r="AE202" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF202" s="13" t="n">
         <v>0.0225</v>
@@ -19394,13 +19389,13 @@
         <v>487</v>
       </c>
       <c r="F203" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="G203" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="G203" s="10" t="s">
-        <v>634</v>
-      </c>
       <c r="H203" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I203" s="10"/>
       <c r="J203" s="12" t="n">
@@ -19422,14 +19417,14 @@
       <c r="V203" s="10"/>
       <c r="W203" s="10"/>
       <c r="X203" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y203" s="10"/>
       <c r="Z203" s="10"/>
       <c r="AA203" s="18"/>
       <c r="AB203" s="10"/>
       <c r="AC203" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD203" s="10" t="s">
         <v>86</v>
@@ -19451,7 +19446,7 @@
         <v>197</v>
       </c>
       <c r="AM203" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AN203" s="20" t="n">
         <v>503</v>
@@ -19474,7 +19469,7 @@
         <v>487</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G204" s="10" t="s">
         <v>219</v>
@@ -19491,8 +19486,8 @@
       <c r="M204" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="N204" s="14" t="n">
-        <v>40822426</v>
+      <c r="N204" s="23" t="n">
+        <v>5449000005489</v>
       </c>
       <c r="O204" s="14"/>
       <c r="P204" s="14"/>
@@ -19508,14 +19503,14 @@
       <c r="V204" s="10"/>
       <c r="W204" s="10"/>
       <c r="X204" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y204" s="10"/>
       <c r="Z204" s="10"/>
       <c r="AA204" s="18"/>
       <c r="AB204" s="10"/>
       <c r="AC204" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD204" s="10" t="s">
         <v>86</v>
@@ -19553,16 +19548,16 @@
         <v>42</v>
       </c>
       <c r="E205" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="F205" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="F205" s="10" t="s">
+      <c r="G205" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="G205" s="10" t="s">
-        <v>639</v>
-      </c>
       <c r="H205" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I205" s="10"/>
       <c r="J205" s="12" t="n">
@@ -19574,10 +19569,10 @@
         <v>470</v>
       </c>
       <c r="N205" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P205" s="14"/>
       <c r="Q205" s="10"/>
@@ -19590,7 +19585,7 @@
       <c r="V205" s="10"/>
       <c r="W205" s="10"/>
       <c r="X205" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y205" s="10"/>
       <c r="Z205" s="10"/>
@@ -19601,7 +19596,7 @@
         <v>86</v>
       </c>
       <c r="AE205" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF205" s="13" t="n">
         <v>0.0425</v>
@@ -19640,13 +19635,13 @@
         <v>487</v>
       </c>
       <c r="F206" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="G206" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="G206" s="10" t="s">
-        <v>642</v>
-      </c>
       <c r="H206" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="12" t="n">
@@ -19668,14 +19663,14 @@
       <c r="V206" s="10"/>
       <c r="W206" s="10"/>
       <c r="X206" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
       <c r="AA206" s="18"/>
       <c r="AB206" s="10"/>
       <c r="AC206" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD206" s="10" t="s">
         <v>86</v>
@@ -19697,7 +19692,7 @@
         <v>200</v>
       </c>
       <c r="AM206" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AN206" s="20" t="n">
         <v>504</v>
@@ -19720,10 +19715,10 @@
         <v>487</v>
       </c>
       <c r="F207" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G207" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>645</v>
       </c>
       <c r="H207" s="10" t="s">
         <v>91</v>
@@ -19754,14 +19749,14 @@
       <c r="V207" s="10"/>
       <c r="W207" s="10"/>
       <c r="X207" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
       <c r="AA207" s="18"/>
       <c r="AB207" s="10"/>
       <c r="AC207" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD207" s="10" t="s">
         <v>86</v>
@@ -19802,10 +19797,10 @@
         <v>487</v>
       </c>
       <c r="F208" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="G208" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="G208" s="10" t="s">
-        <v>647</v>
       </c>
       <c r="H208" s="10" t="s">
         <v>91</v>
@@ -19836,14 +19831,14 @@
       <c r="V208" s="10"/>
       <c r="W208" s="10"/>
       <c r="X208" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
       <c r="AA208" s="18"/>
       <c r="AB208" s="10"/>
       <c r="AC208" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD208" s="10" t="s">
         <v>86</v>
@@ -19881,16 +19876,16 @@
         <v>42</v>
       </c>
       <c r="E209" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="F209" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="F209" s="10" t="s">
+      <c r="G209" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="G209" s="10" t="s">
-        <v>650</v>
-      </c>
       <c r="H209" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I209" s="10"/>
       <c r="J209" s="12" t="n">
@@ -19902,10 +19897,10 @@
         <v>470</v>
       </c>
       <c r="N209" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P209" s="14"/>
       <c r="Q209" s="10"/>
@@ -19918,7 +19913,7 @@
       <c r="V209" s="10"/>
       <c r="W209" s="10"/>
       <c r="X209" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
@@ -19929,7 +19924,7 @@
         <v>86</v>
       </c>
       <c r="AE209" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF209" s="13" t="n">
         <v>0.04</v>
@@ -19963,16 +19958,16 @@
         <v>42</v>
       </c>
       <c r="E210" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="F210" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="G210" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G210" s="10" t="s">
+      <c r="H210" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="H210" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="12"/>
@@ -19984,7 +19979,7 @@
       <c r="P210" s="14"/>
       <c r="Q210" s="14"/>
       <c r="R210" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
@@ -19992,7 +19987,7 @@
       <c r="V210" s="10"/>
       <c r="W210" s="10"/>
       <c r="X210" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
@@ -20003,7 +19998,7 @@
         <v>86</v>
       </c>
       <c r="AE210" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF210" s="13" t="n">
         <v>0.065</v>
@@ -20011,7 +20006,7 @@
       <c r="AG210" s="10"/>
       <c r="AH210" s="10"/>
       <c r="AI210" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AJ210" s="10"/>
       <c r="AK210" s="10" t="n">
@@ -20021,7 +20016,7 @@
         <v>204</v>
       </c>
       <c r="AM210" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AN210" s="10" t="n">
         <v>311</v>
@@ -20041,16 +20036,16 @@
         <v>42</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F211" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="G211" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="G211" s="10" t="s">
+      <c r="H211" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="H211" s="10" t="s">
-        <v>662</v>
       </c>
       <c r="I211" s="10"/>
       <c r="J211" s="12" t="n">
@@ -20064,21 +20059,21 @@
         <v>470</v>
       </c>
       <c r="N211" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O211" s="14"/>
       <c r="P211" s="14"/>
       <c r="Q211" s="14"/>
       <c r="R211" s="10"/>
       <c r="S211" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T211" s="10"/>
       <c r="U211" s="10"/>
       <c r="V211" s="10"/>
       <c r="W211" s="10"/>
       <c r="X211" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
@@ -20121,16 +20116,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F212" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="G212" s="10" t="s">
+      <c r="H212" s="10" t="s">
         <v>664</v>
-      </c>
-      <c r="H212" s="10" t="s">
-        <v>665</v>
       </c>
       <c r="I212" s="10"/>
       <c r="J212" s="12" t="n">
@@ -20142,21 +20137,21 @@
         <v>470</v>
       </c>
       <c r="N212" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O212" s="14"/>
       <c r="P212" s="14"/>
       <c r="Q212" s="14"/>
       <c r="R212" s="10"/>
       <c r="S212" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T212" s="10"/>
       <c r="U212" s="10"/>
       <c r="V212" s="10"/>
       <c r="W212" s="10"/>
       <c r="X212" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
@@ -20202,10 +20197,10 @@
         <v>487</v>
       </c>
       <c r="F213" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="G213" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="H213" s="10" t="s">
         <v>475</v>
@@ -20223,16 +20218,16 @@
       <c r="Q213" s="14"/>
       <c r="R213" s="10"/>
       <c r="S213" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T213" s="10"/>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W213" s="10"/>
       <c r="X213" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
@@ -20251,10 +20246,10 @@
       <c r="AG213" s="10"/>
       <c r="AH213" s="10"/>
       <c r="AI213" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ213" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK213" s="10" t="n">
         <v>2</v>
@@ -20284,13 +20279,13 @@
         <v>487</v>
       </c>
       <c r="F214" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="G214" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="G214" s="10" t="s">
+      <c r="H214" s="10" t="s">
         <v>673</v>
-      </c>
-      <c r="H214" s="10" t="s">
-        <v>674</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="12" t="n">
@@ -20306,13 +20301,13 @@
         <v>470</v>
       </c>
       <c r="N214" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O214" s="14"/>
       <c r="P214" s="14"/>
       <c r="Q214" s="14"/>
       <c r="R214" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
@@ -20320,7 +20315,7 @@
       <c r="V214" s="10"/>
       <c r="W214" s="10"/>
       <c r="X214" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
@@ -20339,10 +20334,10 @@
       <c r="AG214" s="10"/>
       <c r="AH214" s="10"/>
       <c r="AI214" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ214" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK214" s="10" t="n">
         <v>2</v>
@@ -20372,10 +20367,10 @@
         <v>487</v>
       </c>
       <c r="F215" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="G215" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="H215" s="10" t="s">
         <v>85</v>
@@ -20398,7 +20393,7 @@
       <c r="V215" s="10"/>
       <c r="W215" s="10"/>
       <c r="X215" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
@@ -20409,7 +20404,7 @@
         <v>86</v>
       </c>
       <c r="AE215" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF215" s="13" t="n">
         <v>0.01625</v>
@@ -20417,10 +20412,10 @@
       <c r="AG215" s="26"/>
       <c r="AH215" s="10"/>
       <c r="AI215" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ215" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK215" s="10" t="n">
         <v>2</v>
@@ -20429,7 +20424,7 @@
         <v>209</v>
       </c>
       <c r="AM215" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AN215" s="27" t="n">
         <v>312</v>
@@ -20450,13 +20445,13 @@
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="G216" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="G216" s="10" t="s">
-        <v>679</v>
-      </c>
       <c r="H216" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I216" s="10"/>
       <c r="J216" s="12" t="n">
@@ -20465,31 +20460,31 @@
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
       <c r="M216" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="N216" s="14" t="s">
         <v>680</v>
-      </c>
-      <c r="N216" s="14" t="s">
-        <v>681</v>
       </c>
       <c r="O216" s="14"/>
       <c r="P216" s="14"/>
       <c r="Q216" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R216" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S216" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T216" s="10"/>
       <c r="U216" s="10"/>
       <c r="V216" s="10"/>
       <c r="W216" s="10"/>
       <c r="X216" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y216" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z216" s="10"/>
       <c r="AA216" s="10"/>
@@ -20503,10 +20498,10 @@
       <c r="AG216" s="10"/>
       <c r="AH216" s="10"/>
       <c r="AI216" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ216" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK216" s="10" t="n">
         <v>3</v>
@@ -20534,13 +20529,13 @@
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="G217" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="G217" s="10" t="s">
-        <v>685</v>
-      </c>
       <c r="H217" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I217" s="10"/>
       <c r="J217" s="12" t="n">
@@ -20549,31 +20544,31 @@
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
       <c r="M217" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="N217" s="14" t="s">
         <v>680</v>
-      </c>
-      <c r="N217" s="14" t="s">
-        <v>681</v>
       </c>
       <c r="O217" s="14"/>
       <c r="P217" s="14"/>
       <c r="Q217" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R217" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T217" s="10"/>
       <c r="U217" s="10"/>
       <c r="V217" s="10"/>
       <c r="W217" s="10"/>
       <c r="X217" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y217" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z217" s="10"/>
       <c r="AA217" s="10"/>
@@ -20587,10 +20582,10 @@
       <c r="AG217" s="10"/>
       <c r="AH217" s="10"/>
       <c r="AI217" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ217" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK217" s="10" t="n">
         <v>3</v>
@@ -20618,13 +20613,13 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="G218" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="G218" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="H218" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I218" s="10"/>
       <c r="J218" s="12" t="n">
@@ -20646,7 +20641,7 @@
       <c r="V218" s="10"/>
       <c r="W218" s="10"/>
       <c r="X218" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
@@ -20661,10 +20656,10 @@
       <c r="AG218" s="10"/>
       <c r="AH218" s="10"/>
       <c r="AI218" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ218" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK218" s="10" t="n">
         <v>3</v>
@@ -20673,7 +20668,7 @@
         <v>213</v>
       </c>
       <c r="AM218" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AN218" s="10" t="n">
         <v>209</v>
@@ -20694,10 +20689,10 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G219" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="G219" s="10" t="s">
-        <v>691</v>
       </c>
       <c r="H219" s="10" t="s">
         <v>91</v>
@@ -20709,35 +20704,35 @@
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
       <c r="M219" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="N219" s="14" t="s">
         <v>680</v>
-      </c>
-      <c r="N219" s="14" t="s">
-        <v>681</v>
       </c>
       <c r="O219" s="14"/>
       <c r="P219" s="14"/>
       <c r="Q219" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R219" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S219" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T219" s="10"/>
       <c r="U219" s="10"/>
       <c r="V219" s="10"/>
       <c r="W219" s="10"/>
       <c r="X219" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD219" s="10"/>
       <c r="AE219" s="10" t="s">
@@ -20747,10 +20742,10 @@
       <c r="AG219" s="10"/>
       <c r="AH219" s="10"/>
       <c r="AI219" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ219" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK219" s="10" t="n">
         <v>4</v>
@@ -20778,10 +20773,10 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G220" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="G220" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="H220" s="10" t="s">
         <v>91</v>
@@ -20793,35 +20788,35 @@
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
       <c r="M220" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="N220" s="14" t="s">
         <v>694</v>
-      </c>
-      <c r="N220" s="14" t="s">
-        <v>695</v>
       </c>
       <c r="O220" s="14"/>
       <c r="P220" s="14"/>
       <c r="Q220" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R220" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T220" s="10"/>
       <c r="U220" s="10"/>
       <c r="V220" s="10"/>
       <c r="W220" s="10"/>
       <c r="X220" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD220" s="10"/>
       <c r="AE220" s="10" t="s">
@@ -20831,10 +20826,10 @@
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
       <c r="AI220" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ220" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK220" s="10" t="n">
         <v>4</v>
@@ -20862,13 +20857,13 @@
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="G221" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="G221" s="10" t="s">
+      <c r="H221" s="10" t="s">
         <v>697</v>
-      </c>
-      <c r="H221" s="10" t="s">
-        <v>698</v>
       </c>
       <c r="I221" s="10"/>
       <c r="J221" s="12" t="n">
@@ -20880,7 +20875,7 @@
         <v>470</v>
       </c>
       <c r="N221" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O221" s="14"/>
       <c r="P221" s="14"/>
@@ -20889,14 +20884,14 @@
         <v>93</v>
       </c>
       <c r="S221" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T221" s="10"/>
       <c r="U221" s="10"/>
       <c r="V221" s="10"/>
       <c r="W221" s="10"/>
       <c r="X221" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
@@ -20911,10 +20906,10 @@
       <c r="AG221" s="10"/>
       <c r="AH221" s="10"/>
       <c r="AI221" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ221" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK221" s="10" t="n">
         <v>3</v>
@@ -20944,13 +20939,13 @@
         <v>487</v>
       </c>
       <c r="F222" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="G222" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="G222" s="10" t="s">
+      <c r="H222" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="H222" s="10" t="s">
-        <v>701</v>
       </c>
       <c r="I222" s="10"/>
       <c r="J222" s="12"/>
@@ -20958,21 +20953,21 @@
       <c r="L222" s="12"/>
       <c r="M222" s="10"/>
       <c r="N222" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O222" s="14"/>
       <c r="P222" s="14"/>
       <c r="Q222" s="14"/>
       <c r="R222" s="10"/>
       <c r="S222" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T222" s="10"/>
       <c r="U222" s="10"/>
       <c r="V222" s="10"/>
       <c r="W222" s="10"/>
       <c r="X222" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
@@ -20983,7 +20978,7 @@
         <v>86</v>
       </c>
       <c r="AE222" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF222" s="13" t="n">
         <v>0.01625</v>
@@ -20991,10 +20986,10 @@
       <c r="AG222" s="10"/>
       <c r="AH222" s="10"/>
       <c r="AI222" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ222" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK222" s="10" t="n">
         <v>2</v>
@@ -21024,13 +21019,13 @@
         <v>487</v>
       </c>
       <c r="F223" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="G223" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="G223" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="H223" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I223" s="10"/>
       <c r="J223" s="12" t="n">
@@ -21052,7 +21047,7 @@
       <c r="V223" s="10"/>
       <c r="W223" s="10"/>
       <c r="X223" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
@@ -21063,7 +21058,7 @@
         <v>86</v>
       </c>
       <c r="AE223" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF223" s="13" t="n">
         <v>0.03</v>
@@ -21079,7 +21074,7 @@
         <v>218</v>
       </c>
       <c r="AM223" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN223" s="27" t="n">
         <v>301</v>
@@ -21102,13 +21097,13 @@
         <v>487</v>
       </c>
       <c r="F224" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="G224" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="G224" s="10" t="s">
+      <c r="H224" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="H224" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="I224" s="10"/>
       <c r="J224" s="12" t="n">
@@ -21122,7 +21117,7 @@
         <v>470</v>
       </c>
       <c r="N224" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O224" s="14"/>
       <c r="P224" s="14"/>
@@ -21131,14 +21126,14 @@
         <v>93</v>
       </c>
       <c r="S224" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T224" s="10"/>
       <c r="U224" s="10"/>
       <c r="V224" s="10"/>
       <c r="W224" s="10"/>
       <c r="X224" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
@@ -21149,13 +21144,13 @@
         <v>86</v>
       </c>
       <c r="AE224" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AF224" s="13"/>
       <c r="AG224" s="10"/>
       <c r="AH224" s="10"/>
       <c r="AI224" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AJ224" s="10"/>
       <c r="AK224" s="10" t="n">
@@ -21184,10 +21179,10 @@
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="G225" s="10" t="s">
         <v>710</v>
-      </c>
-      <c r="G225" s="10" t="s">
-        <v>711</v>
       </c>
       <c r="H225" s="10" t="s">
         <v>85</v>
@@ -21231,7 +21226,7 @@
         <v>220</v>
       </c>
       <c r="AM225" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AN225" s="14" t="n">
         <v>400</v>
@@ -21251,16 +21246,16 @@
         <v>482</v>
       </c>
       <c r="E226" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="F226" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="F226" s="10" t="s">
+      <c r="G226" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="G226" s="10" t="s">
+      <c r="H226" s="10" t="s">
         <v>715</v>
-      </c>
-      <c r="H226" s="10" t="s">
-        <v>716</v>
       </c>
       <c r="I226" s="10"/>
       <c r="J226" s="12" t="n">
@@ -21270,7 +21265,7 @@
       <c r="L226" s="12"/>
       <c r="M226" s="10"/>
       <c r="N226" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O226" s="14"/>
       <c r="P226" s="14"/>
@@ -21279,7 +21274,7 @@
         <v>93</v>
       </c>
       <c r="S226" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T226" s="10"/>
       <c r="U226" s="10"/>
@@ -21287,7 +21282,7 @@
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
       <c r="Y226" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Z226" s="10"/>
       <c r="AA226" s="18"/>
@@ -21331,16 +21326,16 @@
         <v>482</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F227" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G227" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="G227" s="10" t="s">
-        <v>719</v>
-      </c>
       <c r="H227" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="12" t="n">
@@ -21350,7 +21345,7 @@
       <c r="L227" s="12"/>
       <c r="M227" s="10"/>
       <c r="N227" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O227" s="14"/>
       <c r="P227" s="14"/>
@@ -21359,7 +21354,7 @@
         <v>93</v>
       </c>
       <c r="S227" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T227" s="10"/>
       <c r="U227" s="10"/>
@@ -21367,7 +21362,7 @@
       <c r="W227" s="10"/>
       <c r="X227" s="10"/>
       <c r="Y227" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Z227" s="10"/>
       <c r="AA227" s="18"/>
@@ -21411,16 +21406,16 @@
         <v>482</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F228" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="G228" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="G228" s="10" t="s">
-        <v>722</v>
-      </c>
       <c r="H228" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I228" s="10"/>
       <c r="J228" s="12" t="n">
@@ -21430,7 +21425,7 @@
       <c r="L228" s="12"/>
       <c r="M228" s="10"/>
       <c r="N228" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O228" s="14"/>
       <c r="P228" s="14"/>
@@ -21439,7 +21434,7 @@
         <v>93</v>
       </c>
       <c r="S228" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T228" s="10"/>
       <c r="U228" s="10"/>
@@ -21447,7 +21442,7 @@
       <c r="W228" s="10"/>
       <c r="X228" s="10"/>
       <c r="Y228" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Z228" s="10"/>
       <c r="AA228" s="18"/>
@@ -21488,22 +21483,22 @@
         <v>41</v>
       </c>
       <c r="D229" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="E229" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="E229" s="27" t="s">
+      <c r="F229" s="27" t="s">
         <v>725</v>
       </c>
-      <c r="F229" s="27" t="s">
+      <c r="G229" s="27" t="s">
         <v>726</v>
       </c>
-      <c r="G229" s="27" t="s">
+      <c r="H229" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="H229" s="10" t="s">
+      <c r="I229" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="I229" s="10" t="s">
-        <v>729</v>
       </c>
       <c r="J229" s="12"/>
       <c r="K229" s="12"/>
@@ -21515,7 +21510,7 @@
       <c r="Q229" s="10"/>
       <c r="R229" s="10"/>
       <c r="S229" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T229" s="10"/>
       <c r="U229" s="10"/>
@@ -21539,7 +21534,7 @@
         <v>218</v>
       </c>
       <c r="AM229" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AN229" s="10"/>
     </row>
@@ -21554,22 +21549,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E230" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F230" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="F230" s="10" t="s">
+      <c r="G230" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="G230" s="20" t="s">
-        <v>734</v>
-      </c>
       <c r="H230" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="I230" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>729</v>
       </c>
       <c r="J230" s="12"/>
       <c r="K230" s="12"/>
@@ -21581,7 +21576,7 @@
       <c r="Q230" s="10"/>
       <c r="R230" s="10"/>
       <c r="S230" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T230" s="10"/>
       <c r="U230" s="10"/>
@@ -21605,7 +21600,7 @@
         <v>219</v>
       </c>
       <c r="AM230" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AN230" s="10"/>
     </row>
@@ -21620,36 +21615,36 @@
         <v>41</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E231" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="F231" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="F231" s="27" t="s">
+      <c r="G231" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="H231" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="G231" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="H231" s="10" t="s">
+      <c r="I231" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J231" s="12"/>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="10"/>
       <c r="N231" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="10"/>
       <c r="S231" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T231" s="10"/>
       <c r="U231" s="10"/>
@@ -21688,36 +21683,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E232" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="F232" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="F232" s="27" t="s">
+      <c r="G232" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="H232" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="G232" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="H232" s="10" t="s">
+      <c r="I232" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I232" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J232" s="12"/>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="10"/>
       <c r="N232" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
       <c r="R232" s="10"/>
       <c r="S232" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T232" s="10"/>
       <c r="U232" s="10"/>
@@ -21756,22 +21751,22 @@
         <v>41</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E233" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="F233" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="F233" s="27" t="s">
+      <c r="G233" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="G233" s="27" t="s">
+      <c r="H233" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="H233" s="10" t="s">
+      <c r="I233" s="10" t="s">
         <v>745</v>
-      </c>
-      <c r="I233" s="10" t="s">
-        <v>746</v>
       </c>
       <c r="J233" s="12"/>
       <c r="K233" s="12"/>
@@ -21783,7 +21778,7 @@
       <c r="Q233" s="10"/>
       <c r="R233" s="10"/>
       <c r="S233" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T233" s="10"/>
       <c r="U233" s="10"/>
@@ -21807,7 +21802,7 @@
         <v>222</v>
       </c>
       <c r="AM233" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AN233" s="10"/>
     </row>
@@ -21822,22 +21817,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E234" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="F234" s="27" t="s">
         <v>748</v>
       </c>
-      <c r="F234" s="27" t="s">
+      <c r="G234" s="27" t="s">
         <v>749</v>
       </c>
-      <c r="G234" s="27" t="s">
+      <c r="H234" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="H234" s="10" t="s">
-        <v>751</v>
-      </c>
       <c r="I234" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J234" s="12"/>
       <c r="K234" s="12"/>
@@ -21849,7 +21844,7 @@
       <c r="Q234" s="10"/>
       <c r="R234" s="10"/>
       <c r="S234" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T234" s="10"/>
       <c r="U234" s="10"/>
@@ -21888,36 +21883,36 @@
         <v>41</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E235" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="F235" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="F235" s="27" t="s">
+      <c r="G235" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="G235" s="27" t="s">
+      <c r="H235" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="H235" s="10" t="s">
-        <v>755</v>
-      </c>
       <c r="I235" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J235" s="12"/>
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
       <c r="M235" s="10"/>
       <c r="N235" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
       <c r="Q235" s="10"/>
       <c r="R235" s="10"/>
       <c r="S235" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T235" s="10"/>
       <c r="U235" s="10"/>
@@ -21954,22 +21949,22 @@
         <v>41</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E236" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="F236" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="F236" s="27" t="s">
+      <c r="G236" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="G236" s="27" t="s">
+      <c r="H236" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="H236" s="10" t="s">
-        <v>761</v>
-      </c>
       <c r="I236" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J236" s="12"/>
       <c r="K236" s="12"/>
@@ -21983,7 +21978,7 @@
       <c r="Q236" s="10"/>
       <c r="R236" s="10"/>
       <c r="S236" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T236" s="10"/>
       <c r="U236" s="10"/>
@@ -22020,36 +22015,36 @@
         <v>41</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E237" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="F237" s="27" t="s">
         <v>762</v>
       </c>
-      <c r="F237" s="27" t="s">
+      <c r="G237" s="27" t="s">
         <v>763</v>
       </c>
-      <c r="G237" s="27" t="s">
-        <v>764</v>
-      </c>
       <c r="H237" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I237" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J237" s="12"/>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
       <c r="M237" s="10"/>
       <c r="N237" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
       <c r="Q237" s="10"/>
       <c r="R237" s="10"/>
       <c r="S237" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T237" s="10"/>
       <c r="U237" s="10"/>
@@ -22086,38 +22081,38 @@
         <v>41</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E238" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F238" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F238" s="27" t="s">
+      <c r="G238" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G238" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H238" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I238" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J238" s="12"/>
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="N238" s="16" t="s">
         <v>769</v>
-      </c>
-      <c r="N238" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
       <c r="Q238" s="10"/>
       <c r="R238" s="10"/>
       <c r="S238" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T238" s="10"/>
       <c r="U238" s="10"/>
@@ -22156,38 +22151,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E239" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F239" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F239" s="27" t="s">
+      <c r="G239" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G239" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H239" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I239" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I239" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J239" s="12"/>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="N239" s="16" t="s">
         <v>769</v>
-      </c>
-      <c r="N239" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
       <c r="Q239" s="10"/>
       <c r="R239" s="10"/>
       <c r="S239" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T239" s="10"/>
       <c r="U239" s="10"/>
@@ -22226,38 +22221,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E240" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F240" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F240" s="27" t="s">
+      <c r="G240" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G240" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H240" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I240" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I240" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J240" s="12"/>
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="N240" s="16" t="s">
         <v>769</v>
-      </c>
-      <c r="N240" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
       <c r="R240" s="10"/>
       <c r="S240" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T240" s="10"/>
       <c r="U240" s="10"/>
@@ -22296,38 +22291,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E241" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F241" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F241" s="27" t="s">
+      <c r="G241" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G241" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H241" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I241" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J241" s="12"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N241" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
       <c r="R241" s="10"/>
       <c r="S241" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T241" s="10"/>
       <c r="U241" s="10"/>
@@ -22364,38 +22359,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E242" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F242" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F242" s="27" t="s">
+      <c r="G242" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G242" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H242" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I242" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J242" s="12"/>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N242" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
       <c r="R242" s="10"/>
       <c r="S242" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T242" s="10"/>
       <c r="U242" s="10"/>
@@ -22419,7 +22414,7 @@
         <v>231</v>
       </c>
       <c r="AM242" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AN242" s="10"/>
     </row>
@@ -22434,38 +22429,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E243" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F243" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F243" s="27" t="s">
+      <c r="G243" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G243" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H243" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I243" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I243" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N243" s="16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
       <c r="Q243" s="10"/>
       <c r="R243" s="10"/>
       <c r="S243" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T243" s="10"/>
       <c r="U243" s="10"/>
@@ -22489,7 +22484,7 @@
         <v>232</v>
       </c>
       <c r="AM243" s="16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AN243" s="10"/>
     </row>
@@ -22504,38 +22499,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E244" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F244" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F244" s="27" t="s">
+      <c r="G244" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G244" s="27" t="s">
-        <v>768</v>
-      </c>
       <c r="H244" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I244" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I244" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J244" s="12"/>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N244" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
       <c r="R244" s="10"/>
       <c r="S244" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T244" s="10"/>
       <c r="U244" s="10"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="781">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2569,6 +2570,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +2747,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2889,6 +2896,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2962,17 +2985,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO244"/>
+  <dimension ref="1:245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="AL244" activeCellId="0" sqref="AL244:AL245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,38 +3008,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -22880,7 +22907,72 @@
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
     </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E245" s="37"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="H245" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="K245" s="38"/>
+      <c r="L245" s="38"/>
+      <c r="M245" s="9"/>
+      <c r="N245" s="39"/>
+      <c r="O245" s="9"/>
+      <c r="P245" s="9"/>
+      <c r="Q245" s="9"/>
+      <c r="R245" s="9"/>
+      <c r="S245" s="9"/>
+      <c r="T245" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="U245" s="9"/>
+      <c r="V245" s="9"/>
+      <c r="W245" s="9"/>
+      <c r="X245" s="9"/>
+      <c r="Y245" s="9"/>
+      <c r="Z245" s="9"/>
+      <c r="AA245" s="9"/>
+      <c r="AB245" s="9"/>
+      <c r="AC245" s="9"/>
+      <c r="AD245" s="40"/>
+      <c r="AE245" s="9"/>
+      <c r="AF245" s="9"/>
+      <c r="AG245" s="9"/>
+      <c r="AH245" s="9"/>
+      <c r="AI245" s="9"/>
+      <c r="AJ245" s="9"/>
+      <c r="AK245" s="9"/>
+      <c r="AL245" s="10"/>
+      <c r="AM245" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="AN245" s="9"/>
+      <c r="AO245" s="9"/>
+      <c r="AMJ245" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AO244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22888,5 +22980,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2456,13 +2457,16 @@
     <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice_snack, No_Juice_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD_snack, No_SSD_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich_Cooler, No_Rich_Cooler</t>
+    <t xml:space="preserve">Juice_snack
+No_Juice_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD_snack
+No_SSD_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich_Cooler
+No_Rich_Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 18</t>
@@ -2881,7 +2885,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2999,7 +3003,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AL244" activeCellId="0" sqref="AL244:AL245"/>
+      <selection pane="bottomLeft" activeCell="O234" activeCellId="0" sqref="O234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3008,38 +3012,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -3171,6 +3175,7 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
@@ -3234,6 +3239,7 @@
         <v>46</v>
       </c>
       <c r="AO2" s="10"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -3297,6 +3303,7 @@
         <v>48</v>
       </c>
       <c r="AO3" s="14"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -3362,6 +3369,7 @@
       <c r="AO4" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -3427,6 +3435,7 @@
       <c r="AO5" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -3490,6 +3499,7 @@
         <v>57</v>
       </c>
       <c r="AO6" s="14"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -3555,6 +3565,7 @@
       <c r="AO7" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -3620,6 +3631,7 @@
       <c r="AO8" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -3683,6 +3695,7 @@
         <v>220</v>
       </c>
       <c r="AO9" s="14"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -3748,6 +3761,7 @@
       <c r="AO10" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -3813,6 +3827,7 @@
       <c r="AO11" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -3878,6 +3893,7 @@
       <c r="AO12" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -3943,6 +3959,7 @@
       <c r="AO13" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -4008,6 +4025,7 @@
       <c r="AO14" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -4073,6 +4091,7 @@
       <c r="AO15" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -4136,6 +4155,7 @@
         <v>82</v>
       </c>
       <c r="AO16" s="10"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -4207,6 +4227,7 @@
       <c r="AO17" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -4292,6 +4313,7 @@
       <c r="AO18" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -4377,6 +4399,7 @@
       <c r="AO19" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -4462,6 +4485,7 @@
       <c r="AO20" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -4547,6 +4571,7 @@
       <c r="AO21" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -4632,6 +4657,7 @@
       <c r="AO22" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -4717,6 +4743,7 @@
       <c r="AO23" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -4802,6 +4829,7 @@
       <c r="AO24" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -4887,6 +4915,7 @@
       <c r="AO25" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -4972,6 +5001,7 @@
       <c r="AO26" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -5057,6 +5087,7 @@
       <c r="AO27" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -5142,6 +5173,7 @@
       <c r="AO28" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -5227,6 +5259,7 @@
       <c r="AO29" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -5312,6 +5345,7 @@
       <c r="AO30" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -5397,6 +5431,7 @@
       <c r="AO31" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -5482,6 +5517,7 @@
       <c r="AO32" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -5567,6 +5603,7 @@
       <c r="AO33" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -5652,6 +5689,7 @@
       <c r="AO34" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
@@ -5737,6 +5775,7 @@
       <c r="AO35" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -5822,6 +5861,7 @@
       <c r="AO36" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -5907,6 +5947,7 @@
       <c r="AO37" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -5992,6 +6033,7 @@
       <c r="AO38" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -6077,6 +6119,7 @@
       <c r="AO39" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -6162,6 +6205,7 @@
       <c r="AO40" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -6247,6 +6291,7 @@
       <c r="AO41" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -6332,6 +6377,7 @@
       <c r="AO42" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -6417,6 +6463,7 @@
       <c r="AO43" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
@@ -6502,6 +6549,7 @@
       <c r="AO44" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -6587,6 +6635,7 @@
       <c r="AO45" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -6672,6 +6721,7 @@
       <c r="AO46" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -6757,6 +6807,7 @@
       <c r="AO47" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -6842,6 +6893,7 @@
       <c r="AO48" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -6927,6 +6979,7 @@
       <c r="AO49" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -7012,6 +7065,7 @@
       <c r="AO50" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -7097,6 +7151,7 @@
       <c r="AO51" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
@@ -7182,6 +7237,7 @@
       <c r="AO52" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
@@ -7267,6 +7323,7 @@
       <c r="AO53" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
@@ -7352,6 +7409,7 @@
       <c r="AO54" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
@@ -7437,6 +7495,7 @@
       <c r="AO55" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
@@ -7522,6 +7581,7 @@
       <c r="AO56" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
@@ -7593,6 +7653,7 @@
       <c r="AO57" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
@@ -7678,6 +7739,7 @@
       <c r="AO58" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="n">
@@ -7763,6 +7825,7 @@
       <c r="AO59" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="n">
@@ -7848,6 +7911,7 @@
       <c r="AO60" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="n">
@@ -7933,6 +7997,7 @@
       <c r="AO61" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
@@ -8018,6 +8083,7 @@
       <c r="AO62" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
@@ -8103,6 +8169,7 @@
       <c r="AO63" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
@@ -8188,6 +8255,7 @@
       <c r="AO64" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="n">
@@ -8273,6 +8341,7 @@
       <c r="AO65" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
@@ -8358,6 +8427,7 @@
       <c r="AO66" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="n">
@@ -8429,6 +8499,7 @@
       <c r="AO67" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
@@ -8514,6 +8585,7 @@
       <c r="AO68" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="n">
@@ -8599,6 +8671,7 @@
       <c r="AO69" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="n">
@@ -8684,6 +8757,7 @@
       <c r="AO70" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="n">
@@ -8769,6 +8843,7 @@
       <c r="AO71" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="n">
@@ -8854,6 +8929,7 @@
       <c r="AO72" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="n">
@@ -8939,6 +9015,7 @@
       <c r="AO73" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="n">
@@ -9024,6 +9101,7 @@
       <c r="AO74" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="n">
@@ -9095,6 +9173,7 @@
       <c r="AO75" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="n">
@@ -9180,6 +9259,7 @@
       <c r="AO76" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="n">
@@ -9265,6 +9345,7 @@
       <c r="AO77" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="n">
@@ -9350,6 +9431,7 @@
       <c r="AO78" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="n">
@@ -9435,6 +9517,7 @@
       <c r="AO79" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="n">
@@ -9520,6 +9603,7 @@
       <c r="AO80" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="n">
@@ -9605,6 +9689,7 @@
       <c r="AO81" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="n">
@@ -9690,6 +9775,7 @@
       <c r="AO82" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="n">
@@ -9775,6 +9861,7 @@
       <c r="AO83" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="n">
@@ -9860,6 +9947,7 @@
       <c r="AO84" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="n">
@@ -9945,6 +10033,7 @@
       <c r="AO85" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="n">
@@ -10016,6 +10105,7 @@
       <c r="AO86" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="n">
@@ -10101,6 +10191,7 @@
       <c r="AO87" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="n">
@@ -10186,6 +10277,7 @@
       <c r="AO88" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="n">
@@ -10271,6 +10363,7 @@
       <c r="AO89" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="n">
@@ -10356,6 +10449,7 @@
       <c r="AO90" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="n">
@@ -10441,6 +10535,7 @@
       <c r="AO91" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="n">
@@ -10526,6 +10621,7 @@
       <c r="AO92" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="n">
@@ -10611,6 +10707,7 @@
       <c r="AO93" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="n">
@@ -10696,6 +10793,7 @@
       <c r="AO94" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="n">
@@ -10781,6 +10879,7 @@
       <c r="AO95" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="n">
@@ -10866,6 +10965,7 @@
       <c r="AO96" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="n">
@@ -10951,6 +11051,7 @@
       <c r="AO97" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="n">
@@ -11036,6 +11137,7 @@
       <c r="AO98" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="n">
@@ -11121,6 +11223,7 @@
       <c r="AO99" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="n">
@@ -11206,6 +11309,7 @@
       <c r="AO100" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="n">
@@ -11291,6 +11395,7 @@
       <c r="AO101" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="n">
@@ -11376,6 +11481,7 @@
       <c r="AO102" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="n">
@@ -11461,6 +11567,7 @@
       <c r="AO103" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="n">
@@ -11546,6 +11653,7 @@
       <c r="AO104" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="n">
@@ -11631,6 +11739,7 @@
       <c r="AO105" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="n">
@@ -11716,6 +11825,7 @@
       <c r="AO106" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="n">
@@ -11801,6 +11911,7 @@
       <c r="AO107" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="n">
@@ -11886,6 +11997,7 @@
       <c r="AO108" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="n">
@@ -11971,6 +12083,7 @@
       <c r="AO109" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="n">
@@ -12056,6 +12169,7 @@
       <c r="AO110" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="n">
@@ -12141,6 +12255,7 @@
       <c r="AO111" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="n">
@@ -12228,6 +12343,7 @@
       <c r="AO112" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="n">
@@ -12313,6 +12429,7 @@
       <c r="AO113" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="n">
@@ -12398,6 +12515,7 @@
       <c r="AO114" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="n">
@@ -12483,6 +12601,7 @@
       <c r="AO115" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="n">
@@ -12568,6 +12687,7 @@
       <c r="AO116" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="n">
@@ -12653,6 +12773,7 @@
       <c r="AO117" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="n">
@@ -12738,6 +12859,7 @@
       <c r="AO118" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="n">
@@ -12823,6 +12945,7 @@
       <c r="AO119" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="n">
@@ -12908,6 +13031,7 @@
       <c r="AO120" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="n">
@@ -12993,6 +13117,7 @@
       <c r="AO121" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="n">
@@ -13078,6 +13203,7 @@
       <c r="AO122" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="n">
@@ -13163,6 +13289,7 @@
       <c r="AO123" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="n">
@@ -13248,6 +13375,7 @@
       <c r="AO124" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="n">
@@ -13333,6 +13461,7 @@
       <c r="AO125" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="n">
@@ -13418,6 +13547,7 @@
       <c r="AO126" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="n">
@@ -13503,6 +13633,7 @@
       <c r="AO127" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="n">
@@ -13588,6 +13719,7 @@
       <c r="AO128" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="n">
@@ -13673,6 +13805,7 @@
       <c r="AO129" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="n">
@@ -13758,6 +13891,7 @@
       <c r="AO130" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="n">
@@ -13843,6 +13977,7 @@
       <c r="AO131" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="n">
@@ -13928,6 +14063,7 @@
       <c r="AO132" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="n">
@@ -14013,6 +14149,7 @@
       <c r="AO133" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="n">
@@ -14098,6 +14235,7 @@
       <c r="AO134" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="n">
@@ -14183,6 +14321,7 @@
       <c r="AO135" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="n">
@@ -14268,6 +14407,7 @@
       <c r="AO136" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="n">
@@ -14353,6 +14493,7 @@
       <c r="AO137" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="n">
@@ -14438,6 +14579,7 @@
       <c r="AO138" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="n">
@@ -14523,6 +14665,7 @@
       <c r="AO139" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="n">
@@ -14608,6 +14751,7 @@
       <c r="AO140" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="n">
@@ -14693,6 +14837,7 @@
       <c r="AO141" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="n">
@@ -14778,6 +14923,7 @@
       <c r="AO142" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="n">
@@ -14863,6 +15009,7 @@
       <c r="AO143" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="n">
@@ -14948,6 +15095,7 @@
       <c r="AO144" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="n">
@@ -15027,6 +15175,7 @@
       <c r="AO145" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="n">
@@ -15110,6 +15259,7 @@
       <c r="AO146" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="n">
@@ -15189,6 +15339,7 @@
       <c r="AO147" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="n">
@@ -15272,6 +15423,7 @@
       <c r="AO148" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="n">
@@ -15353,6 +15505,7 @@
       <c r="AO149" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="n">
@@ -15434,6 +15587,7 @@
       <c r="AO150" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="n">
@@ -15515,6 +15669,7 @@
       <c r="AO151" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="n">
@@ -15596,6 +15751,7 @@
       <c r="AO152" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="n">
@@ -15677,6 +15833,7 @@
       <c r="AO153" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="n">
@@ -15756,6 +15913,7 @@
       <c r="AO154" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="n">
@@ -15839,6 +15997,7 @@
       <c r="AO155" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="n">
@@ -15918,6 +16077,7 @@
       <c r="AO156" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="n">
@@ -15995,6 +16155,7 @@
       <c r="AO157" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="n">
@@ -16076,6 +16237,7 @@
       <c r="AO158" s="10" t="n">
         <v>143</v>
       </c>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="n">
@@ -16157,6 +16319,7 @@
       <c r="AO159" s="10" t="n">
         <v>143</v>
       </c>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="n">
@@ -16240,6 +16403,7 @@
       <c r="AO160" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="n">
@@ -16321,6 +16485,7 @@
       <c r="AO161" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="n">
@@ -16402,6 +16567,7 @@
       <c r="AO162" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
@@ -16483,6 +16649,7 @@
       <c r="AO163" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="n">
@@ -16564,6 +16731,7 @@
       <c r="AO164" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="n">
@@ -16643,6 +16811,7 @@
       <c r="AO165" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="n">
@@ -16726,6 +16895,7 @@
       <c r="AO166" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="n">
@@ -16805,6 +16975,7 @@
       <c r="AO167" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="n">
@@ -16886,6 +17057,7 @@
       <c r="AO168" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="n">
@@ -16965,6 +17137,7 @@
       <c r="AO169" s="10" t="n">
         <v>320</v>
       </c>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="n">
@@ -17050,6 +17223,7 @@
       <c r="AO170" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="n">
@@ -17129,6 +17303,7 @@
       <c r="AO171" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="n">
@@ -17206,6 +17381,7 @@
       <c r="AO172" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="n">
@@ -17285,6 +17461,7 @@
       <c r="AO173" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="n">
@@ -17364,6 +17541,7 @@
       <c r="AO174" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="n">
@@ -17443,6 +17621,7 @@
       <c r="AO175" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="n">
@@ -17522,6 +17701,7 @@
       <c r="AO176" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="n">
@@ -17605,6 +17785,7 @@
       <c r="AO177" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="n">
@@ -17684,6 +17865,7 @@
       <c r="AO178" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="n">
@@ -17761,6 +17943,7 @@
       <c r="AO179" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="n">
@@ -17844,6 +18027,7 @@
       <c r="AO180" s="10" t="n">
         <v>165</v>
       </c>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="n">
@@ -17923,6 +18107,7 @@
       <c r="AO181" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="n">
@@ -18006,6 +18191,7 @@
       <c r="AO182" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="n">
@@ -18085,6 +18271,7 @@
       <c r="AO183" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="n">
@@ -18168,6 +18355,7 @@
       <c r="AO184" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="n">
@@ -18253,6 +18441,7 @@
       <c r="AO185" s="10" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="n">
@@ -18334,6 +18523,7 @@
       <c r="AO186" s="23" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="n">
@@ -18417,6 +18607,7 @@
       <c r="AO187" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="n">
@@ -18500,6 +18691,7 @@
       <c r="AO188" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="n">
@@ -18583,6 +18775,7 @@
       <c r="AO189" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="n">
@@ -18666,6 +18859,7 @@
       <c r="AO190" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="n">
@@ -18749,6 +18943,7 @@
       <c r="AO191" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="n">
@@ -18832,6 +19027,7 @@
       <c r="AO192" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="n">
@@ -18915,6 +19111,7 @@
       <c r="AO193" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="n">
@@ -18998,6 +19195,7 @@
       <c r="AO194" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="n">
@@ -19083,6 +19281,7 @@
       <c r="AO195" s="10" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="n">
@@ -19164,6 +19363,7 @@
       <c r="AO196" s="23" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="n">
@@ -19247,6 +19447,7 @@
       <c r="AO197" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="n">
@@ -19330,6 +19531,7 @@
       <c r="AO198" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="n">
@@ -19413,6 +19615,7 @@
       <c r="AO199" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="n">
@@ -19496,6 +19699,7 @@
       <c r="AO200" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="n">
@@ -19579,6 +19783,7 @@
       <c r="AO201" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="n">
@@ -19664,6 +19869,7 @@
       <c r="AO202" s="10" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="n">
@@ -19745,6 +19951,7 @@
       <c r="AO203" s="23" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="n">
@@ -19828,6 +20035,7 @@
       <c r="AO204" s="10" t="n">
         <v>197</v>
       </c>
+      <c r="AMJ204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="n">
@@ -19913,6 +20121,7 @@
       <c r="AO205" s="10" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="n">
@@ -19994,6 +20203,7 @@
       <c r="AO206" s="23" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="n">
@@ -20077,6 +20287,7 @@
       <c r="AO207" s="10" t="n">
         <v>200</v>
       </c>
+      <c r="AMJ207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="n">
@@ -20160,6 +20371,7 @@
       <c r="AO208" s="10" t="n">
         <v>200</v>
       </c>
+      <c r="AMJ208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="n">
@@ -20243,6 +20455,7 @@
       <c r="AO209" s="10" t="n">
         <v>505</v>
       </c>
+      <c r="AMJ209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="n">
@@ -20322,6 +20535,7 @@
       <c r="AO210" s="10" t="n">
         <v>311</v>
       </c>
+      <c r="AMJ210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="n">
@@ -20403,6 +20617,7 @@
       <c r="AO211" s="10" t="n">
         <v>204</v>
       </c>
+      <c r="AMJ211" s="0"/>
     </row>
     <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="n">
@@ -20482,6 +20697,7 @@
       <c r="AO212" s="10" t="n">
         <v>204</v>
       </c>
+      <c r="AMJ212" s="0"/>
     </row>
     <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="n">
@@ -20565,6 +20781,7 @@
       <c r="AO213" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ213" s="0"/>
     </row>
     <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="n">
@@ -20654,6 +20871,7 @@
       <c r="AO214" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="9" t="n">
@@ -20735,6 +20953,7 @@
       <c r="AO215" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="n">
@@ -20820,6 +21039,7 @@
       <c r="AO216" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="n">
@@ -20905,6 +21125,7 @@
       <c r="AO217" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="n">
@@ -20982,6 +21203,7 @@
       <c r="AO218" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ218" s="0"/>
     </row>
     <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="9" t="n">
@@ -21067,6 +21289,7 @@
       <c r="AO219" s="10" t="n">
         <v>213</v>
       </c>
+      <c r="AMJ219" s="0"/>
     </row>
     <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="n">
@@ -21152,6 +21375,7 @@
       <c r="AO220" s="10" t="n">
         <v>213</v>
       </c>
+      <c r="AMJ220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="9" t="n">
@@ -21233,6 +21457,7 @@
       <c r="AO221" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="n">
@@ -21314,6 +21539,7 @@
       <c r="AO222" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="n">
@@ -21393,6 +21619,7 @@
       <c r="AO223" s="30" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="n">
@@ -21478,6 +21705,7 @@
       <c r="AO224" s="10" t="n">
         <v>218</v>
       </c>
+      <c r="AMJ224" s="0"/>
     </row>
     <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="9" t="n">
@@ -21547,6 +21775,7 @@
       <c r="AO225" s="14" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="n">
@@ -21630,6 +21859,7 @@
       <c r="AO226" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="9" t="n">
@@ -21711,6 +21941,7 @@
       <c r="AO227" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="n">
@@ -21794,6 +22025,7 @@
       <c r="AO228" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ228" s="0"/>
     </row>
     <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="n">
@@ -21861,6 +22093,7 @@
         <v>734</v>
       </c>
       <c r="AO229" s="10"/>
+      <c r="AMJ229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="n">
@@ -21928,6 +22161,7 @@
         <v>738</v>
       </c>
       <c r="AO230" s="10"/>
+      <c r="AMJ230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="9" t="n">
@@ -21999,6 +22233,7 @@
         <v>221</v>
       </c>
       <c r="AO231" s="10"/>
+      <c r="AMJ231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="n">
@@ -22070,6 +22305,7 @@
         <v>222</v>
       </c>
       <c r="AO232" s="10"/>
+      <c r="AMJ232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="9" t="n">
@@ -22141,6 +22377,7 @@
         <v>223</v>
       </c>
       <c r="AO233" s="10"/>
+      <c r="AMJ233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="n">
@@ -22210,6 +22447,7 @@
         <v>752</v>
       </c>
       <c r="AO234" s="10"/>
+      <c r="AMJ234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="9" t="n">
@@ -22279,6 +22517,7 @@
         <v>218</v>
       </c>
       <c r="AO235" s="10"/>
+      <c r="AMJ235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="n">
@@ -22346,6 +22585,7 @@
       </c>
       <c r="AN236" s="10"/>
       <c r="AO236" s="10"/>
+      <c r="AMJ236" s="0"/>
     </row>
     <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="n">
@@ -22413,6 +22653,7 @@
       </c>
       <c r="AN237" s="10"/>
       <c r="AO237" s="10"/>
+      <c r="AMJ237" s="0"/>
     </row>
     <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="n">
@@ -22484,6 +22725,7 @@
         <v>131</v>
       </c>
       <c r="AO238" s="10"/>
+      <c r="AMJ238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="9" t="n">
@@ -22555,6 +22797,7 @@
         <v>140</v>
       </c>
       <c r="AO239" s="10"/>
+      <c r="AMJ239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="n">
@@ -22626,6 +22869,7 @@
         <v>151</v>
       </c>
       <c r="AO240" s="10"/>
+      <c r="AMJ240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="n">
@@ -22695,6 +22939,7 @@
       </c>
       <c r="AN241" s="10"/>
       <c r="AO241" s="10"/>
+      <c r="AMJ241" s="0"/>
     </row>
     <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="n">
@@ -22766,6 +23011,7 @@
         <v>775</v>
       </c>
       <c r="AO242" s="10"/>
+      <c r="AMJ242" s="0"/>
     </row>
     <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="n">
@@ -22837,6 +23083,7 @@
         <v>777</v>
       </c>
       <c r="AO243" s="10"/>
+      <c r="AMJ243" s="0"/>
     </row>
     <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="9" t="n">
@@ -22906,6 +23153,7 @@
       </c>
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
+      <c r="AMJ244" s="0"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="n">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -17,6 +17,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="782">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -612,12 +614,12 @@
     <t xml:space="preserve">Schweppes Ginger Ale - 0.5L Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">Швеппс новый вкус 0.5л</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
   </si>
   <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
   </si>
   <si>
@@ -712,6 +714,9 @@
   </si>
   <si>
     <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.33L</t>
@@ -2647,7 +2652,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2664,6 +2669,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2751,7 +2762,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2820,6 +2831,26 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2828,15 +2859,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2856,7 +2887,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2864,7 +2895,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2876,23 +2907,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3001,9 +3032,9 @@
   <dimension ref="1:245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O234" activeCellId="0" sqref="O234"/>
+      <selection pane="bottomLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3012,38 +3043,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.9514170040486"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -6395,26 +6426,28 @@
       <c r="E43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="G43" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="12" t="n">
+      <c r="J43" s="17"/>
+      <c r="K43" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O43" s="14" t="n">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O43" s="18" t="n">
         <v>5449000046390</v>
       </c>
       <c r="P43" s="14"/>
@@ -7341,12 +7374,14 @@
       <c r="E54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
+      <c r="F54" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="G54" s="21" t="s">
         <v>205</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>92</v>
@@ -7429,10 +7464,10 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>92</v>
@@ -7444,10 +7479,10 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
@@ -7515,10 +7550,10 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>92</v>
@@ -7530,10 +7565,10 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
@@ -7597,14 +7632,14 @@
         <v>43</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>86</v>
@@ -7648,7 +7683,7 @@
         <v>41</v>
       </c>
       <c r="AN57" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO57" s="14" t="n">
         <v>300</v>
@@ -7669,14 +7704,14 @@
         <v>43</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>92</v>
@@ -7688,10 +7723,10 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
@@ -7755,14 +7790,14 @@
         <v>43</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>92</v>
@@ -7774,10 +7809,10 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
@@ -7841,14 +7876,14 @@
         <v>43</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>92</v>
@@ -7860,10 +7895,10 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
@@ -7927,14 +7962,14 @@
         <v>43</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>92</v>
@@ -7946,10 +7981,10 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
@@ -8013,14 +8048,14 @@
         <v>43</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>92</v>
@@ -8032,10 +8067,10 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
@@ -8099,14 +8134,14 @@
         <v>43</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>92</v>
@@ -8118,10 +8153,10 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
@@ -8185,14 +8220,14 @@
         <v>43</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>92</v>
@@ -8204,7 +8239,7 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O64" s="14" t="n">
         <v>5449000214270</v>
@@ -8271,14 +8306,14 @@
         <v>43</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>92</v>
@@ -8290,7 +8325,7 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O65" s="14" t="n">
         <v>5449000214263</v>
@@ -8357,14 +8392,14 @@
         <v>43</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>92</v>
@@ -8376,10 +8411,10 @@
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
@@ -8443,14 +8478,14 @@
         <v>43</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>86</v>
@@ -8494,7 +8529,7 @@
         <v>51</v>
       </c>
       <c r="AN67" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO67" s="14" t="n">
         <v>300</v>
@@ -8515,14 +8550,14 @@
         <v>43</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>92</v>
@@ -8534,10 +8569,10 @@
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
@@ -8601,14 +8636,14 @@
         <v>43</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>92</v>
@@ -8620,10 +8655,10 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
@@ -8687,14 +8722,14 @@
         <v>43</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>92</v>
@@ -8706,10 +8741,10 @@
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
@@ -8773,14 +8808,14 @@
         <v>43</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>92</v>
@@ -8792,10 +8827,10 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
@@ -8859,14 +8894,14 @@
         <v>43</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>92</v>
@@ -8878,10 +8913,10 @@
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
       <c r="N72" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
@@ -8945,14 +8980,14 @@
         <v>43</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>92</v>
@@ -8964,10 +8999,10 @@
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
@@ -9031,14 +9066,14 @@
         <v>43</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>92</v>
@@ -9050,7 +9085,7 @@
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O74" s="14" t="n">
         <v>5060517888794</v>
@@ -9117,14 +9152,14 @@
         <v>43</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>86</v>
@@ -9168,7 +9203,7 @@
         <v>59</v>
       </c>
       <c r="AN75" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO75" s="14" t="n">
         <v>300</v>
@@ -9189,14 +9224,14 @@
         <v>43</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>92</v>
@@ -9208,10 +9243,10 @@
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="O76" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
@@ -9275,14 +9310,14 @@
         <v>43</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>92</v>
@@ -9294,10 +9329,10 @@
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="O77" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
@@ -9361,14 +9396,14 @@
         <v>43</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>92</v>
@@ -9380,10 +9415,10 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="O78" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
@@ -9447,14 +9482,14 @@
         <v>43</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>92</v>
@@ -9466,10 +9501,10 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
@@ -9533,14 +9568,14 @@
         <v>43</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>92</v>
@@ -9552,10 +9587,10 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="O80" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="O80" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
@@ -9619,14 +9654,14 @@
         <v>43</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>92</v>
@@ -9638,10 +9673,10 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
@@ -9705,14 +9740,14 @@
         <v>43</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>92</v>
@@ -9724,10 +9759,10 @@
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
@@ -9791,14 +9826,14 @@
         <v>43</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>92</v>
@@ -9810,10 +9845,10 @@
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="O83" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
@@ -9877,14 +9912,14 @@
         <v>43</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>92</v>
@@ -9896,10 +9931,10 @@
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
@@ -9963,14 +9998,14 @@
         <v>43</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>92</v>
@@ -9982,10 +10017,10 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="O85" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="O85" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
@@ -10049,14 +10084,14 @@
         <v>43</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>86</v>
@@ -10100,7 +10135,7 @@
         <v>70</v>
       </c>
       <c r="AN86" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO86" s="14" t="n">
         <v>300</v>
@@ -10121,14 +10156,14 @@
         <v>43</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>92</v>
@@ -10140,10 +10175,10 @@
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
       <c r="N87" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
@@ -10207,14 +10242,14 @@
         <v>43</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>92</v>
@@ -10226,10 +10261,10 @@
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
@@ -10293,14 +10328,14 @@
         <v>43</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>92</v>
@@ -10312,10 +10347,10 @@
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
@@ -10379,14 +10414,14 @@
         <v>43</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>92</v>
@@ -10398,10 +10433,10 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
@@ -10465,14 +10500,14 @@
         <v>43</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>92</v>
@@ -10484,10 +10519,10 @@
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
@@ -10551,14 +10586,14 @@
         <v>43</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>92</v>
@@ -10570,10 +10605,10 @@
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
@@ -10637,14 +10672,14 @@
         <v>43</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>92</v>
@@ -10656,10 +10691,10 @@
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
@@ -10723,14 +10758,14 @@
         <v>43</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>92</v>
@@ -10742,10 +10777,10 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
@@ -10809,14 +10844,14 @@
         <v>43</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>92</v>
@@ -10828,10 +10863,10 @@
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
@@ -10895,14 +10930,14 @@
         <v>43</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>92</v>
@@ -10914,10 +10949,10 @@
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
@@ -10981,14 +11016,14 @@
         <v>43</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>92</v>
@@ -11000,10 +11035,10 @@
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
@@ -11067,14 +11102,14 @@
         <v>43</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>92</v>
@@ -11086,10 +11121,10 @@
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
@@ -11153,14 +11188,14 @@
         <v>43</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>92</v>
@@ -11172,10 +11207,10 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
@@ -11239,14 +11274,14 @@
         <v>43</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>92</v>
@@ -11258,10 +11293,10 @@
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
@@ -11325,14 +11360,14 @@
         <v>43</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>92</v>
@@ -11344,10 +11379,10 @@
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
@@ -11411,14 +11446,14 @@
         <v>43</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>92</v>
@@ -11430,10 +11465,10 @@
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
@@ -11497,14 +11532,14 @@
         <v>43</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>92</v>
@@ -11516,10 +11551,10 @@
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
@@ -11583,14 +11618,14 @@
         <v>43</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>92</v>
@@ -11602,10 +11637,10 @@
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
@@ -11669,14 +11704,14 @@
         <v>43</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>92</v>
@@ -11688,10 +11723,10 @@
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="N105" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
@@ -11755,14 +11790,14 @@
         <v>43</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>92</v>
@@ -11774,10 +11809,10 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
@@ -11841,14 +11876,14 @@
         <v>43</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>92</v>
@@ -11860,10 +11895,10 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
@@ -11927,14 +11962,14 @@
         <v>43</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>92</v>
@@ -11946,10 +11981,10 @@
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
@@ -12013,14 +12048,14 @@
         <v>43</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>92</v>
@@ -12032,10 +12067,10 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
@@ -12099,14 +12134,14 @@
         <v>43</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>92</v>
@@ -12118,7 +12153,7 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O110" s="14" t="n">
         <v>4650075422922</v>
@@ -12143,7 +12178,7 @@
       <c r="AA110" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AB110" s="18"/>
+      <c r="AB110" s="23"/>
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
       <c r="AE110" s="10" t="s">
@@ -12185,14 +12220,14 @@
         <v>43</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>92</v>
@@ -12204,10 +12239,10 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
@@ -12271,30 +12306,30 @@
         <v>43</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G112" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="H112" s="19" t="s">
+      <c r="G112" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="I112" s="19" t="s">
+      <c r="H112" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="I112" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J112" s="19"/>
-      <c r="K112" s="20" t="n">
+      <c r="J112" s="24"/>
+      <c r="K112" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="O112" s="21" t="n">
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="O112" s="26" t="n">
         <v>4650075422809</v>
       </c>
       <c r="P112" s="14"/>
@@ -12359,14 +12394,14 @@
         <v>43</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>92</v>
@@ -12378,10 +12413,10 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
@@ -12445,14 +12480,14 @@
         <v>43</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>92</v>
@@ -12464,7 +12499,7 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
       <c r="N114" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O114" s="14" t="n">
         <v>4650075420249</v>
@@ -12531,14 +12566,14 @@
         <v>43</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>92</v>
@@ -12550,7 +12585,7 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O115" s="14" t="n">
         <v>111111</v>
@@ -12617,14 +12652,14 @@
         <v>43</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>92</v>
@@ -12636,10 +12671,10 @@
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
@@ -12703,14 +12738,14 @@
         <v>43</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>92</v>
@@ -12722,10 +12757,10 @@
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
@@ -12789,14 +12824,14 @@
         <v>43</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>92</v>
@@ -12808,7 +12843,7 @@
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O118" s="14" t="n">
         <v>4650075420263</v>
@@ -12875,14 +12910,14 @@
         <v>43</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>92</v>
@@ -12894,10 +12929,10 @@
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
@@ -12961,14 +12996,14 @@
         <v>43</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>92</v>
@@ -12980,10 +13015,10 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
@@ -13047,14 +13082,14 @@
         <v>43</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>92</v>
@@ -13066,10 +13101,10 @@
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
@@ -13133,14 +13168,14 @@
         <v>43</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>92</v>
@@ -13152,10 +13187,10 @@
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
@@ -13219,14 +13254,14 @@
         <v>43</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>92</v>
@@ -13238,10 +13273,10 @@
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
@@ -13305,14 +13340,14 @@
         <v>43</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>92</v>
@@ -13324,10 +13359,10 @@
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O124" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
@@ -13391,14 +13426,14 @@
         <v>43</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>92</v>
@@ -13410,10 +13445,10 @@
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
       <c r="N125" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O125" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
@@ -13477,14 +13512,14 @@
         <v>43</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>92</v>
@@ -13496,10 +13531,10 @@
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
@@ -13563,14 +13598,14 @@
         <v>43</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>92</v>
@@ -13582,7 +13617,7 @@
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
       <c r="N127" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O127" s="14" t="n">
         <v>111111</v>
@@ -13649,14 +13684,14 @@
         <v>43</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>92</v>
@@ -13668,10 +13703,10 @@
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
       <c r="N128" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
@@ -13735,14 +13770,14 @@
         <v>43</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>92</v>
@@ -13754,10 +13789,10 @@
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
@@ -13821,14 +13856,14 @@
         <v>43</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>92</v>
@@ -13840,10 +13875,10 @@
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
       <c r="N130" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
@@ -13907,14 +13942,14 @@
         <v>43</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>92</v>
@@ -13926,10 +13961,10 @@
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
       <c r="N131" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="O131" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="O131" s="27" t="s">
+        <v>429</v>
       </c>
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
@@ -13993,14 +14028,14 @@
         <v>43</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>92</v>
@@ -14012,7 +14047,7 @@
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
       <c r="N132" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O132" s="14" t="n">
         <v>4650075421550</v>
@@ -14079,14 +14114,14 @@
         <v>43</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>92</v>
@@ -14098,10 +14133,10 @@
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
       <c r="N133" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
@@ -14165,14 +14200,14 @@
         <v>43</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>92</v>
@@ -14184,10 +14219,10 @@
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
@@ -14251,14 +14286,14 @@
         <v>43</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>92</v>
@@ -14270,10 +14305,10 @@
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
       <c r="N135" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
@@ -14337,14 +14372,14 @@
         <v>43</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>92</v>
@@ -14356,7 +14391,7 @@
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O136" s="14" t="n">
         <v>4650075422847</v>
@@ -14423,14 +14458,14 @@
         <v>43</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>92</v>
@@ -14442,10 +14477,10 @@
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
       <c r="N137" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
@@ -14509,14 +14544,14 @@
         <v>43</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>92</v>
@@ -14528,10 +14563,10 @@
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
       <c r="N138" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
@@ -14595,14 +14630,14 @@
         <v>43</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>92</v>
@@ -14614,10 +14649,10 @@
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
       <c r="N139" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
@@ -14681,14 +14716,14 @@
         <v>43</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>92</v>
@@ -14700,10 +14735,10 @@
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
@@ -14767,14 +14802,14 @@
         <v>43</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>92</v>
@@ -14786,10 +14821,10 @@
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
       <c r="N141" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
@@ -14853,14 +14888,14 @@
         <v>43</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>92</v>
@@ -14872,10 +14907,10 @@
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
@@ -14939,14 +14974,14 @@
         <v>43</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>92</v>
@@ -14958,7 +14993,7 @@
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
       <c r="N143" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O143" s="14" t="n">
         <v>111111</v>
@@ -15025,14 +15060,14 @@
         <v>43</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>92</v>
@@ -15043,8 +15078,8 @@
       </c>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
-      <c r="N144" s="23" t="s">
-        <v>462</v>
+      <c r="N144" s="28" t="s">
+        <v>463</v>
       </c>
       <c r="O144" s="14" t="n">
         <v>111111</v>
@@ -15111,17 +15146,17 @@
         <v>43</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="12" t="n">
@@ -15135,12 +15170,12 @@
       <c r="Q145" s="14"/>
       <c r="R145" s="14"/>
       <c r="S145" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T145" s="10"/>
       <c r="U145" s="10"/>
       <c r="V145" s="10"/>
-      <c r="W145" s="24"/>
+      <c r="W145" s="29"/>
       <c r="X145" s="10"/>
       <c r="Y145" s="10"/>
       <c r="Z145" s="10"/>
@@ -15169,8 +15204,8 @@
       <c r="AM145" s="10" t="n">
         <v>131</v>
       </c>
-      <c r="AN145" s="25" t="s">
-        <v>469</v>
+      <c r="AN145" s="30" t="s">
+        <v>470</v>
       </c>
       <c r="AO145" s="10" t="n">
         <v>302</v>
@@ -15191,14 +15226,14 @@
         <v>43</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I146" s="10" t="s">
         <v>92</v>
@@ -15210,13 +15245,13 @@
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
       <c r="N146" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O146" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P146" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q146" s="14"/>
       <c r="R146" s="14"/>
@@ -15224,11 +15259,11 @@
         <v>94</v>
       </c>
       <c r="T146" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U146" s="10"/>
       <c r="V146" s="10"/>
-      <c r="W146" s="24"/>
+      <c r="W146" s="29"/>
       <c r="X146" s="10"/>
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
@@ -15275,17 +15310,17 @@
         <v>43</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J147" s="10"/>
       <c r="K147" s="12" t="n">
@@ -15302,12 +15337,12 @@
         <v>94</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U147" s="10"/>
       <c r="V147" s="10"/>
-      <c r="W147" s="24" t="s">
-        <v>479</v>
+      <c r="W147" s="29" t="s">
+        <v>480</v>
       </c>
       <c r="X147" s="10"/>
       <c r="Y147" s="10"/>
@@ -15355,17 +15390,17 @@
         <v>43</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="12"/>
@@ -15374,11 +15409,11 @@
       <c r="N148" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O148" s="26" t="n">
+      <c r="O148" s="31" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P148" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q148" s="14"/>
       <c r="R148" s="14"/>
@@ -15390,7 +15425,7 @@
       </c>
       <c r="U148" s="10"/>
       <c r="V148" s="10"/>
-      <c r="W148" s="24"/>
+      <c r="W148" s="29"/>
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
       <c r="Z148" s="10"/>
@@ -15410,7 +15445,7 @@
       <c r="AH148" s="10"/>
       <c r="AI148" s="10"/>
       <c r="AJ148" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK148" s="10"/>
       <c r="AL148" s="10" t="n">
@@ -15436,18 +15471,18 @@
         <v>42</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J149" s="10"/>
       <c r="K149" s="12" t="n">
@@ -15461,12 +15496,12 @@
       <c r="Q149" s="14"/>
       <c r="R149" s="14"/>
       <c r="S149" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T149" s="10"/>
       <c r="U149" s="10"/>
       <c r="V149" s="10"/>
-      <c r="W149" s="24"/>
+      <c r="W149" s="29"/>
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
       <c r="Z149" s="10"/>
@@ -15488,10 +15523,10 @@
       <c r="AH149" s="10"/>
       <c r="AI149" s="10"/>
       <c r="AJ149" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK149" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL149" s="10" t="n">
         <v>2</v>
@@ -15500,7 +15535,7 @@
         <v>135</v>
       </c>
       <c r="AN149" s="16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO149" s="10" t="n">
         <v>302</v>
@@ -15518,17 +15553,17 @@
         <v>42</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I150" s="10" t="s">
         <v>92</v>
@@ -15542,7 +15577,7 @@
       <c r="N150" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O150" s="26" t="n">
+      <c r="O150" s="31" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P150" s="14"/>
@@ -15556,7 +15591,7 @@
       </c>
       <c r="U150" s="10"/>
       <c r="V150" s="10"/>
-      <c r="W150" s="24"/>
+      <c r="W150" s="29"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
       <c r="Z150" s="10"/>
@@ -15600,17 +15635,17 @@
         <v>42</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I151" s="10" t="s">
         <v>92</v>
@@ -15624,7 +15659,7 @@
       <c r="N151" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O151" s="26" t="n">
+      <c r="O151" s="31" t="n">
         <v>5449000012203</v>
       </c>
       <c r="P151" s="14"/>
@@ -15638,7 +15673,7 @@
       </c>
       <c r="U151" s="10"/>
       <c r="V151" s="10"/>
-      <c r="W151" s="24"/>
+      <c r="W151" s="29"/>
       <c r="X151" s="10"/>
       <c r="Y151" s="10"/>
       <c r="Z151" s="10"/>
@@ -15682,17 +15717,17 @@
         <v>42</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I152" s="10" t="s">
         <v>92</v>
@@ -15703,10 +15738,10 @@
       </c>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
-      <c r="N152" s="27" t="s">
+      <c r="N152" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="O152" s="26" t="n">
+      <c r="O152" s="31" t="n">
         <v>5449000133335</v>
       </c>
       <c r="P152" s="14"/>
@@ -15719,7 +15754,7 @@
         <v>95</v>
       </c>
       <c r="U152" s="10"/>
-      <c r="V152" s="24"/>
+      <c r="V152" s="29"/>
       <c r="W152" s="10"/>
       <c r="X152" s="10"/>
       <c r="Y152" s="10"/>
@@ -15764,17 +15799,17 @@
         <v>42</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I153" s="10" t="s">
         <v>92</v>
@@ -15788,7 +15823,7 @@
       <c r="N153" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="O153" s="26" t="n">
+      <c r="O153" s="31" t="n">
         <v>5449000052926</v>
       </c>
       <c r="P153" s="14"/>
@@ -15802,7 +15837,7 @@
       </c>
       <c r="U153" s="10"/>
       <c r="V153" s="10"/>
-      <c r="W153" s="24"/>
+      <c r="W153" s="29"/>
       <c r="X153" s="10"/>
       <c r="Y153" s="10"/>
       <c r="Z153" s="10"/>
@@ -15849,17 +15884,17 @@
         <v>43</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="12" t="n">
@@ -15873,12 +15908,12 @@
       <c r="Q154" s="14"/>
       <c r="R154" s="14"/>
       <c r="S154" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T154" s="10"/>
       <c r="U154" s="10"/>
       <c r="V154" s="10"/>
-      <c r="W154" s="24"/>
+      <c r="W154" s="29"/>
       <c r="X154" s="10"/>
       <c r="Y154" s="10"/>
       <c r="Z154" s="10"/>
@@ -15908,7 +15943,7 @@
         <v>140</v>
       </c>
       <c r="AN154" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO154" s="10" t="n">
         <v>303</v>
@@ -15929,14 +15964,14 @@
         <v>43</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I155" s="10" t="s">
         <v>92</v>
@@ -15948,13 +15983,13 @@
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
       <c r="N155" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P155" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q155" s="14"/>
       <c r="R155" s="14"/>
@@ -15962,11 +15997,11 @@
         <v>94</v>
       </c>
       <c r="T155" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10"/>
-      <c r="W155" s="24"/>
+      <c r="W155" s="29"/>
       <c r="X155" s="10"/>
       <c r="Y155" s="10"/>
       <c r="Z155" s="10"/>
@@ -16013,17 +16048,17 @@
         <v>43</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J156" s="10"/>
       <c r="K156" s="12" t="n">
@@ -16040,12 +16075,12 @@
         <v>94</v>
       </c>
       <c r="T156" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10"/>
       <c r="W156" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="X156" s="10"/>
       <c r="Y156" s="10"/>
@@ -16093,17 +16128,17 @@
         <v>43</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J157" s="10"/>
       <c r="K157" s="12" t="n">
@@ -16122,7 +16157,7 @@
       <c r="T157" s="10"/>
       <c r="U157" s="10"/>
       <c r="V157" s="10"/>
-      <c r="W157" s="24"/>
+      <c r="W157" s="29"/>
       <c r="X157" s="10"/>
       <c r="Y157" s="10"/>
       <c r="Z157" s="10"/>
@@ -16150,7 +16185,7 @@
         <v>143</v>
       </c>
       <c r="AN157" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO157" s="10" t="n">
         <v>140</v>
@@ -16171,24 +16206,24 @@
         <v>43</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
       <c r="N158" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O158" s="14" t="n">
         <v>4607042434877</v>
@@ -16204,7 +16239,7 @@
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10"/>
-      <c r="W158" s="24"/>
+      <c r="W158" s="29"/>
       <c r="X158" s="10"/>
       <c r="Y158" s="10"/>
       <c r="Z158" s="10"/>
@@ -16224,7 +16259,7 @@
       <c r="AH158" s="10"/>
       <c r="AI158" s="10"/>
       <c r="AJ158" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AK158" s="10"/>
       <c r="AL158" s="10" t="n">
@@ -16253,24 +16288,24 @@
         <v>43</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J159" s="10"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
       <c r="N159" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O159" s="14" t="n">
         <v>4607042434891</v>
@@ -16286,7 +16321,7 @@
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10"/>
-      <c r="W159" s="24"/>
+      <c r="W159" s="29"/>
       <c r="X159" s="10"/>
       <c r="Y159" s="10"/>
       <c r="Z159" s="10"/>
@@ -16306,7 +16341,7 @@
       <c r="AH159" s="10"/>
       <c r="AI159" s="10"/>
       <c r="AJ159" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK159" s="10"/>
       <c r="AL159" s="10" t="n">
@@ -16332,20 +16367,20 @@
         <v>42</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J160" s="10"/>
       <c r="K160" s="12" t="n">
@@ -16359,12 +16394,12 @@
       <c r="Q160" s="14"/>
       <c r="R160" s="14"/>
       <c r="S160" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T160" s="10"/>
       <c r="U160" s="10"/>
       <c r="V160" s="10"/>
-      <c r="W160" s="24"/>
+      <c r="W160" s="29"/>
       <c r="X160" s="10"/>
       <c r="Y160" s="10"/>
       <c r="Z160" s="10"/>
@@ -16386,10 +16421,10 @@
       <c r="AH160" s="10"/>
       <c r="AI160" s="10"/>
       <c r="AJ160" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK160" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL160" s="10" t="n">
         <v>2</v>
@@ -16398,7 +16433,7 @@
         <v>146</v>
       </c>
       <c r="AN160" s="16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO160" s="10" t="n">
         <v>303</v>
@@ -16416,17 +16451,17 @@
         <v>42</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>92</v>
@@ -16438,7 +16473,7 @@
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O161" s="14" t="n">
         <v>4607042434877</v>
@@ -16454,7 +16489,7 @@
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10"/>
-      <c r="W161" s="24"/>
+      <c r="W161" s="29"/>
       <c r="X161" s="10"/>
       <c r="Y161" s="10"/>
       <c r="Z161" s="10"/>
@@ -16498,17 +16533,17 @@
         <v>42</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H162" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I162" s="10" t="s">
         <v>92</v>
@@ -16520,7 +16555,7 @@
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O162" s="14" t="n">
         <v>4607042434891</v>
@@ -16536,7 +16571,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10"/>
-      <c r="W162" s="24"/>
+      <c r="W162" s="29"/>
       <c r="X162" s="10"/>
       <c r="Y162" s="10"/>
       <c r="Z162" s="10"/>
@@ -16580,17 +16615,17 @@
         <v>42</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H163" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I163" s="10" t="s">
         <v>92</v>
@@ -16602,7 +16637,7 @@
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
       <c r="N163" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O163" s="14" t="n">
         <v>4607042438738</v>
@@ -16618,7 +16653,7 @@
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10"/>
-      <c r="W163" s="24"/>
+      <c r="W163" s="29"/>
       <c r="X163" s="10"/>
       <c r="Y163" s="10"/>
       <c r="Z163" s="10"/>
@@ -16662,17 +16697,17 @@
         <v>42</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H164" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I164" s="10" t="s">
         <v>92</v>
@@ -16684,7 +16719,7 @@
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O164" s="14" t="n">
         <v>4607042438950</v>
@@ -16700,7 +16735,7 @@
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10"/>
-      <c r="W164" s="24"/>
+      <c r="W164" s="29"/>
       <c r="X164" s="10"/>
       <c r="Y164" s="10"/>
       <c r="Z164" s="10"/>
@@ -16747,17 +16782,17 @@
         <v>43</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J165" s="10"/>
       <c r="K165" s="12" t="n">
@@ -16771,12 +16806,12 @@
       <c r="Q165" s="14"/>
       <c r="R165" s="14"/>
       <c r="S165" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
       <c r="V165" s="10"/>
-      <c r="W165" s="24"/>
+      <c r="W165" s="29"/>
       <c r="X165" s="10"/>
       <c r="Y165" s="10"/>
       <c r="Z165" s="10"/>
@@ -16806,7 +16841,7 @@
         <v>151</v>
       </c>
       <c r="AN165" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO165" s="10" t="n">
         <v>302</v>
@@ -16827,14 +16862,14 @@
         <v>43</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I166" s="10" t="s">
         <v>92</v>
@@ -16846,13 +16881,13 @@
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
       <c r="N166" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P166" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q166" s="14"/>
       <c r="R166" s="14"/>
@@ -16860,11 +16895,11 @@
         <v>94</v>
       </c>
       <c r="T166" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10"/>
-      <c r="W166" s="24"/>
+      <c r="W166" s="29"/>
       <c r="X166" s="10"/>
       <c r="Y166" s="10"/>
       <c r="Z166" s="10"/>
@@ -16911,17 +16946,17 @@
         <v>43</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H167" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J167" s="10"/>
       <c r="K167" s="12" t="n">
@@ -16938,12 +16973,12 @@
         <v>94</v>
       </c>
       <c r="T167" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10"/>
       <c r="W167" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="X167" s="10"/>
       <c r="Y167" s="10"/>
@@ -16991,30 +17026,30 @@
         <v>43</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J168" s="10"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
       <c r="N168" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O168" s="14" t="s">
         <v>104</v>
       </c>
       <c r="P168" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q168" s="14"/>
       <c r="R168" s="14"/>
@@ -17026,7 +17061,7 @@
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10"/>
-      <c r="W168" s="24"/>
+      <c r="W168" s="29"/>
       <c r="X168" s="10"/>
       <c r="Y168" s="10"/>
       <c r="Z168" s="10"/>
@@ -17073,17 +17108,17 @@
         <v>43</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J169" s="10"/>
       <c r="K169" s="12" t="n">
@@ -17097,14 +17132,14 @@
       <c r="Q169" s="14"/>
       <c r="R169" s="14"/>
       <c r="S169" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T169" s="10"/>
       <c r="U169" s="10"/>
       <c r="V169" s="10"/>
-      <c r="W169" s="24"/>
+      <c r="W169" s="29"/>
       <c r="X169" s="10"/>
-      <c r="Y169" s="28" t="s">
+      <c r="Y169" s="33" t="s">
         <v>78</v>
       </c>
       <c r="Z169" s="10"/>
@@ -17123,7 +17158,7 @@
       </c>
       <c r="AH169" s="10"/>
       <c r="AI169" s="10"/>
-      <c r="AJ169" s="28"/>
+      <c r="AJ169" s="33"/>
       <c r="AK169" s="10"/>
       <c r="AL169" s="10" t="n">
         <v>2</v>
@@ -17132,7 +17167,7 @@
         <v>155</v>
       </c>
       <c r="AN169" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO169" s="10" t="n">
         <v>320</v>
@@ -17153,14 +17188,14 @@
         <v>43</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I170" s="10" t="s">
         <v>92</v>
@@ -17172,30 +17207,30 @@
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
       <c r="N170" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P170" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q170" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R170" s="14"/>
       <c r="S170" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T170" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10"/>
-      <c r="W170" s="24"/>
+      <c r="W170" s="29"/>
       <c r="X170" s="10"/>
-      <c r="Y170" s="28" t="s">
-        <v>549</v>
+      <c r="Y170" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z170" s="10"/>
       <c r="AA170" s="10"/>
@@ -17211,7 +17246,7 @@
       <c r="AG170" s="13"/>
       <c r="AH170" s="10"/>
       <c r="AI170" s="10"/>
-      <c r="AJ170" s="28"/>
+      <c r="AJ170" s="33"/>
       <c r="AK170" s="10"/>
       <c r="AL170" s="10" t="n">
         <v>3</v>
@@ -17239,17 +17274,17 @@
         <v>43</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J171" s="10"/>
       <c r="K171" s="12" t="n">
@@ -17266,16 +17301,16 @@
         <v>94</v>
       </c>
       <c r="T171" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10"/>
       <c r="W171" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="X171" s="10"/>
-      <c r="Y171" s="28" t="s">
-        <v>549</v>
+      <c r="Y171" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
@@ -17291,7 +17326,7 @@
       <c r="AG171" s="13"/>
       <c r="AH171" s="10"/>
       <c r="AI171" s="10"/>
-      <c r="AJ171" s="28"/>
+      <c r="AJ171" s="33"/>
       <c r="AK171" s="10"/>
       <c r="AL171" s="10" t="n">
         <v>3</v>
@@ -17319,17 +17354,17 @@
         <v>43</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H172" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J172" s="10"/>
       <c r="K172" s="12" t="n">
@@ -17348,10 +17383,10 @@
       <c r="T172" s="10"/>
       <c r="U172" s="10"/>
       <c r="V172" s="10"/>
-      <c r="W172" s="24"/>
+      <c r="W172" s="29"/>
       <c r="X172" s="10"/>
-      <c r="Y172" s="28" t="s">
-        <v>549</v>
+      <c r="Y172" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z172" s="10"/>
       <c r="AA172" s="10"/>
@@ -17367,7 +17402,7 @@
       <c r="AG172" s="13"/>
       <c r="AH172" s="10"/>
       <c r="AI172" s="10"/>
-      <c r="AJ172" s="28"/>
+      <c r="AJ172" s="33"/>
       <c r="AK172" s="10"/>
       <c r="AL172" s="10" t="n">
         <v>3</v>
@@ -17376,7 +17411,7 @@
         <v>158</v>
       </c>
       <c r="AN172" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO172" s="10" t="n">
         <v>155</v>
@@ -17397,27 +17432,27 @@
         <v>43</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J173" s="10"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
       <c r="N173" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="O173" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="O173" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="P173" s="14"/>
       <c r="Q173" s="14"/>
@@ -17430,10 +17465,10 @@
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10"/>
-      <c r="W173" s="24"/>
+      <c r="W173" s="29"/>
       <c r="X173" s="10"/>
-      <c r="Y173" s="28" t="s">
-        <v>549</v>
+      <c r="Y173" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z173" s="10"/>
       <c r="AA173" s="10"/>
@@ -17449,7 +17484,7 @@
       <c r="AG173" s="13"/>
       <c r="AH173" s="10"/>
       <c r="AI173" s="10"/>
-      <c r="AJ173" s="28"/>
+      <c r="AJ173" s="33"/>
       <c r="AK173" s="10"/>
       <c r="AL173" s="10" t="n">
         <v>4</v>
@@ -17477,27 +17512,27 @@
         <v>43</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J174" s="10"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
       <c r="N174" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="O174" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="O174" s="34" t="s">
+        <v>296</v>
       </c>
       <c r="P174" s="14"/>
       <c r="Q174" s="14"/>
@@ -17510,10 +17545,10 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10"/>
-      <c r="W174" s="24"/>
+      <c r="W174" s="29"/>
       <c r="X174" s="10"/>
-      <c r="Y174" s="28" t="s">
-        <v>549</v>
+      <c r="Y174" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10"/>
@@ -17529,7 +17564,7 @@
       <c r="AG174" s="13"/>
       <c r="AH174" s="10"/>
       <c r="AI174" s="10"/>
-      <c r="AJ174" s="28"/>
+      <c r="AJ174" s="33"/>
       <c r="AK174" s="10"/>
       <c r="AL174" s="10" t="n">
         <v>4</v>
@@ -17557,27 +17592,27 @@
         <v>43</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J175" s="10"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
       <c r="N175" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="O175" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="O175" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="P175" s="14"/>
       <c r="Q175" s="14"/>
@@ -17590,10 +17625,10 @@
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10"/>
-      <c r="W175" s="24"/>
+      <c r="W175" s="29"/>
       <c r="X175" s="10"/>
-      <c r="Y175" s="28" t="s">
-        <v>549</v>
+      <c r="Y175" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="Z175" s="10"/>
       <c r="AA175" s="10"/>
@@ -17609,7 +17644,7 @@
       <c r="AG175" s="13"/>
       <c r="AH175" s="10"/>
       <c r="AI175" s="10"/>
-      <c r="AJ175" s="28"/>
+      <c r="AJ175" s="33"/>
       <c r="AK175" s="10"/>
       <c r="AL175" s="10" t="n">
         <v>4</v>
@@ -17637,17 +17672,17 @@
         <v>43</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H176" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J176" s="10"/>
       <c r="K176" s="12" t="n">
@@ -17661,14 +17696,14 @@
       <c r="Q176" s="14"/>
       <c r="R176" s="14"/>
       <c r="S176" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
       <c r="V176" s="10"/>
-      <c r="W176" s="24"/>
+      <c r="W176" s="29"/>
       <c r="X176" s="10"/>
-      <c r="Y176" s="28"/>
+      <c r="Y176" s="33"/>
       <c r="Z176" s="10"/>
       <c r="AA176" s="10"/>
       <c r="AB176" s="10" t="n">
@@ -17696,7 +17731,7 @@
         <v>162</v>
       </c>
       <c r="AN176" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO176" s="10" t="n">
         <v>302</v>
@@ -17717,14 +17752,14 @@
         <v>43</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>92</v>
@@ -17736,13 +17771,13 @@
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
       <c r="N177" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P177" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q177" s="14"/>
       <c r="R177" s="14"/>
@@ -17750,13 +17785,13 @@
         <v>94</v>
       </c>
       <c r="T177" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10"/>
-      <c r="W177" s="24"/>
+      <c r="W177" s="29"/>
       <c r="X177" s="10"/>
-      <c r="Y177" s="28"/>
+      <c r="Y177" s="33"/>
       <c r="Z177" s="10"/>
       <c r="AA177" s="10"/>
       <c r="AB177" s="10" t="n">
@@ -17801,17 +17836,17 @@
         <v>43</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H178" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J178" s="10"/>
       <c r="K178" s="12" t="n">
@@ -17828,15 +17863,15 @@
         <v>94</v>
       </c>
       <c r="T178" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U178" s="10"/>
       <c r="V178" s="10"/>
       <c r="W178" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X178" s="10"/>
-      <c r="Y178" s="28"/>
+      <c r="Y178" s="33"/>
       <c r="Z178" s="10"/>
       <c r="AA178" s="10"/>
       <c r="AB178" s="10" t="n">
@@ -17881,17 +17916,17 @@
         <v>43</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J179" s="10"/>
       <c r="K179" s="12" t="n">
@@ -17910,9 +17945,9 @@
       <c r="T179" s="10"/>
       <c r="U179" s="10"/>
       <c r="V179" s="10"/>
-      <c r="W179" s="24"/>
+      <c r="W179" s="29"/>
       <c r="X179" s="10"/>
-      <c r="Y179" s="28"/>
+      <c r="Y179" s="33"/>
       <c r="Z179" s="10"/>
       <c r="AA179" s="10"/>
       <c r="AB179" s="10" t="n">
@@ -17959,17 +17994,17 @@
         <v>43</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J180" s="10"/>
       <c r="K180" s="12"/>
@@ -17982,7 +18017,7 @@
         <v>5449000044808</v>
       </c>
       <c r="P180" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q180" s="14"/>
       <c r="R180" s="14"/>
@@ -17994,9 +18029,9 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10"/>
-      <c r="W180" s="24"/>
+      <c r="W180" s="29"/>
       <c r="X180" s="10"/>
-      <c r="Y180" s="28"/>
+      <c r="Y180" s="33"/>
       <c r="Z180" s="10"/>
       <c r="AA180" s="10"/>
       <c r="AB180" s="10" t="n">
@@ -18014,7 +18049,7 @@
       <c r="AH180" s="10"/>
       <c r="AI180" s="10"/>
       <c r="AJ180" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK180" s="10"/>
       <c r="AL180" s="10" t="n">
@@ -18043,17 +18078,17 @@
         <v>43</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J181" s="10"/>
       <c r="K181" s="12" t="n">
@@ -18067,12 +18102,12 @@
       <c r="Q181" s="14"/>
       <c r="R181" s="14"/>
       <c r="S181" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T181" s="10"/>
       <c r="U181" s="10"/>
       <c r="V181" s="10"/>
-      <c r="W181" s="24"/>
+      <c r="W181" s="29"/>
       <c r="X181" s="10"/>
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
@@ -18102,7 +18137,7 @@
         <v>167</v>
       </c>
       <c r="AN181" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO181" s="10" t="n">
         <v>303</v>
@@ -18123,14 +18158,14 @@
         <v>43</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H182" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I182" s="10" t="s">
         <v>92</v>
@@ -18142,13 +18177,13 @@
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P182" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q182" s="14"/>
       <c r="R182" s="14"/>
@@ -18156,11 +18191,11 @@
         <v>94</v>
       </c>
       <c r="T182" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10"/>
-      <c r="W182" s="24"/>
+      <c r="W182" s="29"/>
       <c r="X182" s="10"/>
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
@@ -18207,17 +18242,17 @@
         <v>43</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J183" s="10"/>
       <c r="K183" s="12" t="n">
@@ -18234,12 +18269,12 @@
         <v>94</v>
       </c>
       <c r="T183" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10"/>
       <c r="W183" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
@@ -18287,14 +18322,14 @@
         <v>43</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I184" s="10" t="s">
         <v>92</v>
@@ -18306,7 +18341,7 @@
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
       <c r="N184" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O184" s="14" t="n">
         <v>4607042439155</v>
@@ -18322,7 +18357,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10"/>
-      <c r="W184" s="24"/>
+      <c r="W184" s="29"/>
       <c r="X184" s="10"/>
       <c r="Y184" s="10"/>
       <c r="Z184" s="10"/>
@@ -18342,7 +18377,7 @@
       <c r="AH184" s="10"/>
       <c r="AI184" s="10"/>
       <c r="AJ184" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK184" s="10"/>
       <c r="AL184" s="10" t="n">
@@ -18368,20 +18403,20 @@
         <v>42</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J185" s="10"/>
       <c r="K185" s="12" t="n">
@@ -18390,37 +18425,37 @@
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P185" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q185" s="14"/>
       <c r="R185" s="10"/>
       <c r="S185" s="10"/>
       <c r="T185" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10"/>
       <c r="W185" s="10"/>
       <c r="X185" s="10"/>
       <c r="Y185" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z185" s="10"/>
       <c r="AA185" s="10"/>
-      <c r="AB185" s="18"/>
+      <c r="AB185" s="23"/>
       <c r="AC185" s="10"/>
       <c r="AD185" s="10"/>
       <c r="AE185" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AF185" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG185" s="13" t="n">
         <v>0.0725</v>
@@ -18454,20 +18489,20 @@
         <v>42</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J186" s="10"/>
       <c r="K186" s="12" t="n">
@@ -18481,7 +18516,7 @@
       <c r="Q186" s="14"/>
       <c r="R186" s="10"/>
       <c r="S186" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T186" s="10"/>
       <c r="U186" s="10"/>
@@ -18489,14 +18524,14 @@
       <c r="W186" s="10"/>
       <c r="X186" s="10"/>
       <c r="Y186" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z186" s="10"/>
       <c r="AA186" s="10"/>
-      <c r="AB186" s="18"/>
+      <c r="AB186" s="23"/>
       <c r="AC186" s="10"/>
       <c r="AD186" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE186" s="10" t="s">
         <v>87</v>
@@ -18518,9 +18553,9 @@
         <v>180</v>
       </c>
       <c r="AN186" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="AO186" s="23" t="n">
+        <v>596</v>
+      </c>
+      <c r="AO186" s="28" t="n">
         <v>501</v>
       </c>
       <c r="AMJ186" s="0"/>
@@ -18536,17 +18571,17 @@
         <v>42</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>92</v>
@@ -18577,14 +18612,14 @@
       <c r="W187" s="10"/>
       <c r="X187" s="10"/>
       <c r="Y187" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z187" s="10"/>
       <c r="AA187" s="10"/>
-      <c r="AB187" s="18"/>
+      <c r="AB187" s="23"/>
       <c r="AC187" s="10"/>
       <c r="AD187" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE187" s="10" t="s">
         <v>87</v>
@@ -18620,17 +18655,17 @@
         <v>42</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I188" s="10" t="s">
         <v>92</v>
@@ -18642,7 +18677,7 @@
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
       <c r="N188" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O188" s="14" t="s">
         <v>104</v>
@@ -18661,14 +18696,14 @@
       <c r="W188" s="10"/>
       <c r="X188" s="10"/>
       <c r="Y188" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10"/>
-      <c r="AB188" s="18"/>
+      <c r="AB188" s="23"/>
       <c r="AC188" s="10"/>
       <c r="AD188" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE188" s="10" t="s">
         <v>87</v>
@@ -18704,17 +18739,17 @@
         <v>42</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I189" s="10" t="s">
         <v>92</v>
@@ -18745,14 +18780,14 @@
       <c r="W189" s="10"/>
       <c r="X189" s="10"/>
       <c r="Y189" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z189" s="10"/>
       <c r="AA189" s="10"/>
-      <c r="AB189" s="18"/>
+      <c r="AB189" s="23"/>
       <c r="AC189" s="10"/>
       <c r="AD189" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE189" s="10" t="s">
         <v>87</v>
@@ -18788,17 +18823,17 @@
         <v>42</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I190" s="10" t="s">
         <v>92</v>
@@ -18829,14 +18864,14 @@
       <c r="W190" s="10"/>
       <c r="X190" s="10"/>
       <c r="Y190" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z190" s="10"/>
       <c r="AA190" s="10"/>
-      <c r="AB190" s="18"/>
+      <c r="AB190" s="23"/>
       <c r="AC190" s="10"/>
       <c r="AD190" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE190" s="10" t="s">
         <v>87</v>
@@ -18872,17 +18907,17 @@
         <v>42</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>92</v>
@@ -18913,14 +18948,14 @@
       <c r="W191" s="10"/>
       <c r="X191" s="10"/>
       <c r="Y191" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z191" s="10"/>
       <c r="AA191" s="10"/>
-      <c r="AB191" s="18"/>
+      <c r="AB191" s="23"/>
       <c r="AC191" s="10"/>
       <c r="AD191" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE191" s="10" t="s">
         <v>87</v>
@@ -18956,17 +18991,17 @@
         <v>42</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H192" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>92</v>
@@ -18978,7 +19013,7 @@
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
       <c r="N192" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O192" s="14" t="s">
         <v>134</v>
@@ -18997,14 +19032,14 @@
       <c r="W192" s="10"/>
       <c r="X192" s="10"/>
       <c r="Y192" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z192" s="10"/>
       <c r="AA192" s="10"/>
-      <c r="AB192" s="18"/>
+      <c r="AB192" s="23"/>
       <c r="AC192" s="10"/>
       <c r="AD192" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE192" s="10" t="s">
         <v>87</v>
@@ -19040,17 +19075,17 @@
         <v>42</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I193" s="10" t="s">
         <v>92</v>
@@ -19081,14 +19116,14 @@
       <c r="W193" s="10"/>
       <c r="X193" s="10"/>
       <c r="Y193" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z193" s="10"/>
       <c r="AA193" s="10"/>
-      <c r="AB193" s="18"/>
+      <c r="AB193" s="23"/>
       <c r="AC193" s="10"/>
       <c r="AD193" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE193" s="10" t="s">
         <v>87</v>
@@ -19124,17 +19159,17 @@
         <v>42</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H194" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I194" s="10" t="s">
         <v>92</v>
@@ -19165,14 +19200,14 @@
       <c r="W194" s="10"/>
       <c r="X194" s="10"/>
       <c r="Y194" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z194" s="10"/>
       <c r="AA194" s="10"/>
-      <c r="AB194" s="18"/>
+      <c r="AB194" s="23"/>
       <c r="AC194" s="10"/>
       <c r="AD194" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE194" s="10" t="s">
         <v>87</v>
@@ -19211,17 +19246,17 @@
         <v>43</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H195" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J195" s="10"/>
       <c r="K195" s="12" t="n">
@@ -19230,37 +19265,37 @@
       <c r="L195" s="12"/>
       <c r="M195" s="12"/>
       <c r="N195" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O195" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P195" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q195" s="14"/>
       <c r="R195" s="10"/>
       <c r="S195" s="10"/>
       <c r="T195" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10"/>
       <c r="W195" s="10"/>
       <c r="X195" s="10"/>
       <c r="Y195" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z195" s="10"/>
       <c r="AA195" s="10"/>
-      <c r="AB195" s="18"/>
+      <c r="AB195" s="23"/>
       <c r="AC195" s="10"/>
       <c r="AD195" s="10"/>
       <c r="AE195" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AF195" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG195" s="13" t="n">
         <v>0.0625</v>
@@ -19294,20 +19329,20 @@
         <v>42</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H196" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J196" s="10"/>
       <c r="K196" s="12" t="n">
@@ -19321,7 +19356,7 @@
       <c r="Q196" s="14"/>
       <c r="R196" s="10"/>
       <c r="S196" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T196" s="10"/>
       <c r="U196" s="10"/>
@@ -19329,14 +19364,14 @@
       <c r="W196" s="10"/>
       <c r="X196" s="10"/>
       <c r="Y196" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z196" s="10"/>
       <c r="AA196" s="10"/>
-      <c r="AB196" s="18"/>
+      <c r="AB196" s="23"/>
       <c r="AC196" s="10"/>
       <c r="AD196" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE196" s="10" t="s">
         <v>87</v>
@@ -19358,9 +19393,9 @@
         <v>190</v>
       </c>
       <c r="AN196" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="AO196" s="23" t="n">
+        <v>620</v>
+      </c>
+      <c r="AO196" s="28" t="n">
         <v>502</v>
       </c>
       <c r="AMJ196" s="0"/>
@@ -19376,17 +19411,17 @@
         <v>42</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I197" s="10" t="s">
         <v>92</v>
@@ -19398,7 +19433,7 @@
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
       <c r="N197" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O197" s="14" t="n">
         <v>4607042434877</v>
@@ -19417,14 +19452,14 @@
       <c r="W197" s="10"/>
       <c r="X197" s="10"/>
       <c r="Y197" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z197" s="10"/>
       <c r="AA197" s="10"/>
-      <c r="AB197" s="18"/>
+      <c r="AB197" s="23"/>
       <c r="AC197" s="10"/>
       <c r="AD197" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE197" s="10" t="s">
         <v>87</v>
@@ -19460,17 +19495,17 @@
         <v>42</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H198" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I198" s="10" t="s">
         <v>92</v>
@@ -19482,7 +19517,7 @@
       <c r="L198" s="12"/>
       <c r="M198" s="12"/>
       <c r="N198" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O198" s="14" t="n">
         <v>4607042434891</v>
@@ -19501,14 +19536,14 @@
       <c r="W198" s="10"/>
       <c r="X198" s="10"/>
       <c r="Y198" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z198" s="10"/>
       <c r="AA198" s="10"/>
-      <c r="AB198" s="18"/>
+      <c r="AB198" s="23"/>
       <c r="AC198" s="10"/>
       <c r="AD198" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE198" s="10" t="s">
         <v>87</v>
@@ -19544,17 +19579,17 @@
         <v>42</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H199" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I199" s="10" t="s">
         <v>92</v>
@@ -19566,7 +19601,7 @@
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O199" s="14" t="n">
         <v>4607042438738</v>
@@ -19585,14 +19620,14 @@
       <c r="W199" s="10"/>
       <c r="X199" s="10"/>
       <c r="Y199" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z199" s="10"/>
       <c r="AA199" s="10"/>
-      <c r="AB199" s="18"/>
+      <c r="AB199" s="23"/>
       <c r="AC199" s="10"/>
       <c r="AD199" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE199" s="10" t="s">
         <v>87</v>
@@ -19628,17 +19663,17 @@
         <v>42</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F200" s="10"/>
       <c r="G200" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H200" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I200" s="10" t="s">
         <v>92</v>
@@ -19650,7 +19685,7 @@
       <c r="L200" s="12"/>
       <c r="M200" s="12"/>
       <c r="N200" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O200" s="14" t="n">
         <v>4607042439155</v>
@@ -19669,14 +19704,14 @@
       <c r="W200" s="10"/>
       <c r="X200" s="10"/>
       <c r="Y200" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z200" s="10"/>
       <c r="AA200" s="10"/>
-      <c r="AB200" s="18"/>
+      <c r="AB200" s="23"/>
       <c r="AC200" s="10"/>
       <c r="AD200" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE200" s="10" t="s">
         <v>87</v>
@@ -19712,17 +19747,17 @@
         <v>42</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F201" s="10"/>
       <c r="G201" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I201" s="10" t="s">
         <v>92</v>
@@ -19734,7 +19769,7 @@
       <c r="L201" s="12"/>
       <c r="M201" s="12"/>
       <c r="N201" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O201" s="14" t="n">
         <v>4607042439216</v>
@@ -19753,14 +19788,14 @@
       <c r="W201" s="10"/>
       <c r="X201" s="10"/>
       <c r="Y201" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z201" s="10"/>
       <c r="AA201" s="10"/>
-      <c r="AB201" s="18"/>
+      <c r="AB201" s="23"/>
       <c r="AC201" s="10"/>
       <c r="AD201" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE201" s="10" t="s">
         <v>87</v>
@@ -19799,17 +19834,17 @@
         <v>43</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F202" s="10"/>
       <c r="G202" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J202" s="10"/>
       <c r="K202" s="12" t="n">
@@ -19818,37 +19853,37 @@
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
       <c r="N202" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P202" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q202" s="14"/>
       <c r="R202" s="10"/>
       <c r="S202" s="10"/>
       <c r="T202" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10"/>
       <c r="W202" s="10"/>
       <c r="X202" s="10"/>
       <c r="Y202" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z202" s="10"/>
       <c r="AA202" s="10"/>
-      <c r="AB202" s="18"/>
+      <c r="AB202" s="23"/>
       <c r="AC202" s="10"/>
       <c r="AD202" s="10"/>
       <c r="AE202" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AF202" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG202" s="13" t="n">
         <v>0.0225</v>
@@ -19882,20 +19917,20 @@
         <v>42</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J203" s="10"/>
       <c r="K203" s="12" t="n">
@@ -19909,7 +19944,7 @@
       <c r="Q203" s="14"/>
       <c r="R203" s="10"/>
       <c r="S203" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T203" s="10"/>
       <c r="U203" s="10"/>
@@ -19917,14 +19952,14 @@
       <c r="W203" s="10"/>
       <c r="X203" s="10"/>
       <c r="Y203" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z203" s="10"/>
       <c r="AA203" s="10"/>
-      <c r="AB203" s="18"/>
+      <c r="AB203" s="23"/>
       <c r="AC203" s="10"/>
       <c r="AD203" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE203" s="10" t="s">
         <v>87</v>
@@ -19945,10 +19980,10 @@
       <c r="AM203" s="10" t="n">
         <v>197</v>
       </c>
-      <c r="AN203" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="AO203" s="23" t="n">
+      <c r="AN203" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="AO203" s="28" t="n">
         <v>503</v>
       </c>
       <c r="AMJ203" s="0"/>
@@ -19964,17 +19999,17 @@
         <v>42</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I204" s="10" t="s">
         <v>92</v>
@@ -19986,9 +20021,9 @@
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
       <c r="N204" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="O204" s="26" t="n">
+        <v>220</v>
+      </c>
+      <c r="O204" s="31" t="n">
         <v>5449000005489</v>
       </c>
       <c r="P204" s="14"/>
@@ -20005,14 +20040,14 @@
       <c r="W204" s="10"/>
       <c r="X204" s="10"/>
       <c r="Y204" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z204" s="10"/>
       <c r="AA204" s="10"/>
-      <c r="AB204" s="18"/>
+      <c r="AB204" s="23"/>
       <c r="AC204" s="10"/>
       <c r="AD204" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE204" s="10" t="s">
         <v>87</v>
@@ -20051,17 +20086,17 @@
         <v>43</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I205" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J205" s="10"/>
       <c r="K205" s="12" t="n">
@@ -20070,37 +20105,37 @@
       <c r="L205" s="12"/>
       <c r="M205" s="12"/>
       <c r="N205" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P205" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q205" s="14"/>
       <c r="R205" s="10"/>
       <c r="S205" s="10"/>
       <c r="T205" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10"/>
       <c r="W205" s="10"/>
       <c r="X205" s="10"/>
       <c r="Y205" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z205" s="10"/>
       <c r="AA205" s="10"/>
-      <c r="AB205" s="18"/>
+      <c r="AB205" s="23"/>
       <c r="AC205" s="10"/>
       <c r="AD205" s="10"/>
       <c r="AE205" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AF205" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG205" s="13" t="n">
         <v>0.0425</v>
@@ -20134,20 +20169,20 @@
         <v>42</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F206" s="10"/>
       <c r="G206" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I206" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J206" s="10"/>
       <c r="K206" s="12" t="n">
@@ -20161,7 +20196,7 @@
       <c r="Q206" s="14"/>
       <c r="R206" s="10"/>
       <c r="S206" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T206" s="10"/>
       <c r="U206" s="10"/>
@@ -20169,14 +20204,14 @@
       <c r="W206" s="10"/>
       <c r="X206" s="10"/>
       <c r="Y206" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z206" s="10"/>
       <c r="AA206" s="10"/>
-      <c r="AB206" s="18"/>
+      <c r="AB206" s="23"/>
       <c r="AC206" s="10"/>
       <c r="AD206" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE206" s="10" t="s">
         <v>87</v>
@@ -20198,9 +20233,9 @@
         <v>200</v>
       </c>
       <c r="AN206" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="AO206" s="23" t="n">
+        <v>645</v>
+      </c>
+      <c r="AO206" s="28" t="n">
         <v>504</v>
       </c>
       <c r="AMJ206" s="0"/>
@@ -20216,17 +20251,17 @@
         <v>42</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F207" s="10"/>
       <c r="G207" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I207" s="10" t="s">
         <v>92</v>
@@ -20238,9 +20273,9 @@
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
       <c r="N207" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="O207" s="26" t="n">
+        <v>283</v>
+      </c>
+      <c r="O207" s="31" t="n">
         <v>4607042431722</v>
       </c>
       <c r="P207" s="14"/>
@@ -20257,14 +20292,14 @@
       <c r="W207" s="10"/>
       <c r="X207" s="10"/>
       <c r="Y207" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z207" s="10"/>
       <c r="AA207" s="10"/>
-      <c r="AB207" s="18"/>
+      <c r="AB207" s="23"/>
       <c r="AC207" s="10"/>
       <c r="AD207" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE207" s="10" t="s">
         <v>87</v>
@@ -20300,17 +20335,17 @@
         <v>42</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H208" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I208" s="10" t="s">
         <v>92</v>
@@ -20321,11 +20356,11 @@
       </c>
       <c r="L208" s="12"/>
       <c r="M208" s="12"/>
-      <c r="N208" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="O208" s="17" t="s">
-        <v>272</v>
+      <c r="N208" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O208" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="P208" s="14"/>
       <c r="Q208" s="14"/>
@@ -20341,14 +20376,14 @@
       <c r="W208" s="10"/>
       <c r="X208" s="10"/>
       <c r="Y208" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z208" s="10"/>
       <c r="AA208" s="10"/>
-      <c r="AB208" s="18"/>
+      <c r="AB208" s="23"/>
       <c r="AC208" s="10"/>
       <c r="AD208" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE208" s="10" t="s">
         <v>87</v>
@@ -20387,17 +20422,17 @@
         <v>43</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F209" s="10"/>
       <c r="G209" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H209" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J209" s="10"/>
       <c r="K209" s="12" t="n">
@@ -20406,37 +20441,37 @@
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
       <c r="N209" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P209" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q209" s="14"/>
       <c r="R209" s="10"/>
       <c r="S209" s="10"/>
       <c r="T209" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10"/>
       <c r="W209" s="10"/>
       <c r="X209" s="10"/>
       <c r="Y209" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z209" s="10"/>
       <c r="AA209" s="10"/>
-      <c r="AB209" s="18"/>
+      <c r="AB209" s="23"/>
       <c r="AC209" s="10"/>
       <c r="AD209" s="10"/>
       <c r="AE209" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AF209" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG209" s="13" t="n">
         <v>0.04</v>
@@ -20471,17 +20506,17 @@
         <v>43</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J210" s="10"/>
       <c r="K210" s="12"/>
@@ -20493,7 +20528,7 @@
       <c r="Q210" s="14"/>
       <c r="R210" s="14"/>
       <c r="S210" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T210" s="10"/>
       <c r="U210" s="10"/>
@@ -20501,7 +20536,7 @@
       <c r="W210" s="10"/>
       <c r="X210" s="10"/>
       <c r="Y210" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z210" s="10"/>
       <c r="AA210" s="10"/>
@@ -20512,7 +20547,7 @@
         <v>87</v>
       </c>
       <c r="AF210" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG210" s="13" t="n">
         <v>0.065</v>
@@ -20520,7 +20555,7 @@
       <c r="AH210" s="10"/>
       <c r="AI210" s="10"/>
       <c r="AJ210" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AK210" s="10"/>
       <c r="AL210" s="10" t="n">
@@ -20530,7 +20565,7 @@
         <v>204</v>
       </c>
       <c r="AN210" s="16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AO210" s="10" t="n">
         <v>311</v>
@@ -20551,17 +20586,17 @@
         <v>43</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H211" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J211" s="10"/>
       <c r="K211" s="12" t="n">
@@ -20572,24 +20607,24 @@
       </c>
       <c r="M211" s="12"/>
       <c r="N211" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O211" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P211" s="14"/>
       <c r="Q211" s="14"/>
       <c r="R211" s="14"/>
       <c r="S211" s="10"/>
       <c r="T211" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10"/>
       <c r="W211" s="10"/>
       <c r="X211" s="10"/>
       <c r="Y211" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z211" s="10"/>
       <c r="AA211" s="10"/>
@@ -20633,17 +20668,17 @@
         <v>43</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H212" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J212" s="10"/>
       <c r="K212" s="12" t="n">
@@ -20652,24 +20687,24 @@
       <c r="L212" s="12"/>
       <c r="M212" s="12"/>
       <c r="N212" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O212" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P212" s="14"/>
       <c r="Q212" s="14"/>
       <c r="R212" s="14"/>
       <c r="S212" s="10"/>
       <c r="T212" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10"/>
       <c r="W212" s="10"/>
       <c r="X212" s="10"/>
       <c r="Y212" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Z212" s="10"/>
       <c r="AA212" s="10"/>
@@ -20713,17 +20748,17 @@
         <v>43</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F213" s="10"/>
       <c r="G213" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J213" s="10"/>
       <c r="K213" s="12" t="n">
@@ -20738,16 +20773,16 @@
       <c r="R213" s="14"/>
       <c r="S213" s="10"/>
       <c r="T213" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10"/>
       <c r="W213" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="X213" s="10"/>
       <c r="Y213" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
@@ -20766,10 +20801,10 @@
       <c r="AH213" s="10"/>
       <c r="AI213" s="10"/>
       <c r="AJ213" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK213" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL213" s="10" t="n">
         <v>2</v>
@@ -20778,7 +20813,7 @@
         <v>207</v>
       </c>
       <c r="AN213" s="10"/>
-      <c r="AO213" s="30" t="n">
+      <c r="AO213" s="35" t="n">
         <v>312</v>
       </c>
       <c r="AMJ213" s="0"/>
@@ -20797,17 +20832,17 @@
         <v>43</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F214" s="10"/>
       <c r="G214" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H214" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J214" s="10"/>
       <c r="K214" s="12" t="n">
@@ -20820,16 +20855,16 @@
         <v>26</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O214" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P214" s="14"/>
       <c r="Q214" s="14"/>
       <c r="R214" s="14"/>
       <c r="S214" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T214" s="10"/>
       <c r="U214" s="10"/>
@@ -20837,7 +20872,7 @@
       <c r="W214" s="10"/>
       <c r="X214" s="10"/>
       <c r="Y214" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10"/>
@@ -20856,10 +20891,10 @@
       <c r="AH214" s="10"/>
       <c r="AI214" s="10"/>
       <c r="AJ214" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK214" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL214" s="10" t="n">
         <v>2</v>
@@ -20868,7 +20903,7 @@
         <v>208</v>
       </c>
       <c r="AN214" s="10"/>
-      <c r="AO214" s="30" t="n">
+      <c r="AO214" s="35" t="n">
         <v>312</v>
       </c>
       <c r="AMJ214" s="0"/>
@@ -20887,14 +20922,14 @@
         <v>43</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H215" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I215" s="10" t="s">
         <v>86</v>
@@ -20909,7 +20944,7 @@
       <c r="Q215" s="14"/>
       <c r="R215" s="14"/>
       <c r="S215" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T215" s="10"/>
       <c r="U215" s="10"/>
@@ -20917,7 +20952,7 @@
       <c r="W215" s="10"/>
       <c r="X215" s="10"/>
       <c r="Y215" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z215" s="10"/>
       <c r="AA215" s="10"/>
@@ -20928,18 +20963,18 @@
         <v>87</v>
       </c>
       <c r="AF215" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG215" s="13" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AH215" s="29"/>
+      <c r="AH215" s="34"/>
       <c r="AI215" s="10"/>
       <c r="AJ215" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK215" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL215" s="10" t="n">
         <v>2</v>
@@ -20948,9 +20983,9 @@
         <v>209</v>
       </c>
       <c r="AN215" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="AO215" s="30" t="n">
+        <v>679</v>
+      </c>
+      <c r="AO215" s="35" t="n">
         <v>312</v>
       </c>
       <c r="AMJ215" s="0"/>
@@ -20971,13 +21006,13 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H216" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J216" s="10"/>
       <c r="K216" s="12" t="n">
@@ -20986,31 +21021,31 @@
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
       <c r="N216" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O216" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P216" s="14"/>
       <c r="Q216" s="14"/>
       <c r="R216" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="S216" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T216" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10"/>
       <c r="W216" s="10"/>
       <c r="X216" s="10"/>
       <c r="Y216" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z216" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AA216" s="10"/>
       <c r="AB216" s="10"/>
@@ -21024,10 +21059,10 @@
       <c r="AH216" s="10"/>
       <c r="AI216" s="10"/>
       <c r="AJ216" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK216" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL216" s="10" t="n">
         <v>3</v>
@@ -21057,13 +21092,13 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H217" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J217" s="10"/>
       <c r="K217" s="12" t="n">
@@ -21072,31 +21107,31 @@
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
       <c r="N217" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O217" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P217" s="14"/>
       <c r="Q217" s="14"/>
       <c r="R217" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="S217" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T217" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10"/>
       <c r="W217" s="10"/>
       <c r="X217" s="10"/>
       <c r="Y217" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z217" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
@@ -21110,10 +21145,10 @@
       <c r="AH217" s="10"/>
       <c r="AI217" s="10"/>
       <c r="AJ217" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK217" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL217" s="10" t="n">
         <v>3</v>
@@ -21143,13 +21178,13 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H218" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J218" s="10"/>
       <c r="K218" s="12" t="n">
@@ -21163,7 +21198,7 @@
       <c r="Q218" s="14"/>
       <c r="R218" s="14"/>
       <c r="S218" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T218" s="10"/>
       <c r="U218" s="10"/>
@@ -21171,7 +21206,7 @@
       <c r="W218" s="10"/>
       <c r="X218" s="10"/>
       <c r="Y218" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z218" s="10"/>
       <c r="AA218" s="10"/>
@@ -21186,10 +21221,10 @@
       <c r="AH218" s="10"/>
       <c r="AI218" s="10"/>
       <c r="AJ218" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK218" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL218" s="10" t="n">
         <v>3</v>
@@ -21198,7 +21233,7 @@
         <v>213</v>
       </c>
       <c r="AN218" s="16" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO218" s="10" t="n">
         <v>209</v>
@@ -21221,10 +21256,10 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I219" s="10" t="s">
         <v>92</v>
@@ -21236,35 +21271,35 @@
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
       <c r="N219" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O219" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P219" s="14"/>
       <c r="Q219" s="14"/>
       <c r="R219" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="S219" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T219" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10"/>
       <c r="W219" s="10"/>
       <c r="X219" s="10"/>
       <c r="Y219" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z219" s="10"/>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
       <c r="AD219" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE219" s="10"/>
       <c r="AF219" s="10" t="s">
@@ -21274,10 +21309,10 @@
       <c r="AH219" s="10"/>
       <c r="AI219" s="10"/>
       <c r="AJ219" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK219" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL219" s="10" t="n">
         <v>4</v>
@@ -21307,10 +21342,10 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H220" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I220" s="10" t="s">
         <v>92</v>
@@ -21322,35 +21357,35 @@
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
       <c r="N220" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O220" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P220" s="14"/>
       <c r="Q220" s="14"/>
       <c r="R220" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="S220" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T220" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10"/>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE220" s="10"/>
       <c r="AF220" s="10" t="s">
@@ -21360,10 +21395,10 @@
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK220" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL220" s="10" t="n">
         <v>4</v>
@@ -21393,13 +21428,13 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H221" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="12" t="n">
@@ -21408,10 +21443,10 @@
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
       <c r="N221" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O221" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P221" s="14"/>
       <c r="Q221" s="14"/>
@@ -21420,14 +21455,14 @@
         <v>94</v>
       </c>
       <c r="T221" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10"/>
       <c r="W221" s="10"/>
       <c r="X221" s="10"/>
       <c r="Y221" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z221" s="10"/>
       <c r="AA221" s="10"/>
@@ -21442,10 +21477,10 @@
       <c r="AH221" s="10"/>
       <c r="AI221" s="10"/>
       <c r="AJ221" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK221" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL221" s="10" t="n">
         <v>3</v>
@@ -21473,17 +21508,17 @@
         <v>43</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F222" s="10"/>
       <c r="G222" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H222" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J222" s="10"/>
       <c r="K222" s="12"/>
@@ -21491,21 +21526,21 @@
       <c r="M222" s="12"/>
       <c r="N222" s="10"/>
       <c r="O222" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P222" s="14"/>
       <c r="Q222" s="14"/>
       <c r="R222" s="14"/>
       <c r="S222" s="10"/>
       <c r="T222" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10"/>
       <c r="W222" s="10"/>
       <c r="X222" s="10"/>
       <c r="Y222" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z222" s="10"/>
       <c r="AA222" s="10"/>
@@ -21516,7 +21551,7 @@
         <v>87</v>
       </c>
       <c r="AF222" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG222" s="13" t="n">
         <v>0.01625</v>
@@ -21524,10 +21559,10 @@
       <c r="AH222" s="10"/>
       <c r="AI222" s="10"/>
       <c r="AJ222" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK222" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL222" s="10" t="n">
         <v>2</v>
@@ -21536,7 +21571,7 @@
         <v>217</v>
       </c>
       <c r="AN222" s="10"/>
-      <c r="AO222" s="30" t="n">
+      <c r="AO222" s="35" t="n">
         <v>312</v>
       </c>
       <c r="AMJ222" s="0"/>
@@ -21552,20 +21587,20 @@
         <v>42</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E223" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F223" s="30"/>
+        <v>485</v>
+      </c>
+      <c r="E223" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F223" s="35"/>
       <c r="G223" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H223" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J223" s="10"/>
       <c r="K223" s="12" t="n">
@@ -21587,7 +21622,7 @@
       <c r="W223" s="10"/>
       <c r="X223" s="10"/>
       <c r="Y223" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Z223" s="10"/>
       <c r="AA223" s="10"/>
@@ -21598,7 +21633,7 @@
         <v>87</v>
       </c>
       <c r="AF223" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG223" s="13" t="n">
         <v>0.03</v>
@@ -21613,10 +21648,10 @@
       <c r="AM223" s="10" t="n">
         <v>218</v>
       </c>
-      <c r="AN223" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="AO223" s="30" t="n">
+      <c r="AN223" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="AO223" s="35" t="n">
         <v>301</v>
       </c>
       <c r="AMJ223" s="0"/>
@@ -21632,20 +21667,20 @@
         <v>42</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E224" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F224" s="30"/>
+        <v>485</v>
+      </c>
+      <c r="E224" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F224" s="35"/>
       <c r="G224" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H224" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J224" s="10"/>
       <c r="K224" s="12" t="n">
@@ -21656,10 +21691,10 @@
       </c>
       <c r="M224" s="12"/>
       <c r="N224" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O224" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P224" s="14"/>
       <c r="Q224" s="14"/>
@@ -21668,14 +21703,14 @@
         <v>94</v>
       </c>
       <c r="T224" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10"/>
       <c r="W224" s="10"/>
       <c r="X224" s="10"/>
       <c r="Y224" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Z224" s="10"/>
       <c r="AA224" s="10"/>
@@ -21686,13 +21721,13 @@
         <v>87</v>
       </c>
       <c r="AF224" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG224" s="13"/>
       <c r="AH224" s="10"/>
       <c r="AI224" s="10"/>
       <c r="AJ224" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AK224" s="10"/>
       <c r="AL224" s="10" t="n">
@@ -21718,15 +21753,15 @@
         <v>42</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H225" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I225" s="10" t="s">
         <v>86</v>
@@ -21749,7 +21784,7 @@
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
       <c r="AA225" s="10"/>
-      <c r="AB225" s="18"/>
+      <c r="AB225" s="23"/>
       <c r="AC225" s="10"/>
       <c r="AD225" s="10"/>
       <c r="AE225" s="10" t="s">
@@ -21770,7 +21805,7 @@
         <v>220</v>
       </c>
       <c r="AN225" s="16" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AO225" s="14" t="n">
         <v>400</v>
@@ -21788,22 +21823,22 @@
         <v>42</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="F226" s="31" t="s">
         <v>715</v>
       </c>
-      <c r="G226" s="31" t="s">
+      <c r="F226" s="36" t="s">
         <v>716</v>
       </c>
-      <c r="H226" s="31" t="s">
+      <c r="G226" s="36" t="s">
         <v>717</v>
       </c>
+      <c r="H226" s="36" t="s">
+        <v>718</v>
+      </c>
       <c r="I226" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J226" s="10"/>
       <c r="K226" s="12" t="n">
@@ -21812,8 +21847,8 @@
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
       <c r="N226" s="10"/>
-      <c r="O226" s="32" t="s">
-        <v>719</v>
+      <c r="O226" s="37" t="s">
+        <v>720</v>
       </c>
       <c r="P226" s="14"/>
       <c r="Q226" s="14"/>
@@ -21822,18 +21857,18 @@
         <v>94</v>
       </c>
       <c r="T226" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10"/>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
       <c r="Y226" s="10"/>
-      <c r="Z226" s="32" t="s">
-        <v>719</v>
+      <c r="Z226" s="37" t="s">
+        <v>720</v>
       </c>
       <c r="AA226" s="10"/>
-      <c r="AB226" s="18"/>
+      <c r="AB226" s="23"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10"/>
       <c r="AE226" s="10" t="s">
@@ -21872,20 +21907,20 @@
         <v>42</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H227" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I227" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J227" s="10"/>
       <c r="K227" s="12" t="n">
@@ -21895,7 +21930,7 @@
       <c r="M227" s="12"/>
       <c r="N227" s="10"/>
       <c r="O227" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P227" s="14"/>
       <c r="Q227" s="14"/>
@@ -21904,7 +21939,7 @@
         <v>94</v>
       </c>
       <c r="T227" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10"/>
@@ -21912,10 +21947,10 @@
       <c r="X227" s="10"/>
       <c r="Y227" s="10"/>
       <c r="Z227" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AA227" s="10"/>
-      <c r="AB227" s="18"/>
+      <c r="AB227" s="23"/>
       <c r="AC227" s="10"/>
       <c r="AD227" s="10"/>
       <c r="AE227" s="10" t="s">
@@ -21954,22 +21989,22 @@
         <v>42</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="F228" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="G228" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="F228" s="36" t="s">
         <v>724</v>
       </c>
+      <c r="G228" s="36" t="s">
+        <v>725</v>
+      </c>
       <c r="H228" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I228" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J228" s="10"/>
       <c r="K228" s="12" t="n">
@@ -21979,7 +22014,7 @@
       <c r="M228" s="12"/>
       <c r="N228" s="10"/>
       <c r="O228" s="14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P228" s="14"/>
       <c r="Q228" s="14"/>
@@ -21988,7 +22023,7 @@
         <v>94</v>
       </c>
       <c r="T228" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U228" s="10"/>
       <c r="V228" s="10"/>
@@ -21996,10 +22031,10 @@
       <c r="X228" s="10"/>
       <c r="Y228" s="10"/>
       <c r="Z228" s="14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AA228" s="10"/>
-      <c r="AB228" s="18"/>
+      <c r="AB228" s="23"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10"/>
       <c r="AE228" s="10" t="s">
@@ -22038,23 +22073,23 @@
         <v>42</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E229" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="F229" s="30"/>
-      <c r="G229" s="30" t="s">
+      <c r="E229" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="H229" s="30" t="s">
+      <c r="F229" s="35"/>
+      <c r="G229" s="35" t="s">
         <v>730</v>
       </c>
+      <c r="H229" s="35" t="s">
+        <v>731</v>
+      </c>
       <c r="I229" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J229" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K229" s="12"/>
       <c r="L229" s="12"/>
@@ -22066,7 +22101,7 @@
       <c r="R229" s="10"/>
       <c r="S229" s="10"/>
       <c r="T229" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10"/>
@@ -22090,7 +22125,7 @@
         <v>218</v>
       </c>
       <c r="AN229" s="16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AO229" s="10"/>
       <c r="AMJ229" s="0"/>
@@ -22106,23 +22141,23 @@
         <v>42</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="H230" s="23" t="s">
         <v>737</v>
       </c>
+      <c r="H230" s="28" t="s">
+        <v>738</v>
+      </c>
       <c r="I230" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J230" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
@@ -22134,7 +22169,7 @@
       <c r="R230" s="10"/>
       <c r="S230" s="10"/>
       <c r="T230" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10"/>
@@ -22158,7 +22193,7 @@
         <v>219</v>
       </c>
       <c r="AN230" s="16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AO230" s="10"/>
       <c r="AMJ230" s="0"/>
@@ -22174,39 +22209,39 @@
         <v>42</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E231" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F231" s="30"/>
-      <c r="G231" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E231" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="H231" s="30" t="s">
-        <v>711</v>
+      <c r="F231" s="35"/>
+      <c r="G231" s="35" t="s">
+        <v>741</v>
+      </c>
+      <c r="H231" s="35" t="s">
+        <v>712</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J231" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
       <c r="N231" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="O231" s="33" t="s">
         <v>744</v>
+      </c>
+      <c r="O231" s="38" t="s">
+        <v>745</v>
       </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="10"/>
       <c r="S231" s="10"/>
       <c r="T231" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10"/>
@@ -22246,39 +22281,39 @@
         <v>42</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E232" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F232" s="30"/>
-      <c r="G232" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="E232" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="H232" s="34" t="s">
-        <v>711</v>
-      </c>
-      <c r="I232" s="35" t="s">
+      <c r="F232" s="35"/>
+      <c r="G232" s="39" t="s">
         <v>741</v>
       </c>
+      <c r="H232" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I232" s="40" t="s">
+        <v>742</v>
+      </c>
       <c r="J232" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
       <c r="N232" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="O232" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
+      </c>
+      <c r="O232" s="38" t="s">
+        <v>746</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
       <c r="R232" s="10"/>
       <c r="S232" s="10"/>
       <c r="T232" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10"/>
@@ -22318,39 +22353,39 @@
         <v>42</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E233" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F233" s="30"/>
-      <c r="G233" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="E233" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="H233" s="34" t="s">
-        <v>711</v>
-      </c>
-      <c r="I233" s="35" t="s">
+      <c r="F233" s="35"/>
+      <c r="G233" s="39" t="s">
         <v>741</v>
       </c>
+      <c r="H233" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I233" s="40" t="s">
+        <v>742</v>
+      </c>
       <c r="J233" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
       <c r="N233" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="O233" s="33" t="s">
-        <v>746</v>
+        <v>744</v>
+      </c>
+      <c r="O233" s="38" t="s">
+        <v>747</v>
       </c>
       <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
       <c r="R233" s="10"/>
       <c r="S233" s="10"/>
       <c r="T233" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10"/>
@@ -22390,23 +22425,23 @@
         <v>42</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E234" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="F234" s="30"/>
-      <c r="G234" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E234" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="H234" s="30" t="s">
+      <c r="F234" s="35"/>
+      <c r="G234" s="35" t="s">
         <v>749</v>
       </c>
+      <c r="H234" s="35" t="s">
+        <v>750</v>
+      </c>
       <c r="I234" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J234" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
@@ -22418,14 +22453,14 @@
       <c r="R234" s="10"/>
       <c r="S234" s="10"/>
       <c r="T234" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10"/>
       <c r="W234" s="10"/>
       <c r="X234" s="10"/>
-      <c r="Y234" s="35" t="s">
-        <v>658</v>
+      <c r="Y234" s="40" t="s">
+        <v>659</v>
       </c>
       <c r="Z234" s="10"/>
       <c r="AA234" s="10"/>
@@ -22444,7 +22479,7 @@
         <v>223</v>
       </c>
       <c r="AN234" s="16" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AO234" s="10"/>
       <c r="AMJ234" s="0"/>
@@ -22460,23 +22495,23 @@
         <v>42</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E235" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="F235" s="30"/>
-      <c r="G235" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E235" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="H235" s="30" t="s">
+      <c r="F235" s="35"/>
+      <c r="G235" s="35" t="s">
         <v>755</v>
       </c>
+      <c r="H235" s="35" t="s">
+        <v>756</v>
+      </c>
       <c r="I235" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J235" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
@@ -22488,14 +22523,14 @@
       <c r="R235" s="10"/>
       <c r="S235" s="10"/>
       <c r="T235" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10"/>
       <c r="W235" s="10"/>
       <c r="X235" s="10"/>
-      <c r="Y235" s="35" t="s">
-        <v>757</v>
+      <c r="Y235" s="40" t="s">
+        <v>758</v>
       </c>
       <c r="Z235" s="10"/>
       <c r="AA235" s="10"/>
@@ -22530,37 +22565,37 @@
         <v>42</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E236" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="F236" s="30"/>
-      <c r="G236" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E236" s="35" t="s">
         <v>759</v>
       </c>
-      <c r="H236" s="30" t="s">
+      <c r="F236" s="35"/>
+      <c r="G236" s="35" t="s">
         <v>760</v>
       </c>
+      <c r="H236" s="35" t="s">
+        <v>761</v>
+      </c>
       <c r="I236" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J236" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
       <c r="N236" s="10"/>
       <c r="O236" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
       <c r="R236" s="10"/>
       <c r="S236" s="10"/>
       <c r="T236" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10"/>
@@ -22598,23 +22633,23 @@
         <v>42</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E237" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="F237" s="30"/>
-      <c r="G237" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E237" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="H237" s="30" t="s">
+      <c r="F237" s="35"/>
+      <c r="G237" s="35" t="s">
         <v>766</v>
       </c>
+      <c r="H237" s="35" t="s">
+        <v>767</v>
+      </c>
       <c r="I237" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
@@ -22628,7 +22663,7 @@
       <c r="R237" s="10"/>
       <c r="S237" s="10"/>
       <c r="T237" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10"/>
@@ -22666,39 +22701,39 @@
         <v>42</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E238" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F238" s="30"/>
-      <c r="G238" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E238" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H238" s="30" t="s">
+      <c r="F238" s="35"/>
+      <c r="G238" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H238" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I238" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J238" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
       <c r="N238" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O238" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="P238" s="10"/>
       <c r="Q238" s="10"/>
       <c r="R238" s="10"/>
       <c r="S238" s="10"/>
       <c r="T238" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10"/>
@@ -22738,39 +22773,39 @@
         <v>42</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E239" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F239" s="30"/>
-      <c r="G239" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E239" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H239" s="30" t="s">
+      <c r="F239" s="35"/>
+      <c r="G239" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H239" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I239" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J239" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
       <c r="N239" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O239" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="P239" s="10"/>
       <c r="Q239" s="10"/>
       <c r="R239" s="10"/>
       <c r="S239" s="10"/>
       <c r="T239" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10"/>
@@ -22810,39 +22845,39 @@
         <v>42</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E240" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F240" s="30"/>
-      <c r="G240" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E240" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H240" s="30" t="s">
+      <c r="F240" s="35"/>
+      <c r="G240" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H240" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I240" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J240" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
       <c r="N240" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O240" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
       <c r="R240" s="10"/>
       <c r="S240" s="10"/>
       <c r="T240" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10"/>
@@ -22882,39 +22917,39 @@
         <v>42</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E241" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F241" s="30"/>
-      <c r="G241" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E241" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H241" s="30" t="s">
+      <c r="F241" s="35"/>
+      <c r="G241" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H241" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I241" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J241" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
       <c r="N241" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="O241" s="36" t="s">
-        <v>773</v>
+        <v>772</v>
+      </c>
+      <c r="O241" s="41" t="s">
+        <v>774</v>
       </c>
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
       <c r="R241" s="10"/>
       <c r="S241" s="10"/>
       <c r="T241" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10"/>
@@ -22952,39 +22987,39 @@
         <v>42</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E242" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F242" s="30"/>
-      <c r="G242" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E242" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H242" s="30" t="s">
+      <c r="F242" s="35"/>
+      <c r="G242" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H242" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I242" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J242" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="12"/>
       <c r="N242" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="O242" s="36" t="s">
-        <v>774</v>
+        <v>772</v>
+      </c>
+      <c r="O242" s="41" t="s">
+        <v>775</v>
       </c>
       <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
       <c r="R242" s="10"/>
       <c r="S242" s="10"/>
       <c r="T242" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10"/>
@@ -23008,7 +23043,7 @@
         <v>232</v>
       </c>
       <c r="AN242" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AO242" s="10"/>
       <c r="AMJ242" s="0"/>
@@ -23024,39 +23059,39 @@
         <v>42</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E243" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F243" s="30"/>
-      <c r="G243" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E243" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H243" s="30" t="s">
+      <c r="F243" s="35"/>
+      <c r="G243" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H243" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I243" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J243" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O243" s="16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P243" s="10"/>
       <c r="Q243" s="10"/>
       <c r="R243" s="10"/>
       <c r="S243" s="10"/>
       <c r="T243" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10"/>
@@ -23080,7 +23115,7 @@
         <v>233</v>
       </c>
       <c r="AN243" s="16" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AO243" s="10"/>
       <c r="AMJ243" s="0"/>
@@ -23096,39 +23131,39 @@
         <v>42</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E244" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F244" s="30"/>
-      <c r="G244" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E244" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="H244" s="30" t="s">
+      <c r="F244" s="35"/>
+      <c r="G244" s="35" t="s">
         <v>770</v>
       </c>
+      <c r="H244" s="35" t="s">
+        <v>771</v>
+      </c>
       <c r="I244" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J244" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
       <c r="N244" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O244" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
       <c r="R244" s="10"/>
       <c r="S244" s="10"/>
       <c r="T244" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10"/>
@@ -23166,33 +23201,33 @@
         <v>42</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="E245" s="37"/>
-      <c r="F245" s="30"/>
-      <c r="G245" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="H245" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="E245" s="42"/>
+      <c r="F245" s="35"/>
+      <c r="G245" s="42" t="s">
         <v>780</v>
       </c>
+      <c r="H245" s="42" t="s">
+        <v>781</v>
+      </c>
       <c r="I245" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="K245" s="38"/>
-      <c r="L245" s="38"/>
+        <v>733</v>
+      </c>
+      <c r="K245" s="43"/>
+      <c r="L245" s="43"/>
       <c r="M245" s="9"/>
-      <c r="N245" s="39"/>
+      <c r="N245" s="44"/>
       <c r="O245" s="9"/>
       <c r="P245" s="9"/>
       <c r="Q245" s="9"/>
       <c r="R245" s="9"/>
       <c r="S245" s="9"/>
       <c r="T245" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="U245" s="9"/>
       <c r="V245" s="9"/>
@@ -23203,7 +23238,7 @@
       <c r="AA245" s="9"/>
       <c r="AB245" s="9"/>
       <c r="AC245" s="9"/>
-      <c r="AD245" s="40"/>
+      <c r="AD245" s="45"/>
       <c r="AE245" s="9"/>
       <c r="AF245" s="9"/>
       <c r="AG245" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="781">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1846,9 +1847,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Didplays</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Zone</t>
@@ -3031,10 +3029,10 @@
   </sheetPr>
   <dimension ref="1:245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="Y169" activeCellId="0" sqref="Y169:Y175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3043,38 +3041,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -17230,7 +17228,7 @@
       <c r="W170" s="29"/>
       <c r="X170" s="10"/>
       <c r="Y170" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z170" s="10"/>
       <c r="AA170" s="10"/>
@@ -17278,10 +17276,10 @@
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>552</v>
       </c>
       <c r="I171" s="10" t="s">
         <v>478</v>
@@ -17306,11 +17304,11 @@
       <c r="U171" s="10"/>
       <c r="V171" s="10"/>
       <c r="W171" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="X171" s="10"/>
       <c r="Y171" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
@@ -17358,10 +17356,10 @@
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="H172" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="H172" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="I172" s="10" t="s">
         <v>510</v>
@@ -17386,7 +17384,7 @@
       <c r="W172" s="29"/>
       <c r="X172" s="10"/>
       <c r="Y172" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z172" s="10"/>
       <c r="AA172" s="10"/>
@@ -17411,7 +17409,7 @@
         <v>158</v>
       </c>
       <c r="AN172" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AO172" s="10" t="n">
         <v>155</v>
@@ -17436,10 +17434,10 @@
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="H173" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="H173" s="14" t="s">
-        <v>558</v>
       </c>
       <c r="I173" s="10" t="s">
         <v>483</v>
@@ -17468,7 +17466,7 @@
       <c r="W173" s="29"/>
       <c r="X173" s="10"/>
       <c r="Y173" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z173" s="10"/>
       <c r="AA173" s="10"/>
@@ -17516,10 +17514,10 @@
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="H174" s="14" t="s">
         <v>559</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>560</v>
       </c>
       <c r="I174" s="10" t="s">
         <v>483</v>
@@ -17548,7 +17546,7 @@
       <c r="W174" s="29"/>
       <c r="X174" s="10"/>
       <c r="Y174" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10"/>
@@ -17596,10 +17594,10 @@
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H175" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="H175" s="14" t="s">
-        <v>562</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>483</v>
@@ -17628,7 +17626,7 @@
       <c r="W175" s="29"/>
       <c r="X175" s="10"/>
       <c r="Y175" s="33" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="Z175" s="10"/>
       <c r="AA175" s="10"/>
@@ -17676,10 +17674,10 @@
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="H176" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>564</v>
       </c>
       <c r="I176" s="10" t="s">
         <v>468</v>
@@ -17731,7 +17729,7 @@
         <v>162</v>
       </c>
       <c r="AN176" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AO176" s="10" t="n">
         <v>302</v>
@@ -17756,10 +17754,10 @@
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H177" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="H177" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>92</v>
@@ -17840,10 +17838,10 @@
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="H178" s="10" t="s">
         <v>568</v>
-      </c>
-      <c r="H178" s="10" t="s">
-        <v>569</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>478</v>
@@ -17868,7 +17866,7 @@
       <c r="U178" s="10"/>
       <c r="V178" s="10"/>
       <c r="W178" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X178" s="10"/>
       <c r="Y178" s="33"/>
@@ -17920,10 +17918,10 @@
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="H179" s="10" t="s">
         <v>571</v>
-      </c>
-      <c r="H179" s="10" t="s">
-        <v>572</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>510</v>
@@ -17998,10 +17996,10 @@
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="H180" s="14" t="s">
         <v>573</v>
-      </c>
-      <c r="H180" s="14" t="s">
-        <v>574</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>483</v>
@@ -18049,7 +18047,7 @@
       <c r="AH180" s="10"/>
       <c r="AI180" s="10"/>
       <c r="AJ180" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AK180" s="10"/>
       <c r="AL180" s="10" t="n">
@@ -18082,10 +18080,10 @@
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H181" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>577</v>
       </c>
       <c r="I181" s="10" t="s">
         <v>468</v>
@@ -18137,7 +18135,7 @@
         <v>167</v>
       </c>
       <c r="AN181" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO181" s="10" t="n">
         <v>303</v>
@@ -18162,10 +18160,10 @@
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="H182" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="I182" s="10" t="s">
         <v>92</v>
@@ -18246,10 +18244,10 @@
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="H183" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>582</v>
       </c>
       <c r="I183" s="10" t="s">
         <v>478</v>
@@ -18274,7 +18272,7 @@
       <c r="U183" s="10"/>
       <c r="V183" s="10"/>
       <c r="W183" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
@@ -18326,10 +18324,10 @@
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>583</v>
-      </c>
-      <c r="H184" s="14" t="s">
-        <v>584</v>
       </c>
       <c r="I184" s="10" t="s">
         <v>92</v>
@@ -18377,7 +18375,7 @@
       <c r="AH184" s="10"/>
       <c r="AI184" s="10"/>
       <c r="AJ184" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK184" s="10"/>
       <c r="AL184" s="10" t="n">
@@ -18406,17 +18404,17 @@
         <v>485</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="H185" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="H185" s="10" t="s">
+      <c r="I185" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="I185" s="10" t="s">
-        <v>589</v>
       </c>
       <c r="J185" s="10"/>
       <c r="K185" s="12" t="n">
@@ -18444,7 +18442,7 @@
       <c r="W185" s="10"/>
       <c r="X185" s="10"/>
       <c r="Y185" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z185" s="10"/>
       <c r="AA185" s="10"/>
@@ -18455,7 +18453,7 @@
         <v>87</v>
       </c>
       <c r="AF185" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG185" s="13" t="n">
         <v>0.0725</v>
@@ -18496,13 +18494,13 @@
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="H186" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="H186" s="10" t="s">
+      <c r="I186" s="10" t="s">
         <v>593</v>
-      </c>
-      <c r="I186" s="10" t="s">
-        <v>594</v>
       </c>
       <c r="J186" s="10"/>
       <c r="K186" s="12" t="n">
@@ -18524,14 +18522,14 @@
       <c r="W186" s="10"/>
       <c r="X186" s="10"/>
       <c r="Y186" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z186" s="10"/>
       <c r="AA186" s="10"/>
       <c r="AB186" s="23"/>
       <c r="AC186" s="10"/>
       <c r="AD186" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE186" s="10" t="s">
         <v>87</v>
@@ -18553,7 +18551,7 @@
         <v>180</v>
       </c>
       <c r="AN186" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AO186" s="28" t="n">
         <v>501</v>
@@ -18578,10 +18576,10 @@
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="H187" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>92</v>
@@ -18612,14 +18610,14 @@
       <c r="W187" s="10"/>
       <c r="X187" s="10"/>
       <c r="Y187" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z187" s="10"/>
       <c r="AA187" s="10"/>
       <c r="AB187" s="23"/>
       <c r="AC187" s="10"/>
       <c r="AD187" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE187" s="10" t="s">
         <v>87</v>
@@ -18662,10 +18660,10 @@
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="H188" s="10" t="s">
         <v>599</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>600</v>
       </c>
       <c r="I188" s="10" t="s">
         <v>92</v>
@@ -18677,7 +18675,7 @@
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
       <c r="N188" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O188" s="14" t="s">
         <v>104</v>
@@ -18696,14 +18694,14 @@
       <c r="W188" s="10"/>
       <c r="X188" s="10"/>
       <c r="Y188" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10"/>
       <c r="AB188" s="23"/>
       <c r="AC188" s="10"/>
       <c r="AD188" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE188" s="10" t="s">
         <v>87</v>
@@ -18746,10 +18744,10 @@
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="H189" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="I189" s="10" t="s">
         <v>92</v>
@@ -18780,14 +18778,14 @@
       <c r="W189" s="10"/>
       <c r="X189" s="10"/>
       <c r="Y189" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z189" s="10"/>
       <c r="AA189" s="10"/>
       <c r="AB189" s="23"/>
       <c r="AC189" s="10"/>
       <c r="AD189" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE189" s="10" t="s">
         <v>87</v>
@@ -18830,10 +18828,10 @@
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="H190" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="H190" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="I190" s="10" t="s">
         <v>92</v>
@@ -18864,14 +18862,14 @@
       <c r="W190" s="10"/>
       <c r="X190" s="10"/>
       <c r="Y190" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z190" s="10"/>
       <c r="AA190" s="10"/>
       <c r="AB190" s="23"/>
       <c r="AC190" s="10"/>
       <c r="AD190" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE190" s="10" t="s">
         <v>87</v>
@@ -18914,10 +18912,10 @@
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="H191" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>607</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>92</v>
@@ -18948,14 +18946,14 @@
       <c r="W191" s="10"/>
       <c r="X191" s="10"/>
       <c r="Y191" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z191" s="10"/>
       <c r="AA191" s="10"/>
       <c r="AB191" s="23"/>
       <c r="AC191" s="10"/>
       <c r="AD191" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE191" s="10" t="s">
         <v>87</v>
@@ -18998,10 +18996,10 @@
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="H192" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>92</v>
@@ -19013,7 +19011,7 @@
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
       <c r="N192" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O192" s="14" t="s">
         <v>134</v>
@@ -19032,14 +19030,14 @@
       <c r="W192" s="10"/>
       <c r="X192" s="10"/>
       <c r="Y192" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z192" s="10"/>
       <c r="AA192" s="10"/>
       <c r="AB192" s="23"/>
       <c r="AC192" s="10"/>
       <c r="AD192" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE192" s="10" t="s">
         <v>87</v>
@@ -19082,10 +19080,10 @@
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="H193" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="H193" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="I193" s="10" t="s">
         <v>92</v>
@@ -19116,14 +19114,14 @@
       <c r="W193" s="10"/>
       <c r="X193" s="10"/>
       <c r="Y193" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z193" s="10"/>
       <c r="AA193" s="10"/>
       <c r="AB193" s="23"/>
       <c r="AC193" s="10"/>
       <c r="AD193" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE193" s="10" t="s">
         <v>87</v>
@@ -19166,10 +19164,10 @@
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="H194" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="H194" s="10" t="s">
-        <v>614</v>
       </c>
       <c r="I194" s="10" t="s">
         <v>92</v>
@@ -19200,14 +19198,14 @@
       <c r="W194" s="10"/>
       <c r="X194" s="10"/>
       <c r="Y194" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z194" s="10"/>
       <c r="AA194" s="10"/>
       <c r="AB194" s="23"/>
       <c r="AC194" s="10"/>
       <c r="AD194" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE194" s="10" t="s">
         <v>87</v>
@@ -19246,17 +19244,17 @@
         <v>43</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H195" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="H195" s="10" t="s">
-        <v>617</v>
-      </c>
       <c r="I195" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J195" s="10"/>
       <c r="K195" s="12" t="n">
@@ -19284,7 +19282,7 @@
       <c r="W195" s="10"/>
       <c r="X195" s="10"/>
       <c r="Y195" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z195" s="10"/>
       <c r="AA195" s="10"/>
@@ -19295,7 +19293,7 @@
         <v>87</v>
       </c>
       <c r="AF195" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG195" s="13" t="n">
         <v>0.0625</v>
@@ -19336,13 +19334,13 @@
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="H196" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="H196" s="10" t="s">
-        <v>619</v>
-      </c>
       <c r="I196" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J196" s="10"/>
       <c r="K196" s="12" t="n">
@@ -19364,14 +19362,14 @@
       <c r="W196" s="10"/>
       <c r="X196" s="10"/>
       <c r="Y196" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z196" s="10"/>
       <c r="AA196" s="10"/>
       <c r="AB196" s="23"/>
       <c r="AC196" s="10"/>
       <c r="AD196" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE196" s="10" t="s">
         <v>87</v>
@@ -19393,7 +19391,7 @@
         <v>190</v>
       </c>
       <c r="AN196" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AO196" s="28" t="n">
         <v>502</v>
@@ -19418,10 +19416,10 @@
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="H197" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="H197" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="I197" s="10" t="s">
         <v>92</v>
@@ -19452,14 +19450,14 @@
       <c r="W197" s="10"/>
       <c r="X197" s="10"/>
       <c r="Y197" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z197" s="10"/>
       <c r="AA197" s="10"/>
       <c r="AB197" s="23"/>
       <c r="AC197" s="10"/>
       <c r="AD197" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE197" s="10" t="s">
         <v>87</v>
@@ -19502,10 +19500,10 @@
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H198" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="I198" s="10" t="s">
         <v>92</v>
@@ -19536,14 +19534,14 @@
       <c r="W198" s="10"/>
       <c r="X198" s="10"/>
       <c r="Y198" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z198" s="10"/>
       <c r="AA198" s="10"/>
       <c r="AB198" s="23"/>
       <c r="AC198" s="10"/>
       <c r="AD198" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE198" s="10" t="s">
         <v>87</v>
@@ -19586,10 +19584,10 @@
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="H199" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="H199" s="10" t="s">
-        <v>626</v>
       </c>
       <c r="I199" s="10" t="s">
         <v>92</v>
@@ -19620,14 +19618,14 @@
       <c r="W199" s="10"/>
       <c r="X199" s="10"/>
       <c r="Y199" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z199" s="10"/>
       <c r="AA199" s="10"/>
       <c r="AB199" s="23"/>
       <c r="AC199" s="10"/>
       <c r="AD199" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE199" s="10" t="s">
         <v>87</v>
@@ -19670,10 +19668,10 @@
       </c>
       <c r="F200" s="10"/>
       <c r="G200" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="H200" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>628</v>
       </c>
       <c r="I200" s="10" t="s">
         <v>92</v>
@@ -19704,14 +19702,14 @@
       <c r="W200" s="10"/>
       <c r="X200" s="10"/>
       <c r="Y200" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z200" s="10"/>
       <c r="AA200" s="10"/>
       <c r="AB200" s="23"/>
       <c r="AC200" s="10"/>
       <c r="AD200" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE200" s="10" t="s">
         <v>87</v>
@@ -19754,10 +19752,10 @@
       </c>
       <c r="F201" s="10"/>
       <c r="G201" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="H201" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="H201" s="10" t="s">
-        <v>630</v>
       </c>
       <c r="I201" s="10" t="s">
         <v>92</v>
@@ -19788,14 +19786,14 @@
       <c r="W201" s="10"/>
       <c r="X201" s="10"/>
       <c r="Y201" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z201" s="10"/>
       <c r="AA201" s="10"/>
       <c r="AB201" s="23"/>
       <c r="AC201" s="10"/>
       <c r="AD201" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE201" s="10" t="s">
         <v>87</v>
@@ -19834,17 +19832,17 @@
         <v>43</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F202" s="10"/>
       <c r="G202" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H202" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="H202" s="10" t="s">
-        <v>633</v>
-      </c>
       <c r="I202" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J202" s="10"/>
       <c r="K202" s="12" t="n">
@@ -19856,10 +19854,10 @@
         <v>473</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P202" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q202" s="14"/>
       <c r="R202" s="10"/>
@@ -19872,7 +19870,7 @@
       <c r="W202" s="10"/>
       <c r="X202" s="10"/>
       <c r="Y202" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z202" s="10"/>
       <c r="AA202" s="10"/>
@@ -19883,7 +19881,7 @@
         <v>87</v>
       </c>
       <c r="AF202" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG202" s="13" t="n">
         <v>0.0225</v>
@@ -19924,13 +19922,13 @@
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="H203" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="H203" s="10" t="s">
-        <v>636</v>
-      </c>
       <c r="I203" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J203" s="10"/>
       <c r="K203" s="12" t="n">
@@ -19952,14 +19950,14 @@
       <c r="W203" s="10"/>
       <c r="X203" s="10"/>
       <c r="Y203" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z203" s="10"/>
       <c r="AA203" s="10"/>
       <c r="AB203" s="23"/>
       <c r="AC203" s="10"/>
       <c r="AD203" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE203" s="10" t="s">
         <v>87</v>
@@ -19981,7 +19979,7 @@
         <v>197</v>
       </c>
       <c r="AN203" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AO203" s="28" t="n">
         <v>503</v>
@@ -20006,7 +20004,7 @@
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H204" s="10" t="s">
         <v>221</v>
@@ -20040,14 +20038,14 @@
       <c r="W204" s="10"/>
       <c r="X204" s="10"/>
       <c r="Y204" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z204" s="10"/>
       <c r="AA204" s="10"/>
       <c r="AB204" s="23"/>
       <c r="AC204" s="10"/>
       <c r="AD204" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE204" s="10" t="s">
         <v>87</v>
@@ -20086,17 +20084,17 @@
         <v>43</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="H205" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="H205" s="10" t="s">
-        <v>641</v>
-      </c>
       <c r="I205" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J205" s="10"/>
       <c r="K205" s="12" t="n">
@@ -20108,10 +20106,10 @@
         <v>473</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P205" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q205" s="14"/>
       <c r="R205" s="10"/>
@@ -20124,7 +20122,7 @@
       <c r="W205" s="10"/>
       <c r="X205" s="10"/>
       <c r="Y205" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z205" s="10"/>
       <c r="AA205" s="10"/>
@@ -20135,7 +20133,7 @@
         <v>87</v>
       </c>
       <c r="AF205" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG205" s="13" t="n">
         <v>0.0425</v>
@@ -20176,13 +20174,13 @@
       </c>
       <c r="F206" s="10"/>
       <c r="G206" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="H206" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="H206" s="10" t="s">
-        <v>644</v>
-      </c>
       <c r="I206" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J206" s="10"/>
       <c r="K206" s="12" t="n">
@@ -20204,14 +20202,14 @@
       <c r="W206" s="10"/>
       <c r="X206" s="10"/>
       <c r="Y206" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z206" s="10"/>
       <c r="AA206" s="10"/>
       <c r="AB206" s="23"/>
       <c r="AC206" s="10"/>
       <c r="AD206" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE206" s="10" t="s">
         <v>87</v>
@@ -20233,7 +20231,7 @@
         <v>200</v>
       </c>
       <c r="AN206" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO206" s="28" t="n">
         <v>504</v>
@@ -20258,10 +20256,10 @@
       </c>
       <c r="F207" s="10"/>
       <c r="G207" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="H207" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="H207" s="10" t="s">
-        <v>647</v>
       </c>
       <c r="I207" s="10" t="s">
         <v>92</v>
@@ -20292,14 +20290,14 @@
       <c r="W207" s="10"/>
       <c r="X207" s="10"/>
       <c r="Y207" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z207" s="10"/>
       <c r="AA207" s="10"/>
       <c r="AB207" s="23"/>
       <c r="AC207" s="10"/>
       <c r="AD207" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE207" s="10" t="s">
         <v>87</v>
@@ -20342,10 +20340,10 @@
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="H208" s="10" t="s">
         <v>648</v>
-      </c>
-      <c r="H208" s="10" t="s">
-        <v>649</v>
       </c>
       <c r="I208" s="10" t="s">
         <v>92</v>
@@ -20376,14 +20374,14 @@
       <c r="W208" s="10"/>
       <c r="X208" s="10"/>
       <c r="Y208" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z208" s="10"/>
       <c r="AA208" s="10"/>
       <c r="AB208" s="23"/>
       <c r="AC208" s="10"/>
       <c r="AD208" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE208" s="10" t="s">
         <v>87</v>
@@ -20422,17 +20420,17 @@
         <v>43</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F209" s="10"/>
       <c r="G209" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H209" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="H209" s="10" t="s">
-        <v>652</v>
-      </c>
       <c r="I209" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J209" s="10"/>
       <c r="K209" s="12" t="n">
@@ -20444,10 +20442,10 @@
         <v>473</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P209" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q209" s="14"/>
       <c r="R209" s="10"/>
@@ -20460,7 +20458,7 @@
       <c r="W209" s="10"/>
       <c r="X209" s="10"/>
       <c r="Y209" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z209" s="10"/>
       <c r="AA209" s="10"/>
@@ -20471,7 +20469,7 @@
         <v>87</v>
       </c>
       <c r="AF209" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG209" s="13" t="n">
         <v>0.04</v>
@@ -20506,17 +20504,17 @@
         <v>43</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H210" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="I210" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="J210" s="10"/>
       <c r="K210" s="12"/>
@@ -20528,7 +20526,7 @@
       <c r="Q210" s="14"/>
       <c r="R210" s="14"/>
       <c r="S210" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T210" s="10"/>
       <c r="U210" s="10"/>
@@ -20536,7 +20534,7 @@
       <c r="W210" s="10"/>
       <c r="X210" s="10"/>
       <c r="Y210" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z210" s="10"/>
       <c r="AA210" s="10"/>
@@ -20547,7 +20545,7 @@
         <v>87</v>
       </c>
       <c r="AF210" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG210" s="13" t="n">
         <v>0.065</v>
@@ -20555,7 +20553,7 @@
       <c r="AH210" s="10"/>
       <c r="AI210" s="10"/>
       <c r="AJ210" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK210" s="10"/>
       <c r="AL210" s="10" t="n">
@@ -20565,7 +20563,7 @@
         <v>204</v>
       </c>
       <c r="AN210" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AO210" s="10" t="n">
         <v>311</v>
@@ -20586,17 +20584,17 @@
         <v>43</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="H211" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="H211" s="10" t="s">
+      <c r="I211" s="10" t="s">
         <v>663</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>664</v>
       </c>
       <c r="J211" s="10"/>
       <c r="K211" s="12" t="n">
@@ -20624,7 +20622,7 @@
       <c r="W211" s="10"/>
       <c r="X211" s="10"/>
       <c r="Y211" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z211" s="10"/>
       <c r="AA211" s="10"/>
@@ -20668,17 +20666,17 @@
         <v>43</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="H212" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="H212" s="10" t="s">
+      <c r="I212" s="10" t="s">
         <v>666</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>667</v>
       </c>
       <c r="J212" s="10"/>
       <c r="K212" s="12" t="n">
@@ -20704,7 +20702,7 @@
       <c r="W212" s="10"/>
       <c r="X212" s="10"/>
       <c r="Y212" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z212" s="10"/>
       <c r="AA212" s="10"/>
@@ -20752,10 +20750,10 @@
       </c>
       <c r="F213" s="10"/>
       <c r="G213" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="H213" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="H213" s="10" t="s">
-        <v>670</v>
       </c>
       <c r="I213" s="10" t="s">
         <v>478</v>
@@ -20773,16 +20771,16 @@
       <c r="R213" s="14"/>
       <c r="S213" s="10"/>
       <c r="T213" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10"/>
       <c r="W213" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="X213" s="10"/>
       <c r="Y213" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
@@ -20801,10 +20799,10 @@
       <c r="AH213" s="10"/>
       <c r="AI213" s="10"/>
       <c r="AJ213" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK213" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL213" s="10" t="n">
         <v>2</v>
@@ -20836,13 +20834,13 @@
       </c>
       <c r="F214" s="10"/>
       <c r="G214" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H214" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="H214" s="10" t="s">
+      <c r="I214" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="J214" s="10"/>
       <c r="K214" s="12" t="n">
@@ -20872,7 +20870,7 @@
       <c r="W214" s="10"/>
       <c r="X214" s="10"/>
       <c r="Y214" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10"/>
@@ -20891,10 +20889,10 @@
       <c r="AH214" s="10"/>
       <c r="AI214" s="10"/>
       <c r="AJ214" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK214" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL214" s="10" t="n">
         <v>2</v>
@@ -20926,10 +20924,10 @@
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="H215" s="10" t="s">
         <v>677</v>
-      </c>
-      <c r="H215" s="10" t="s">
-        <v>678</v>
       </c>
       <c r="I215" s="10" t="s">
         <v>86</v>
@@ -20952,7 +20950,7 @@
       <c r="W215" s="10"/>
       <c r="X215" s="10"/>
       <c r="Y215" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z215" s="10"/>
       <c r="AA215" s="10"/>
@@ -20963,7 +20961,7 @@
         <v>87</v>
       </c>
       <c r="AF215" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG215" s="13" t="n">
         <v>0.01625</v>
@@ -20971,10 +20969,10 @@
       <c r="AH215" s="34"/>
       <c r="AI215" s="10"/>
       <c r="AJ215" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK215" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL215" s="10" t="n">
         <v>2</v>
@@ -20983,7 +20981,7 @@
         <v>209</v>
       </c>
       <c r="AN215" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO215" s="35" t="n">
         <v>312</v>
@@ -21006,13 +21004,13 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="H216" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="H216" s="10" t="s">
-        <v>681</v>
-      </c>
       <c r="I216" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J216" s="10"/>
       <c r="K216" s="12" t="n">
@@ -21021,31 +21019,31 @@
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
       <c r="N216" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="O216" s="14" t="s">
         <v>682</v>
-      </c>
-      <c r="O216" s="14" t="s">
-        <v>683</v>
       </c>
       <c r="P216" s="14"/>
       <c r="Q216" s="14"/>
       <c r="R216" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S216" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T216" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10"/>
       <c r="W216" s="10"/>
       <c r="X216" s="10"/>
       <c r="Y216" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z216" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AA216" s="10"/>
       <c r="AB216" s="10"/>
@@ -21059,10 +21057,10 @@
       <c r="AH216" s="10"/>
       <c r="AI216" s="10"/>
       <c r="AJ216" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK216" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL216" s="10" t="n">
         <v>3</v>
@@ -21092,13 +21090,13 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="H217" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="H217" s="10" t="s">
-        <v>687</v>
-      </c>
       <c r="I217" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J217" s="10"/>
       <c r="K217" s="12" t="n">
@@ -21107,31 +21105,31 @@
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
       <c r="N217" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="O217" s="14" t="s">
         <v>682</v>
-      </c>
-      <c r="O217" s="14" t="s">
-        <v>683</v>
       </c>
       <c r="P217" s="14"/>
       <c r="Q217" s="14"/>
       <c r="R217" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S217" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T217" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10"/>
       <c r="W217" s="10"/>
       <c r="X217" s="10"/>
       <c r="Y217" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z217" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
@@ -21145,10 +21143,10 @@
       <c r="AH217" s="10"/>
       <c r="AI217" s="10"/>
       <c r="AJ217" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK217" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL217" s="10" t="n">
         <v>3</v>
@@ -21178,10 +21176,10 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H218" s="10" t="s">
         <v>689</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>690</v>
       </c>
       <c r="I218" s="10" t="s">
         <v>510</v>
@@ -21206,7 +21204,7 @@
       <c r="W218" s="10"/>
       <c r="X218" s="10"/>
       <c r="Y218" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z218" s="10"/>
       <c r="AA218" s="10"/>
@@ -21221,10 +21219,10 @@
       <c r="AH218" s="10"/>
       <c r="AI218" s="10"/>
       <c r="AJ218" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK218" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL218" s="10" t="n">
         <v>3</v>
@@ -21233,7 +21231,7 @@
         <v>213</v>
       </c>
       <c r="AN218" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AO218" s="10" t="n">
         <v>209</v>
@@ -21256,10 +21254,10 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H219" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="H219" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="I219" s="10" t="s">
         <v>92</v>
@@ -21271,35 +21269,35 @@
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
       <c r="N219" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="O219" s="14" t="s">
         <v>682</v>
-      </c>
-      <c r="O219" s="14" t="s">
-        <v>683</v>
       </c>
       <c r="P219" s="14"/>
       <c r="Q219" s="14"/>
       <c r="R219" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S219" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T219" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10"/>
       <c r="W219" s="10"/>
       <c r="X219" s="10"/>
       <c r="Y219" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z219" s="10"/>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
       <c r="AD219" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE219" s="10"/>
       <c r="AF219" s="10" t="s">
@@ -21309,10 +21307,10 @@
       <c r="AH219" s="10"/>
       <c r="AI219" s="10"/>
       <c r="AJ219" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK219" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL219" s="10" t="n">
         <v>4</v>
@@ -21342,10 +21340,10 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="H220" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="H220" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="I220" s="10" t="s">
         <v>92</v>
@@ -21357,35 +21355,35 @@
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
       <c r="N220" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="O220" s="14" t="s">
         <v>696</v>
-      </c>
-      <c r="O220" s="14" t="s">
-        <v>697</v>
       </c>
       <c r="P220" s="14"/>
       <c r="Q220" s="14"/>
       <c r="R220" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S220" s="10" t="s">
         <v>94</v>
       </c>
       <c r="T220" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10"/>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE220" s="10"/>
       <c r="AF220" s="10" t="s">
@@ -21395,10 +21393,10 @@
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK220" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL220" s="10" t="n">
         <v>4</v>
@@ -21428,13 +21426,13 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="H221" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="H221" s="10" t="s">
+      <c r="I221" s="10" t="s">
         <v>699</v>
-      </c>
-      <c r="I221" s="10" t="s">
-        <v>700</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="12" t="n">
@@ -21462,7 +21460,7 @@
       <c r="W221" s="10"/>
       <c r="X221" s="10"/>
       <c r="Y221" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z221" s="10"/>
       <c r="AA221" s="10"/>
@@ -21477,10 +21475,10 @@
       <c r="AH221" s="10"/>
       <c r="AI221" s="10"/>
       <c r="AJ221" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK221" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL221" s="10" t="n">
         <v>3</v>
@@ -21512,13 +21510,13 @@
       </c>
       <c r="F222" s="10"/>
       <c r="G222" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="H222" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="H222" s="10" t="s">
+      <c r="I222" s="10" t="s">
         <v>702</v>
-      </c>
-      <c r="I222" s="10" t="s">
-        <v>703</v>
       </c>
       <c r="J222" s="10"/>
       <c r="K222" s="12"/>
@@ -21540,7 +21538,7 @@
       <c r="W222" s="10"/>
       <c r="X222" s="10"/>
       <c r="Y222" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z222" s="10"/>
       <c r="AA222" s="10"/>
@@ -21551,7 +21549,7 @@
         <v>87</v>
       </c>
       <c r="AF222" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG222" s="13" t="n">
         <v>0.01625</v>
@@ -21559,10 +21557,10 @@
       <c r="AH222" s="10"/>
       <c r="AI222" s="10"/>
       <c r="AJ222" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK222" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AL222" s="10" t="n">
         <v>2</v>
@@ -21594,13 +21592,13 @@
       </c>
       <c r="F223" s="35"/>
       <c r="G223" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="H223" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="H223" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="I223" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J223" s="10"/>
       <c r="K223" s="12" t="n">
@@ -21622,7 +21620,7 @@
       <c r="W223" s="10"/>
       <c r="X223" s="10"/>
       <c r="Y223" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Z223" s="10"/>
       <c r="AA223" s="10"/>
@@ -21633,7 +21631,7 @@
         <v>87</v>
       </c>
       <c r="AF223" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG223" s="13" t="n">
         <v>0.03</v>
@@ -21649,7 +21647,7 @@
         <v>218</v>
       </c>
       <c r="AN223" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AO223" s="35" t="n">
         <v>301</v>
@@ -21674,13 +21672,13 @@
       </c>
       <c r="F224" s="35"/>
       <c r="G224" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="H224" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="H224" s="10" t="s">
+      <c r="I224" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="I224" s="10" t="s">
-        <v>709</v>
       </c>
       <c r="J224" s="10"/>
       <c r="K224" s="12" t="n">
@@ -21710,7 +21708,7 @@
       <c r="W224" s="10"/>
       <c r="X224" s="10"/>
       <c r="Y224" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Z224" s="10"/>
       <c r="AA224" s="10"/>
@@ -21721,13 +21719,13 @@
         <v>87</v>
       </c>
       <c r="AF224" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG224" s="13"/>
       <c r="AH224" s="10"/>
       <c r="AI224" s="10"/>
       <c r="AJ224" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AK224" s="10"/>
       <c r="AL224" s="10" t="n">
@@ -21758,10 +21756,10 @@
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="H225" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="H225" s="10" t="s">
-        <v>713</v>
       </c>
       <c r="I225" s="10" t="s">
         <v>86</v>
@@ -21805,7 +21803,7 @@
         <v>220</v>
       </c>
       <c r="AN225" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AO225" s="14" t="n">
         <v>400</v>
@@ -21826,19 +21824,19 @@
         <v>485</v>
       </c>
       <c r="E226" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F226" s="36" t="s">
         <v>715</v>
       </c>
-      <c r="F226" s="36" t="s">
+      <c r="G226" s="36" t="s">
         <v>716</v>
       </c>
-      <c r="G226" s="36" t="s">
+      <c r="H226" s="36" t="s">
         <v>717</v>
       </c>
-      <c r="H226" s="36" t="s">
+      <c r="I226" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="J226" s="10"/>
       <c r="K226" s="12" t="n">
@@ -21848,7 +21846,7 @@
       <c r="M226" s="12"/>
       <c r="N226" s="10"/>
       <c r="O226" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P226" s="14"/>
       <c r="Q226" s="14"/>
@@ -21857,7 +21855,7 @@
         <v>94</v>
       </c>
       <c r="T226" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10"/>
@@ -21865,7 +21863,7 @@
       <c r="X226" s="10"/>
       <c r="Y226" s="10"/>
       <c r="Z226" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA226" s="10"/>
       <c r="AB226" s="23"/>
@@ -21910,17 +21908,17 @@
         <v>485</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="H227" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="H227" s="10" t="s">
-        <v>722</v>
-      </c>
       <c r="I227" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J227" s="10"/>
       <c r="K227" s="12" t="n">
@@ -21930,7 +21928,7 @@
       <c r="M227" s="12"/>
       <c r="N227" s="10"/>
       <c r="O227" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P227" s="14"/>
       <c r="Q227" s="14"/>
@@ -21939,7 +21937,7 @@
         <v>94</v>
       </c>
       <c r="T227" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10"/>
@@ -21947,7 +21945,7 @@
       <c r="X227" s="10"/>
       <c r="Y227" s="10"/>
       <c r="Z227" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AA227" s="10"/>
       <c r="AB227" s="23"/>
@@ -21992,19 +21990,19 @@
         <v>485</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F228" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="G228" s="36" t="s">
         <v>724</v>
       </c>
-      <c r="G228" s="36" t="s">
+      <c r="H228" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="H228" s="10" t="s">
-        <v>726</v>
-      </c>
       <c r="I228" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J228" s="10"/>
       <c r="K228" s="12" t="n">
@@ -22014,7 +22012,7 @@
       <c r="M228" s="12"/>
       <c r="N228" s="10"/>
       <c r="O228" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P228" s="14"/>
       <c r="Q228" s="14"/>
@@ -22023,7 +22021,7 @@
         <v>94</v>
       </c>
       <c r="T228" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U228" s="10"/>
       <c r="V228" s="10"/>
@@ -22031,7 +22029,7 @@
       <c r="X228" s="10"/>
       <c r="Y228" s="10"/>
       <c r="Z228" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA228" s="10"/>
       <c r="AB228" s="23"/>
@@ -22073,23 +22071,23 @@
         <v>42</v>
       </c>
       <c r="D229" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="E229" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="E229" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="F229" s="35"/>
       <c r="G229" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="H229" s="35" t="s">
         <v>730</v>
       </c>
-      <c r="H229" s="35" t="s">
+      <c r="I229" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="I229" s="10" t="s">
+      <c r="J229" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>733</v>
       </c>
       <c r="K229" s="12"/>
       <c r="L229" s="12"/>
@@ -22101,7 +22099,7 @@
       <c r="R229" s="10"/>
       <c r="S229" s="10"/>
       <c r="T229" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10"/>
@@ -22125,7 +22123,7 @@
         <v>218</v>
       </c>
       <c r="AN229" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AO229" s="10"/>
       <c r="AMJ229" s="0"/>
@@ -22141,23 +22139,23 @@
         <v>42</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="H230" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="H230" s="28" t="s">
-        <v>738</v>
-      </c>
       <c r="I230" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="J230" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="J230" s="10" t="s">
-        <v>733</v>
       </c>
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
@@ -22169,7 +22167,7 @@
       <c r="R230" s="10"/>
       <c r="S230" s="10"/>
       <c r="T230" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10"/>
@@ -22193,7 +22191,7 @@
         <v>219</v>
       </c>
       <c r="AN230" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AO230" s="10"/>
       <c r="AMJ230" s="0"/>
@@ -22209,39 +22207,39 @@
         <v>42</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E231" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F231" s="35"/>
       <c r="G231" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="H231" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I231" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="H231" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="I231" s="10" t="s">
+      <c r="J231" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
       <c r="N231" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="O231" s="38" t="s">
         <v>744</v>
-      </c>
-      <c r="O231" s="38" t="s">
-        <v>745</v>
       </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="10"/>
       <c r="S231" s="10"/>
       <c r="T231" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10"/>
@@ -22281,39 +22279,39 @@
         <v>42</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E232" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F232" s="35"/>
       <c r="G232" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="H232" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="I232" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="H232" s="39" t="s">
-        <v>712</v>
-      </c>
-      <c r="I232" s="40" t="s">
+      <c r="J232" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J232" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
       <c r="N232" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O232" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
       <c r="R232" s="10"/>
       <c r="S232" s="10"/>
       <c r="T232" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10"/>
@@ -22353,39 +22351,39 @@
         <v>42</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E233" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F233" s="35"/>
       <c r="G233" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="H233" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="I233" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="H233" s="39" t="s">
-        <v>712</v>
-      </c>
-      <c r="I233" s="40" t="s">
+      <c r="J233" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J233" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
       <c r="N233" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O233" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
       <c r="R233" s="10"/>
       <c r="S233" s="10"/>
       <c r="T233" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10"/>
@@ -22425,23 +22423,23 @@
         <v>42</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E234" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F234" s="35"/>
       <c r="G234" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="H234" s="35" t="s">
         <v>749</v>
       </c>
-      <c r="H234" s="35" t="s">
+      <c r="I234" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="I234" s="10" t="s">
+      <c r="J234" s="10" t="s">
         <v>751</v>
-      </c>
-      <c r="J234" s="10" t="s">
-        <v>752</v>
       </c>
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
@@ -22453,14 +22451,14 @@
       <c r="R234" s="10"/>
       <c r="S234" s="10"/>
       <c r="T234" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10"/>
       <c r="W234" s="10"/>
       <c r="X234" s="10"/>
       <c r="Y234" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z234" s="10"/>
       <c r="AA234" s="10"/>
@@ -22479,7 +22477,7 @@
         <v>223</v>
       </c>
       <c r="AN234" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AO234" s="10"/>
       <c r="AMJ234" s="0"/>
@@ -22495,23 +22493,23 @@
         <v>42</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E235" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F235" s="35"/>
       <c r="G235" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="H235" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="H235" s="35" t="s">
+      <c r="I235" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="I235" s="10" t="s">
-        <v>757</v>
-      </c>
       <c r="J235" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
@@ -22523,14 +22521,14 @@
       <c r="R235" s="10"/>
       <c r="S235" s="10"/>
       <c r="T235" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10"/>
       <c r="W235" s="10"/>
       <c r="X235" s="10"/>
       <c r="Y235" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Z235" s="10"/>
       <c r="AA235" s="10"/>
@@ -22565,37 +22563,37 @@
         <v>42</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E236" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F236" s="35"/>
       <c r="G236" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="H236" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="H236" s="35" t="s">
+      <c r="I236" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="I236" s="10" t="s">
-        <v>762</v>
-      </c>
       <c r="J236" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
       <c r="N236" s="10"/>
       <c r="O236" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
       <c r="R236" s="10"/>
       <c r="S236" s="10"/>
       <c r="T236" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10"/>
@@ -22633,23 +22631,23 @@
         <v>42</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E237" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F237" s="35"/>
       <c r="G237" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="H237" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="H237" s="35" t="s">
+      <c r="I237" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="I237" s="10" t="s">
-        <v>768</v>
-      </c>
       <c r="J237" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
@@ -22663,7 +22661,7 @@
       <c r="R237" s="10"/>
       <c r="S237" s="10"/>
       <c r="T237" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10"/>
@@ -22701,39 +22699,39 @@
         <v>42</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E238" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F238" s="35"/>
       <c r="G238" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H238" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H238" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I238" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J238" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J238" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
       <c r="N238" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="O238" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="O238" s="16" t="s">
-        <v>773</v>
       </c>
       <c r="P238" s="10"/>
       <c r="Q238" s="10"/>
       <c r="R238" s="10"/>
       <c r="S238" s="10"/>
       <c r="T238" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10"/>
@@ -22773,39 +22771,39 @@
         <v>42</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E239" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F239" s="35"/>
       <c r="G239" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H239" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H239" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I239" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J239" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J239" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
       <c r="N239" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="O239" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="O239" s="16" t="s">
-        <v>773</v>
       </c>
       <c r="P239" s="10"/>
       <c r="Q239" s="10"/>
       <c r="R239" s="10"/>
       <c r="S239" s="10"/>
       <c r="T239" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10"/>
@@ -22845,39 +22843,39 @@
         <v>42</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E240" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F240" s="35"/>
       <c r="G240" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H240" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H240" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I240" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J240" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
       <c r="N240" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="O240" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="O240" s="16" t="s">
-        <v>773</v>
       </c>
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
       <c r="R240" s="10"/>
       <c r="S240" s="10"/>
       <c r="T240" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10"/>
@@ -22917,39 +22915,39 @@
         <v>42</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F241" s="35"/>
       <c r="G241" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H241" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H241" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I241" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J241" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J241" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
       <c r="N241" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O241" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
       <c r="R241" s="10"/>
       <c r="S241" s="10"/>
       <c r="T241" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10"/>
@@ -22987,39 +22985,39 @@
         <v>42</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F242" s="35"/>
       <c r="G242" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H242" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H242" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I242" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J242" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J242" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="12"/>
       <c r="N242" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O242" s="41" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
       <c r="R242" s="10"/>
       <c r="S242" s="10"/>
       <c r="T242" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10"/>
@@ -23043,7 +23041,7 @@
         <v>232</v>
       </c>
       <c r="AN242" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AO242" s="10"/>
       <c r="AMJ242" s="0"/>
@@ -23059,39 +23057,39 @@
         <v>42</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E243" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F243" s="35"/>
       <c r="G243" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H243" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H243" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I243" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J243" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J243" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O243" s="16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P243" s="10"/>
       <c r="Q243" s="10"/>
       <c r="R243" s="10"/>
       <c r="S243" s="10"/>
       <c r="T243" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10"/>
@@ -23115,7 +23113,7 @@
         <v>233</v>
       </c>
       <c r="AN243" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AO243" s="10"/>
       <c r="AMJ243" s="0"/>
@@ -23131,39 +23129,39 @@
         <v>42</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E244" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F244" s="35"/>
       <c r="G244" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="H244" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="H244" s="35" t="s">
-        <v>771</v>
-      </c>
       <c r="I244" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="J244" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
       <c r="N244" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O244" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
       <c r="R244" s="10"/>
       <c r="S244" s="10"/>
       <c r="T244" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10"/>
@@ -23201,21 +23199,21 @@
         <v>42</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E245" s="42"/>
       <c r="F245" s="35"/>
       <c r="G245" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="H245" s="42" t="s">
         <v>780</v>
       </c>
-      <c r="H245" s="42" t="s">
-        <v>781</v>
-      </c>
       <c r="I245" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K245" s="43"/>
       <c r="L245" s="43"/>
@@ -23227,7 +23225,7 @@
       <c r="R245" s="9"/>
       <c r="S245" s="9"/>
       <c r="T245" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U245" s="9"/>
       <c r="V245" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3029,10 +3030,10 @@
   </sheetPr>
   <dimension ref="1:245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Y169" activeCellId="0" sqref="Y169:Y175"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AB181" activeCellId="0" sqref="AB181:AB184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3041,38 +3042,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="85.587044534413"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -18110,8 +18111,8 @@
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
       <c r="AA181" s="10"/>
-      <c r="AB181" s="10" t="n">
-        <v>1103</v>
+      <c r="AB181" s="20" t="n">
+        <v>1102</v>
       </c>
       <c r="AC181" s="10"/>
       <c r="AD181" s="10"/>
@@ -18198,8 +18199,8 @@
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
       <c r="AA182" s="10"/>
-      <c r="AB182" s="10" t="n">
-        <v>1103</v>
+      <c r="AB182" s="20" t="n">
+        <v>1102</v>
       </c>
       <c r="AC182" s="10"/>
       <c r="AD182" s="10"/>
@@ -18278,8 +18279,8 @@
       <c r="Y183" s="10"/>
       <c r="Z183" s="10"/>
       <c r="AA183" s="10"/>
-      <c r="AB183" s="10" t="n">
-        <v>1103</v>
+      <c r="AB183" s="20" t="n">
+        <v>1102</v>
       </c>
       <c r="AC183" s="10"/>
       <c r="AD183" s="10"/>
@@ -18360,8 +18361,8 @@
       <c r="Y184" s="10"/>
       <c r="Z184" s="10"/>
       <c r="AA184" s="10"/>
-      <c r="AB184" s="10" t="n">
-        <v>1103</v>
+      <c r="AB184" s="20" t="n">
+        <v>1102</v>
       </c>
       <c r="AC184" s="10"/>
       <c r="AD184" s="10"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1746,8 +1747,7 @@
     <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
   </si>
   <si>
-    <t xml:space="preserve">146
-147
+    <t xml:space="preserve">147
 148
 149
 150</t>
@@ -3021,55 +3021,55 @@
   </sheetPr>
   <dimension ref="A1:AO245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Z217" activeCellId="0" sqref="Z217"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AN161" activeCellId="0" sqref="AN161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="84.7327935222672"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3021,55 +3022,55 @@
   </sheetPr>
   <dimension ref="A1:AO245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AN161" activeCellId="0" sqref="AN161"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18277,9 +18278,7 @@
       <c r="AM185" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="AN185" s="7" t="n">
-        <v>180</v>
-      </c>
+      <c r="AN185" s="7"/>
       <c r="AO185" s="7" t="n">
         <v>501</v>
       </c>
@@ -19107,9 +19106,7 @@
       <c r="AM195" s="7" t="n">
         <v>189</v>
       </c>
-      <c r="AN195" s="7" t="n">
-        <v>190</v>
-      </c>
+      <c r="AN195" s="7"/>
       <c r="AO195" s="7" t="n">
         <v>502</v>
       </c>
@@ -19275,7 +19272,7 @@
       </c>
       <c r="AN197" s="7"/>
       <c r="AO197" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19358,7 +19355,7 @@
       </c>
       <c r="AN198" s="7"/>
       <c r="AO198" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19441,7 +19438,7 @@
       </c>
       <c r="AN199" s="7"/>
       <c r="AO199" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19524,7 +19521,7 @@
       </c>
       <c r="AN200" s="7"/>
       <c r="AO200" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19607,7 +19604,7 @@
       </c>
       <c r="AN201" s="7"/>
       <c r="AO201" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1323,10 +1324,10 @@
     <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
@@ -1425,10 +1426,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
@@ -2858,6 +2859,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2874,17 +2887,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2923,10 +2928,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3023,54 +3024,54 @@
   <dimension ref="A1:AO245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201"/>
+      <selection pane="bottomLeft" activeCell="G127" activeCellId="0" sqref="G127:AP127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12447,26 +12448,26 @@
         <v>213</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J115" s="7"/>
-      <c r="K115" s="9" t="n">
+      <c r="J115" s="6"/>
+      <c r="K115" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="7" t="s">
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="O115" s="11" t="n">
-        <v>111111</v>
+      <c r="O115" s="26" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -13467,26 +13468,26 @@
         <v>213</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="7" t="s">
+      <c r="G127" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I127" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J127" s="7"/>
-      <c r="K127" s="9" t="n">
+      <c r="J127" s="6"/>
+      <c r="K127" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="7" t="s">
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="O127" s="11" t="n">
-        <v>111111</v>
+      <c r="O127" s="26" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
@@ -13825,7 +13826,7 @@
       <c r="N131" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="O131" s="24" t="s">
+      <c r="O131" s="27" t="s">
         <v>429</v>
       </c>
       <c r="P131" s="11"/>
@@ -14927,7 +14928,7 @@
       </c>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
-      <c r="N144" s="25" t="s">
+      <c r="N144" s="28" t="s">
         <v>463</v>
       </c>
       <c r="O144" s="11" t="n">
@@ -15023,7 +15024,7 @@
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
-      <c r="W145" s="26"/>
+      <c r="W145" s="29"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
@@ -15052,7 +15053,7 @@
       <c r="AM145" s="7" t="n">
         <v>131</v>
       </c>
-      <c r="AN145" s="27" t="s">
+      <c r="AN145" s="30" t="s">
         <v>470</v>
       </c>
       <c r="AO145" s="7" t="n">
@@ -15110,7 +15111,7 @@
       </c>
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
-      <c r="W146" s="26"/>
+      <c r="W146" s="29"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
@@ -15187,7 +15188,7 @@
       </c>
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
-      <c r="W147" s="26" t="s">
+      <c r="W147" s="29" t="s">
         <v>480</v>
       </c>
       <c r="X147" s="7"/>
@@ -15254,7 +15255,7 @@
       <c r="N148" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O148" s="28" t="n">
+      <c r="O148" s="26" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P148" s="11" t="s">
@@ -15270,7 +15271,7 @@
       </c>
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
-      <c r="W148" s="26"/>
+      <c r="W148" s="29"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -15345,7 +15346,7 @@
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
       <c r="V149" s="7"/>
-      <c r="W149" s="26"/>
+      <c r="W149" s="29"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -15420,7 +15421,7 @@
       <c r="N150" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O150" s="28" t="n">
+      <c r="O150" s="26" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P150" s="11"/>
@@ -15434,7 +15435,7 @@
       </c>
       <c r="U150" s="7"/>
       <c r="V150" s="7"/>
-      <c r="W150" s="26"/>
+      <c r="W150" s="29"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
@@ -15501,7 +15502,7 @@
       <c r="N151" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O151" s="28" t="n">
+      <c r="O151" s="26" t="n">
         <v>5449000012203</v>
       </c>
       <c r="P151" s="11"/>
@@ -15515,7 +15516,7 @@
       </c>
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
-      <c r="W151" s="26"/>
+      <c r="W151" s="29"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
@@ -15579,10 +15580,10 @@
       </c>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
-      <c r="N152" s="29" t="s">
+      <c r="N152" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="O152" s="28" t="n">
+      <c r="O152" s="26" t="n">
         <v>5449000133335</v>
       </c>
       <c r="P152" s="11"/>
@@ -15595,7 +15596,7 @@
         <v>95</v>
       </c>
       <c r="U152" s="7"/>
-      <c r="V152" s="26"/>
+      <c r="V152" s="29"/>
       <c r="W152" s="7"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
@@ -15663,7 +15664,7 @@
       <c r="N153" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O153" s="28" t="n">
+      <c r="O153" s="26" t="n">
         <v>5449000052926</v>
       </c>
       <c r="P153" s="11"/>
@@ -15677,7 +15678,7 @@
       </c>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
-      <c r="W153" s="26"/>
+      <c r="W153" s="29"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
@@ -15752,7 +15753,7 @@
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
       <c r="V154" s="7"/>
-      <c r="W154" s="26"/>
+      <c r="W154" s="29"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
@@ -15839,7 +15840,7 @@
       </c>
       <c r="U155" s="7"/>
       <c r="V155" s="7"/>
-      <c r="W155" s="26"/>
+      <c r="W155" s="29"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
@@ -15993,7 +15994,7 @@
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
       <c r="V157" s="7"/>
-      <c r="W157" s="26"/>
+      <c r="W157" s="29"/>
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
@@ -16074,7 +16075,7 @@
       </c>
       <c r="U158" s="7"/>
       <c r="V158" s="7"/>
-      <c r="W158" s="26"/>
+      <c r="W158" s="29"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -16155,7 +16156,7 @@
       </c>
       <c r="U159" s="7"/>
       <c r="V159" s="7"/>
-      <c r="W159" s="26"/>
+      <c r="W159" s="29"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -16232,7 +16233,7 @@
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
-      <c r="W160" s="26"/>
+      <c r="W160" s="29"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -16321,7 +16322,7 @@
       </c>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
-      <c r="W161" s="26"/>
+      <c r="W161" s="29"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -16402,7 +16403,7 @@
       </c>
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
-      <c r="W162" s="26"/>
+      <c r="W162" s="29"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -16483,7 +16484,7 @@
       </c>
       <c r="U163" s="7"/>
       <c r="V163" s="7"/>
-      <c r="W163" s="26"/>
+      <c r="W163" s="29"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -16564,7 +16565,7 @@
       </c>
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
-      <c r="W164" s="26"/>
+      <c r="W164" s="29"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
@@ -16639,7 +16640,7 @@
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
-      <c r="W165" s="26"/>
+      <c r="W165" s="29"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
@@ -16726,7 +16727,7 @@
       </c>
       <c r="U166" s="7"/>
       <c r="V166" s="7"/>
-      <c r="W166" s="26"/>
+      <c r="W166" s="29"/>
       <c r="X166" s="7"/>
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
@@ -16886,7 +16887,7 @@
       </c>
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
-      <c r="W168" s="26"/>
+      <c r="W168" s="29"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
@@ -16961,9 +16962,9 @@
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
-      <c r="W169" s="26"/>
+      <c r="W169" s="29"/>
       <c r="X169" s="7"/>
-      <c r="Y169" s="30" t="s">
+      <c r="Y169" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z169" s="7"/>
@@ -16982,7 +16983,7 @@
       </c>
       <c r="AH169" s="7"/>
       <c r="AI169" s="7"/>
-      <c r="AJ169" s="30"/>
+      <c r="AJ169" s="24"/>
       <c r="AK169" s="7"/>
       <c r="AL169" s="7" t="n">
         <v>2</v>
@@ -17050,9 +17051,9 @@
       </c>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
-      <c r="W170" s="26"/>
+      <c r="W170" s="29"/>
       <c r="X170" s="7"/>
-      <c r="Y170" s="30" t="s">
+      <c r="Y170" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z170" s="7"/>
@@ -17069,7 +17070,7 @@
       <c r="AG170" s="10"/>
       <c r="AH170" s="7"/>
       <c r="AI170" s="7"/>
-      <c r="AJ170" s="30"/>
+      <c r="AJ170" s="24"/>
       <c r="AK170" s="7"/>
       <c r="AL170" s="7" t="n">
         <v>3</v>
@@ -17131,7 +17132,7 @@
         <v>552</v>
       </c>
       <c r="X171" s="7"/>
-      <c r="Y171" s="30" t="s">
+      <c r="Y171" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z171" s="7"/>
@@ -17148,7 +17149,7 @@
       <c r="AG171" s="10"/>
       <c r="AH171" s="7"/>
       <c r="AI171" s="7"/>
-      <c r="AJ171" s="30"/>
+      <c r="AJ171" s="24"/>
       <c r="AK171" s="7"/>
       <c r="AL171" s="7" t="n">
         <v>3</v>
@@ -17204,9 +17205,9 @@
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
-      <c r="W172" s="26"/>
+      <c r="W172" s="29"/>
       <c r="X172" s="7"/>
-      <c r="Y172" s="30" t="s">
+      <c r="Y172" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z172" s="7"/>
@@ -17223,7 +17224,7 @@
       <c r="AG172" s="10"/>
       <c r="AH172" s="7"/>
       <c r="AI172" s="7"/>
-      <c r="AJ172" s="30"/>
+      <c r="AJ172" s="24"/>
       <c r="AK172" s="7"/>
       <c r="AL172" s="7" t="n">
         <v>3</v>
@@ -17285,9 +17286,9 @@
       </c>
       <c r="U173" s="7"/>
       <c r="V173" s="7"/>
-      <c r="W173" s="26"/>
+      <c r="W173" s="29"/>
       <c r="X173" s="7"/>
-      <c r="Y173" s="30" t="s">
+      <c r="Y173" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z173" s="7"/>
@@ -17304,7 +17305,7 @@
       <c r="AG173" s="10"/>
       <c r="AH173" s="7"/>
       <c r="AI173" s="7"/>
-      <c r="AJ173" s="30"/>
+      <c r="AJ173" s="24"/>
       <c r="AK173" s="7"/>
       <c r="AL173" s="7" t="n">
         <v>4</v>
@@ -17350,7 +17351,7 @@
       <c r="N174" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O174" s="31" t="s">
+      <c r="O174" s="32" t="s">
         <v>296</v>
       </c>
       <c r="P174" s="11"/>
@@ -17364,9 +17365,9 @@
       </c>
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
-      <c r="W174" s="26"/>
+      <c r="W174" s="29"/>
       <c r="X174" s="7"/>
-      <c r="Y174" s="30" t="s">
+      <c r="Y174" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z174" s="7"/>
@@ -17383,7 +17384,7 @@
       <c r="AG174" s="10"/>
       <c r="AH174" s="7"/>
       <c r="AI174" s="7"/>
-      <c r="AJ174" s="30"/>
+      <c r="AJ174" s="24"/>
       <c r="AK174" s="7"/>
       <c r="AL174" s="7" t="n">
         <v>4</v>
@@ -17429,7 +17430,7 @@
       <c r="N175" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="O175" s="31" t="s">
+      <c r="O175" s="32" t="s">
         <v>222</v>
       </c>
       <c r="P175" s="11"/>
@@ -17443,9 +17444,9 @@
       </c>
       <c r="U175" s="7"/>
       <c r="V175" s="7"/>
-      <c r="W175" s="26"/>
+      <c r="W175" s="29"/>
       <c r="X175" s="7"/>
-      <c r="Y175" s="30" t="s">
+      <c r="Y175" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z175" s="7"/>
@@ -17462,7 +17463,7 @@
       <c r="AG175" s="10"/>
       <c r="AH175" s="7"/>
       <c r="AI175" s="7"/>
-      <c r="AJ175" s="30"/>
+      <c r="AJ175" s="24"/>
       <c r="AK175" s="7"/>
       <c r="AL175" s="7" t="n">
         <v>4</v>
@@ -17518,9 +17519,9 @@
       <c r="T176" s="7"/>
       <c r="U176" s="7"/>
       <c r="V176" s="7"/>
-      <c r="W176" s="26"/>
+      <c r="W176" s="29"/>
       <c r="X176" s="7"/>
-      <c r="Y176" s="30"/>
+      <c r="Y176" s="24"/>
       <c r="Z176" s="7"/>
       <c r="AA176" s="7"/>
       <c r="AB176" s="7" t="n">
@@ -17605,9 +17606,9 @@
       </c>
       <c r="U177" s="7"/>
       <c r="V177" s="7"/>
-      <c r="W177" s="26"/>
+      <c r="W177" s="29"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="30"/>
+      <c r="Y177" s="24"/>
       <c r="Z177" s="7"/>
       <c r="AA177" s="7"/>
       <c r="AB177" s="7" t="n">
@@ -17686,7 +17687,7 @@
         <v>569</v>
       </c>
       <c r="X178" s="7"/>
-      <c r="Y178" s="30"/>
+      <c r="Y178" s="24"/>
       <c r="Z178" s="7"/>
       <c r="AA178" s="7"/>
       <c r="AB178" s="7" t="n">
@@ -17759,9 +17760,9 @@
       <c r="T179" s="7"/>
       <c r="U179" s="7"/>
       <c r="V179" s="7"/>
-      <c r="W179" s="26"/>
+      <c r="W179" s="29"/>
       <c r="X179" s="7"/>
-      <c r="Y179" s="30"/>
+      <c r="Y179" s="24"/>
       <c r="Z179" s="7"/>
       <c r="AA179" s="7"/>
       <c r="AB179" s="7" t="n">
@@ -17842,9 +17843,9 @@
       </c>
       <c r="U180" s="7"/>
       <c r="V180" s="7"/>
-      <c r="W180" s="26"/>
+      <c r="W180" s="29"/>
       <c r="X180" s="7"/>
-      <c r="Y180" s="30"/>
+      <c r="Y180" s="24"/>
       <c r="Z180" s="7"/>
       <c r="AA180" s="7"/>
       <c r="AB180" s="7" t="n">
@@ -17919,7 +17920,7 @@
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
       <c r="V181" s="7"/>
-      <c r="W181" s="26"/>
+      <c r="W181" s="29"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="U182" s="7"/>
       <c r="V182" s="7"/>
-      <c r="W182" s="26"/>
+      <c r="W182" s="29"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
@@ -18166,7 +18167,7 @@
       </c>
       <c r="U184" s="7"/>
       <c r="V184" s="7"/>
-      <c r="W184" s="26"/>
+      <c r="W184" s="29"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
@@ -18360,7 +18361,7 @@
       <c r="AN186" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="AO186" s="25" t="n">
+      <c r="AO186" s="28" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19188,7 +19189,7 @@
       <c r="AN196" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AO196" s="25" t="n">
+      <c r="AO196" s="28" t="n">
         <v>502</v>
       </c>
     </row>
@@ -19769,7 +19770,7 @@
       <c r="AN203" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="AO203" s="25" t="n">
+      <c r="AO203" s="28" t="n">
         <v>503</v>
       </c>
     </row>
@@ -19808,7 +19809,7 @@
       <c r="N204" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="O204" s="28" t="n">
+      <c r="O204" s="26" t="n">
         <v>5449000005489</v>
       </c>
       <c r="P204" s="11"/>
@@ -20018,7 +20019,7 @@
       <c r="AN206" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="AO206" s="25" t="n">
+      <c r="AO206" s="28" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20057,7 +20058,7 @@
       <c r="N207" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="O207" s="28" t="n">
+      <c r="O207" s="26" t="n">
         <v>4607042431722</v>
       </c>
       <c r="P207" s="11"/>
@@ -20137,7 +20138,7 @@
       </c>
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
-      <c r="N208" s="25" t="s">
+      <c r="N208" s="28" t="s">
         <v>271</v>
       </c>
       <c r="O208" s="19" t="s">
@@ -20589,7 +20590,7 @@
         <v>207</v>
       </c>
       <c r="AN213" s="7"/>
-      <c r="AO213" s="32" t="n">
+      <c r="AO213" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20678,7 +20679,7 @@
         <v>208</v>
       </c>
       <c r="AN214" s="7"/>
-      <c r="AO214" s="32" t="n">
+      <c r="AO214" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20742,7 +20743,7 @@
       <c r="AG215" s="10" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AH215" s="31"/>
+      <c r="AH215" s="32"/>
       <c r="AI215" s="7"/>
       <c r="AJ215" s="7" t="s">
         <v>672</v>
@@ -20759,7 +20760,7 @@
       <c r="AN215" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="AO215" s="32" t="n">
+      <c r="AO215" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20817,7 +20818,7 @@
       <c r="Y216" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="Z216" s="33" t="s">
+      <c r="Z216" s="34" t="s">
         <v>684</v>
       </c>
       <c r="AA216" s="7"/>
@@ -21338,7 +21339,7 @@
         <v>217</v>
       </c>
       <c r="AN222" s="7"/>
-      <c r="AO222" s="32" t="n">
+      <c r="AO222" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21355,10 +21356,10 @@
       <c r="D223" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E223" s="32" t="s">
+      <c r="E223" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F223" s="32"/>
+      <c r="F223" s="33"/>
       <c r="G223" s="7" t="s">
         <v>703</v>
       </c>
@@ -21417,7 +21418,7 @@
       <c r="AN223" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="AO223" s="32" t="n">
+      <c r="AO223" s="33" t="n">
         <v>301</v>
       </c>
     </row>
@@ -21434,10 +21435,10 @@
       <c r="D224" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E224" s="32" t="s">
+      <c r="E224" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F224" s="32"/>
+      <c r="F224" s="33"/>
       <c r="G224" s="7" t="s">
         <v>706</v>
       </c>
@@ -21591,13 +21592,13 @@
       <c r="E226" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="F226" s="34" t="s">
+      <c r="F226" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="G226" s="34" t="s">
+      <c r="G226" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="H226" s="34" t="s">
+      <c r="H226" s="35" t="s">
         <v>717</v>
       </c>
       <c r="I226" s="7" t="s">
@@ -21610,7 +21611,7 @@
       <c r="L226" s="9"/>
       <c r="M226" s="9"/>
       <c r="N226" s="7"/>
-      <c r="O226" s="35" t="s">
+      <c r="O226" s="36" t="s">
         <v>719</v>
       </c>
       <c r="P226" s="11"/>
@@ -21627,7 +21628,7 @@
       <c r="W226" s="7"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="7"/>
-      <c r="Z226" s="35" t="s">
+      <c r="Z226" s="36" t="s">
         <v>719</v>
       </c>
       <c r="AA226" s="7"/>
@@ -21755,10 +21756,10 @@
       <c r="E228" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="F228" s="34" t="s">
+      <c r="F228" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="G228" s="34" t="s">
+      <c r="G228" s="35" t="s">
         <v>724</v>
       </c>
       <c r="H228" s="7" t="s">
@@ -21835,14 +21836,14 @@
       <c r="D229" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E229" s="32" t="s">
+      <c r="E229" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32" t="s">
+      <c r="F229" s="33"/>
+      <c r="G229" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="H229" s="32" t="s">
+      <c r="H229" s="33" t="s">
         <v>730</v>
       </c>
       <c r="I229" s="7" t="s">
@@ -21909,7 +21910,7 @@
       <c r="G230" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="H230" s="25" t="s">
+      <c r="H230" s="28" t="s">
         <v>737</v>
       </c>
       <c r="I230" s="7" t="s">
@@ -21969,14 +21970,14 @@
       <c r="D231" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E231" s="32" t="s">
+      <c r="E231" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32" t="s">
+      <c r="F231" s="33"/>
+      <c r="G231" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="33" t="s">
         <v>711</v>
       </c>
       <c r="I231" s="7" t="s">
@@ -21991,7 +21992,7 @@
       <c r="N231" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O231" s="36" t="s">
+      <c r="O231" s="37" t="s">
         <v>744</v>
       </c>
       <c r="P231" s="7"/>
@@ -22040,17 +22041,17 @@
       <c r="D232" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E232" s="32" t="s">
+      <c r="E232" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F232" s="32"/>
-      <c r="G232" s="37" t="s">
+      <c r="F232" s="33"/>
+      <c r="G232" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="H232" s="37" t="s">
+      <c r="H232" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="I232" s="38" t="s">
+      <c r="I232" s="39" t="s">
         <v>741</v>
       </c>
       <c r="J232" s="7" t="s">
@@ -22062,7 +22063,7 @@
       <c r="N232" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O232" s="36" t="s">
+      <c r="O232" s="37" t="s">
         <v>745</v>
       </c>
       <c r="P232" s="7"/>
@@ -22111,17 +22112,17 @@
       <c r="D233" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E233" s="32" t="s">
+      <c r="E233" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F233" s="32"/>
-      <c r="G233" s="37" t="s">
+      <c r="F233" s="33"/>
+      <c r="G233" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="H233" s="37" t="s">
+      <c r="H233" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="I233" s="38" t="s">
+      <c r="I233" s="39" t="s">
         <v>741</v>
       </c>
       <c r="J233" s="7" t="s">
@@ -22133,7 +22134,7 @@
       <c r="N233" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O233" s="36" t="s">
+      <c r="O233" s="37" t="s">
         <v>746</v>
       </c>
       <c r="P233" s="7"/>
@@ -22182,14 +22183,14 @@
       <c r="D234" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E234" s="32" t="s">
+      <c r="E234" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32" t="s">
+      <c r="F234" s="33"/>
+      <c r="G234" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="H234" s="32" t="s">
+      <c r="H234" s="33" t="s">
         <v>749</v>
       </c>
       <c r="I234" s="7" t="s">
@@ -22214,7 +22215,7 @@
       <c r="V234" s="7"/>
       <c r="W234" s="7"/>
       <c r="X234" s="7"/>
-      <c r="Y234" s="38" t="s">
+      <c r="Y234" s="39" t="s">
         <v>658</v>
       </c>
       <c r="Z234" s="7"/>
@@ -22251,14 +22252,14 @@
       <c r="D235" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E235" s="32" t="s">
+      <c r="E235" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32" t="s">
+      <c r="F235" s="33"/>
+      <c r="G235" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="33" t="s">
         <v>755</v>
       </c>
       <c r="I235" s="7" t="s">
@@ -22283,7 +22284,7 @@
       <c r="V235" s="7"/>
       <c r="W235" s="7"/>
       <c r="X235" s="7"/>
-      <c r="Y235" s="38" t="s">
+      <c r="Y235" s="39" t="s">
         <v>757</v>
       </c>
       <c r="Z235" s="7"/>
@@ -22320,14 +22321,14 @@
       <c r="D236" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E236" s="32" t="s">
+      <c r="E236" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32" t="s">
+      <c r="F236" s="33"/>
+      <c r="G236" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="H236" s="32" t="s">
+      <c r="H236" s="33" t="s">
         <v>760</v>
       </c>
       <c r="I236" s="7" t="s">
@@ -22387,14 +22388,14 @@
       <c r="D237" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E237" s="32" t="s">
+      <c r="E237" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32" t="s">
+      <c r="F237" s="33"/>
+      <c r="G237" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="H237" s="32" t="s">
+      <c r="H237" s="33" t="s">
         <v>766</v>
       </c>
       <c r="I237" s="7" t="s">
@@ -22454,14 +22455,14 @@
       <c r="D238" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E238" s="32" t="s">
+      <c r="E238" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32" t="s">
+      <c r="F238" s="33"/>
+      <c r="G238" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H238" s="32" t="s">
+      <c r="H238" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I238" s="7" t="s">
@@ -22525,14 +22526,14 @@
       <c r="D239" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E239" s="32" t="s">
+      <c r="E239" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32" t="s">
+      <c r="F239" s="33"/>
+      <c r="G239" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H239" s="32" t="s">
+      <c r="H239" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I239" s="7" t="s">
@@ -22596,14 +22597,14 @@
       <c r="D240" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E240" s="32" t="s">
+      <c r="E240" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32" t="s">
+      <c r="F240" s="33"/>
+      <c r="G240" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H240" s="32" t="s">
+      <c r="H240" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I240" s="7" t="s">
@@ -22667,14 +22668,14 @@
       <c r="D241" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E241" s="32" t="s">
+      <c r="E241" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32" t="s">
+      <c r="F241" s="33"/>
+      <c r="G241" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H241" s="32" t="s">
+      <c r="H241" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I241" s="7" t="s">
@@ -22689,7 +22690,7 @@
       <c r="N241" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="O241" s="39" t="s">
+      <c r="O241" s="40" t="s">
         <v>773</v>
       </c>
       <c r="P241" s="7"/>
@@ -22736,14 +22737,14 @@
       <c r="D242" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E242" s="32" t="s">
+      <c r="E242" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32" t="s">
+      <c r="F242" s="33"/>
+      <c r="G242" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H242" s="32" t="s">
+      <c r="H242" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I242" s="7" t="s">
@@ -22758,7 +22759,7 @@
       <c r="N242" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="O242" s="39" t="s">
+      <c r="O242" s="40" t="s">
         <v>774</v>
       </c>
       <c r="P242" s="7"/>
@@ -22807,14 +22808,14 @@
       <c r="D243" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E243" s="32" t="s">
+      <c r="E243" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32" t="s">
+      <c r="F243" s="33"/>
+      <c r="G243" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H243" s="32" t="s">
+      <c r="H243" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I243" s="7" t="s">
@@ -22878,14 +22879,14 @@
       <c r="D244" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E244" s="32" t="s">
+      <c r="E244" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32" t="s">
+      <c r="F244" s="33"/>
+      <c r="G244" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H244" s="32" t="s">
+      <c r="H244" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I244" s="7" t="s">
@@ -22947,12 +22948,12 @@
       <c r="D245" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="E245" s="40"/>
-      <c r="F245" s="32"/>
-      <c r="G245" s="40" t="s">
+      <c r="E245" s="41"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="H245" s="40" t="s">
+      <c r="H245" s="41" t="s">
         <v>780</v>
       </c>
       <c r="I245" s="6" t="s">
@@ -22961,8 +22962,8 @@
       <c r="J245" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="K245" s="41"/>
-      <c r="L245" s="41"/>
+      <c r="K245" s="25"/>
+      <c r="L245" s="25"/>
       <c r="M245" s="6"/>
       <c r="N245" s="42"/>
       <c r="O245" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -13,6 +13,10 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1457,8 +1461,8 @@
   <si>
     <t xml:space="preserve">132
 133
-134
-833</t>
+833
+</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Facings</t>
@@ -1552,7 +1556,7 @@
   <si>
     <t xml:space="preserve">152
 153
-154</t>
+616</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 2d: Facings</t>
@@ -1579,7 +1583,7 @@
     <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">180
+    <t xml:space="preserve">680
 617</t>
   </si>
   <si>
@@ -2496,7 +2500,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Rich/Schweppes  in customer cooler</t>
+    <t xml:space="preserve">Impulse Activations: Rich/Schweppes in customer cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация: Rich/Schweppes в ХО клиента</t>
@@ -2710,7 +2714,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2740,6 +2744,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2786,7 +2797,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2819,6 +2830,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2846,51 +2861,51 @@
   </sheetPr>
   <dimension ref="A1:AN259"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI131" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ141" activeCellId="0" sqref="AJ141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="90.4089068825911"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.6234817813765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="135.396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="164.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -13292,7 +13307,7 @@
       <c r="AL133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="AM133" s="7" t="s">
+      <c r="AM133" s="8" t="s">
         <v>432</v>
       </c>
       <c r="AN133" s="1" t="n">
@@ -14016,7 +14031,7 @@
         <v>471</v>
       </c>
       <c r="AN143" s="1" t="n">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14083,7 +14098,7 @@
         <v>4</v>
       </c>
       <c r="AL144" s="1" t="n">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="AM144" s="0"/>
       <c r="AN144" s="1" t="n">
@@ -20846,7 +20861,7 @@
       <c r="M244" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="N244" s="8" t="s">
+      <c r="N244" s="9" t="s">
         <v>780</v>
       </c>
       <c r="S244" s="1" t="s">
@@ -20891,7 +20906,7 @@
       <c r="M245" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="N245" s="8" t="s">
+      <c r="N245" s="9" t="s">
         <v>781</v>
       </c>
       <c r="S245" s="1" t="s">
@@ -20936,7 +20951,7 @@
       <c r="M246" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="N246" s="8" t="s">
+      <c r="N246" s="9" t="s">
         <v>782</v>
       </c>
       <c r="S246" s="1" t="s">
@@ -20981,7 +20996,7 @@
       <c r="M247" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="N247" s="8" t="s">
+      <c r="N247" s="9" t="s">
         <v>783</v>
       </c>
       <c r="S247" s="1" t="s">
@@ -21192,7 +21207,7 @@
       <c r="M252" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N252" s="8" t="s">
+      <c r="N252" s="9" t="s">
         <v>809</v>
       </c>
       <c r="S252" s="1" t="s">
@@ -21236,7 +21251,7 @@
       <c r="M253" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N253" s="8" t="s">
+      <c r="N253" s="9" t="s">
         <v>809</v>
       </c>
       <c r="S253" s="1" t="s">
@@ -21280,7 +21295,7 @@
       <c r="M254" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N254" s="8" t="s">
+      <c r="N254" s="9" t="s">
         <v>809</v>
       </c>
       <c r="S254" s="1" t="s">
@@ -21324,7 +21339,7 @@
       <c r="M255" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N255" s="8" t="s">
+      <c r="N255" s="9" t="s">
         <v>810</v>
       </c>
       <c r="S255" s="1" t="s">
@@ -21366,7 +21381,7 @@
       <c r="M256" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N256" s="8" t="s">
+      <c r="N256" s="9" t="s">
         <v>811</v>
       </c>
       <c r="S256" s="1" t="s">
@@ -21410,7 +21425,7 @@
       <c r="M257" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N257" s="8" t="s">
+      <c r="N257" s="9" t="s">
         <v>813</v>
       </c>
       <c r="S257" s="1" t="s">
@@ -21454,7 +21469,7 @@
       <c r="M258" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N258" s="8" t="s">
+      <c r="N258" s="9" t="s">
         <v>815</v>
       </c>
       <c r="S258" s="1" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2861,51 +2862,53 @@
   </sheetPr>
   <dimension ref="A1:AN259"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI131" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ141" activeCellId="0" sqref="AJ141"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="135.396761133603"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="164.534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="136.684210526316"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="166.032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -21512,7 +21515,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN1"/>
+  <autoFilter ref="A1:AN259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1493,7 +1494,7 @@
     <t xml:space="preserve">SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">bakery_area</t>
+    <t xml:space="preserve">Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 0.9L</t>
@@ -2862,53 +2863,53 @@
   </sheetPr>
   <dimension ref="A1:AN259"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="2:2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="N135" activeCellId="0" sqref="N135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="136.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="166.032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.2267206477733"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="137.862348178138"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="167.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -21515,7 +21516,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN259"/>
+  <autoFilter ref="A1:AN1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -14,11 +14,13 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="817">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1509,9 +1511,6 @@
     <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
     <t xml:space="preserve">Local</t>
   </si>
   <si>
@@ -2755,12 +2754,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2799,7 +2804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2836,6 +2841,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2863,53 +2872,53 @@
   </sheetPr>
   <dimension ref="A1:AN259"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="N135" activeCellId="0" sqref="N135"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.8380566801619"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.7246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.2267206477733"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="137.862348178138"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="167.534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="96.9433198380567"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="140.323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="170.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -13513,8 +13522,8 @@
       <c r="V136" s="0"/>
       <c r="X136" s="0"/>
       <c r="Y136" s="0"/>
-      <c r="AA136" s="1" t="s">
-        <v>447</v>
+      <c r="AA136" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC136" s="0"/>
       <c r="AD136" s="0"/>
@@ -13546,21 +13555,21 @@
         <v>41</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>430</v>
       </c>
       <c r="I137" s="0"/>
-      <c r="J137" s="1" t="n">
-        <v>4</v>
+      <c r="J137" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="K137" s="0"/>
       <c r="L137" s="0"/>
@@ -13590,7 +13599,7 @@
         <v>0.01</v>
       </c>
       <c r="AI137" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AJ137" s="1" t="s">
         <v>428</v>
@@ -13602,7 +13611,7 @@
         <v>135</v>
       </c>
       <c r="AM137" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AN137" s="1" t="n">
         <v>302</v>
@@ -13619,16 +13628,16 @@
         <v>41</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>55</v>
@@ -13640,7 +13649,7 @@
       <c r="K138" s="0"/>
       <c r="L138" s="0"/>
       <c r="M138" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N138" s="1" t="n">
         <v>5449000000439</v>
@@ -13657,8 +13666,8 @@
       <c r="V138" s="0"/>
       <c r="X138" s="0"/>
       <c r="Y138" s="0"/>
-      <c r="AA138" s="1" t="s">
-        <v>447</v>
+      <c r="AA138" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC138" s="0"/>
       <c r="AD138" s="1" t="s">
@@ -13692,16 +13701,16 @@
         <v>41</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>55</v>
@@ -13713,7 +13722,7 @@
       <c r="K139" s="0"/>
       <c r="L139" s="0"/>
       <c r="M139" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N139" s="1" t="n">
         <v>5449000133335</v>
@@ -13730,8 +13739,8 @@
       <c r="V139" s="0"/>
       <c r="X139" s="0"/>
       <c r="Y139" s="0"/>
-      <c r="AA139" s="1" t="s">
-        <v>447</v>
+      <c r="AA139" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC139" s="0"/>
       <c r="AD139" s="1" t="s">
@@ -13771,10 +13780,10 @@
         <v>427</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>430</v>
@@ -13819,7 +13828,7 @@
         <v>151</v>
       </c>
       <c r="AM140" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AN140" s="1" t="n">
         <v>302</v>
@@ -13842,10 +13851,10 @@
         <v>427</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>55</v>
@@ -13917,10 +13926,10 @@
         <v>427</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>440</v>
@@ -13943,7 +13952,7 @@
         <v>441</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X142" s="0"/>
       <c r="Y142" s="0"/>
@@ -13988,13 +13997,13 @@
         <v>427</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="I143" s="0"/>
       <c r="J143" s="1" t="n">
@@ -14032,7 +14041,7 @@
         <v>616</v>
       </c>
       <c r="AM143" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN143" s="1" t="n">
         <v>151</v>
@@ -14055,10 +14064,10 @@
         <v>427</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>445</v>
@@ -14126,10 +14135,10 @@
         <v>427</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>445</v>
@@ -14139,7 +14148,7 @@
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
       <c r="M145" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N145" s="1" t="n">
         <v>54491472</v>
@@ -14197,10 +14206,10 @@
         <v>427</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>430</v>
@@ -14245,7 +14254,7 @@
         <v>162</v>
       </c>
       <c r="AM146" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN146" s="1" t="n">
         <v>302</v>
@@ -14268,10 +14277,10 @@
         <v>427</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>55</v>
@@ -14343,10 +14352,10 @@
         <v>427</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>440</v>
@@ -14369,7 +14378,7 @@
         <v>441</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X148" s="0"/>
       <c r="Y148" s="0"/>
@@ -14414,13 +14423,13 @@
         <v>427</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="H149" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I149" s="0"/>
       <c r="J149" s="1" t="n">
@@ -14460,7 +14469,7 @@
         <v>165</v>
       </c>
       <c r="AM149" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AN149" s="1" t="n">
         <v>162</v>
@@ -14483,10 +14492,10 @@
         <v>427</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>445</v>
@@ -14554,10 +14563,10 @@
         <v>427</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>445</v>
@@ -14567,7 +14576,7 @@
       <c r="K151" s="0"/>
       <c r="L151" s="0"/>
       <c r="M151" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N151" s="1" t="n">
         <v>5449000044839</v>
@@ -14625,10 +14634,10 @@
         <v>427</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>430</v>
@@ -14650,7 +14659,7 @@
       <c r="S152" s="0"/>
       <c r="V152" s="0"/>
       <c r="X152" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y152" s="0"/>
       <c r="AA152" s="0"/>
@@ -14673,7 +14682,7 @@
         <v>625</v>
       </c>
       <c r="AM152" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN152" s="1" t="n">
         <v>302</v>
@@ -14696,10 +14705,10 @@
         <v>427</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>55</v>
@@ -14714,10 +14723,10 @@
         <v>435</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P153" s="0"/>
       <c r="Q153" s="0"/>
@@ -14729,7 +14738,7 @@
       </c>
       <c r="V153" s="0"/>
       <c r="X153" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y153" s="0"/>
       <c r="AA153" s="0"/>
@@ -14771,10 +14780,10 @@
         <v>427</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>440</v>
@@ -14797,10 +14806,10 @@
         <v>441</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y154" s="0"/>
       <c r="AA154" s="0"/>
@@ -14842,13 +14851,13 @@
         <v>427</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="H155" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I155" s="0"/>
       <c r="J155" s="1" t="n">
@@ -14867,7 +14876,7 @@
       <c r="S155" s="0"/>
       <c r="V155" s="0"/>
       <c r="X155" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y155" s="0"/>
       <c r="AA155" s="0"/>
@@ -14888,7 +14897,7 @@
         <v>628</v>
       </c>
       <c r="AM155" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN155" s="1" t="n">
         <v>625</v>
@@ -14908,13 +14917,13 @@
         <v>42</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>445</v>
@@ -14938,7 +14947,7 @@
       <c r="S156" s="0"/>
       <c r="V156" s="0"/>
       <c r="X156" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y156" s="0"/>
       <c r="AA156" s="0"/>
@@ -14977,13 +14986,13 @@
         <v>42</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>445</v>
@@ -15007,7 +15016,7 @@
       <c r="S157" s="0"/>
       <c r="V157" s="0"/>
       <c r="X157" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y157" s="0"/>
       <c r="AA157" s="0"/>
@@ -15046,13 +15055,13 @@
         <v>42</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>445</v>
@@ -15076,7 +15085,7 @@
       <c r="S158" s="0"/>
       <c r="V158" s="0"/>
       <c r="X158" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y158" s="0"/>
       <c r="AA158" s="0"/>
@@ -15116,10 +15125,10 @@
       </c>
       <c r="E159" s="0"/>
       <c r="F159" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>42</v>
@@ -15152,7 +15161,7 @@
         <v>303</v>
       </c>
       <c r="AM159" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN159" s="1" t="n">
         <v>301</v>
@@ -15175,10 +15184,10 @@
         <v>427</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>430</v>
@@ -15223,7 +15232,7 @@
         <v>140</v>
       </c>
       <c r="AM160" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN160" s="1" t="n">
         <v>303</v>
@@ -15246,10 +15255,10 @@
         <v>427</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>55</v>
@@ -15264,10 +15273,10 @@
         <v>435</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P161" s="0"/>
       <c r="Q161" s="0"/>
@@ -15321,10 +15330,10 @@
         <v>427</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>440</v>
@@ -15347,7 +15356,7 @@
         <v>441</v>
       </c>
       <c r="V162" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="X162" s="0"/>
       <c r="Y162" s="0"/>
@@ -15392,13 +15401,13 @@
         <v>427</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I163" s="0"/>
       <c r="J163" s="1" t="n">
@@ -15438,7 +15447,7 @@
         <v>143</v>
       </c>
       <c r="AM163" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AN163" s="1" t="n">
         <v>140</v>
@@ -15461,10 +15470,10 @@
         <v>427</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>445</v>
@@ -15503,7 +15512,7 @@
       </c>
       <c r="AF164" s="0"/>
       <c r="AI164" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ164" s="0"/>
       <c r="AK164" s="1" t="n">
@@ -15534,10 +15543,10 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>445</v>
@@ -15576,7 +15585,7 @@
       </c>
       <c r="AF165" s="0"/>
       <c r="AI165" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AJ165" s="0"/>
       <c r="AK165" s="1" t="n">
@@ -15601,16 +15610,16 @@
         <v>41</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>430</v>
@@ -15647,10 +15656,10 @@
         <v>0.01</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK166" s="1" t="n">
         <v>2</v>
@@ -15659,7 +15668,7 @@
         <v>146</v>
       </c>
       <c r="AM166" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AN166" s="1" t="n">
         <v>303</v>
@@ -15676,16 +15685,16 @@
         <v>41</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>55</v>
@@ -15749,16 +15758,16 @@
         <v>41</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>55</v>
@@ -15822,16 +15831,16 @@
         <v>41</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>55</v>
@@ -15895,16 +15904,16 @@
         <v>41</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>55</v>
@@ -15972,10 +15981,10 @@
       </c>
       <c r="E171" s="0"/>
       <c r="F171" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>42</v>
@@ -16032,10 +16041,10 @@
         <v>427</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>430</v>
@@ -16057,7 +16066,7 @@
       <c r="S172" s="0"/>
       <c r="V172" s="0"/>
       <c r="X172" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y172" s="0"/>
       <c r="AC172" s="0"/>
@@ -16079,7 +16088,7 @@
         <v>155</v>
       </c>
       <c r="AM172" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN172" s="1" t="n">
         <v>320</v>
@@ -16102,10 +16111,10 @@
         <v>427</v>
       </c>
       <c r="F173" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>55</v>
@@ -16120,24 +16129,24 @@
         <v>435</v>
       </c>
       <c r="N173" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O173" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="O173" s="1" t="s">
+      <c r="P173" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="P173" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="Q173" s="0"/>
       <c r="R173" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V173" s="0"/>
       <c r="X173" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y173" s="0"/>
       <c r="AC173" s="0"/>
@@ -16178,10 +16187,10 @@
         <v>427</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>440</v>
@@ -16203,10 +16212,10 @@
         <v>441</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y174" s="0"/>
       <c r="AC174" s="0"/>
@@ -16247,13 +16256,13 @@
         <v>427</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="H175" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I175" s="0"/>
       <c r="J175" s="1" t="n">
@@ -16271,7 +16280,7 @@
       <c r="S175" s="0"/>
       <c r="V175" s="0"/>
       <c r="X175" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y175" s="0"/>
       <c r="AC175" s="0"/>
@@ -16291,7 +16300,7 @@
         <v>158</v>
       </c>
       <c r="AM175" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN175" s="1" t="n">
         <v>155</v>
@@ -16314,10 +16323,10 @@
         <v>427</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>445</v>
@@ -16327,10 +16336,10 @@
       <c r="K176" s="0"/>
       <c r="L176" s="0"/>
       <c r="M176" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N176" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="O176" s="0"/>
       <c r="Q176" s="0"/>
@@ -16342,7 +16351,7 @@
       </c>
       <c r="V176" s="0"/>
       <c r="X176" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y176" s="0"/>
       <c r="AC176" s="0"/>
@@ -16383,10 +16392,10 @@
         <v>427</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>445</v>
@@ -16411,7 +16420,7 @@
       </c>
       <c r="V177" s="0"/>
       <c r="X177" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Y177" s="0"/>
       <c r="AC177" s="0"/>
@@ -16452,10 +16461,10 @@
         <v>427</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>42</v>
@@ -16509,10 +16518,10 @@
         <v>427</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>430</v>
@@ -16533,7 +16542,7 @@
       <c r="S179" s="0"/>
       <c r="V179" s="0"/>
       <c r="X179" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y179" s="0"/>
       <c r="AC179" s="0"/>
@@ -16555,7 +16564,7 @@
         <v>171</v>
       </c>
       <c r="AM179" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AN179" s="1" t="n">
         <v>321</v>
@@ -16578,10 +16587,10 @@
         <v>427</v>
       </c>
       <c r="F180" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>55</v>
@@ -16596,10 +16605,10 @@
         <v>435</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q180" s="0"/>
       <c r="R180" s="1" t="s">
@@ -16610,7 +16619,7 @@
       </c>
       <c r="V180" s="0"/>
       <c r="X180" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y180" s="0"/>
       <c r="AC180" s="0"/>
@@ -16651,10 +16660,10 @@
         <v>427</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>440</v>
@@ -16676,10 +16685,10 @@
         <v>441</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y181" s="0"/>
       <c r="AC181" s="0"/>
@@ -16720,13 +16729,13 @@
         <v>427</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="H182" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I182" s="0"/>
       <c r="J182" s="1" t="n">
@@ -16744,7 +16753,7 @@
       <c r="S182" s="0"/>
       <c r="V182" s="0"/>
       <c r="X182" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y182" s="0"/>
       <c r="AC182" s="0"/>
@@ -16764,7 +16773,7 @@
         <v>174</v>
       </c>
       <c r="AM182" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AN182" s="1" t="n">
         <v>171</v>
@@ -16787,10 +16796,10 @@
         <v>427</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>445</v>
@@ -16815,7 +16824,7 @@
       </c>
       <c r="V183" s="0"/>
       <c r="X183" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y183" s="0"/>
       <c r="AC183" s="0"/>
@@ -16827,7 +16836,7 @@
       </c>
       <c r="AF183" s="0"/>
       <c r="AI183" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ183" s="0"/>
       <c r="AK183" s="1" t="n">
@@ -16858,10 +16867,10 @@
         <v>427</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>445</v>
@@ -16886,7 +16895,7 @@
       </c>
       <c r="V184" s="0"/>
       <c r="X184" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y184" s="0"/>
       <c r="AC184" s="0"/>
@@ -16898,7 +16907,7 @@
       </c>
       <c r="AF184" s="0"/>
       <c r="AI184" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ184" s="0"/>
       <c r="AK184" s="1" t="n">
@@ -16929,10 +16938,10 @@
         <v>427</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>445</v>
@@ -16957,7 +16966,7 @@
       </c>
       <c r="V185" s="0"/>
       <c r="X185" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y185" s="0"/>
       <c r="AC185" s="0"/>
@@ -16969,7 +16978,7 @@
       </c>
       <c r="AF185" s="0"/>
       <c r="AI185" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ185" s="0"/>
       <c r="AK185" s="1" t="n">
@@ -17000,10 +17009,10 @@
         <v>427</v>
       </c>
       <c r="F186" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>445</v>
@@ -17028,7 +17037,7 @@
       </c>
       <c r="V186" s="0"/>
       <c r="X186" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y186" s="0"/>
       <c r="AC186" s="0"/>
@@ -17040,7 +17049,7 @@
       </c>
       <c r="AF186" s="0"/>
       <c r="AI186" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ186" s="0"/>
       <c r="AK186" s="1" t="n">
@@ -17069,10 +17078,10 @@
       </c>
       <c r="E187" s="0"/>
       <c r="F187" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>42</v>
@@ -17103,7 +17112,7 @@
         <v>520</v>
       </c>
       <c r="AM187" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN187" s="0"/>
     </row>
@@ -17122,10 +17131,10 @@
       </c>
       <c r="E188" s="0"/>
       <c r="F188" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>42</v>
@@ -17156,7 +17165,7 @@
         <v>501</v>
       </c>
       <c r="AM188" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN188" s="1" t="n">
         <v>520</v>
@@ -17173,19 +17182,19 @@
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="I189" s="0"/>
       <c r="J189" s="1" t="n">
@@ -17209,7 +17218,7 @@
       </c>
       <c r="V189" s="0"/>
       <c r="X189" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y189" s="0"/>
       <c r="AC189" s="0"/>
@@ -17217,7 +17226,7 @@
         <v>50</v>
       </c>
       <c r="AE189" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF189" s="2" t="n">
         <v>0.0725</v>
@@ -17246,19 +17255,19 @@
         <v>41</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="I190" s="0"/>
       <c r="J190" s="1" t="n">
@@ -17276,11 +17285,11 @@
       <c r="S190" s="0"/>
       <c r="V190" s="0"/>
       <c r="X190" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y190" s="0"/>
       <c r="AC190" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD190" s="1" t="s">
         <v>50</v>
@@ -17300,7 +17309,7 @@
         <v>180</v>
       </c>
       <c r="AM190" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AN190" s="1" t="n">
         <v>501</v>
@@ -17317,16 +17326,16 @@
         <v>41</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>55</v>
@@ -17353,11 +17362,11 @@
       </c>
       <c r="V191" s="0"/>
       <c r="X191" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y191" s="0"/>
       <c r="AC191" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD191" s="1" t="s">
         <v>50</v>
@@ -17390,16 +17399,16 @@
         <v>41</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F192" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>55</v>
@@ -17426,11 +17435,11 @@
       </c>
       <c r="V192" s="0"/>
       <c r="X192" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y192" s="0"/>
       <c r="AC192" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD192" s="1" t="s">
         <v>50</v>
@@ -17463,16 +17472,16 @@
         <v>41</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>55</v>
@@ -17499,11 +17508,11 @@
       </c>
       <c r="V193" s="0"/>
       <c r="X193" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y193" s="0"/>
       <c r="AC193" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD193" s="1" t="s">
         <v>50</v>
@@ -17536,16 +17545,16 @@
         <v>41</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>55</v>
@@ -17572,11 +17581,11 @@
       </c>
       <c r="V194" s="0"/>
       <c r="X194" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y194" s="0"/>
       <c r="AC194" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD194" s="1" t="s">
         <v>50</v>
@@ -17609,16 +17618,16 @@
         <v>41</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>55</v>
@@ -17645,11 +17654,11 @@
       </c>
       <c r="V195" s="0"/>
       <c r="X195" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y195" s="0"/>
       <c r="AC195" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD195" s="1" t="s">
         <v>50</v>
@@ -17682,16 +17691,16 @@
         <v>41</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F196" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>55</v>
@@ -17703,7 +17712,7 @@
       <c r="K196" s="0"/>
       <c r="L196" s="0"/>
       <c r="M196" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>97</v>
@@ -17718,11 +17727,11 @@
       </c>
       <c r="V196" s="0"/>
       <c r="X196" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y196" s="0"/>
       <c r="AC196" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD196" s="1" t="s">
         <v>50</v>
@@ -17755,16 +17764,16 @@
         <v>41</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>55</v>
@@ -17791,11 +17800,11 @@
       </c>
       <c r="V197" s="0"/>
       <c r="X197" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y197" s="0"/>
       <c r="AC197" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD197" s="1" t="s">
         <v>50</v>
@@ -17828,16 +17837,16 @@
         <v>41</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>55</v>
@@ -17849,7 +17858,7 @@
       <c r="K198" s="0"/>
       <c r="L198" s="0"/>
       <c r="M198" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N198" s="1" t="n">
         <v>5449000064110</v>
@@ -17864,11 +17873,11 @@
       </c>
       <c r="V198" s="0"/>
       <c r="X198" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y198" s="0"/>
       <c r="AC198" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD198" s="1" t="s">
         <v>50</v>
@@ -17905,10 +17914,10 @@
       </c>
       <c r="E199" s="0"/>
       <c r="F199" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>42</v>
@@ -17939,7 +17948,7 @@
         <v>502</v>
       </c>
       <c r="AM199" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN199" s="1" t="n">
         <v>520</v>
@@ -17959,16 +17968,16 @@
         <v>42</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="H200" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I200" s="0"/>
       <c r="J200" s="1" t="n">
@@ -17980,10 +17989,10 @@
         <v>435</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q200" s="0"/>
       <c r="R200" s="0"/>
@@ -17992,7 +18001,7 @@
       </c>
       <c r="V200" s="0"/>
       <c r="X200" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y200" s="0"/>
       <c r="AC200" s="0"/>
@@ -18000,7 +18009,7 @@
         <v>50</v>
       </c>
       <c r="AE200" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF200" s="2" t="n">
         <v>0.0625</v>
@@ -18029,19 +18038,19 @@
         <v>41</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="H201" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I201" s="0"/>
       <c r="J201" s="1" t="n">
@@ -18059,11 +18068,11 @@
       <c r="S201" s="0"/>
       <c r="V201" s="0"/>
       <c r="X201" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y201" s="0"/>
       <c r="AC201" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD201" s="1" t="s">
         <v>50</v>
@@ -18083,7 +18092,7 @@
         <v>190</v>
       </c>
       <c r="AM201" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AN201" s="1" t="n">
         <v>502</v>
@@ -18100,16 +18109,16 @@
         <v>41</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>55</v>
@@ -18136,11 +18145,11 @@
       </c>
       <c r="V202" s="0"/>
       <c r="X202" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y202" s="0"/>
       <c r="AC202" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD202" s="1" t="s">
         <v>50</v>
@@ -18173,16 +18182,16 @@
         <v>41</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>55</v>
@@ -18209,11 +18218,11 @@
       </c>
       <c r="V203" s="0"/>
       <c r="X203" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y203" s="0"/>
       <c r="AC203" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD203" s="1" t="s">
         <v>50</v>
@@ -18246,16 +18255,16 @@
         <v>41</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>55</v>
@@ -18282,11 +18291,11 @@
       </c>
       <c r="V204" s="0"/>
       <c r="X204" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y204" s="0"/>
       <c r="AC204" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD204" s="1" t="s">
         <v>50</v>
@@ -18319,16 +18328,16 @@
         <v>41</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>55</v>
@@ -18355,11 +18364,11 @@
       </c>
       <c r="V205" s="0"/>
       <c r="X205" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y205" s="0"/>
       <c r="AC205" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD205" s="1" t="s">
         <v>50</v>
@@ -18392,16 +18401,16 @@
         <v>41</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F206" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>55</v>
@@ -18428,11 +18437,11 @@
       </c>
       <c r="V206" s="0"/>
       <c r="X206" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y206" s="0"/>
       <c r="AC206" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD206" s="1" t="s">
         <v>50</v>
@@ -18469,10 +18478,10 @@
       </c>
       <c r="E207" s="0"/>
       <c r="F207" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>42</v>
@@ -18503,7 +18512,7 @@
         <v>503</v>
       </c>
       <c r="AM207" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AN207" s="1" t="n">
         <v>520</v>
@@ -18523,16 +18532,16 @@
         <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="H208" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I208" s="0"/>
       <c r="J208" s="1" t="n">
@@ -18544,10 +18553,10 @@
         <v>435</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q208" s="0"/>
       <c r="R208" s="0"/>
@@ -18556,7 +18565,7 @@
       </c>
       <c r="V208" s="0"/>
       <c r="X208" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y208" s="0"/>
       <c r="AC208" s="0"/>
@@ -18564,7 +18573,7 @@
         <v>50</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF208" s="2" t="n">
         <v>0.0225</v>
@@ -18595,19 +18604,19 @@
         <v>41</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="H209" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="1" t="n">
@@ -18625,11 +18634,11 @@
       <c r="S209" s="0"/>
       <c r="V209" s="0"/>
       <c r="X209" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y209" s="0"/>
       <c r="AC209" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD209" s="1" t="s">
         <v>50</v>
@@ -18666,13 +18675,13 @@
         <v>41</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>183</v>
@@ -18702,11 +18711,11 @@
       </c>
       <c r="V210" s="0"/>
       <c r="X210" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y210" s="0"/>
       <c r="AC210" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD210" s="1" t="s">
         <v>50</v>
@@ -18743,10 +18752,10 @@
       </c>
       <c r="E211" s="0"/>
       <c r="F211" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>42</v>
@@ -18797,16 +18806,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="H212" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I212" s="0"/>
       <c r="J212" s="1" t="n">
@@ -18818,10 +18827,10 @@
         <v>435</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q212" s="0"/>
       <c r="R212" s="0"/>
@@ -18830,7 +18839,7 @@
       </c>
       <c r="V212" s="0"/>
       <c r="X212" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y212" s="0"/>
       <c r="AC212" s="0"/>
@@ -18838,7 +18847,7 @@
         <v>50</v>
       </c>
       <c r="AE212" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF212" s="2" t="n">
         <v>0.0425</v>
@@ -18869,19 +18878,19 @@
         <v>41</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="H213" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I213" s="0"/>
       <c r="J213" s="1" t="n">
@@ -18899,11 +18908,11 @@
       <c r="S213" s="0"/>
       <c r="V213" s="0"/>
       <c r="X213" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y213" s="0"/>
       <c r="AC213" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD213" s="1" t="s">
         <v>50</v>
@@ -18923,7 +18932,7 @@
         <v>200</v>
       </c>
       <c r="AM213" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AN213" s="1" t="n">
         <v>504</v>
@@ -18940,16 +18949,16 @@
         <v>41</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>55</v>
@@ -18976,11 +18985,11 @@
       </c>
       <c r="V214" s="0"/>
       <c r="X214" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y214" s="0"/>
       <c r="AC214" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD214" s="1" t="s">
         <v>50</v>
@@ -19013,16 +19022,16 @@
         <v>41</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>55</v>
@@ -19034,10 +19043,10 @@
       <c r="K215" s="0"/>
       <c r="L215" s="0"/>
       <c r="M215" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O215" s="0"/>
       <c r="Q215" s="0"/>
@@ -19049,11 +19058,11 @@
       </c>
       <c r="V215" s="0"/>
       <c r="X215" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y215" s="0"/>
       <c r="AC215" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD215" s="1" t="s">
         <v>50</v>
@@ -19090,10 +19099,10 @@
       </c>
       <c r="E216" s="0"/>
       <c r="F216" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>42</v>
@@ -19144,16 +19153,16 @@
         <v>42</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="H217" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="1" t="n">
@@ -19165,10 +19174,10 @@
         <v>435</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q217" s="0"/>
       <c r="R217" s="0"/>
@@ -19177,7 +19186,7 @@
       </c>
       <c r="V217" s="0"/>
       <c r="X217" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y217" s="0"/>
       <c r="AC217" s="0"/>
@@ -19185,7 +19194,7 @@
         <v>50</v>
       </c>
       <c r="AE217" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF217" s="2" t="n">
         <v>0.04</v>
@@ -19218,10 +19227,10 @@
       </c>
       <c r="E218" s="0"/>
       <c r="F218" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>42</v>
@@ -19251,7 +19260,7 @@
         <v>310</v>
       </c>
       <c r="AM218" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AN218" s="0"/>
     </row>
@@ -19270,10 +19279,10 @@
       </c>
       <c r="E219" s="0"/>
       <c r="F219" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>42</v>
@@ -19323,16 +19332,16 @@
         <v>42</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="I220" s="0"/>
       <c r="J220" s="0"/>
@@ -19342,12 +19351,12 @@
       <c r="N220" s="0"/>
       <c r="Q220" s="0"/>
       <c r="R220" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S220" s="0"/>
       <c r="V220" s="0"/>
       <c r="X220" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y220" s="0"/>
       <c r="AC220" s="0"/>
@@ -19355,13 +19364,13 @@
         <v>50</v>
       </c>
       <c r="AE220" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF220" s="2" t="n">
         <v>0.065</v>
       </c>
       <c r="AI220" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ220" s="0"/>
       <c r="AK220" s="1" t="n">
@@ -19371,7 +19380,7 @@
         <v>204</v>
       </c>
       <c r="AM220" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AN220" s="1" t="n">
         <v>311</v>
@@ -19391,16 +19400,16 @@
         <v>42</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F221" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="1" t="n">
@@ -19414,16 +19423,16 @@
         <v>435</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q221" s="0"/>
       <c r="R221" s="0"/>
       <c r="S221" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V221" s="0"/>
       <c r="X221" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y221" s="0"/>
       <c r="AC221" s="0"/>
@@ -19461,16 +19470,16 @@
         <v>42</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="I222" s="0"/>
       <c r="J222" s="1" t="n">
@@ -19482,16 +19491,16 @@
         <v>435</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q222" s="0"/>
       <c r="R222" s="0"/>
       <c r="S222" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V222" s="0"/>
       <c r="X222" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Y222" s="0"/>
       <c r="AC222" s="0"/>
@@ -19530,10 +19539,10 @@
       </c>
       <c r="E223" s="0"/>
       <c r="F223" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>42</v>
@@ -19563,7 +19572,7 @@
         <v>312</v>
       </c>
       <c r="AM223" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AN223" s="1" t="n">
         <v>310</v>
@@ -19583,13 +19592,13 @@
         <v>42</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>440</v>
@@ -19605,13 +19614,13 @@
       <c r="Q224" s="0"/>
       <c r="R224" s="0"/>
       <c r="S224" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="V224" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="X224" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y224" s="0"/>
       <c r="AC224" s="0"/>
@@ -19625,10 +19634,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI224" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ224" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK224" s="1" t="n">
         <v>2</v>
@@ -19655,16 +19664,16 @@
         <v>42</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F225" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="I225" s="0"/>
       <c r="J225" s="1" t="n">
@@ -19680,15 +19689,15 @@
         <v>435</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q225" s="0"/>
       <c r="R225" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S225" s="0"/>
       <c r="X225" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y225" s="0"/>
       <c r="AC225" s="0"/>
@@ -19702,10 +19711,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI225" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ225" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK225" s="1" t="n">
         <v>2</v>
@@ -19732,13 +19741,13 @@
         <v>42</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F226" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G226" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>49</v>
@@ -19754,7 +19763,7 @@
       </c>
       <c r="S226" s="0"/>
       <c r="X226" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y226" s="0"/>
       <c r="AC226" s="0"/>
@@ -19762,16 +19771,16 @@
         <v>50</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF226" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI226" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ226" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK226" s="1" t="n">
         <v>2</v>
@@ -19780,7 +19789,7 @@
         <v>209</v>
       </c>
       <c r="AM226" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AN226" s="1" t="n">
         <v>312</v>
@@ -19801,13 +19810,13 @@
       </c>
       <c r="E227" s="0"/>
       <c r="F227" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="H227" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I227" s="0"/>
       <c r="J227" s="1" t="n">
@@ -19815,25 +19824,25 @@
       </c>
       <c r="K227" s="0"/>
       <c r="M227" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="N227" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="Q227" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R227" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S227" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="X227" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y227" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="X227" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="Y227" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="AC227" s="0"/>
       <c r="AD227" s="0"/>
@@ -19842,10 +19851,10 @@
       </c>
       <c r="AF227" s="0"/>
       <c r="AI227" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ227" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK227" s="1" t="n">
         <v>3</v>
@@ -19873,13 +19882,13 @@
       </c>
       <c r="E228" s="0"/>
       <c r="F228" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="H228" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I228" s="0"/>
       <c r="J228" s="1" t="n">
@@ -19887,25 +19896,25 @@
       </c>
       <c r="K228" s="0"/>
       <c r="M228" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N228" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="N228" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="Q228" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R228" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="X228" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AC228" s="0"/>
       <c r="AD228" s="0"/>
@@ -19914,10 +19923,10 @@
       </c>
       <c r="AF228" s="0"/>
       <c r="AI228" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ228" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK228" s="1" t="n">
         <v>3</v>
@@ -19945,13 +19954,13 @@
       </c>
       <c r="E229" s="0"/>
       <c r="F229" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="H229" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I229" s="0"/>
       <c r="J229" s="1" t="n">
@@ -19966,7 +19975,7 @@
       </c>
       <c r="S229" s="0"/>
       <c r="X229" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y229" s="0"/>
       <c r="AC229" s="0"/>
@@ -19976,10 +19985,10 @@
       </c>
       <c r="AF229" s="0"/>
       <c r="AI229" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK229" s="1" t="n">
         <v>3</v>
@@ -19988,7 +19997,7 @@
         <v>213</v>
       </c>
       <c r="AM229" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AN229" s="1" t="n">
         <v>209</v>
@@ -20009,10 +20018,10 @@
       </c>
       <c r="E230" s="0"/>
       <c r="F230" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>55</v>
@@ -20023,26 +20032,26 @@
       </c>
       <c r="K230" s="0"/>
       <c r="M230" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N230" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="N230" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="Q230" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R230" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y230" s="0"/>
       <c r="AC230" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD230" s="0"/>
       <c r="AE230" s="1" t="s">
@@ -20050,10 +20059,10 @@
       </c>
       <c r="AF230" s="0"/>
       <c r="AI230" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ230" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK230" s="1" t="n">
         <v>4</v>
@@ -20081,10 +20090,10 @@
       </c>
       <c r="E231" s="0"/>
       <c r="F231" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>55</v>
@@ -20095,26 +20104,26 @@
       </c>
       <c r="K231" s="0"/>
       <c r="M231" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="N231" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="N231" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="Q231" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="X231" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y231" s="0"/>
       <c r="AC231" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD231" s="0"/>
       <c r="AE231" s="1" t="s">
@@ -20122,10 +20131,10 @@
       </c>
       <c r="AF231" s="0"/>
       <c r="AI231" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ231" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK231" s="1" t="n">
         <v>4</v>
@@ -20153,13 +20162,13 @@
       </c>
       <c r="E232" s="0"/>
       <c r="F232" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="I232" s="0"/>
       <c r="J232" s="1" t="n">
@@ -20170,16 +20179,16 @@
         <v>435</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R232" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y232" s="0"/>
       <c r="AD232" s="0"/>
@@ -20188,10 +20197,10 @@
       </c>
       <c r="AF232" s="0"/>
       <c r="AI232" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ232" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK232" s="1" t="n">
         <v>3</v>
@@ -20218,46 +20227,46 @@
         <v>42</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="H233" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="I233" s="0"/>
       <c r="J233" s="0"/>
       <c r="K233" s="0"/>
       <c r="M233" s="0"/>
       <c r="N233" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R233" s="0"/>
       <c r="S233" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X233" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y233" s="0"/>
       <c r="AD233" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE233" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF233" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI233" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ233" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK233" s="1" t="n">
         <v>2</v>
@@ -20281,19 +20290,19 @@
         <v>41</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F234" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="H234" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I234" s="0"/>
       <c r="J234" s="1" t="n">
@@ -20307,14 +20316,14 @@
       </c>
       <c r="S234" s="0"/>
       <c r="X234" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y234" s="0"/>
       <c r="AD234" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE234" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF234" s="2" t="n">
         <v>0.03</v>
@@ -20344,19 +20353,19 @@
         <v>41</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F235" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="I235" s="0"/>
       <c r="J235" s="1" t="n">
@@ -20369,27 +20378,27 @@
         <v>435</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X235" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y235" s="0"/>
       <c r="AD235" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE235" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF235" s="0"/>
       <c r="AI235" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AK235" s="1" t="n">
         <v>3</v>
@@ -20417,10 +20426,10 @@
       </c>
       <c r="E236" s="0"/>
       <c r="F236" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>42</v>
@@ -20460,14 +20469,14 @@
         <v>41</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E237" s="0"/>
       <c r="F237" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>49</v>
@@ -20494,7 +20503,7 @@
         <v>220</v>
       </c>
       <c r="AM237" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AN237" s="1" t="n">
         <v>400</v>
@@ -20511,19 +20520,19 @@
         <v>41</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E238" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="H238" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="I238" s="0"/>
       <c r="J238" s="1" t="n">
@@ -20531,17 +20540,17 @@
       </c>
       <c r="M238" s="0"/>
       <c r="N238" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R238" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X238" s="0"/>
       <c r="Y238" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD238" s="1" t="s">
         <v>50</v>
@@ -20574,19 +20583,19 @@
         <v>41</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F239" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="H239" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I239" s="0"/>
       <c r="J239" s="1" t="n">
@@ -20594,17 +20603,17 @@
       </c>
       <c r="M239" s="0"/>
       <c r="N239" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X239" s="0"/>
       <c r="Y239" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AD239" s="1" t="s">
         <v>50</v>
@@ -20637,19 +20646,19 @@
         <v>41</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F240" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>757</v>
-      </c>
       <c r="H240" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I240" s="0"/>
       <c r="J240" s="1" t="n">
@@ -20657,17 +20666,17 @@
       </c>
       <c r="M240" s="0"/>
       <c r="N240" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R240" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X240" s="0"/>
       <c r="Y240" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AD240" s="1" t="s">
         <v>50</v>
@@ -20700,19 +20709,19 @@
         <v>41</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="H241" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I241" s="0"/>
       <c r="J241" s="1" t="n">
@@ -20720,17 +20729,17 @@
       </c>
       <c r="M241" s="0"/>
       <c r="N241" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R241" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X241" s="0"/>
       <c r="Y241" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AD241" s="1" t="s">
         <v>50</v>
@@ -20763,34 +20772,34 @@
         <v>41</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="F242" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="M242" s="0"/>
       <c r="N242" s="0"/>
       <c r="S242" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X242" s="0"/>
       <c r="AL242" s="1" t="n">
         <v>218</v>
       </c>
       <c r="AM242" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20804,34 +20813,34 @@
         <v>41</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="H243" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I243" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="M243" s="0"/>
       <c r="N243" s="0"/>
       <c r="S243" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X243" s="0"/>
       <c r="AL243" s="1" t="n">
         <v>219</v>
       </c>
       <c r="AM243" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20845,31 +20854,31 @@
         <v>41</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F244" s="1" t="s">
+      <c r="G244" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="I244" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I244" s="1" t="s">
+      <c r="M244" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="M244" s="1" t="s">
+      <c r="N244" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="N244" s="9" t="s">
-        <v>780</v>
-      </c>
       <c r="S244" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X244" s="0"/>
       <c r="AL244" s="1" t="n">
@@ -20890,31 +20899,31 @@
         <v>41</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E245" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="G245" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="H245" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="I245" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I245" s="1" t="s">
+      <c r="M245" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="M245" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="N245" s="9" t="s">
-        <v>781</v>
+      <c r="N245" s="10" t="s">
+        <v>780</v>
       </c>
       <c r="S245" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X245" s="0"/>
       <c r="AL245" s="1" t="n">
@@ -20935,31 +20944,31 @@
         <v>41</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E246" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="G246" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="H246" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="I246" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I246" s="1" t="s">
+      <c r="M246" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="M246" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="N246" s="9" t="s">
-        <v>782</v>
+      <c r="N246" s="10" t="s">
+        <v>781</v>
       </c>
       <c r="S246" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X246" s="0"/>
       <c r="AL246" s="1" t="n">
@@ -20980,31 +20989,31 @@
         <v>41</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="G247" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="I247" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="M247" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="M247" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="N247" s="9" t="s">
-        <v>783</v>
+      <c r="N247" s="10" t="s">
+        <v>782</v>
       </c>
       <c r="S247" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X247" s="0"/>
       <c r="AL247" s="1" t="n">
@@ -21025,36 +21034,36 @@
         <v>41</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="G248" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="H248" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="I248" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="M248" s="0"/>
       <c r="N248" s="0"/>
       <c r="S248" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X248" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AL248" s="1" t="n">
         <v>223</v>
       </c>
       <c r="AM248" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21068,30 +21077,30 @@
         <v>41</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="H249" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>793</v>
-      </c>
       <c r="I249" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M249" s="0"/>
       <c r="N249" s="0"/>
       <c r="S249" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X249" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AL249" s="1" t="n">
         <v>224</v>
@@ -21111,29 +21120,29 @@
         <v>41</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E250" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F250" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="G250" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="H250" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="I250" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M250" s="0"/>
       <c r="N250" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="S250" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="S250" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="AL250" s="1" t="n">
         <v>225</v>
@@ -21151,29 +21160,29 @@
         <v>41</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="H251" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="I251" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M251" s="0"/>
       <c r="N251" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S251" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AL251" s="1" t="n">
         <v>226</v>
@@ -21191,31 +21200,31 @@
         <v>41</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M252" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M252" s="1" t="s">
+      <c r="N252" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="N252" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="S252" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL252" s="1" t="n">
         <v>228</v>
@@ -21235,31 +21244,31 @@
         <v>41</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="H253" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M253" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M253" s="1" t="s">
+      <c r="N253" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="N253" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="S253" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL253" s="1" t="n">
         <v>229</v>
@@ -21279,31 +21288,31 @@
         <v>41</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M254" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M254" s="1" t="s">
+      <c r="N254" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="N254" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="S254" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL254" s="1" t="n">
         <v>230</v>
@@ -21323,31 +21332,31 @@
         <v>41</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="H255" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="N255" s="9" t="s">
-        <v>810</v>
+      <c r="N255" s="10" t="s">
+        <v>809</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL255" s="1" t="n">
         <v>231</v>
@@ -21365,37 +21374,37 @@
         <v>41</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="N256" s="9" t="s">
-        <v>811</v>
+      <c r="N256" s="10" t="s">
+        <v>810</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL256" s="1" t="n">
         <v>232</v>
       </c>
       <c r="AM256" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21409,37 +21418,37 @@
         <v>41</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E257" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="H257" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M257" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="N257" s="9" t="s">
-        <v>813</v>
+      <c r="N257" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL257" s="1" t="n">
         <v>233</v>
       </c>
       <c r="AM257" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21453,31 +21462,31 @@
         <v>41</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E258" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="N258" s="9" t="s">
-        <v>815</v>
+      <c r="N258" s="10" t="s">
+        <v>814</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL258" s="1" t="n">
         <v>234</v>
@@ -21494,22 +21503,22 @@
         <v>41</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F259" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="H259" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I259" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="S259" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="S259" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="AL259" s="1" t="n">
         <v>521</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -11,16 +11,14 @@
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="818">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1509,6 +1507,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">Local</t>
@@ -2763,8 +2764,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -2858,6 +2859,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2872,53 +2933,53 @@
   </sheetPr>
   <dimension ref="A1:AN259"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="N143" activeCellId="0" sqref="N143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.8380566801619"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.7246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="96.9433198380567"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="140.323886639676"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="170.534412955466"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="96.085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="139.04048582996"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="169.032388663968"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -13522,8 +13583,8 @@
       <c r="V136" s="0"/>
       <c r="X136" s="0"/>
       <c r="Y136" s="0"/>
-      <c r="AA136" s="1" t="n">
-        <v>101</v>
+      <c r="AA136" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="AC136" s="0"/>
       <c r="AD136" s="0"/>
@@ -13555,14 +13616,14 @@
         <v>41</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>430</v>
@@ -13599,7 +13660,7 @@
         <v>0.01</v>
       </c>
       <c r="AI137" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AJ137" s="1" t="s">
         <v>428</v>
@@ -13611,7 +13672,7 @@
         <v>135</v>
       </c>
       <c r="AM137" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN137" s="1" t="n">
         <v>302</v>
@@ -13628,16 +13689,16 @@
         <v>41</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>55</v>
@@ -13649,10 +13710,10 @@
       <c r="K138" s="0"/>
       <c r="L138" s="0"/>
       <c r="M138" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="N138" s="1" t="n">
-        <v>5449000000439</v>
+        <v>456</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="O138" s="0"/>
       <c r="P138" s="0"/>
@@ -13666,8 +13727,8 @@
       <c r="V138" s="0"/>
       <c r="X138" s="0"/>
       <c r="Y138" s="0"/>
-      <c r="AA138" s="1" t="n">
-        <v>101</v>
+      <c r="AA138" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="AC138" s="0"/>
       <c r="AD138" s="1" t="s">
@@ -13701,16 +13762,16 @@
         <v>41</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>55</v>
@@ -13722,10 +13783,10 @@
       <c r="K139" s="0"/>
       <c r="L139" s="0"/>
       <c r="M139" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="N139" s="1" t="n">
-        <v>5449000133335</v>
+        <v>459</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="O139" s="0"/>
       <c r="P139" s="0"/>
@@ -13739,8 +13800,8 @@
       <c r="V139" s="0"/>
       <c r="X139" s="0"/>
       <c r="Y139" s="0"/>
-      <c r="AA139" s="1" t="n">
-        <v>101</v>
+      <c r="AA139" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="AC139" s="0"/>
       <c r="AD139" s="1" t="s">
@@ -13780,10 +13841,10 @@
         <v>427</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>430</v>
@@ -13828,7 +13889,7 @@
         <v>151</v>
       </c>
       <c r="AM140" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN140" s="1" t="n">
         <v>302</v>
@@ -13851,10 +13912,10 @@
         <v>427</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>55</v>
@@ -13926,10 +13987,10 @@
         <v>427</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>440</v>
@@ -13952,7 +14013,7 @@
         <v>441</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X142" s="0"/>
       <c r="Y142" s="0"/>
@@ -13997,13 +14058,13 @@
         <v>427</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I143" s="0"/>
       <c r="J143" s="1" t="n">
@@ -14041,7 +14102,7 @@
         <v>616</v>
       </c>
       <c r="AM143" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN143" s="1" t="n">
         <v>151</v>
@@ -14064,10 +14125,10 @@
         <v>427</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>445</v>
@@ -14135,10 +14196,10 @@
         <v>427</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>445</v>
@@ -14148,7 +14209,7 @@
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
       <c r="M145" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N145" s="1" t="n">
         <v>54491472</v>
@@ -14206,10 +14267,10 @@
         <v>427</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>430</v>
@@ -14254,7 +14315,7 @@
         <v>162</v>
       </c>
       <c r="AM146" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN146" s="1" t="n">
         <v>302</v>
@@ -14277,10 +14338,10 @@
         <v>427</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>55</v>
@@ -14352,10 +14413,10 @@
         <v>427</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>440</v>
@@ -14378,7 +14439,7 @@
         <v>441</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="X148" s="0"/>
       <c r="Y148" s="0"/>
@@ -14423,13 +14484,13 @@
         <v>427</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I149" s="0"/>
       <c r="J149" s="1" t="n">
@@ -14469,7 +14530,7 @@
         <v>165</v>
       </c>
       <c r="AM149" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN149" s="1" t="n">
         <v>162</v>
@@ -14492,10 +14553,10 @@
         <v>427</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>445</v>
@@ -14563,10 +14624,10 @@
         <v>427</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>445</v>
@@ -14576,7 +14637,7 @@
       <c r="K151" s="0"/>
       <c r="L151" s="0"/>
       <c r="M151" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N151" s="1" t="n">
         <v>5449000044839</v>
@@ -14634,10 +14695,10 @@
         <v>427</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>430</v>
@@ -14659,7 +14720,7 @@
       <c r="S152" s="0"/>
       <c r="V152" s="0"/>
       <c r="X152" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y152" s="0"/>
       <c r="AA152" s="0"/>
@@ -14682,7 +14743,7 @@
         <v>625</v>
       </c>
       <c r="AM152" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN152" s="1" t="n">
         <v>302</v>
@@ -14705,10 +14766,10 @@
         <v>427</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>55</v>
@@ -14723,10 +14784,10 @@
         <v>435</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P153" s="0"/>
       <c r="Q153" s="0"/>
@@ -14738,7 +14799,7 @@
       </c>
       <c r="V153" s="0"/>
       <c r="X153" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y153" s="0"/>
       <c r="AA153" s="0"/>
@@ -14780,10 +14841,10 @@
         <v>427</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>440</v>
@@ -14806,10 +14867,10 @@
         <v>441</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y154" s="0"/>
       <c r="AA154" s="0"/>
@@ -14851,13 +14912,13 @@
         <v>427</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I155" s="0"/>
       <c r="J155" s="1" t="n">
@@ -14876,7 +14937,7 @@
       <c r="S155" s="0"/>
       <c r="V155" s="0"/>
       <c r="X155" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y155" s="0"/>
       <c r="AA155" s="0"/>
@@ -14897,7 +14958,7 @@
         <v>628</v>
       </c>
       <c r="AM155" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN155" s="1" t="n">
         <v>625</v>
@@ -14917,13 +14978,13 @@
         <v>42</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>445</v>
@@ -14947,7 +15008,7 @@
       <c r="S156" s="0"/>
       <c r="V156" s="0"/>
       <c r="X156" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y156" s="0"/>
       <c r="AA156" s="0"/>
@@ -14986,13 +15047,13 @@
         <v>42</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>445</v>
@@ -15016,7 +15077,7 @@
       <c r="S157" s="0"/>
       <c r="V157" s="0"/>
       <c r="X157" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y157" s="0"/>
       <c r="AA157" s="0"/>
@@ -15055,13 +15116,13 @@
         <v>42</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>445</v>
@@ -15085,7 +15146,7 @@
       <c r="S158" s="0"/>
       <c r="V158" s="0"/>
       <c r="X158" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y158" s="0"/>
       <c r="AA158" s="0"/>
@@ -15125,10 +15186,10 @@
       </c>
       <c r="E159" s="0"/>
       <c r="F159" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>42</v>
@@ -15161,7 +15222,7 @@
         <v>303</v>
       </c>
       <c r="AM159" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN159" s="1" t="n">
         <v>301</v>
@@ -15184,10 +15245,10 @@
         <v>427</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>430</v>
@@ -15232,7 +15293,7 @@
         <v>140</v>
       </c>
       <c r="AM160" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN160" s="1" t="n">
         <v>303</v>
@@ -15255,10 +15316,10 @@
         <v>427</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>55</v>
@@ -15273,10 +15334,10 @@
         <v>435</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P161" s="0"/>
       <c r="Q161" s="0"/>
@@ -15330,10 +15391,10 @@
         <v>427</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>440</v>
@@ -15356,7 +15417,7 @@
         <v>441</v>
       </c>
       <c r="V162" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="X162" s="0"/>
       <c r="Y162" s="0"/>
@@ -15401,13 +15462,13 @@
         <v>427</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I163" s="0"/>
       <c r="J163" s="1" t="n">
@@ -15447,7 +15508,7 @@
         <v>143</v>
       </c>
       <c r="AM163" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN163" s="1" t="n">
         <v>140</v>
@@ -15470,10 +15531,10 @@
         <v>427</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>445</v>
@@ -15512,7 +15573,7 @@
       </c>
       <c r="AF164" s="0"/>
       <c r="AI164" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AJ164" s="0"/>
       <c r="AK164" s="1" t="n">
@@ -15543,10 +15604,10 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>445</v>
@@ -15585,7 +15646,7 @@
       </c>
       <c r="AF165" s="0"/>
       <c r="AI165" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AJ165" s="0"/>
       <c r="AK165" s="1" t="n">
@@ -15610,16 +15671,16 @@
         <v>41</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>430</v>
@@ -15656,10 +15717,10 @@
         <v>0.01</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AK166" s="1" t="n">
         <v>2</v>
@@ -15668,7 +15729,7 @@
         <v>146</v>
       </c>
       <c r="AM166" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN166" s="1" t="n">
         <v>303</v>
@@ -15685,16 +15746,16 @@
         <v>41</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>55</v>
@@ -15758,16 +15819,16 @@
         <v>41</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>55</v>
@@ -15831,16 +15892,16 @@
         <v>41</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>55</v>
@@ -15904,16 +15965,16 @@
         <v>41</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>55</v>
@@ -15981,10 +16042,10 @@
       </c>
       <c r="E171" s="0"/>
       <c r="F171" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>42</v>
@@ -16041,10 +16102,10 @@
         <v>427</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>430</v>
@@ -16066,7 +16127,7 @@
       <c r="S172" s="0"/>
       <c r="V172" s="0"/>
       <c r="X172" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y172" s="0"/>
       <c r="AC172" s="0"/>
@@ -16088,7 +16149,7 @@
         <v>155</v>
       </c>
       <c r="AM172" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN172" s="1" t="n">
         <v>320</v>
@@ -16111,10 +16172,10 @@
         <v>427</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>55</v>
@@ -16129,24 +16190,24 @@
         <v>435</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q173" s="0"/>
       <c r="R173" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V173" s="0"/>
       <c r="X173" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y173" s="0"/>
       <c r="AC173" s="0"/>
@@ -16187,10 +16248,10 @@
         <v>427</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>440</v>
@@ -16212,10 +16273,10 @@
         <v>441</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y174" s="0"/>
       <c r="AC174" s="0"/>
@@ -16256,13 +16317,13 @@
         <v>427</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I175" s="0"/>
       <c r="J175" s="1" t="n">
@@ -16280,7 +16341,7 @@
       <c r="S175" s="0"/>
       <c r="V175" s="0"/>
       <c r="X175" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y175" s="0"/>
       <c r="AC175" s="0"/>
@@ -16300,7 +16361,7 @@
         <v>158</v>
       </c>
       <c r="AM175" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN175" s="1" t="n">
         <v>155</v>
@@ -16323,10 +16384,10 @@
         <v>427</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>445</v>
@@ -16336,10 +16397,10 @@
       <c r="K176" s="0"/>
       <c r="L176" s="0"/>
       <c r="M176" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O176" s="0"/>
       <c r="Q176" s="0"/>
@@ -16351,7 +16412,7 @@
       </c>
       <c r="V176" s="0"/>
       <c r="X176" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y176" s="0"/>
       <c r="AC176" s="0"/>
@@ -16392,10 +16453,10 @@
         <v>427</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>445</v>
@@ -16420,7 +16481,7 @@
       </c>
       <c r="V177" s="0"/>
       <c r="X177" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y177" s="0"/>
       <c r="AC177" s="0"/>
@@ -16461,10 +16522,10 @@
         <v>427</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>42</v>
@@ -16518,10 +16579,10 @@
         <v>427</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>430</v>
@@ -16542,7 +16603,7 @@
       <c r="S179" s="0"/>
       <c r="V179" s="0"/>
       <c r="X179" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y179" s="0"/>
       <c r="AC179" s="0"/>
@@ -16564,7 +16625,7 @@
         <v>171</v>
       </c>
       <c r="AM179" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN179" s="1" t="n">
         <v>321</v>
@@ -16587,10 +16648,10 @@
         <v>427</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>55</v>
@@ -16605,10 +16666,10 @@
         <v>435</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q180" s="0"/>
       <c r="R180" s="1" t="s">
@@ -16619,7 +16680,7 @@
       </c>
       <c r="V180" s="0"/>
       <c r="X180" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y180" s="0"/>
       <c r="AC180" s="0"/>
@@ -16660,10 +16721,10 @@
         <v>427</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>440</v>
@@ -16685,10 +16746,10 @@
         <v>441</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y181" s="0"/>
       <c r="AC181" s="0"/>
@@ -16729,13 +16790,13 @@
         <v>427</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I182" s="0"/>
       <c r="J182" s="1" t="n">
@@ -16753,7 +16814,7 @@
       <c r="S182" s="0"/>
       <c r="V182" s="0"/>
       <c r="X182" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y182" s="0"/>
       <c r="AC182" s="0"/>
@@ -16773,7 +16834,7 @@
         <v>174</v>
       </c>
       <c r="AM182" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN182" s="1" t="n">
         <v>171</v>
@@ -16796,10 +16857,10 @@
         <v>427</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>445</v>
@@ -16824,7 +16885,7 @@
       </c>
       <c r="V183" s="0"/>
       <c r="X183" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y183" s="0"/>
       <c r="AC183" s="0"/>
@@ -16836,7 +16897,7 @@
       </c>
       <c r="AF183" s="0"/>
       <c r="AI183" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ183" s="0"/>
       <c r="AK183" s="1" t="n">
@@ -16867,10 +16928,10 @@
         <v>427</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>445</v>
@@ -16895,7 +16956,7 @@
       </c>
       <c r="V184" s="0"/>
       <c r="X184" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y184" s="0"/>
       <c r="AC184" s="0"/>
@@ -16907,7 +16968,7 @@
       </c>
       <c r="AF184" s="0"/>
       <c r="AI184" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AJ184" s="0"/>
       <c r="AK184" s="1" t="n">
@@ -16938,10 +16999,10 @@
         <v>427</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>445</v>
@@ -16966,7 +17027,7 @@
       </c>
       <c r="V185" s="0"/>
       <c r="X185" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y185" s="0"/>
       <c r="AC185" s="0"/>
@@ -16978,7 +17039,7 @@
       </c>
       <c r="AF185" s="0"/>
       <c r="AI185" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ185" s="0"/>
       <c r="AK185" s="1" t="n">
@@ -17009,10 +17070,10 @@
         <v>427</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>445</v>
@@ -17037,7 +17098,7 @@
       </c>
       <c r="V186" s="0"/>
       <c r="X186" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y186" s="0"/>
       <c r="AC186" s="0"/>
@@ -17049,7 +17110,7 @@
       </c>
       <c r="AF186" s="0"/>
       <c r="AI186" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AJ186" s="0"/>
       <c r="AK186" s="1" t="n">
@@ -17078,10 +17139,10 @@
       </c>
       <c r="E187" s="0"/>
       <c r="F187" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>42</v>
@@ -17112,7 +17173,7 @@
         <v>520</v>
       </c>
       <c r="AM187" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN187" s="0"/>
     </row>
@@ -17131,10 +17192,10 @@
       </c>
       <c r="E188" s="0"/>
       <c r="F188" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>42</v>
@@ -17165,7 +17226,7 @@
         <v>501</v>
       </c>
       <c r="AM188" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN188" s="1" t="n">
         <v>520</v>
@@ -17182,19 +17243,19 @@
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I189" s="0"/>
       <c r="J189" s="1" t="n">
@@ -17218,7 +17279,7 @@
       </c>
       <c r="V189" s="0"/>
       <c r="X189" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y189" s="0"/>
       <c r="AC189" s="0"/>
@@ -17226,7 +17287,7 @@
         <v>50</v>
       </c>
       <c r="AE189" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF189" s="2" t="n">
         <v>0.0725</v>
@@ -17255,19 +17316,19 @@
         <v>41</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I190" s="0"/>
       <c r="J190" s="1" t="n">
@@ -17285,11 +17346,11 @@
       <c r="S190" s="0"/>
       <c r="V190" s="0"/>
       <c r="X190" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y190" s="0"/>
       <c r="AC190" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD190" s="1" t="s">
         <v>50</v>
@@ -17309,7 +17370,7 @@
         <v>180</v>
       </c>
       <c r="AM190" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN190" s="1" t="n">
         <v>501</v>
@@ -17326,16 +17387,16 @@
         <v>41</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>55</v>
@@ -17362,11 +17423,11 @@
       </c>
       <c r="V191" s="0"/>
       <c r="X191" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y191" s="0"/>
       <c r="AC191" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD191" s="1" t="s">
         <v>50</v>
@@ -17399,16 +17460,16 @@
         <v>41</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>55</v>
@@ -17435,11 +17496,11 @@
       </c>
       <c r="V192" s="0"/>
       <c r="X192" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y192" s="0"/>
       <c r="AC192" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD192" s="1" t="s">
         <v>50</v>
@@ -17472,16 +17533,16 @@
         <v>41</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>55</v>
@@ -17508,11 +17569,11 @@
       </c>
       <c r="V193" s="0"/>
       <c r="X193" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y193" s="0"/>
       <c r="AC193" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD193" s="1" t="s">
         <v>50</v>
@@ -17545,16 +17606,16 @@
         <v>41</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>55</v>
@@ -17581,11 +17642,11 @@
       </c>
       <c r="V194" s="0"/>
       <c r="X194" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y194" s="0"/>
       <c r="AC194" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD194" s="1" t="s">
         <v>50</v>
@@ -17618,16 +17679,16 @@
         <v>41</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>55</v>
@@ -17654,11 +17715,11 @@
       </c>
       <c r="V195" s="0"/>
       <c r="X195" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y195" s="0"/>
       <c r="AC195" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD195" s="1" t="s">
         <v>50</v>
@@ -17691,16 +17752,16 @@
         <v>41</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>55</v>
@@ -17712,7 +17773,7 @@
       <c r="K196" s="0"/>
       <c r="L196" s="0"/>
       <c r="M196" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>97</v>
@@ -17727,11 +17788,11 @@
       </c>
       <c r="V196" s="0"/>
       <c r="X196" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y196" s="0"/>
       <c r="AC196" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD196" s="1" t="s">
         <v>50</v>
@@ -17764,16 +17825,16 @@
         <v>41</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>55</v>
@@ -17800,11 +17861,11 @@
       </c>
       <c r="V197" s="0"/>
       <c r="X197" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y197" s="0"/>
       <c r="AC197" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD197" s="1" t="s">
         <v>50</v>
@@ -17837,16 +17898,16 @@
         <v>41</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>55</v>
@@ -17858,7 +17919,7 @@
       <c r="K198" s="0"/>
       <c r="L198" s="0"/>
       <c r="M198" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N198" s="1" t="n">
         <v>5449000064110</v>
@@ -17873,11 +17934,11 @@
       </c>
       <c r="V198" s="0"/>
       <c r="X198" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y198" s="0"/>
       <c r="AC198" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD198" s="1" t="s">
         <v>50</v>
@@ -17914,10 +17975,10 @@
       </c>
       <c r="E199" s="0"/>
       <c r="F199" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>42</v>
@@ -17948,7 +18009,7 @@
         <v>502</v>
       </c>
       <c r="AM199" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN199" s="1" t="n">
         <v>520</v>
@@ -17968,16 +18029,16 @@
         <v>42</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I200" s="0"/>
       <c r="J200" s="1" t="n">
@@ -17989,10 +18050,10 @@
         <v>435</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q200" s="0"/>
       <c r="R200" s="0"/>
@@ -18001,7 +18062,7 @@
       </c>
       <c r="V200" s="0"/>
       <c r="X200" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y200" s="0"/>
       <c r="AC200" s="0"/>
@@ -18009,7 +18070,7 @@
         <v>50</v>
       </c>
       <c r="AE200" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF200" s="2" t="n">
         <v>0.0625</v>
@@ -18038,19 +18099,19 @@
         <v>41</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I201" s="0"/>
       <c r="J201" s="1" t="n">
@@ -18068,11 +18129,11 @@
       <c r="S201" s="0"/>
       <c r="V201" s="0"/>
       <c r="X201" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y201" s="0"/>
       <c r="AC201" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD201" s="1" t="s">
         <v>50</v>
@@ -18092,7 +18153,7 @@
         <v>190</v>
       </c>
       <c r="AM201" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN201" s="1" t="n">
         <v>502</v>
@@ -18109,16 +18170,16 @@
         <v>41</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>55</v>
@@ -18145,11 +18206,11 @@
       </c>
       <c r="V202" s="0"/>
       <c r="X202" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y202" s="0"/>
       <c r="AC202" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD202" s="1" t="s">
         <v>50</v>
@@ -18182,16 +18243,16 @@
         <v>41</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>55</v>
@@ -18218,11 +18279,11 @@
       </c>
       <c r="V203" s="0"/>
       <c r="X203" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y203" s="0"/>
       <c r="AC203" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD203" s="1" t="s">
         <v>50</v>
@@ -18255,16 +18316,16 @@
         <v>41</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>55</v>
@@ -18291,11 +18352,11 @@
       </c>
       <c r="V204" s="0"/>
       <c r="X204" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y204" s="0"/>
       <c r="AC204" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD204" s="1" t="s">
         <v>50</v>
@@ -18328,16 +18389,16 @@
         <v>41</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>55</v>
@@ -18364,11 +18425,11 @@
       </c>
       <c r="V205" s="0"/>
       <c r="X205" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y205" s="0"/>
       <c r="AC205" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD205" s="1" t="s">
         <v>50</v>
@@ -18401,16 +18462,16 @@
         <v>41</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>55</v>
@@ -18437,11 +18498,11 @@
       </c>
       <c r="V206" s="0"/>
       <c r="X206" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y206" s="0"/>
       <c r="AC206" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD206" s="1" t="s">
         <v>50</v>
@@ -18478,10 +18539,10 @@
       </c>
       <c r="E207" s="0"/>
       <c r="F207" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>42</v>
@@ -18512,7 +18573,7 @@
         <v>503</v>
       </c>
       <c r="AM207" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN207" s="1" t="n">
         <v>520</v>
@@ -18532,16 +18593,16 @@
         <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I208" s="0"/>
       <c r="J208" s="1" t="n">
@@ -18553,10 +18614,10 @@
         <v>435</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q208" s="0"/>
       <c r="R208" s="0"/>
@@ -18565,7 +18626,7 @@
       </c>
       <c r="V208" s="0"/>
       <c r="X208" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y208" s="0"/>
       <c r="AC208" s="0"/>
@@ -18573,7 +18634,7 @@
         <v>50</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF208" s="2" t="n">
         <v>0.0225</v>
@@ -18604,19 +18665,19 @@
         <v>41</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="1" t="n">
@@ -18634,11 +18695,11 @@
       <c r="S209" s="0"/>
       <c r="V209" s="0"/>
       <c r="X209" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y209" s="0"/>
       <c r="AC209" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD209" s="1" t="s">
         <v>50</v>
@@ -18675,13 +18736,13 @@
         <v>41</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>183</v>
@@ -18711,11 +18772,11 @@
       </c>
       <c r="V210" s="0"/>
       <c r="X210" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y210" s="0"/>
       <c r="AC210" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD210" s="1" t="s">
         <v>50</v>
@@ -18752,10 +18813,10 @@
       </c>
       <c r="E211" s="0"/>
       <c r="F211" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>42</v>
@@ -18806,16 +18867,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I212" s="0"/>
       <c r="J212" s="1" t="n">
@@ -18827,10 +18888,10 @@
         <v>435</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q212" s="0"/>
       <c r="R212" s="0"/>
@@ -18839,7 +18900,7 @@
       </c>
       <c r="V212" s="0"/>
       <c r="X212" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y212" s="0"/>
       <c r="AC212" s="0"/>
@@ -18847,7 +18908,7 @@
         <v>50</v>
       </c>
       <c r="AE212" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF212" s="2" t="n">
         <v>0.0425</v>
@@ -18878,19 +18939,19 @@
         <v>41</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I213" s="0"/>
       <c r="J213" s="1" t="n">
@@ -18908,11 +18969,11 @@
       <c r="S213" s="0"/>
       <c r="V213" s="0"/>
       <c r="X213" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y213" s="0"/>
       <c r="AC213" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD213" s="1" t="s">
         <v>50</v>
@@ -18932,7 +18993,7 @@
         <v>200</v>
       </c>
       <c r="AM213" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN213" s="1" t="n">
         <v>504</v>
@@ -18949,16 +19010,16 @@
         <v>41</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>55</v>
@@ -18985,11 +19046,11 @@
       </c>
       <c r="V214" s="0"/>
       <c r="X214" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y214" s="0"/>
       <c r="AC214" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD214" s="1" t="s">
         <v>50</v>
@@ -19022,16 +19083,16 @@
         <v>41</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>55</v>
@@ -19043,10 +19104,10 @@
       <c r="K215" s="0"/>
       <c r="L215" s="0"/>
       <c r="M215" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O215" s="0"/>
       <c r="Q215" s="0"/>
@@ -19058,11 +19119,11 @@
       </c>
       <c r="V215" s="0"/>
       <c r="X215" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y215" s="0"/>
       <c r="AC215" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD215" s="1" t="s">
         <v>50</v>
@@ -19099,10 +19160,10 @@
       </c>
       <c r="E216" s="0"/>
       <c r="F216" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>42</v>
@@ -19153,16 +19214,16 @@
         <v>42</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="1" t="n">
@@ -19174,10 +19235,10 @@
         <v>435</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q217" s="0"/>
       <c r="R217" s="0"/>
@@ -19186,7 +19247,7 @@
       </c>
       <c r="V217" s="0"/>
       <c r="X217" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y217" s="0"/>
       <c r="AC217" s="0"/>
@@ -19194,7 +19255,7 @@
         <v>50</v>
       </c>
       <c r="AE217" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF217" s="2" t="n">
         <v>0.04</v>
@@ -19227,10 +19288,10 @@
       </c>
       <c r="E218" s="0"/>
       <c r="F218" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>42</v>
@@ -19260,7 +19321,7 @@
         <v>310</v>
       </c>
       <c r="AM218" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AN218" s="0"/>
     </row>
@@ -19279,10 +19340,10 @@
       </c>
       <c r="E219" s="0"/>
       <c r="F219" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>42</v>
@@ -19332,16 +19393,16 @@
         <v>42</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I220" s="0"/>
       <c r="J220" s="0"/>
@@ -19351,12 +19412,12 @@
       <c r="N220" s="0"/>
       <c r="Q220" s="0"/>
       <c r="R220" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="S220" s="0"/>
       <c r="V220" s="0"/>
       <c r="X220" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y220" s="0"/>
       <c r="AC220" s="0"/>
@@ -19364,13 +19425,13 @@
         <v>50</v>
       </c>
       <c r="AE220" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF220" s="2" t="n">
         <v>0.065</v>
       </c>
       <c r="AI220" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AJ220" s="0"/>
       <c r="AK220" s="1" t="n">
@@ -19380,7 +19441,7 @@
         <v>204</v>
       </c>
       <c r="AM220" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AN220" s="1" t="n">
         <v>311</v>
@@ -19400,16 +19461,16 @@
         <v>42</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="1" t="n">
@@ -19423,16 +19484,16 @@
         <v>435</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q221" s="0"/>
       <c r="R221" s="0"/>
       <c r="S221" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V221" s="0"/>
       <c r="X221" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y221" s="0"/>
       <c r="AC221" s="0"/>
@@ -19470,16 +19531,16 @@
         <v>42</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I222" s="0"/>
       <c r="J222" s="1" t="n">
@@ -19491,16 +19552,16 @@
         <v>435</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q222" s="0"/>
       <c r="R222" s="0"/>
       <c r="S222" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V222" s="0"/>
       <c r="X222" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Y222" s="0"/>
       <c r="AC222" s="0"/>
@@ -19539,10 +19600,10 @@
       </c>
       <c r="E223" s="0"/>
       <c r="F223" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>42</v>
@@ -19572,7 +19633,7 @@
         <v>312</v>
       </c>
       <c r="AM223" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN223" s="1" t="n">
         <v>310</v>
@@ -19592,13 +19653,13 @@
         <v>42</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>440</v>
@@ -19614,13 +19675,13 @@
       <c r="Q224" s="0"/>
       <c r="R224" s="0"/>
       <c r="S224" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="V224" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="X224" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y224" s="0"/>
       <c r="AC224" s="0"/>
@@ -19634,10 +19695,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI224" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ224" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK224" s="1" t="n">
         <v>2</v>
@@ -19664,16 +19725,16 @@
         <v>42</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I225" s="0"/>
       <c r="J225" s="1" t="n">
@@ -19689,15 +19750,15 @@
         <v>435</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q225" s="0"/>
       <c r="R225" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="S225" s="0"/>
       <c r="X225" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y225" s="0"/>
       <c r="AC225" s="0"/>
@@ -19711,10 +19772,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI225" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ225" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK225" s="1" t="n">
         <v>2</v>
@@ -19741,13 +19802,13 @@
         <v>42</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>49</v>
@@ -19763,7 +19824,7 @@
       </c>
       <c r="S226" s="0"/>
       <c r="X226" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y226" s="0"/>
       <c r="AC226" s="0"/>
@@ -19771,16 +19832,16 @@
         <v>50</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF226" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI226" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ226" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK226" s="1" t="n">
         <v>2</v>
@@ -19789,7 +19850,7 @@
         <v>209</v>
       </c>
       <c r="AM226" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AN226" s="1" t="n">
         <v>312</v>
@@ -19810,13 +19871,13 @@
       </c>
       <c r="E227" s="0"/>
       <c r="F227" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I227" s="0"/>
       <c r="J227" s="1" t="n">
@@ -19824,25 +19885,25 @@
       </c>
       <c r="K227" s="0"/>
       <c r="M227" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R227" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X227" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AC227" s="0"/>
       <c r="AD227" s="0"/>
@@ -19851,10 +19912,10 @@
       </c>
       <c r="AF227" s="0"/>
       <c r="AI227" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ227" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK227" s="1" t="n">
         <v>3</v>
@@ -19882,13 +19943,13 @@
       </c>
       <c r="E228" s="0"/>
       <c r="F228" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I228" s="0"/>
       <c r="J228" s="1" t="n">
@@ -19896,25 +19957,25 @@
       </c>
       <c r="K228" s="0"/>
       <c r="M228" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R228" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X228" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AC228" s="0"/>
       <c r="AD228" s="0"/>
@@ -19923,10 +19984,10 @@
       </c>
       <c r="AF228" s="0"/>
       <c r="AI228" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ228" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK228" s="1" t="n">
         <v>3</v>
@@ -19954,13 +20015,13 @@
       </c>
       <c r="E229" s="0"/>
       <c r="F229" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I229" s="0"/>
       <c r="J229" s="1" t="n">
@@ -19975,7 +20036,7 @@
       </c>
       <c r="S229" s="0"/>
       <c r="X229" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y229" s="0"/>
       <c r="AC229" s="0"/>
@@ -19985,10 +20046,10 @@
       </c>
       <c r="AF229" s="0"/>
       <c r="AI229" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK229" s="1" t="n">
         <v>3</v>
@@ -19997,7 +20058,7 @@
         <v>213</v>
       </c>
       <c r="AM229" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AN229" s="1" t="n">
         <v>209</v>
@@ -20018,10 +20079,10 @@
       </c>
       <c r="E230" s="0"/>
       <c r="F230" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>55</v>
@@ -20032,26 +20093,26 @@
       </c>
       <c r="K230" s="0"/>
       <c r="M230" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R230" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y230" s="0"/>
       <c r="AC230" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD230" s="0"/>
       <c r="AE230" s="1" t="s">
@@ -20059,10 +20120,10 @@
       </c>
       <c r="AF230" s="0"/>
       <c r="AI230" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ230" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK230" s="1" t="n">
         <v>4</v>
@@ -20090,10 +20151,10 @@
       </c>
       <c r="E231" s="0"/>
       <c r="F231" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>55</v>
@@ -20104,26 +20165,26 @@
       </c>
       <c r="K231" s="0"/>
       <c r="M231" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X231" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y231" s="0"/>
       <c r="AC231" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD231" s="0"/>
       <c r="AE231" s="1" t="s">
@@ -20131,10 +20192,10 @@
       </c>
       <c r="AF231" s="0"/>
       <c r="AI231" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ231" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK231" s="1" t="n">
         <v>4</v>
@@ -20162,13 +20223,13 @@
       </c>
       <c r="E232" s="0"/>
       <c r="F232" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I232" s="0"/>
       <c r="J232" s="1" t="n">
@@ -20179,16 +20240,16 @@
         <v>435</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R232" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y232" s="0"/>
       <c r="AD232" s="0"/>
@@ -20197,10 +20258,10 @@
       </c>
       <c r="AF232" s="0"/>
       <c r="AI232" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ232" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK232" s="1" t="n">
         <v>3</v>
@@ -20227,46 +20288,46 @@
         <v>42</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="I233" s="0"/>
       <c r="J233" s="0"/>
       <c r="K233" s="0"/>
       <c r="M233" s="0"/>
       <c r="N233" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R233" s="0"/>
       <c r="S233" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X233" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y233" s="0"/>
       <c r="AD233" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE233" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF233" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI233" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ233" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK233" s="1" t="n">
         <v>2</v>
@@ -20290,19 +20351,19 @@
         <v>41</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I234" s="0"/>
       <c r="J234" s="1" t="n">
@@ -20316,14 +20377,14 @@
       </c>
       <c r="S234" s="0"/>
       <c r="X234" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Y234" s="0"/>
       <c r="AD234" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE234" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF234" s="2" t="n">
         <v>0.03</v>
@@ -20353,19 +20414,19 @@
         <v>41</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="I235" s="0"/>
       <c r="J235" s="1" t="n">
@@ -20378,27 +20439,27 @@
         <v>435</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X235" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Y235" s="0"/>
       <c r="AD235" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE235" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF235" s="0"/>
       <c r="AI235" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK235" s="1" t="n">
         <v>3</v>
@@ -20426,10 +20487,10 @@
       </c>
       <c r="E236" s="0"/>
       <c r="F236" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>42</v>
@@ -20469,14 +20530,14 @@
         <v>41</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E237" s="0"/>
       <c r="F237" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>49</v>
@@ -20503,7 +20564,7 @@
         <v>220</v>
       </c>
       <c r="AM237" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AN237" s="1" t="n">
         <v>400</v>
@@ -20520,19 +20581,19 @@
         <v>41</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I238" s="0"/>
       <c r="J238" s="1" t="n">
@@ -20540,17 +20601,17 @@
       </c>
       <c r="M238" s="0"/>
       <c r="N238" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="R238" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="X238" s="0"/>
       <c r="Y238" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AD238" s="1" t="s">
         <v>50</v>
@@ -20583,19 +20644,19 @@
         <v>41</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I239" s="0"/>
       <c r="J239" s="1" t="n">
@@ -20603,17 +20664,17 @@
       </c>
       <c r="M239" s="0"/>
       <c r="N239" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="X239" s="0"/>
       <c r="Y239" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD239" s="1" t="s">
         <v>50</v>
@@ -20646,19 +20707,19 @@
         <v>41</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I240" s="0"/>
       <c r="J240" s="1" t="n">
@@ -20666,17 +20727,17 @@
       </c>
       <c r="M240" s="0"/>
       <c r="N240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="R240" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="X240" s="0"/>
       <c r="Y240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AD240" s="1" t="s">
         <v>50</v>
@@ -20709,19 +20770,19 @@
         <v>41</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I241" s="0"/>
       <c r="J241" s="1" t="n">
@@ -20729,17 +20790,17 @@
       </c>
       <c r="M241" s="0"/>
       <c r="N241" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="R241" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="X241" s="0"/>
       <c r="Y241" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AD241" s="1" t="s">
         <v>50</v>
@@ -20772,34 +20833,34 @@
         <v>41</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M242" s="0"/>
       <c r="N242" s="0"/>
       <c r="S242" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X242" s="0"/>
       <c r="AL242" s="1" t="n">
         <v>218</v>
       </c>
       <c r="AM242" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20813,34 +20874,34 @@
         <v>41</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M243" s="0"/>
       <c r="N243" s="0"/>
       <c r="S243" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X243" s="0"/>
       <c r="AL243" s="1" t="n">
         <v>219</v>
       </c>
       <c r="AM243" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20854,31 +20915,31 @@
         <v>41</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N244" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X244" s="0"/>
       <c r="AL244" s="1" t="n">
@@ -20899,31 +20960,31 @@
         <v>41</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N245" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="S245" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X245" s="0"/>
       <c r="AL245" s="1" t="n">
@@ -20944,31 +21005,31 @@
         <v>41</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N246" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="S246" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X246" s="0"/>
       <c r="AL246" s="1" t="n">
@@ -20989,31 +21050,31 @@
         <v>41</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="S247" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X247" s="0"/>
       <c r="AL247" s="1" t="n">
@@ -21034,36 +21095,36 @@
         <v>41</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M248" s="0"/>
       <c r="N248" s="0"/>
       <c r="S248" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X248" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AL248" s="1" t="n">
         <v>223</v>
       </c>
       <c r="AM248" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21077,30 +21138,30 @@
         <v>41</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M249" s="0"/>
       <c r="N249" s="0"/>
       <c r="S249" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="X249" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AL249" s="1" t="n">
         <v>224</v>
@@ -21120,29 +21181,29 @@
         <v>41</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M250" s="0"/>
       <c r="N250" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="S250" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AL250" s="1" t="n">
         <v>225</v>
@@ -21160,29 +21221,29 @@
         <v>41</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M251" s="0"/>
       <c r="N251" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S251" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AL251" s="1" t="n">
         <v>226</v>
@@ -21200,31 +21261,31 @@
         <v>41</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N252" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S252" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL252" s="1" t="n">
         <v>228</v>
@@ -21244,31 +21305,31 @@
         <v>41</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N253" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S253" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL253" s="1" t="n">
         <v>229</v>
@@ -21288,31 +21349,31 @@
         <v>41</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N254" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL254" s="1" t="n">
         <v>230</v>
@@ -21332,31 +21393,31 @@
         <v>41</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N255" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL255" s="1" t="n">
         <v>231</v>
@@ -21374,37 +21435,37 @@
         <v>41</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N256" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL256" s="1" t="n">
         <v>232</v>
       </c>
       <c r="AM256" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21418,37 +21479,37 @@
         <v>41</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N257" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL257" s="1" t="n">
         <v>233</v>
       </c>
       <c r="AM257" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21462,31 +21523,31 @@
         <v>41</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N258" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL258" s="1" t="n">
         <v>234</v>
@@ -21503,32 +21564,32 @@
         <v>41</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="S259" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AL259" s="1" t="n">
         <v>521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN1"/>
+  <autoFilter ref="A1:AN259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$259</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="831">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1595,6 +1596,9 @@
     <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000000439=54491472</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 0.5L</t>
   </si>
   <si>
@@ -1602,6 +1606,9 @@
   </si>
   <si>
     <t xml:space="preserve">SKU Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491472=5449000000439</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 3d</t>
@@ -1646,6 +1653,9 @@
     <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Швеппс Биттер Лемон - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000064110=5449000044839</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display 3d: Lead SKU Schweppes - Bitter Lemon - 1L</t>
   </si>
   <si>
@@ -1653,6 +1663,9 @@
   </si>
   <si>
     <t xml:space="preserve">Schweppes - Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000044839=5449000064110</t>
   </si>
   <si>
     <t xml:space="preserve">Mixability Display</t>
@@ -1708,6 +1721,9 @@
     <t xml:space="preserve">Миксабилити дисплей: Основной СКЮ Кока-Кола - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000000996=5449000064110=4607042439155</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 29</t>
   </si>
   <si>
@@ -1717,6 +1733,9 @@
     <t xml:space="preserve">Миксабилити дисплей: Основной СКЮ Швеппс Биттер Лемон - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000064110=5449000000996=4607042439155</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 30</t>
   </si>
   <si>
@@ -1724,6 +1743,9 @@
   </si>
   <si>
     <t xml:space="preserve">Миксабилити дисплей: Основной СКЮ Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042439155=5449000064110=5449000000996</t>
   </si>
   <si>
     <t xml:space="preserve">JNSD Displays</t>
@@ -1783,6 +1805,9 @@
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042434877=4607042434891</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -1790,6 +1815,9 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434891=4607042434877</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
@@ -1898,13 +1926,16 @@
     <t xml:space="preserve">Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000235947</t>
+    <t xml:space="preserve">5449000189301, 5449000235947=4607042430879, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Lead Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042430879, 5449000027450=5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Displays</t>
@@ -1960,6 +1991,9 @@
     <t xml:space="preserve">Энергетики Дисплей: Берн Яблоко-Киви - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000131768=5060335632906=5449000131768=5060335632906</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
   </si>
   <si>
@@ -1967,6 +2001,9 @@
   </si>
   <si>
     <t xml:space="preserve">Энергетики Дисплей: Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060335632906=5449000131768=5060335632906=5449000131768</t>
   </si>
   <si>
     <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
@@ -2238,6 +2275,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Shelf</t>
@@ -2928,58 +2968,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN259"/>
+  <dimension ref="A1:AN261"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N143" activeCellId="0" sqref="N143"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="N260" activeCellId="0" sqref="N260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.0890688259109"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.8380566801619"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="96.085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="139.04048582996"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="169.032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="96.9433198380567"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="140.218623481781"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="170.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
@@ -3106,7 +3146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3203,7 @@
       </c>
       <c r="AN2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -3228,7 +3268,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -3307,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -3386,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -3465,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -3544,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -3623,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -3702,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -3781,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -3860,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -3939,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -4018,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -4097,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -4176,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -4255,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -4334,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -4413,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -4492,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -4571,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -4650,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -4729,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -4808,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -4966,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -5045,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -5124,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -5203,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -5282,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -5361,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -5440,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -5519,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -5598,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -5677,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -5756,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -5835,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -5914,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -5993,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -6072,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -6151,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -6230,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -6309,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -6388,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -6467,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>47</v>
       </c>
@@ -6532,7 +6572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>48</v>
       </c>
@@ -6611,7 +6651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>49</v>
       </c>
@@ -6690,7 +6730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>50</v>
       </c>
@@ -6769,7 +6809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>51</v>
       </c>
@@ -6848,7 +6888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>52</v>
       </c>
@@ -6927,7 +6967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>53</v>
       </c>
@@ -7006,7 +7046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>54</v>
       </c>
@@ -7085,7 +7125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>55</v>
       </c>
@@ -7164,7 +7204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>56</v>
       </c>
@@ -7243,7 +7283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>57</v>
       </c>
@@ -7308,7 +7348,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>58</v>
       </c>
@@ -7387,7 +7427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>59</v>
       </c>
@@ -7466,7 +7506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>60</v>
       </c>
@@ -7545,7 +7585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>61</v>
       </c>
@@ -7624,7 +7664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>62</v>
       </c>
@@ -7703,7 +7743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>63</v>
       </c>
@@ -7782,7 +7822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>64</v>
       </c>
@@ -7861,7 +7901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>65</v>
       </c>
@@ -7926,7 +7966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>66</v>
       </c>
@@ -8005,7 +8045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>67</v>
       </c>
@@ -8084,7 +8124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>68</v>
       </c>
@@ -8163,7 +8203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>69</v>
       </c>
@@ -8242,7 +8282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>70</v>
       </c>
@@ -8321,7 +8361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>71</v>
       </c>
@@ -8400,7 +8440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>72</v>
       </c>
@@ -8479,7 +8519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>73</v>
       </c>
@@ -8558,7 +8598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>74</v>
       </c>
@@ -8637,7 +8677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>75</v>
       </c>
@@ -8716,7 +8756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>76</v>
       </c>
@@ -8781,7 +8821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>77</v>
       </c>
@@ -8860,7 +8900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>78</v>
       </c>
@@ -8939,7 +8979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>79</v>
       </c>
@@ -9018,7 +9058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>80</v>
       </c>
@@ -9097,7 +9137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>81</v>
       </c>
@@ -9176,7 +9216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>82</v>
       </c>
@@ -9255,7 +9295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>83</v>
       </c>
@@ -9334,7 +9374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>84</v>
       </c>
@@ -9413,7 +9453,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>85</v>
       </c>
@@ -9492,7 +9532,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>86</v>
       </c>
@@ -9571,7 +9611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>87</v>
       </c>
@@ -9650,7 +9690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>88</v>
       </c>
@@ -9729,7 +9769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>89</v>
       </c>
@@ -9808,7 +9848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>90</v>
       </c>
@@ -9887,7 +9927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>91</v>
       </c>
@@ -9966,7 +10006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>92</v>
       </c>
@@ -10045,7 +10085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>93</v>
       </c>
@@ -10124,7 +10164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>94</v>
       </c>
@@ -10203,7 +10243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>95</v>
       </c>
@@ -10282,7 +10322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>96</v>
       </c>
@@ -10361,7 +10401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>97</v>
       </c>
@@ -10440,7 +10480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>98</v>
       </c>
@@ -10519,7 +10559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>99</v>
       </c>
@@ -10598,7 +10638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>100</v>
       </c>
@@ -10677,7 +10717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>101</v>
       </c>
@@ -10756,7 +10796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>102</v>
       </c>
@@ -10835,7 +10875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>103</v>
       </c>
@@ -10914,7 +10954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>104</v>
       </c>
@@ -10993,7 +11033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>105</v>
       </c>
@@ -11072,7 +11112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>106</v>
       </c>
@@ -11151,7 +11191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>107</v>
       </c>
@@ -11230,7 +11270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>108</v>
       </c>
@@ -11309,7 +11349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>109</v>
       </c>
@@ -11388,7 +11428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>110</v>
       </c>
@@ -11467,7 +11507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>111</v>
       </c>
@@ -11546,7 +11586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>112</v>
       </c>
@@ -11625,7 +11665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>113</v>
       </c>
@@ -11704,7 +11744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>114</v>
       </c>
@@ -11783,7 +11823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>115</v>
       </c>
@@ -11862,7 +11902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>116</v>
       </c>
@@ -11941,7 +11981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>117</v>
       </c>
@@ -12020,7 +12060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>118</v>
       </c>
@@ -12099,7 +12139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>119</v>
       </c>
@@ -12178,7 +12218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>120</v>
       </c>
@@ -12257,7 +12297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>121</v>
       </c>
@@ -12336,7 +12376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>122</v>
       </c>
@@ -12415,7 +12455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>123</v>
       </c>
@@ -12494,7 +12534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>124</v>
       </c>
@@ -12573,7 +12613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>125</v>
       </c>
@@ -12652,7 +12692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>126</v>
       </c>
@@ -12731,7 +12771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>127</v>
       </c>
@@ -12810,7 +12850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>128</v>
       </c>
@@ -12889,7 +12929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>129</v>
       </c>
@@ -12968,7 +13008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>130</v>
       </c>
@@ -13047,7 +13087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>131</v>
       </c>
@@ -13126,7 +13166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>132</v>
       </c>
@@ -13205,7 +13245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>135</v>
       </c>
@@ -13260,7 +13300,7 @@
       </c>
       <c r="AN131" s="0"/>
     </row>
-    <row r="132" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>136</v>
       </c>
@@ -13317,7 +13357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>137</v>
       </c>
@@ -13388,7 +13428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>138</v>
       </c>
@@ -13463,7 +13503,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>139</v>
       </c>
@@ -13605,7 +13645,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>142</v>
       </c>
@@ -13678,7 +13718,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>143</v>
       </c>
@@ -13751,7 +13791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>145</v>
       </c>
@@ -13824,7 +13864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>151</v>
       </c>
@@ -13895,7 +13935,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>152</v>
       </c>
@@ -13970,7 +14010,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>153</v>
       </c>
@@ -14041,7 +14081,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>154</v>
       </c>
@@ -14140,8 +14180,8 @@
       <c r="M144" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N144" s="1" t="n">
-        <v>5449000000439</v>
+      <c r="N144" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>436</v>
@@ -14196,10 +14236,10 @@
         <v>427</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>445</v>
@@ -14209,10 +14249,10 @@
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
       <c r="M145" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="N145" s="1" t="n">
-        <v>54491472</v>
+        <v>477</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>436</v>
@@ -14250,7 +14290,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>158</v>
       </c>
@@ -14267,10 +14307,10 @@
         <v>427</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>430</v>
@@ -14315,13 +14355,13 @@
         <v>162</v>
       </c>
       <c r="AM146" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN146" s="1" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>159</v>
       </c>
@@ -14338,10 +14378,10 @@
         <v>427</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>55</v>
@@ -14396,7 +14436,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>160</v>
       </c>
@@ -14413,10 +14453,10 @@
         <v>427</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>440</v>
@@ -14439,7 +14479,7 @@
         <v>441</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="X148" s="0"/>
       <c r="Y148" s="0"/>
@@ -14467,7 +14507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>161</v>
       </c>
@@ -14484,10 +14524,10 @@
         <v>427</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>470</v>
@@ -14530,7 +14570,7 @@
         <v>165</v>
       </c>
       <c r="AM149" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN149" s="1" t="n">
         <v>162</v>
@@ -14553,10 +14593,10 @@
         <v>427</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>445</v>
@@ -14568,8 +14608,8 @@
       <c r="M150" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N150" s="1" t="n">
-        <v>5449000064110</v>
+      <c r="N150" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>436</v>
@@ -14624,10 +14664,10 @@
         <v>427</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>445</v>
@@ -14637,10 +14677,10 @@
       <c r="K151" s="0"/>
       <c r="L151" s="0"/>
       <c r="M151" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="N151" s="1" t="n">
-        <v>5449000044839</v>
+        <v>495</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>436</v>
@@ -14678,7 +14718,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>165</v>
       </c>
@@ -14695,10 +14735,10 @@
         <v>427</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>430</v>
@@ -14720,7 +14760,7 @@
       <c r="S152" s="0"/>
       <c r="V152" s="0"/>
       <c r="X152" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y152" s="0"/>
       <c r="AA152" s="0"/>
@@ -14743,13 +14783,13 @@
         <v>625</v>
       </c>
       <c r="AM152" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AN152" s="1" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>166</v>
       </c>
@@ -14766,10 +14806,10 @@
         <v>427</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>55</v>
@@ -14784,10 +14824,10 @@
         <v>435</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P153" s="0"/>
       <c r="Q153" s="0"/>
@@ -14799,7 +14839,7 @@
       </c>
       <c r="V153" s="0"/>
       <c r="X153" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y153" s="0"/>
       <c r="AA153" s="0"/>
@@ -14824,7 +14864,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>167</v>
       </c>
@@ -14841,10 +14881,10 @@
         <v>427</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>440</v>
@@ -14867,10 +14907,10 @@
         <v>441</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y154" s="0"/>
       <c r="AA154" s="0"/>
@@ -14895,7 +14935,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>168</v>
       </c>
@@ -14912,10 +14952,10 @@
         <v>427</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>470</v>
@@ -14937,7 +14977,7 @@
       <c r="S155" s="0"/>
       <c r="V155" s="0"/>
       <c r="X155" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y155" s="0"/>
       <c r="AA155" s="0"/>
@@ -14958,7 +14998,7 @@
         <v>628</v>
       </c>
       <c r="AM155" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AN155" s="1" t="n">
         <v>625</v>
@@ -14978,13 +15018,13 @@
         <v>42</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>445</v>
@@ -14996,8 +15036,8 @@
       <c r="M156" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N156" s="1" t="n">
-        <v>5449000000996</v>
+      <c r="N156" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="O156" s="0"/>
       <c r="P156" s="0"/>
@@ -15008,7 +15048,7 @@
       <c r="S156" s="0"/>
       <c r="V156" s="0"/>
       <c r="X156" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y156" s="0"/>
       <c r="AA156" s="0"/>
@@ -15047,13 +15087,13 @@
         <v>42</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>445</v>
@@ -15065,8 +15105,8 @@
       <c r="M157" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N157" s="1" t="n">
-        <v>5449000064110</v>
+      <c r="N157" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="O157" s="0"/>
       <c r="P157" s="0"/>
@@ -15077,7 +15117,7 @@
       <c r="S157" s="0"/>
       <c r="V157" s="0"/>
       <c r="X157" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y157" s="0"/>
       <c r="AA157" s="0"/>
@@ -15116,13 +15156,13 @@
         <v>42</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>445</v>
@@ -15134,8 +15174,8 @@
       <c r="M158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N158" s="1" t="n">
-        <v>4607042439155</v>
+      <c r="N158" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="O158" s="0"/>
       <c r="P158" s="0"/>
@@ -15146,7 +15186,7 @@
       <c r="S158" s="0"/>
       <c r="V158" s="0"/>
       <c r="X158" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Y158" s="0"/>
       <c r="AA158" s="0"/>
@@ -15171,7 +15211,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>172</v>
       </c>
@@ -15186,10 +15226,10 @@
       </c>
       <c r="E159" s="0"/>
       <c r="F159" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>42</v>
@@ -15222,13 +15262,13 @@
         <v>303</v>
       </c>
       <c r="AM159" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AN159" s="1" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>173</v>
       </c>
@@ -15245,10 +15285,10 @@
         <v>427</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>430</v>
@@ -15293,13 +15333,13 @@
         <v>140</v>
       </c>
       <c r="AM160" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AN160" s="1" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>174</v>
       </c>
@@ -15316,10 +15356,10 @@
         <v>427</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>55</v>
@@ -15334,10 +15374,10 @@
         <v>435</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="P161" s="0"/>
       <c r="Q161" s="0"/>
@@ -15374,7 +15414,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>175</v>
       </c>
@@ -15391,10 +15431,10 @@
         <v>427</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>440</v>
@@ -15417,7 +15457,7 @@
         <v>441</v>
       </c>
       <c r="V162" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="X162" s="0"/>
       <c r="Y162" s="0"/>
@@ -15445,7 +15485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>176</v>
       </c>
@@ -15462,10 +15502,10 @@
         <v>427</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>470</v>
@@ -15508,7 +15548,7 @@
         <v>143</v>
       </c>
       <c r="AM163" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AN163" s="1" t="n">
         <v>140</v>
@@ -15531,10 +15571,10 @@
         <v>427</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>445</v>
@@ -15546,8 +15586,8 @@
       <c r="M164" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N164" s="1" t="n">
-        <v>4607042434877</v>
+      <c r="N164" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="O164" s="0"/>
       <c r="P164" s="0"/>
@@ -15573,7 +15613,7 @@
       </c>
       <c r="AF164" s="0"/>
       <c r="AI164" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="AJ164" s="0"/>
       <c r="AK164" s="1" t="n">
@@ -15604,10 +15644,10 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>445</v>
@@ -15619,8 +15659,8 @@
       <c r="M165" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N165" s="1" t="n">
-        <v>4607042434891</v>
+      <c r="N165" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="O165" s="0"/>
       <c r="P165" s="0"/>
@@ -15646,7 +15686,7 @@
       </c>
       <c r="AF165" s="0"/>
       <c r="AI165" s="1" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="AJ165" s="0"/>
       <c r="AK165" s="1" t="n">
@@ -15660,7 +15700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>179</v>
       </c>
@@ -15677,10 +15717,10 @@
         <v>453</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>430</v>
@@ -15717,10 +15757,10 @@
         <v>0.01</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AK166" s="1" t="n">
         <v>2</v>
@@ -15729,13 +15769,13 @@
         <v>146</v>
       </c>
       <c r="AM166" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="AN166" s="1" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>180</v>
       </c>
@@ -15752,10 +15792,10 @@
         <v>453</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>55</v>
@@ -15808,7 +15848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>181</v>
       </c>
@@ -15825,10 +15865,10 @@
         <v>453</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>55</v>
@@ -15881,7 +15921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>182</v>
       </c>
@@ -15898,10 +15938,10 @@
         <v>453</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>55</v>
@@ -15954,7 +15994,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>183</v>
       </c>
@@ -15971,10 +16011,10 @@
         <v>453</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>55</v>
@@ -16027,7 +16067,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>184</v>
       </c>
@@ -16042,10 +16082,10 @@
       </c>
       <c r="E171" s="0"/>
       <c r="F171" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>42</v>
@@ -16085,7 +16125,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>185</v>
       </c>
@@ -16102,10 +16142,10 @@
         <v>427</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>430</v>
@@ -16127,7 +16167,7 @@
       <c r="S172" s="0"/>
       <c r="V172" s="0"/>
       <c r="X172" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y172" s="0"/>
       <c r="AC172" s="0"/>
@@ -16149,13 +16189,13 @@
         <v>155</v>
       </c>
       <c r="AM172" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AN172" s="1" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>186</v>
       </c>
@@ -16172,10 +16212,10 @@
         <v>427</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>55</v>
@@ -16190,24 +16230,24 @@
         <v>435</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q173" s="0"/>
       <c r="R173" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="V173" s="0"/>
       <c r="X173" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y173" s="0"/>
       <c r="AC173" s="0"/>
@@ -16231,7 +16271,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>187</v>
       </c>
@@ -16248,10 +16288,10 @@
         <v>427</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>440</v>
@@ -16273,10 +16313,10 @@
         <v>441</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y174" s="0"/>
       <c r="AC174" s="0"/>
@@ -16300,7 +16340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>188</v>
       </c>
@@ -16317,10 +16357,10 @@
         <v>427</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>470</v>
@@ -16341,7 +16381,7 @@
       <c r="S175" s="0"/>
       <c r="V175" s="0"/>
       <c r="X175" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y175" s="0"/>
       <c r="AC175" s="0"/>
@@ -16361,7 +16401,7 @@
         <v>158</v>
       </c>
       <c r="AM175" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="AN175" s="1" t="n">
         <v>155</v>
@@ -16384,10 +16424,10 @@
         <v>427</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>445</v>
@@ -16397,10 +16437,10 @@
       <c r="K176" s="0"/>
       <c r="L176" s="0"/>
       <c r="M176" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="O176" s="0"/>
       <c r="Q176" s="0"/>
@@ -16412,7 +16452,7 @@
       </c>
       <c r="V176" s="0"/>
       <c r="X176" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y176" s="0"/>
       <c r="AC176" s="0"/>
@@ -16453,10 +16493,10 @@
         <v>427</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>445</v>
@@ -16469,7 +16509,7 @@
         <v>230</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="O177" s="0"/>
       <c r="Q177" s="0"/>
@@ -16481,7 +16521,7 @@
       </c>
       <c r="V177" s="0"/>
       <c r="X177" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Y177" s="0"/>
       <c r="AC177" s="0"/>
@@ -16505,7 +16545,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>198</v>
       </c>
@@ -16522,10 +16562,10 @@
         <v>427</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>42</v>
@@ -16562,7 +16602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>199</v>
       </c>
@@ -16579,10 +16619,10 @@
         <v>427</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>430</v>
@@ -16603,7 +16643,7 @@
       <c r="S179" s="0"/>
       <c r="V179" s="0"/>
       <c r="X179" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y179" s="0"/>
       <c r="AC179" s="0"/>
@@ -16625,13 +16665,13 @@
         <v>171</v>
       </c>
       <c r="AM179" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="AN179" s="1" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>200</v>
       </c>
@@ -16648,10 +16688,10 @@
         <v>427</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>55</v>
@@ -16666,10 +16706,10 @@
         <v>435</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q180" s="0"/>
       <c r="R180" s="1" t="s">
@@ -16680,7 +16720,7 @@
       </c>
       <c r="V180" s="0"/>
       <c r="X180" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y180" s="0"/>
       <c r="AC180" s="0"/>
@@ -16704,7 +16744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>201</v>
       </c>
@@ -16721,10 +16761,10 @@
         <v>427</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>440</v>
@@ -16746,10 +16786,10 @@
         <v>441</v>
       </c>
       <c r="V181" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="X181" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="X181" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="Y181" s="0"/>
       <c r="AC181" s="0"/>
@@ -16773,7 +16813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>202</v>
       </c>
@@ -16790,10 +16830,10 @@
         <v>427</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>470</v>
@@ -16814,7 +16854,7 @@
       <c r="S182" s="0"/>
       <c r="V182" s="0"/>
       <c r="X182" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y182" s="0"/>
       <c r="AC182" s="0"/>
@@ -16834,7 +16874,7 @@
         <v>174</v>
       </c>
       <c r="AM182" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="AN182" s="1" t="n">
         <v>171</v>
@@ -16857,10 +16897,10 @@
         <v>427</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>445</v>
@@ -16872,8 +16912,8 @@
       <c r="M183" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N183" s="1" t="n">
-        <v>5449000131768</v>
+      <c r="N183" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="O183" s="0"/>
       <c r="Q183" s="0"/>
@@ -16885,7 +16925,7 @@
       </c>
       <c r="V183" s="0"/>
       <c r="X183" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y183" s="0"/>
       <c r="AC183" s="0"/>
@@ -16897,7 +16937,7 @@
       </c>
       <c r="AF183" s="0"/>
       <c r="AI183" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AJ183" s="0"/>
       <c r="AK183" s="1" t="n">
@@ -16928,10 +16968,10 @@
         <v>427</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>445</v>
@@ -16943,8 +16983,8 @@
       <c r="M184" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N184" s="1" t="n">
-        <v>5060335632906</v>
+      <c r="N184" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="O184" s="0"/>
       <c r="Q184" s="0"/>
@@ -16956,7 +16996,7 @@
       </c>
       <c r="V184" s="0"/>
       <c r="X184" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y184" s="0"/>
       <c r="AC184" s="0"/>
@@ -16968,7 +17008,7 @@
       </c>
       <c r="AF184" s="0"/>
       <c r="AI184" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AJ184" s="0"/>
       <c r="AK184" s="1" t="n">
@@ -16999,10 +17039,10 @@
         <v>427</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>445</v>
@@ -17014,8 +17054,8 @@
       <c r="M185" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N185" s="1" t="n">
-        <v>5449000131768</v>
+      <c r="N185" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="O185" s="0"/>
       <c r="Q185" s="0"/>
@@ -17027,7 +17067,7 @@
       </c>
       <c r="V185" s="0"/>
       <c r="X185" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y185" s="0"/>
       <c r="AC185" s="0"/>
@@ -17039,7 +17079,7 @@
       </c>
       <c r="AF185" s="0"/>
       <c r="AI185" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AJ185" s="0"/>
       <c r="AK185" s="1" t="n">
@@ -17070,10 +17110,10 @@
         <v>427</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>445</v>
@@ -17085,8 +17125,8 @@
       <c r="M186" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N186" s="1" t="n">
-        <v>5060335632906</v>
+      <c r="N186" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="O186" s="0"/>
       <c r="Q186" s="0"/>
@@ -17098,7 +17138,7 @@
       </c>
       <c r="V186" s="0"/>
       <c r="X186" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Y186" s="0"/>
       <c r="AC186" s="0"/>
@@ -17110,7 +17150,7 @@
       </c>
       <c r="AF186" s="0"/>
       <c r="AI186" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AJ186" s="0"/>
       <c r="AK186" s="1" t="n">
@@ -17124,7 +17164,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>207</v>
       </c>
@@ -17139,10 +17179,10 @@
       </c>
       <c r="E187" s="0"/>
       <c r="F187" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>42</v>
@@ -17173,11 +17213,11 @@
         <v>520</v>
       </c>
       <c r="AM187" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AN187" s="0"/>
     </row>
-    <row r="188" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>208</v>
       </c>
@@ -17192,10 +17232,10 @@
       </c>
       <c r="E188" s="0"/>
       <c r="F188" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>42</v>
@@ -17226,13 +17266,13 @@
         <v>501</v>
       </c>
       <c r="AM188" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AN188" s="1" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>209</v>
       </c>
@@ -17246,16 +17286,16 @@
         <v>448</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I189" s="0"/>
       <c r="J189" s="1" t="n">
@@ -17279,7 +17319,7 @@
       </c>
       <c r="V189" s="0"/>
       <c r="X189" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y189" s="0"/>
       <c r="AC189" s="0"/>
@@ -17287,7 +17327,7 @@
         <v>50</v>
       </c>
       <c r="AE189" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF189" s="2" t="n">
         <v>0.0725</v>
@@ -17305,7 +17345,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>210</v>
       </c>
@@ -17322,13 +17362,13 @@
         <v>453</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I190" s="0"/>
       <c r="J190" s="1" t="n">
@@ -17346,11 +17386,11 @@
       <c r="S190" s="0"/>
       <c r="V190" s="0"/>
       <c r="X190" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y190" s="0"/>
       <c r="AC190" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD190" s="1" t="s">
         <v>50</v>
@@ -17370,13 +17410,13 @@
         <v>180</v>
       </c>
       <c r="AM190" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN190" s="1" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>211</v>
       </c>
@@ -17393,10 +17433,10 @@
         <v>453</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>55</v>
@@ -17423,11 +17463,11 @@
       </c>
       <c r="V191" s="0"/>
       <c r="X191" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y191" s="0"/>
       <c r="AC191" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD191" s="1" t="s">
         <v>50</v>
@@ -17449,7 +17489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>212</v>
       </c>
@@ -17466,10 +17506,10 @@
         <v>453</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>55</v>
@@ -17496,11 +17536,11 @@
       </c>
       <c r="V192" s="0"/>
       <c r="X192" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y192" s="0"/>
       <c r="AC192" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD192" s="1" t="s">
         <v>50</v>
@@ -17522,7 +17562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>213</v>
       </c>
@@ -17539,10 +17579,10 @@
         <v>453</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>55</v>
@@ -17569,11 +17609,11 @@
       </c>
       <c r="V193" s="0"/>
       <c r="X193" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y193" s="0"/>
       <c r="AC193" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD193" s="1" t="s">
         <v>50</v>
@@ -17595,7 +17635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>214</v>
       </c>
@@ -17612,10 +17652,10 @@
         <v>453</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>55</v>
@@ -17642,11 +17682,11 @@
       </c>
       <c r="V194" s="0"/>
       <c r="X194" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y194" s="0"/>
       <c r="AC194" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD194" s="1" t="s">
         <v>50</v>
@@ -17668,7 +17708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>215</v>
       </c>
@@ -17685,10 +17725,10 @@
         <v>453</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>55</v>
@@ -17715,11 +17755,11 @@
       </c>
       <c r="V195" s="0"/>
       <c r="X195" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y195" s="0"/>
       <c r="AC195" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD195" s="1" t="s">
         <v>50</v>
@@ -17741,7 +17781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>216</v>
       </c>
@@ -17758,10 +17798,10 @@
         <v>453</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>55</v>
@@ -17773,7 +17813,7 @@
       <c r="K196" s="0"/>
       <c r="L196" s="0"/>
       <c r="M196" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>97</v>
@@ -17788,11 +17828,11 @@
       </c>
       <c r="V196" s="0"/>
       <c r="X196" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y196" s="0"/>
       <c r="AC196" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD196" s="1" t="s">
         <v>50</v>
@@ -17814,7 +17854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>217</v>
       </c>
@@ -17831,10 +17871,10 @@
         <v>453</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>55</v>
@@ -17861,11 +17901,11 @@
       </c>
       <c r="V197" s="0"/>
       <c r="X197" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y197" s="0"/>
       <c r="AC197" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD197" s="1" t="s">
         <v>50</v>
@@ -17887,7 +17927,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>218</v>
       </c>
@@ -17904,10 +17944,10 @@
         <v>453</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>55</v>
@@ -17919,7 +17959,7 @@
       <c r="K198" s="0"/>
       <c r="L198" s="0"/>
       <c r="M198" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="N198" s="1" t="n">
         <v>5449000064110</v>
@@ -17934,11 +17974,11 @@
       </c>
       <c r="V198" s="0"/>
       <c r="X198" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y198" s="0"/>
       <c r="AC198" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD198" s="1" t="s">
         <v>50</v>
@@ -17960,7 +18000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>220</v>
       </c>
@@ -17975,10 +18015,10 @@
       </c>
       <c r="E199" s="0"/>
       <c r="F199" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>42</v>
@@ -18009,13 +18049,13 @@
         <v>502</v>
       </c>
       <c r="AM199" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AN199" s="1" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>221</v>
       </c>
@@ -18029,16 +18069,16 @@
         <v>42</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I200" s="0"/>
       <c r="J200" s="1" t="n">
@@ -18050,10 +18090,10 @@
         <v>435</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Q200" s="0"/>
       <c r="R200" s="0"/>
@@ -18062,7 +18102,7 @@
       </c>
       <c r="V200" s="0"/>
       <c r="X200" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y200" s="0"/>
       <c r="AC200" s="0"/>
@@ -18070,7 +18110,7 @@
         <v>50</v>
       </c>
       <c r="AE200" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF200" s="2" t="n">
         <v>0.0625</v>
@@ -18088,7 +18128,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>222</v>
       </c>
@@ -18105,13 +18145,13 @@
         <v>453</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I201" s="0"/>
       <c r="J201" s="1" t="n">
@@ -18129,11 +18169,11 @@
       <c r="S201" s="0"/>
       <c r="V201" s="0"/>
       <c r="X201" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y201" s="0"/>
       <c r="AC201" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD201" s="1" t="s">
         <v>50</v>
@@ -18153,13 +18193,13 @@
         <v>190</v>
       </c>
       <c r="AM201" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AN201" s="1" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>223</v>
       </c>
@@ -18176,10 +18216,10 @@
         <v>453</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>55</v>
@@ -18206,11 +18246,11 @@
       </c>
       <c r="V202" s="0"/>
       <c r="X202" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y202" s="0"/>
       <c r="AC202" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD202" s="1" t="s">
         <v>50</v>
@@ -18232,7 +18272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>224</v>
       </c>
@@ -18249,10 +18289,10 @@
         <v>453</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>55</v>
@@ -18279,11 +18319,11 @@
       </c>
       <c r="V203" s="0"/>
       <c r="X203" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y203" s="0"/>
       <c r="AC203" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD203" s="1" t="s">
         <v>50</v>
@@ -18305,7 +18345,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>225</v>
       </c>
@@ -18322,10 +18362,10 @@
         <v>453</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>55</v>
@@ -18352,11 +18392,11 @@
       </c>
       <c r="V204" s="0"/>
       <c r="X204" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y204" s="0"/>
       <c r="AC204" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD204" s="1" t="s">
         <v>50</v>
@@ -18378,7 +18418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>226</v>
       </c>
@@ -18395,10 +18435,10 @@
         <v>453</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>55</v>
@@ -18425,11 +18465,11 @@
       </c>
       <c r="V205" s="0"/>
       <c r="X205" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y205" s="0"/>
       <c r="AC205" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD205" s="1" t="s">
         <v>50</v>
@@ -18451,7 +18491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>227</v>
       </c>
@@ -18468,10 +18508,10 @@
         <v>453</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>55</v>
@@ -18498,11 +18538,11 @@
       </c>
       <c r="V206" s="0"/>
       <c r="X206" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y206" s="0"/>
       <c r="AC206" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD206" s="1" t="s">
         <v>50</v>
@@ -18524,7 +18564,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>228</v>
       </c>
@@ -18539,10 +18579,10 @@
       </c>
       <c r="E207" s="0"/>
       <c r="F207" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>42</v>
@@ -18573,13 +18613,13 @@
         <v>503</v>
       </c>
       <c r="AM207" s="7" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AN207" s="1" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>229</v>
       </c>
@@ -18593,16 +18633,16 @@
         <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I208" s="0"/>
       <c r="J208" s="1" t="n">
@@ -18614,10 +18654,10 @@
         <v>435</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="Q208" s="0"/>
       <c r="R208" s="0"/>
@@ -18626,7 +18666,7 @@
       </c>
       <c r="V208" s="0"/>
       <c r="X208" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y208" s="0"/>
       <c r="AC208" s="0"/>
@@ -18634,7 +18674,7 @@
         <v>50</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF208" s="2" t="n">
         <v>0.0225</v>
@@ -18654,7 +18694,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>230</v>
       </c>
@@ -18671,13 +18711,13 @@
         <v>453</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="1" t="n">
@@ -18695,11 +18735,11 @@
       <c r="S209" s="0"/>
       <c r="V209" s="0"/>
       <c r="X209" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y209" s="0"/>
       <c r="AC209" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD209" s="1" t="s">
         <v>50</v>
@@ -18725,7 +18765,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>231</v>
       </c>
@@ -18742,7 +18782,7 @@
         <v>453</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>183</v>
@@ -18772,11 +18812,11 @@
       </c>
       <c r="V210" s="0"/>
       <c r="X210" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y210" s="0"/>
       <c r="AC210" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD210" s="1" t="s">
         <v>50</v>
@@ -18798,7 +18838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>232</v>
       </c>
@@ -18813,10 +18853,10 @@
       </c>
       <c r="E211" s="0"/>
       <c r="F211" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>42</v>
@@ -18853,7 +18893,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>233</v>
       </c>
@@ -18867,16 +18907,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I212" s="0"/>
       <c r="J212" s="1" t="n">
@@ -18888,10 +18928,10 @@
         <v>435</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="Q212" s="0"/>
       <c r="R212" s="0"/>
@@ -18900,7 +18940,7 @@
       </c>
       <c r="V212" s="0"/>
       <c r="X212" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y212" s="0"/>
       <c r="AC212" s="0"/>
@@ -18908,7 +18948,7 @@
         <v>50</v>
       </c>
       <c r="AE212" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF212" s="2" t="n">
         <v>0.0425</v>
@@ -18928,7 +18968,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>234</v>
       </c>
@@ -18945,13 +18985,13 @@
         <v>453</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I213" s="0"/>
       <c r="J213" s="1" t="n">
@@ -18969,11 +19009,11 @@
       <c r="S213" s="0"/>
       <c r="V213" s="0"/>
       <c r="X213" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y213" s="0"/>
       <c r="AC213" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD213" s="1" t="s">
         <v>50</v>
@@ -18993,13 +19033,13 @@
         <v>200</v>
       </c>
       <c r="AM213" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="AN213" s="1" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>235</v>
       </c>
@@ -19016,10 +19056,10 @@
         <v>453</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>55</v>
@@ -19046,11 +19086,11 @@
       </c>
       <c r="V214" s="0"/>
       <c r="X214" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y214" s="0"/>
       <c r="AC214" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD214" s="1" t="s">
         <v>50</v>
@@ -19072,7 +19112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>236</v>
       </c>
@@ -19089,10 +19129,10 @@
         <v>453</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>55</v>
@@ -19104,10 +19144,10 @@
       <c r="K215" s="0"/>
       <c r="L215" s="0"/>
       <c r="M215" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>568</v>
+        <v>685</v>
       </c>
       <c r="O215" s="0"/>
       <c r="Q215" s="0"/>
@@ -19119,11 +19159,11 @@
       </c>
       <c r="V215" s="0"/>
       <c r="X215" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y215" s="0"/>
       <c r="AC215" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD215" s="1" t="s">
         <v>50</v>
@@ -19145,7 +19185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>239</v>
       </c>
@@ -19160,10 +19200,10 @@
       </c>
       <c r="E216" s="0"/>
       <c r="F216" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>42</v>
@@ -19200,7 +19240,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>240</v>
       </c>
@@ -19214,16 +19254,16 @@
         <v>42</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="1" t="n">
@@ -19235,10 +19275,10 @@
         <v>435</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q217" s="0"/>
       <c r="R217" s="0"/>
@@ -19247,7 +19287,7 @@
       </c>
       <c r="V217" s="0"/>
       <c r="X217" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Y217" s="0"/>
       <c r="AC217" s="0"/>
@@ -19255,7 +19295,7 @@
         <v>50</v>
       </c>
       <c r="AE217" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF217" s="2" t="n">
         <v>0.04</v>
@@ -19273,7 +19313,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>241</v>
       </c>
@@ -19288,10 +19328,10 @@
       </c>
       <c r="E218" s="0"/>
       <c r="F218" s="1" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>42</v>
@@ -19321,11 +19361,11 @@
         <v>310</v>
       </c>
       <c r="AM218" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="AN218" s="0"/>
     </row>
-    <row r="219" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>242</v>
       </c>
@@ -19340,10 +19380,10 @@
       </c>
       <c r="E219" s="0"/>
       <c r="F219" s="1" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>42</v>
@@ -19379,7 +19419,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>243</v>
       </c>
@@ -19393,16 +19433,16 @@
         <v>42</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="I220" s="0"/>
       <c r="J220" s="0"/>
@@ -19412,12 +19452,12 @@
       <c r="N220" s="0"/>
       <c r="Q220" s="0"/>
       <c r="R220" s="1" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="S220" s="0"/>
       <c r="V220" s="0"/>
       <c r="X220" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y220" s="0"/>
       <c r="AC220" s="0"/>
@@ -19425,13 +19465,13 @@
         <v>50</v>
       </c>
       <c r="AE220" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF220" s="2" t="n">
         <v>0.065</v>
       </c>
       <c r="AI220" s="1" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="AJ220" s="0"/>
       <c r="AK220" s="1" t="n">
@@ -19441,13 +19481,13 @@
         <v>204</v>
       </c>
       <c r="AM220" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="AN220" s="1" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>244</v>
       </c>
@@ -19461,16 +19501,16 @@
         <v>42</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="1" t="n">
@@ -19484,16 +19524,16 @@
         <v>435</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q221" s="0"/>
       <c r="R221" s="0"/>
       <c r="S221" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="V221" s="0"/>
       <c r="X221" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y221" s="0"/>
       <c r="AC221" s="0"/>
@@ -19517,7 +19557,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>245</v>
       </c>
@@ -19531,16 +19571,16 @@
         <v>42</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="I222" s="0"/>
       <c r="J222" s="1" t="n">
@@ -19552,16 +19592,16 @@
         <v>435</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q222" s="0"/>
       <c r="R222" s="0"/>
       <c r="S222" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="V222" s="0"/>
       <c r="X222" s="1" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="Y222" s="0"/>
       <c r="AC222" s="0"/>
@@ -19585,7 +19625,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>246</v>
       </c>
@@ -19600,10 +19640,10 @@
       </c>
       <c r="E223" s="0"/>
       <c r="F223" s="1" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>42</v>
@@ -19633,13 +19673,13 @@
         <v>312</v>
       </c>
       <c r="AM223" s="7" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="AN223" s="1" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>247</v>
       </c>
@@ -19656,10 +19696,10 @@
         <v>453</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>440</v>
@@ -19675,13 +19715,13 @@
       <c r="Q224" s="0"/>
       <c r="R224" s="0"/>
       <c r="S224" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="V224" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="X224" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y224" s="0"/>
       <c r="AC224" s="0"/>
@@ -19695,10 +19735,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI224" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ224" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK224" s="1" t="n">
         <v>2</v>
@@ -19711,7 +19751,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>248</v>
       </c>
@@ -19728,13 +19768,13 @@
         <v>453</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="I225" s="0"/>
       <c r="J225" s="1" t="n">
@@ -19750,15 +19790,15 @@
         <v>435</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q225" s="0"/>
       <c r="R225" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="S225" s="0"/>
       <c r="X225" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y225" s="0"/>
       <c r="AC225" s="0"/>
@@ -19772,10 +19812,10 @@
         <v>0.01625</v>
       </c>
       <c r="AI225" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ225" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK225" s="1" t="n">
         <v>2</v>
@@ -19788,7 +19828,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>249</v>
       </c>
@@ -19805,10 +19845,10 @@
         <v>453</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>49</v>
@@ -19824,7 +19864,7 @@
       </c>
       <c r="S226" s="0"/>
       <c r="X226" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y226" s="0"/>
       <c r="AC226" s="0"/>
@@ -19832,16 +19872,16 @@
         <v>50</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF226" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI226" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ226" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK226" s="1" t="n">
         <v>2</v>
@@ -19850,13 +19890,13 @@
         <v>209</v>
       </c>
       <c r="AM226" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="AN226" s="1" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>250</v>
       </c>
@@ -19871,13 +19911,13 @@
       </c>
       <c r="E227" s="0"/>
       <c r="F227" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I227" s="0"/>
       <c r="J227" s="1" t="n">
@@ -19885,25 +19925,25 @@
       </c>
       <c r="K227" s="0"/>
       <c r="M227" s="1" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="R227" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="X227" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="AC227" s="0"/>
       <c r="AD227" s="0"/>
@@ -19912,10 +19952,10 @@
       </c>
       <c r="AF227" s="0"/>
       <c r="AI227" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ227" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK227" s="1" t="n">
         <v>3</v>
@@ -19928,7 +19968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>251</v>
       </c>
@@ -19943,13 +19983,13 @@
       </c>
       <c r="E228" s="0"/>
       <c r="F228" s="1" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="I228" s="0"/>
       <c r="J228" s="1" t="n">
@@ -19957,25 +19997,25 @@
       </c>
       <c r="K228" s="0"/>
       <c r="M228" s="1" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="R228" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="X228" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="AC228" s="0"/>
       <c r="AD228" s="0"/>
@@ -19984,10 +20024,10 @@
       </c>
       <c r="AF228" s="0"/>
       <c r="AI228" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ228" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK228" s="1" t="n">
         <v>3</v>
@@ -20000,7 +20040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>252</v>
       </c>
@@ -20015,10 +20055,10 @@
       </c>
       <c r="E229" s="0"/>
       <c r="F229" s="1" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>470</v>
@@ -20036,7 +20076,7 @@
       </c>
       <c r="S229" s="0"/>
       <c r="X229" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y229" s="0"/>
       <c r="AC229" s="0"/>
@@ -20046,10 +20086,10 @@
       </c>
       <c r="AF229" s="0"/>
       <c r="AI229" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK229" s="1" t="n">
         <v>3</v>
@@ -20058,13 +20098,13 @@
         <v>213</v>
       </c>
       <c r="AM229" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="AN229" s="1" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>253</v>
       </c>
@@ -20079,10 +20119,10 @@
       </c>
       <c r="E230" s="0"/>
       <c r="F230" s="1" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>55</v>
@@ -20093,26 +20133,26 @@
       </c>
       <c r="K230" s="0"/>
       <c r="M230" s="1" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="R230" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y230" s="0"/>
       <c r="AC230" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD230" s="0"/>
       <c r="AE230" s="1" t="s">
@@ -20120,10 +20160,10 @@
       </c>
       <c r="AF230" s="0"/>
       <c r="AI230" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ230" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK230" s="1" t="n">
         <v>4</v>
@@ -20136,7 +20176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>254</v>
       </c>
@@ -20151,10 +20191,10 @@
       </c>
       <c r="E231" s="0"/>
       <c r="F231" s="1" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>55</v>
@@ -20165,26 +20205,26 @@
       </c>
       <c r="K231" s="0"/>
       <c r="M231" s="1" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="X231" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y231" s="0"/>
       <c r="AC231" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AD231" s="0"/>
       <c r="AE231" s="1" t="s">
@@ -20192,10 +20232,10 @@
       </c>
       <c r="AF231" s="0"/>
       <c r="AI231" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ231" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK231" s="1" t="n">
         <v>4</v>
@@ -20208,7 +20248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>255</v>
       </c>
@@ -20223,13 +20263,13 @@
       </c>
       <c r="E232" s="0"/>
       <c r="F232" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="I232" s="0"/>
       <c r="J232" s="1" t="n">
@@ -20240,16 +20280,16 @@
         <v>435</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="R232" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y232" s="0"/>
       <c r="AD232" s="0"/>
@@ -20258,10 +20298,10 @@
       </c>
       <c r="AF232" s="0"/>
       <c r="AI232" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ232" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK232" s="1" t="n">
         <v>3</v>
@@ -20274,7 +20314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>256</v>
       </c>
@@ -20291,43 +20331,43 @@
         <v>453</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="I233" s="0"/>
       <c r="J233" s="0"/>
       <c r="K233" s="0"/>
       <c r="M233" s="0"/>
       <c r="N233" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="R233" s="0"/>
       <c r="S233" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="X233" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="Y233" s="0"/>
       <c r="AD233" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE233" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF233" s="2" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI233" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AJ233" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AK233" s="1" t="n">
         <v>2</v>
@@ -20340,7 +20380,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>257</v>
       </c>
@@ -20357,13 +20397,13 @@
         <v>453</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="I234" s="0"/>
       <c r="J234" s="1" t="n">
@@ -20377,14 +20417,14 @@
       </c>
       <c r="S234" s="0"/>
       <c r="X234" s="1" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="Y234" s="0"/>
       <c r="AD234" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE234" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AF234" s="2" t="n">
         <v>0.03</v>
@@ -20403,7 +20443,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>258</v>
       </c>
@@ -20420,13 +20460,13 @@
         <v>453</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="I235" s="0"/>
       <c r="J235" s="1" t="n">
@@ -20439,27 +20479,27 @@
         <v>435</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="X235" s="1" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="Y235" s="0"/>
       <c r="AD235" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AE235" s="1" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="AF235" s="0"/>
       <c r="AI235" s="1" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="AK235" s="1" t="n">
         <v>3</v>
@@ -20472,7 +20512,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>259</v>
       </c>
@@ -20487,10 +20527,10 @@
       </c>
       <c r="E236" s="0"/>
       <c r="F236" s="1" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>42</v>
@@ -20519,7 +20559,7 @@
       </c>
       <c r="AN236" s="0"/>
     </row>
-    <row r="237" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>260</v>
       </c>
@@ -20534,10 +20574,10 @@
       </c>
       <c r="E237" s="0"/>
       <c r="F237" s="1" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>49</v>
@@ -20564,13 +20604,13 @@
         <v>220</v>
       </c>
       <c r="AM237" s="7" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="AN237" s="1" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>261</v>
       </c>
@@ -20584,16 +20624,16 @@
         <v>448</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="I238" s="0"/>
       <c r="J238" s="1" t="n">
@@ -20601,17 +20641,17 @@
       </c>
       <c r="M238" s="0"/>
       <c r="N238" s="1" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="R238" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="X238" s="0"/>
       <c r="Y238" s="1" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="AD238" s="1" t="s">
         <v>50</v>
@@ -20633,7 +20673,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>262</v>
       </c>
@@ -20647,16 +20687,16 @@
         <v>448</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="I239" s="0"/>
       <c r="J239" s="1" t="n">
@@ -20664,17 +20704,17 @@
       </c>
       <c r="M239" s="0"/>
       <c r="N239" s="1" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="X239" s="0"/>
       <c r="Y239" s="1" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="AD239" s="1" t="s">
         <v>50</v>
@@ -20696,7 +20736,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>263</v>
       </c>
@@ -20710,16 +20750,16 @@
         <v>448</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="I240" s="0"/>
       <c r="J240" s="1" t="n">
@@ -20727,17 +20767,17 @@
       </c>
       <c r="M240" s="0"/>
       <c r="N240" s="1" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="R240" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="X240" s="0"/>
       <c r="Y240" s="1" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="AD240" s="1" t="s">
         <v>50</v>
@@ -20759,7 +20799,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>264</v>
       </c>
@@ -20773,16 +20813,16 @@
         <v>448</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="I241" s="0"/>
       <c r="J241" s="1" t="n">
@@ -20790,17 +20830,17 @@
       </c>
       <c r="M241" s="0"/>
       <c r="N241" s="1" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="R241" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="X241" s="0"/>
       <c r="Y241" s="1" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="AD241" s="1" t="s">
         <v>50</v>
@@ -20822,7 +20862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>268</v>
       </c>
@@ -20833,37 +20873,37 @@
         <v>41</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="M242" s="0"/>
       <c r="N242" s="0"/>
       <c r="S242" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X242" s="0"/>
       <c r="AL242" s="1" t="n">
         <v>218</v>
       </c>
       <c r="AM242" s="7" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>269</v>
       </c>
@@ -20874,37 +20914,37 @@
         <v>41</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="M243" s="0"/>
       <c r="N243" s="0"/>
       <c r="S243" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X243" s="0"/>
       <c r="AL243" s="1" t="n">
         <v>219</v>
       </c>
       <c r="AM243" s="7" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>270</v>
       </c>
@@ -20915,31 +20955,31 @@
         <v>41</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="N244" s="10" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X244" s="0"/>
       <c r="AL244" s="1" t="n">
@@ -20949,7 +20989,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>271</v>
       </c>
@@ -20960,31 +21000,31 @@
         <v>41</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="N245" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="S245" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="S245" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="X245" s="0"/>
       <c r="AL245" s="1" t="n">
@@ -20994,7 +21034,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>272</v>
       </c>
@@ -21005,31 +21045,31 @@
         <v>41</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="N246" s="10" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="S246" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X246" s="0"/>
       <c r="AL246" s="1" t="n">
@@ -21039,7 +21079,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>273</v>
       </c>
@@ -21050,31 +21090,31 @@
         <v>41</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="S247" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X247" s="0"/>
       <c r="AL247" s="1" t="n">
@@ -21084,7 +21124,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>274</v>
       </c>
@@ -21095,39 +21135,39 @@
         <v>41</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="M248" s="0"/>
       <c r="N248" s="0"/>
       <c r="S248" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X248" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="AL248" s="1" t="n">
         <v>223</v>
       </c>
       <c r="AM248" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>275</v>
       </c>
@@ -21138,30 +21178,30 @@
         <v>41</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="M249" s="0"/>
       <c r="N249" s="0"/>
       <c r="S249" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="X249" s="1" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="AL249" s="1" t="n">
         <v>224</v>
@@ -21170,7 +21210,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>276</v>
       </c>
@@ -21181,36 +21221,36 @@
         <v>41</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="M250" s="0"/>
       <c r="N250" s="1" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="S250" s="1" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="AL250" s="1" t="n">
         <v>225</v>
       </c>
       <c r="AM250" s="0"/>
     </row>
-    <row r="251" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>277</v>
       </c>
@@ -21221,36 +21261,36 @@
         <v>41</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M251" s="0"/>
       <c r="N251" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S251" s="1" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="AL251" s="1" t="n">
         <v>226</v>
       </c>
       <c r="AM251" s="0"/>
     </row>
-    <row r="252" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>278</v>
       </c>
@@ -21261,31 +21301,31 @@
         <v>41</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N252" s="10" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="S252" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL252" s="1" t="n">
         <v>228</v>
@@ -21294,7 +21334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>279</v>
       </c>
@@ -21305,31 +21345,31 @@
         <v>41</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N253" s="10" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="S253" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL253" s="1" t="n">
         <v>229</v>
@@ -21338,7 +21378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>280</v>
       </c>
@@ -21349,31 +21389,31 @@
         <v>41</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N254" s="10" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL254" s="1" t="n">
         <v>230</v>
@@ -21382,7 +21422,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>281</v>
       </c>
@@ -21393,38 +21433,38 @@
         <v>41</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N255" s="10" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL255" s="1" t="n">
         <v>231</v>
       </c>
       <c r="AM255" s="0"/>
     </row>
-    <row r="256" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>282</v>
       </c>
@@ -21435,40 +21475,40 @@
         <v>41</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N256" s="10" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL256" s="1" t="n">
         <v>232</v>
       </c>
       <c r="AM256" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>283</v>
       </c>
@@ -21479,40 +21519,40 @@
         <v>41</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N257" s="10" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL257" s="1" t="n">
         <v>233</v>
       </c>
       <c r="AM257" s="7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>284</v>
       </c>
@@ -21523,37 +21563,37 @@
         <v>41</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="N258" s="10" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL258" s="1" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>285</v>
       </c>
@@ -21564,29 +21604,36 @@
         <v>41</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="S259" s="1" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="AL259" s="1" t="n">
         <v>521</v>
       </c>
     </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AN259"/>
+  <autoFilter ref="A1:AN259">
+    <filterColumn colId="7">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Lead SKU"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$259</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="834">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2008,9 +2009,6 @@
     <t xml:space="preserve">Энергетики Дисплей: Берн Яблоко-Киви - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000131768=5060517884710=5449000131768=5060335632906</t>
-  </si>
-  <si>
     <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
   </si>
   <si>
@@ -2020,9 +2018,6 @@
     <t xml:space="preserve">Энергетики Дисплей: Монстер Росси - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5060517884710=5449000131768=5449000131768=5060335632906</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
   </si>
   <si>
@@ -2032,16 +2027,10 @@
     <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000131768=5449000131768=5060517884710=5060335632906</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060335632906=5449000131768=5449000131768=5060517884710</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf</t>
@@ -3038,21 +3027,56 @@
   </sheetPr>
   <dimension ref="1:259"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AH6" activeCellId="0" sqref="AH6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="O186" activeCellId="0" sqref="O186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="7" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="39" min="34" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="4" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8259109311741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.4817813765182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="53.5587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="78.1538461538462"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.4696356275304"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.45344129554656"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.6963562753036"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="58.3076923076923"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.4089068825911"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.2955465587045"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.24696356275304"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.0728744939271"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="121.744939271255"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="143.117408906883"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.4817813765182"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.9068825910931"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8461538461538"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.3522267206478"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="22.5182186234818"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.11336032388664"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="4" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="9.62753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -53831,8 +53855,8 @@
       <c r="N183" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O183" s="16" t="s">
-        <v>602</v>
+      <c r="O183" s="16" t="n">
+        <v>5449000131768</v>
       </c>
       <c r="P183" s="0"/>
       <c r="R183" s="0"/>
@@ -53857,7 +53881,7 @@
       <c r="AG183" s="0"/>
       <c r="AI183" s="12"/>
       <c r="AJ183" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AK183" s="0"/>
       <c r="AL183" s="1" t="n">
@@ -53889,10 +53913,10 @@
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>446</v>
@@ -53904,8 +53928,8 @@
       <c r="N184" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O184" s="16" t="s">
-        <v>606</v>
+      <c r="O184" s="16" t="n">
+        <v>5060517884710</v>
       </c>
       <c r="P184" s="0"/>
       <c r="R184" s="0"/>
@@ -53930,7 +53954,7 @@
       <c r="AG184" s="0"/>
       <c r="AI184" s="12"/>
       <c r="AJ184" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AK184" s="0"/>
       <c r="AL184" s="1" t="n">
@@ -53962,10 +53986,10 @@
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>446</v>
@@ -53977,8 +54001,8 @@
       <c r="N185" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O185" s="16" t="s">
-        <v>610</v>
+      <c r="O185" s="16" t="n">
+        <v>5449000131768</v>
       </c>
       <c r="P185" s="0"/>
       <c r="R185" s="0"/>
@@ -54003,7 +54027,7 @@
       <c r="AG185" s="0"/>
       <c r="AI185" s="12"/>
       <c r="AJ185" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AK185" s="0"/>
       <c r="AL185" s="1" t="n">
@@ -54035,10 +54059,10 @@
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>446</v>
@@ -54050,8 +54074,8 @@
       <c r="N186" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O186" s="16" t="s">
-        <v>613</v>
+      <c r="O186" s="16" t="n">
+        <v>5060335632906</v>
       </c>
       <c r="P186" s="0"/>
       <c r="R186" s="0"/>
@@ -54076,7 +54100,7 @@
       <c r="AG186" s="0"/>
       <c r="AI186" s="12"/>
       <c r="AJ186" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AK186" s="0"/>
       <c r="AL186" s="1" t="n">
@@ -54106,10 +54130,10 @@
       <c r="E187" s="0"/>
       <c r="F187" s="9"/>
       <c r="G187" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>43</v>
@@ -54141,7 +54165,7 @@
         <v>520</v>
       </c>
       <c r="AN187" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AO187" s="0"/>
     </row>
@@ -54161,10 +54185,10 @@
       <c r="E188" s="0"/>
       <c r="F188" s="9"/>
       <c r="G188" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>43</v>
@@ -54196,7 +54220,7 @@
         <v>501</v>
       </c>
       <c r="AN188" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AO188" s="1" t="n">
         <v>520</v>
@@ -54216,17 +54240,17 @@
         <v>449</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J189" s="0"/>
       <c r="K189" s="1" t="n">
@@ -54250,7 +54274,7 @@
       </c>
       <c r="W189" s="0"/>
       <c r="Y189" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z189" s="0"/>
       <c r="AD189" s="0"/>
@@ -54258,7 +54282,7 @@
         <v>51</v>
       </c>
       <c r="AF189" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG189" s="3" t="n">
         <v>0.0725</v>
@@ -54295,13 +54319,13 @@
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J190" s="0"/>
       <c r="K190" s="1" t="n">
@@ -54319,11 +54343,11 @@
       <c r="T190" s="0"/>
       <c r="W190" s="0"/>
       <c r="Y190" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z190" s="0"/>
       <c r="AD190" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE190" s="1" t="s">
         <v>51</v>
@@ -54344,7 +54368,7 @@
         <v>180</v>
       </c>
       <c r="AN190" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AO190" s="1" t="n">
         <v>501</v>
@@ -54368,10 +54392,10 @@
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>56</v>
@@ -54398,11 +54422,11 @@
       </c>
       <c r="W191" s="0"/>
       <c r="Y191" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z191" s="0"/>
       <c r="AD191" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE191" s="1" t="s">
         <v>51</v>
@@ -54443,10 +54467,10 @@
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>56</v>
@@ -54473,11 +54497,11 @@
       </c>
       <c r="W192" s="0"/>
       <c r="Y192" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z192" s="0"/>
       <c r="AD192" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE192" s="1" t="s">
         <v>51</v>
@@ -54518,10 +54542,10 @@
       </c>
       <c r="F193" s="0"/>
       <c r="G193" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>56</v>
@@ -54548,11 +54572,11 @@
       </c>
       <c r="W193" s="0"/>
       <c r="Y193" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z193" s="0"/>
       <c r="AD193" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE193" s="1" t="s">
         <v>51</v>
@@ -54593,10 +54617,10 @@
       </c>
       <c r="F194" s="0"/>
       <c r="G194" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>56</v>
@@ -54623,11 +54647,11 @@
       </c>
       <c r="W194" s="0"/>
       <c r="Y194" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z194" s="0"/>
       <c r="AD194" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE194" s="1" t="s">
         <v>51</v>
@@ -54668,10 +54692,10 @@
       </c>
       <c r="F195" s="0"/>
       <c r="G195" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>56</v>
@@ -54698,11 +54722,11 @@
       </c>
       <c r="W195" s="0"/>
       <c r="Y195" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z195" s="0"/>
       <c r="AD195" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE195" s="1" t="s">
         <v>51</v>
@@ -54743,10 +54767,10 @@
       </c>
       <c r="F196" s="0"/>
       <c r="G196" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
@@ -54758,7 +54782,7 @@
       <c r="L196" s="0"/>
       <c r="M196" s="0"/>
       <c r="N196" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>98</v>
@@ -54773,11 +54797,11 @@
       </c>
       <c r="W196" s="0"/>
       <c r="Y196" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z196" s="0"/>
       <c r="AD196" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE196" s="1" t="s">
         <v>51</v>
@@ -54818,10 +54842,10 @@
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
@@ -54848,11 +54872,11 @@
       </c>
       <c r="W197" s="0"/>
       <c r="Y197" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z197" s="0"/>
       <c r="AD197" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE197" s="1" t="s">
         <v>51</v>
@@ -54893,10 +54917,10 @@
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>56</v>
@@ -54908,7 +54932,7 @@
       <c r="L198" s="0"/>
       <c r="M198" s="0"/>
       <c r="N198" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O198" s="1" t="n">
         <v>5449000064110</v>
@@ -54923,11 +54947,11 @@
       </c>
       <c r="W198" s="0"/>
       <c r="Y198" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z198" s="0"/>
       <c r="AD198" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE198" s="1" t="s">
         <v>51</v>
@@ -54966,10 +54990,10 @@
       <c r="E199" s="0"/>
       <c r="F199" s="9"/>
       <c r="G199" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>43</v>
@@ -55001,7 +55025,7 @@
         <v>502</v>
       </c>
       <c r="AN199" s="10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AO199" s="1" t="n">
         <v>520</v>
@@ -55021,17 +55045,17 @@
         <v>43</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J200" s="0"/>
       <c r="K200" s="1" t="n">
@@ -55055,7 +55079,7 @@
       </c>
       <c r="W200" s="0"/>
       <c r="Y200" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z200" s="0"/>
       <c r="AD200" s="0"/>
@@ -55063,7 +55087,7 @@
         <v>51</v>
       </c>
       <c r="AF200" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG200" s="3" t="n">
         <v>0.0625</v>
@@ -55100,13 +55124,13 @@
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J201" s="0"/>
       <c r="K201" s="1" t="n">
@@ -55124,11 +55148,11 @@
       <c r="T201" s="0"/>
       <c r="W201" s="0"/>
       <c r="Y201" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z201" s="0"/>
       <c r="AD201" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE201" s="1" t="s">
         <v>51</v>
@@ -55149,7 +55173,7 @@
         <v>190</v>
       </c>
       <c r="AN201" s="10" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AO201" s="1" t="n">
         <v>502</v>
@@ -55173,10 +55197,10 @@
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>56</v>
@@ -55203,11 +55227,11 @@
       </c>
       <c r="W202" s="0"/>
       <c r="Y202" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z202" s="0"/>
       <c r="AD202" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE202" s="1" t="s">
         <v>51</v>
@@ -55248,10 +55272,10 @@
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>56</v>
@@ -55278,11 +55302,11 @@
       </c>
       <c r="W203" s="0"/>
       <c r="Y203" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z203" s="0"/>
       <c r="AD203" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE203" s="1" t="s">
         <v>51</v>
@@ -55323,10 +55347,10 @@
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>56</v>
@@ -55353,11 +55377,11 @@
       </c>
       <c r="W204" s="0"/>
       <c r="Y204" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z204" s="0"/>
       <c r="AD204" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE204" s="1" t="s">
         <v>51</v>
@@ -55398,10 +55422,10 @@
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>56</v>
@@ -55428,11 +55452,11 @@
       </c>
       <c r="W205" s="0"/>
       <c r="Y205" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z205" s="0"/>
       <c r="AD205" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE205" s="1" t="s">
         <v>51</v>
@@ -55473,10 +55497,10 @@
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>56</v>
@@ -55503,11 +55527,11 @@
       </c>
       <c r="W206" s="0"/>
       <c r="Y206" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z206" s="0"/>
       <c r="AD206" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE206" s="1" t="s">
         <v>51</v>
@@ -55546,10 +55570,10 @@
       <c r="E207" s="0"/>
       <c r="F207" s="9"/>
       <c r="G207" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>43</v>
@@ -55581,7 +55605,7 @@
         <v>503</v>
       </c>
       <c r="AN207" s="10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AO207" s="1" t="n">
         <v>520</v>
@@ -55601,17 +55625,17 @@
         <v>43</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J208" s="0"/>
       <c r="K208" s="1" t="n">
@@ -55623,10 +55647,10 @@
         <v>436</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="R208" s="0"/>
       <c r="S208" s="0"/>
@@ -55635,7 +55659,7 @@
       </c>
       <c r="W208" s="0"/>
       <c r="Y208" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z208" s="0"/>
       <c r="AD208" s="0"/>
@@ -55643,7 +55667,7 @@
         <v>51</v>
       </c>
       <c r="AF208" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG208" s="3" t="n">
         <v>0.0225</v>
@@ -55682,13 +55706,13 @@
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J209" s="0"/>
       <c r="K209" s="1" t="n">
@@ -55706,11 +55730,11 @@
       <c r="T209" s="0"/>
       <c r="W209" s="0"/>
       <c r="Y209" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z209" s="0"/>
       <c r="AD209" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE209" s="1" t="s">
         <v>51</v>
@@ -55755,7 +55779,7 @@
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>184</v>
@@ -55785,11 +55809,11 @@
       </c>
       <c r="W210" s="0"/>
       <c r="Y210" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z210" s="0"/>
       <c r="AD210" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE210" s="1" t="s">
         <v>51</v>
@@ -55828,10 +55852,10 @@
       <c r="E211" s="0"/>
       <c r="F211" s="9"/>
       <c r="G211" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>43</v>
@@ -55883,17 +55907,17 @@
         <v>43</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J212" s="0"/>
       <c r="K212" s="1" t="n">
@@ -55905,10 +55929,10 @@
         <v>436</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="R212" s="0"/>
       <c r="S212" s="0"/>
@@ -55917,7 +55941,7 @@
       </c>
       <c r="W212" s="0"/>
       <c r="Y212" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z212" s="0"/>
       <c r="AD212" s="0"/>
@@ -55925,7 +55949,7 @@
         <v>51</v>
       </c>
       <c r="AF212" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG212" s="3" t="n">
         <v>0.0425</v>
@@ -55964,13 +55988,13 @@
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J213" s="0"/>
       <c r="K213" s="1" t="n">
@@ -55988,11 +56012,11 @@
       <c r="T213" s="0"/>
       <c r="W213" s="0"/>
       <c r="Y213" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z213" s="0"/>
       <c r="AD213" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE213" s="1" t="s">
         <v>51</v>
@@ -56013,7 +56037,7 @@
         <v>200</v>
       </c>
       <c r="AN213" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AO213" s="1" t="n">
         <v>504</v>
@@ -56037,10 +56061,10 @@
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>56</v>
@@ -56067,11 +56091,11 @@
       </c>
       <c r="W214" s="0"/>
       <c r="Y214" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z214" s="0"/>
       <c r="AD214" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE214" s="1" t="s">
         <v>51</v>
@@ -56112,10 +56136,10 @@
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>56</v>
@@ -56127,10 +56151,10 @@
       <c r="L215" s="0"/>
       <c r="M215" s="0"/>
       <c r="N215" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="P215" s="0"/>
       <c r="R215" s="0"/>
@@ -56142,11 +56166,11 @@
       </c>
       <c r="W215" s="0"/>
       <c r="Y215" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z215" s="0"/>
       <c r="AD215" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE215" s="1" t="s">
         <v>51</v>
@@ -56185,10 +56209,10 @@
       <c r="E216" s="0"/>
       <c r="F216" s="9"/>
       <c r="G216" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>43</v>
@@ -56240,17 +56264,17 @@
         <v>43</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J217" s="0"/>
       <c r="K217" s="1" t="n">
@@ -56274,7 +56298,7 @@
       </c>
       <c r="W217" s="0"/>
       <c r="Y217" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z217" s="0"/>
       <c r="AD217" s="0"/>
@@ -56282,7 +56306,7 @@
         <v>51</v>
       </c>
       <c r="AF217" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG217" s="3" t="n">
         <v>0.04</v>
@@ -56317,10 +56341,10 @@
       <c r="E218" s="0"/>
       <c r="F218" s="9"/>
       <c r="G218" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>43</v>
@@ -56351,7 +56375,7 @@
         <v>310</v>
       </c>
       <c r="AN218" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AO218" s="0"/>
     </row>
@@ -56371,10 +56395,10 @@
       <c r="E219" s="0"/>
       <c r="F219" s="9"/>
       <c r="G219" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>43</v>
@@ -56425,17 +56449,17 @@
         <v>43</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J220" s="0"/>
       <c r="K220" s="0"/>
@@ -56445,12 +56469,12 @@
       <c r="O220" s="0"/>
       <c r="R220" s="0"/>
       <c r="S220" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="T220" s="0"/>
       <c r="W220" s="0"/>
       <c r="Y220" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z220" s="0"/>
       <c r="AD220" s="0"/>
@@ -56458,14 +56482,14 @@
         <v>51</v>
       </c>
       <c r="AF220" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG220" s="3" t="n">
         <v>0.065</v>
       </c>
       <c r="AI220" s="12"/>
       <c r="AJ220" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AK220" s="0"/>
       <c r="AL220" s="1" t="n">
@@ -56475,7 +56499,7 @@
         <v>204</v>
       </c>
       <c r="AN220" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AO220" s="1" t="n">
         <v>311</v>
@@ -56495,17 +56519,17 @@
         <v>43</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J221" s="0"/>
       <c r="K221" s="1" t="n">
@@ -56528,7 +56552,7 @@
       </c>
       <c r="W221" s="0"/>
       <c r="Y221" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z221" s="0"/>
       <c r="AD221" s="0"/>
@@ -56567,17 +56591,17 @@
         <v>43</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J222" s="0"/>
       <c r="K222" s="1" t="n">
@@ -56598,7 +56622,7 @@
       </c>
       <c r="W222" s="0"/>
       <c r="Y222" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="Z222" s="0"/>
       <c r="AD222" s="0"/>
@@ -56639,10 +56663,10 @@
       <c r="E223" s="0"/>
       <c r="F223" s="9"/>
       <c r="G223" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>43</v>
@@ -56673,7 +56697,7 @@
         <v>312</v>
       </c>
       <c r="AN223" s="10" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AO223" s="1" t="n">
         <v>310</v>
@@ -56697,10 +56721,10 @@
       </c>
       <c r="F224" s="0"/>
       <c r="G224" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>441</v>
@@ -56716,13 +56740,13 @@
       <c r="R224" s="0"/>
       <c r="S224" s="0"/>
       <c r="T224" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="W224" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="Y224" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z224" s="0"/>
       <c r="AD224" s="0"/>
@@ -56737,10 +56761,10 @@
       </c>
       <c r="AI224" s="12"/>
       <c r="AJ224" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK224" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL224" s="1" t="n">
         <v>2</v>
@@ -56771,13 +56795,13 @@
       </c>
       <c r="F225" s="0"/>
       <c r="G225" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J225" s="0"/>
       <c r="K225" s="1" t="n">
@@ -56801,7 +56825,7 @@
       </c>
       <c r="T225" s="0"/>
       <c r="Y225" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z225" s="0"/>
       <c r="AD225" s="0"/>
@@ -56816,10 +56840,10 @@
       </c>
       <c r="AI225" s="12"/>
       <c r="AJ225" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK225" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL225" s="1" t="n">
         <v>2</v>
@@ -56850,10 +56874,10 @@
       </c>
       <c r="F226" s="0"/>
       <c r="G226" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>50</v>
@@ -56869,7 +56893,7 @@
       </c>
       <c r="T226" s="0"/>
       <c r="Y226" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z226" s="0"/>
       <c r="AD226" s="0"/>
@@ -56877,17 +56901,17 @@
         <v>51</v>
       </c>
       <c r="AF226" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG226" s="3" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI226" s="12"/>
       <c r="AJ226" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK226" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL226" s="1" t="n">
         <v>2</v>
@@ -56896,7 +56920,7 @@
         <v>209</v>
       </c>
       <c r="AN226" s="10" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AO226" s="1" t="n">
         <v>312</v>
@@ -56918,13 +56942,13 @@
       <c r="E227" s="0"/>
       <c r="F227" s="9"/>
       <c r="G227" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J227" s="0"/>
       <c r="K227" s="1" t="n">
@@ -56932,25 +56956,25 @@
       </c>
       <c r="L227" s="0"/>
       <c r="N227" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="R227" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="S227" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z227" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AD227" s="0"/>
       <c r="AE227" s="0"/>
@@ -56960,10 +56984,10 @@
       <c r="AG227" s="0"/>
       <c r="AI227" s="12"/>
       <c r="AJ227" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK227" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL227" s="1" t="n">
         <v>3</v>
@@ -56992,13 +57016,13 @@
       <c r="E228" s="0"/>
       <c r="F228" s="9"/>
       <c r="G228" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J228" s="0"/>
       <c r="K228" s="1" t="n">
@@ -57006,25 +57030,25 @@
       </c>
       <c r="L228" s="0"/>
       <c r="N228" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="R228" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="S228" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T228" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y228" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z228" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="Y228" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="Z228" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="AD228" s="0"/>
       <c r="AE228" s="0"/>
@@ -57034,10 +57058,10 @@
       <c r="AG228" s="0"/>
       <c r="AI228" s="12"/>
       <c r="AJ228" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK228" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL228" s="1" t="n">
         <v>3</v>
@@ -57066,10 +57090,10 @@
       <c r="E229" s="0"/>
       <c r="F229" s="9"/>
       <c r="G229" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>471</v>
@@ -57087,7 +57111,7 @@
       </c>
       <c r="T229" s="0"/>
       <c r="Y229" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z229" s="0"/>
       <c r="AD229" s="0"/>
@@ -57098,10 +57122,10 @@
       <c r="AG229" s="0"/>
       <c r="AI229" s="12"/>
       <c r="AJ229" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK229" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL229" s="1" t="n">
         <v>3</v>
@@ -57110,7 +57134,7 @@
         <v>213</v>
       </c>
       <c r="AN229" s="10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AO229" s="1" t="n">
         <v>209</v>
@@ -57132,10 +57156,10 @@
       <c r="E230" s="0"/>
       <c r="F230" s="9"/>
       <c r="G230" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>56</v>
@@ -57146,26 +57170,26 @@
       </c>
       <c r="L230" s="0"/>
       <c r="N230" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="R230" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="S230" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T230" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Y230" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z230" s="0"/>
       <c r="AD230" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE230" s="0"/>
       <c r="AF230" s="1" t="s">
@@ -57174,10 +57198,10 @@
       <c r="AG230" s="0"/>
       <c r="AI230" s="12"/>
       <c r="AJ230" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK230" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL230" s="1" t="n">
         <v>4</v>
@@ -57206,10 +57230,10 @@
       <c r="E231" s="0"/>
       <c r="F231" s="9"/>
       <c r="G231" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>56</v>
@@ -57220,26 +57244,26 @@
       </c>
       <c r="L231" s="0"/>
       <c r="N231" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="R231" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="S231" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Y231" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z231" s="0"/>
       <c r="AD231" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AE231" s="0"/>
       <c r="AF231" s="1" t="s">
@@ -57248,10 +57272,10 @@
       <c r="AG231" s="0"/>
       <c r="AI231" s="12"/>
       <c r="AJ231" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK231" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL231" s="1" t="n">
         <v>4</v>
@@ -57280,13 +57304,13 @@
       <c r="E232" s="0"/>
       <c r="F232" s="9"/>
       <c r="G232" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J232" s="0"/>
       <c r="K232" s="1" t="n">
@@ -57306,7 +57330,7 @@
         <v>572</v>
       </c>
       <c r="Y232" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z232" s="0"/>
       <c r="AE232" s="0"/>
@@ -57316,10 +57340,10 @@
       <c r="AG232" s="0"/>
       <c r="AI232" s="12"/>
       <c r="AJ232" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK232" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL232" s="1" t="n">
         <v>3</v>
@@ -57350,13 +57374,13 @@
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J233" s="0"/>
       <c r="K233" s="0"/>
@@ -57370,24 +57394,24 @@
         <v>572</v>
       </c>
       <c r="Y233" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z233" s="0"/>
       <c r="AE233" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AF233" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG233" s="3" t="n">
         <v>0.01625</v>
       </c>
       <c r="AI233" s="12"/>
       <c r="AJ233" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AK233" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AL233" s="1" t="n">
         <v>2</v>
@@ -57418,13 +57442,13 @@
       </c>
       <c r="F234" s="0"/>
       <c r="G234" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J234" s="0"/>
       <c r="K234" s="1" t="n">
@@ -57438,14 +57462,14 @@
       </c>
       <c r="T234" s="0"/>
       <c r="Y234" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="Z234" s="0"/>
       <c r="AE234" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AF234" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AG234" s="3" t="n">
         <v>0.03</v>
@@ -57483,13 +57507,13 @@
       </c>
       <c r="F235" s="0"/>
       <c r="G235" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J235" s="0"/>
       <c r="K235" s="1" t="n">
@@ -57511,19 +57535,19 @@
         <v>572</v>
       </c>
       <c r="Y235" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="Z235" s="0"/>
       <c r="AE235" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AF235" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="AG235" s="0"/>
       <c r="AI235" s="12"/>
       <c r="AJ235" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="AL235" s="1" t="n">
         <v>3</v>
@@ -57552,10 +57576,10 @@
       <c r="E236" s="0"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>43</v>
@@ -57601,10 +57625,10 @@
       <c r="E237" s="0"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>50</v>
@@ -57632,7 +57656,7 @@
         <v>220</v>
       </c>
       <c r="AN237" s="10" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AO237" s="1" t="n">
         <v>400</v>
@@ -57652,16 +57676,16 @@
         <v>449</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J238" s="0"/>
       <c r="K238" s="1" t="n">
@@ -57669,17 +57693,17 @@
       </c>
       <c r="N238" s="0"/>
       <c r="O238" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="S238" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T238" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Y238" s="0"/>
       <c r="Z238" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AE238" s="1" t="s">
         <v>51</v>
@@ -57716,16 +57740,16 @@
         <v>449</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J239" s="0"/>
       <c r="K239" s="1" t="n">
@@ -57733,17 +57757,17 @@
       </c>
       <c r="N239" s="0"/>
       <c r="O239" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="S239" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T239" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Y239" s="0"/>
       <c r="Z239" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="AE239" s="1" t="s">
         <v>51</v>
@@ -57780,16 +57804,16 @@
         <v>449</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J240" s="0"/>
       <c r="K240" s="1" t="n">
@@ -57797,17 +57821,17 @@
       </c>
       <c r="N240" s="0"/>
       <c r="O240" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="S240" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T240" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Y240" s="0"/>
       <c r="Z240" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="AE240" s="1" t="s">
         <v>51</v>
@@ -57844,16 +57868,16 @@
         <v>449</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J241" s="0"/>
       <c r="K241" s="1" t="n">
@@ -57861,17 +57885,17 @@
       </c>
       <c r="N241" s="0"/>
       <c r="O241" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="S241" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Y241" s="0"/>
       <c r="Z241" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AE241" s="1" t="s">
         <v>51</v>
@@ -57905,27 +57929,27 @@
         <v>42</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I242" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="J242" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="N242" s="0"/>
       <c r="O242" s="0"/>
       <c r="T242" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y242" s="0"/>
       <c r="AI242" s="12"/>
@@ -57933,7 +57957,7 @@
         <v>218</v>
       </c>
       <c r="AN242" s="10" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57947,27 +57971,27 @@
         <v>42</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I243" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="J243" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="N243" s="0"/>
       <c r="O243" s="0"/>
       <c r="T243" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y243" s="0"/>
       <c r="AI243" s="12"/>
@@ -57975,7 +57999,7 @@
         <v>219</v>
       </c>
       <c r="AN243" s="10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57989,31 +58013,31 @@
         <v>42</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J244" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="O244" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="I244" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J244" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="O244" s="17" t="s">
-        <v>800</v>
-      </c>
       <c r="T244" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y244" s="0"/>
       <c r="AI244" s="12"/>
@@ -58035,31 +58059,31 @@
         <v>42</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E245" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J245" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I245" s="1" t="s">
+      <c r="O245" s="17" t="s">
         <v>797</v>
       </c>
-      <c r="J245" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="O245" s="17" t="s">
-        <v>801</v>
-      </c>
       <c r="T245" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y245" s="0"/>
       <c r="AI245" s="12"/>
@@ -58081,31 +58105,31 @@
         <v>42</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E246" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J246" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J246" s="1" t="s">
+      <c r="O246" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="N246" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="O246" s="17" t="s">
-        <v>802</v>
-      </c>
       <c r="T246" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y246" s="0"/>
       <c r="AI246" s="12"/>
@@ -58127,31 +58151,31 @@
         <v>42</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J247" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N247" s="1" t="s">
+      <c r="O247" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="O247" s="17" t="s">
-        <v>803</v>
-      </c>
       <c r="T247" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y247" s="0"/>
       <c r="AI247" s="12"/>
@@ -58173,37 +58197,37 @@
         <v>42</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="J248" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="N248" s="0"/>
       <c r="O248" s="0"/>
       <c r="T248" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y248" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AI248" s="12"/>
       <c r="AM248" s="1" t="n">
         <v>223</v>
       </c>
       <c r="AN248" s="10" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -58217,30 +58241,30 @@
         <v>42</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="N249" s="0"/>
       <c r="O249" s="0"/>
       <c r="T249" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Y249" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AI249" s="12"/>
       <c r="AM249" s="1" t="n">
@@ -58261,29 +58285,29 @@
         <v>42</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="N250" s="0"/>
       <c r="O250" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AI250" s="12"/>
       <c r="AM250" s="1" t="n">
@@ -58302,29 +58326,29 @@
         <v>42</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N251" s="0"/>
       <c r="O251" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T251" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AI251" s="12"/>
       <c r="AM251" s="1" t="n">
@@ -58343,31 +58367,31 @@
         <v>42</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O252" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O252" s="17" t="s">
-        <v>829</v>
-      </c>
       <c r="T252" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI252" s="12"/>
       <c r="AM252" s="1" t="n">
@@ -58388,31 +58412,31 @@
         <v>42</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O253" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O253" s="17" t="s">
-        <v>829</v>
-      </c>
       <c r="T253" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI253" s="12"/>
       <c r="AM253" s="1" t="n">
@@ -58433,31 +58457,31 @@
         <v>42</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O254" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O254" s="17" t="s">
-        <v>829</v>
-      </c>
       <c r="T254" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI254" s="12"/>
       <c r="AM254" s="1" t="n">
@@ -58478,31 +58502,31 @@
         <v>42</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G255" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O255" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O255" s="17" t="s">
-        <v>830</v>
-      </c>
       <c r="T255" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI255" s="12"/>
       <c r="AM255" s="1" t="n">
@@ -58521,38 +58545,38 @@
         <v>42</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H256" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O256" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="I256" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O256" s="17" t="s">
-        <v>831</v>
-      </c>
       <c r="T256" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI256" s="12"/>
       <c r="AM256" s="1" t="n">
         <v>232</v>
       </c>
       <c r="AN256" s="10" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -58566,38 +58590,38 @@
         <v>42</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="O257" s="17" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="T257" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI257" s="12"/>
       <c r="AM257" s="1" t="n">
         <v>233</v>
       </c>
       <c r="AN257" s="10" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -58611,31 +58635,31 @@
         <v>42</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="O258" s="17" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="T258" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI258" s="12"/>
       <c r="AM258" s="1" t="n">
@@ -58653,22 +58677,22 @@
         <v>42</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="T259" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AI259" s="12"/>
       <c r="AM259" s="1" t="n">
